--- a/Excels/MW.xlsx
+++ b/Excels/MW.xlsx
@@ -9,29 +9,30 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20280" firstSheet="9" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20280" firstSheet="11" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
-    <sheet name="NFTRTickets-Reg" sheetId="15" r:id="rId2"/>
-    <sheet name="NFTRTickets-San" sheetId="3" r:id="rId3"/>
-    <sheet name="FTRTickets-Reg" sheetId="14" r:id="rId4"/>
-    <sheet name="FTRTickets-San" sheetId="2" r:id="rId5"/>
-    <sheet name="WorkFlows" sheetId="7" r:id="rId6"/>
-    <sheet name="LoginQueue" sheetId="8" r:id="rId7"/>
-    <sheet name="PinnedTags" sheetId="5" r:id="rId8"/>
-    <sheet name="InteractionChannel" sheetId="4" r:id="rId9"/>
+    <sheet name="Priority" sheetId="10" r:id="rId2"/>
+    <sheet name="Headers" sheetId="11" r:id="rId3"/>
+    <sheet name="NFTRTickets-Reg" sheetId="15" r:id="rId4"/>
+    <sheet name="NFTRTickets-San" sheetId="3" r:id="rId5"/>
+    <sheet name="FTRTickets-Reg" sheetId="14" r:id="rId6"/>
+    <sheet name="FTRTickets-San" sheetId="2" r:id="rId7"/>
+    <sheet name="UserManagement" sheetId="13" r:id="rId8"/>
+    <sheet name="PinnedTags" sheetId="5" r:id="rId9"/>
     <sheet name="Ticket State" sheetId="6" r:id="rId10"/>
-    <sheet name="Priority" sheetId="10" r:id="rId11"/>
-    <sheet name="Headers" sheetId="11" r:id="rId12"/>
-    <sheet name="UserManagement" sheetId="13" r:id="rId13"/>
-    <sheet name="TemplateManagement" sheetId="16" r:id="rId14"/>
+    <sheet name="TemplateManagement" sheetId="16" r:id="rId11"/>
+    <sheet name="Ticket Transfer Rules" sheetId="17" r:id="rId12"/>
+    <sheet name="Authentication Policy" sheetId="18" r:id="rId13"/>
+    <sheet name="Action Tagging" sheetId="19" r:id="rId14"/>
+    <sheet name="State Queue Mapping" sheetId="20" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'FTRTickets-Reg'!$A$1:$F$131</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'FTRTickets-San'!$A$1:$E$131</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'NFTRTickets-Reg'!$A$1:$AB$78</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'NFTRTickets-San'!$A$1:$AB$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'FTRTickets-Reg'!$A$1:$F$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'FTRTickets-San'!$A$1:$E$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'NFTRTickets-Reg'!$A$1:$AB$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'NFTRTickets-San'!$A$1:$AB$78</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1931" uniqueCount="956">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2768,15 +2769,166 @@
   </si>
   <si>
     <t>Customer Service Backend Supervisor</t>
+  </si>
+  <si>
+    <t>NFTR Issue Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ticket From State </t>
+  </si>
+  <si>
+    <t>Ticket To State</t>
+  </si>
+  <si>
+    <t>From Queue</t>
+  </si>
+  <si>
+    <t>To Queue</t>
+  </si>
+  <si>
+    <t>Available Credit Balance (For Prepaid)</t>
+  </si>
+  <si>
+    <t>Last Recharge Date (For Pre-Paid)</t>
+  </si>
+  <si>
+    <t>Frequently dialled number (at least two) – 2 last dialled number, validated on ECMS:</t>
+  </si>
+  <si>
+    <t>Last Recharge Value (For Prepaid)</t>
+  </si>
+  <si>
+    <t>National ID/Passport/Alien Number (Mandatory)</t>
+  </si>
+  <si>
+    <t>Customer Name (Mandatory)</t>
+  </si>
+  <si>
+    <t>No authentication policy statement configured</t>
+  </si>
+  <si>
+    <t>KE Action Authentication</t>
+  </si>
+  <si>
+    <t>Question10</t>
+  </si>
+  <si>
+    <t>Question9</t>
+  </si>
+  <si>
+    <t>Question8</t>
+  </si>
+  <si>
+    <t>Question7</t>
+  </si>
+  <si>
+    <t>Question6</t>
+  </si>
+  <si>
+    <t>Question5</t>
+  </si>
+  <si>
+    <t>Question4</t>
+  </si>
+  <si>
+    <t>Question3</t>
+  </si>
+  <si>
+    <t>Question2</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Minimum Question</t>
+  </si>
+  <si>
+    <t>Policy Message</t>
+  </si>
+  <si>
+    <t>Policy Name</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Option1</t>
+  </si>
+  <si>
+    <t>Option2</t>
+  </si>
+  <si>
+    <t>Option3</t>
+  </si>
+  <si>
+    <t>Option4</t>
+  </si>
+  <si>
+    <t>Option5</t>
+  </si>
+  <si>
+    <t>Category code</t>
+  </si>
+  <si>
+    <t>SIM Bar Unbar</t>
+  </si>
+  <si>
+    <t>SIM Lost</t>
+  </si>
+  <si>
+    <t>SIM Broken</t>
+  </si>
+  <si>
+    <t>Queue Name</t>
+  </si>
+  <si>
+    <t>State name1</t>
+  </si>
+  <si>
+    <t>State name2</t>
+  </si>
+  <si>
+    <t>State name3</t>
+  </si>
+  <si>
+    <t>State name4</t>
+  </si>
+  <si>
+    <t>State name5</t>
+  </si>
+  <si>
+    <t>State name6</t>
+  </si>
+  <si>
+    <t>State name7</t>
+  </si>
+  <si>
+    <t>State name8</t>
+  </si>
+  <si>
+    <t>State name9</t>
+  </si>
+  <si>
+    <t>State name10</t>
+  </si>
+  <si>
+    <t>Corporate with CRM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2835,6 +2987,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2959,57 +3122,70 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="4"/>
+    <cellStyle name="Normal 4" xfId="3"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -3629,6 +3805,386 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.875" style="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9" style="31" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>898</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>900</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>902</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>904</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>907</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.25" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.75" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>912</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="32" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="32" customWidth="1"/>
+    <col min="6" max="6" width="10.125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="10" style="32" customWidth="1"/>
+    <col min="8" max="8" width="11" style="32" customWidth="1"/>
+    <col min="9" max="9" width="10.25" style="32" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="32" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="32" customWidth="1"/>
+    <col min="12" max="12" width="11.625" style="32" customWidth="1"/>
+    <col min="13" max="13" width="11.875" style="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B1" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1" t="s">
+        <v>931</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>930</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>929</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>928</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>927</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>926</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>925</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>924</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>923</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>922</v>
+      </c>
+      <c r="M1" s="32" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>920</v>
+      </c>
+      <c r="B2" t="s">
+        <v>919</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>918</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>917</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>916</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>915</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>914</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>913</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>934</v>
+      </c>
+      <c r="B1" t="s">
+        <v>935</v>
+      </c>
+      <c r="C1" t="s">
+        <v>936</v>
+      </c>
+      <c r="D1" t="s">
+        <v>937</v>
+      </c>
+      <c r="E1" t="s">
+        <v>938</v>
+      </c>
+      <c r="F1" t="s">
+        <v>939</v>
+      </c>
+      <c r="G1" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>941</v>
+      </c>
+      <c r="B2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C2" t="s">
+        <v>943</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.25" style="34" customWidth="1"/>
+    <col min="2" max="2" width="9" style="34"/>
+    <col min="3" max="3" width="13.875" style="34" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="34" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>944</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>945</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>946</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>947</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>948</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>949</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>950</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>951</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>952</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>953</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>955</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3680,12 +4236,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3923,281 +4479,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.875" style="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="9" style="31" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>898</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>900</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>902</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>904</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>907</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB78"/>
   <sheetViews>
     <sheetView topLeftCell="V1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Y37" sqref="Y37"/>
+      <selection activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8368,7 +8655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB7"/>
   <sheetViews>
@@ -8928,12 +9215,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F131"/>
   <sheetViews>
     <sheetView topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11382,7 +11669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -11508,96 +11795,201 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="20.375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="C1" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="C3" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="C4" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="C5" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="C6" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="C7" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="C8" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="C9" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="C10" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="C11" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="C12" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="C13" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="C14" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="C15" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="11" t="s">
         <v>113</v>
       </c>
     </row>
@@ -11606,130 +11998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.5" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -11805,76 +12074,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="28.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.125" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Excels/MW.xlsx
+++ b/Excels/MW.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20280" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20280"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -580,9 +580,6 @@
     <t>***5D6K0</t>
   </si>
   <si>
-    <t>SnVseUAxMjMk</t>
-  </si>
-  <si>
     <t>TableName</t>
   </si>
   <si>
@@ -2940,6 +2937,9 @@
   </si>
   <si>
     <t>Total Committed SLA</t>
+  </si>
+  <si>
+    <t>U2VwdEAxMjMk</t>
   </si>
 </sst>
 </file>
@@ -3259,7 +3259,7 @@
         <xdr:cNvPr id="2" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3591,8 +3591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3648,7 +3648,7 @@
         <v>12</v>
       </c>
       <c r="O1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -3656,7 +3656,7 @@
         <v>2390495</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>178</v>
+        <v>964</v>
       </c>
       <c r="C2" t="s">
         <v>67</v>
@@ -3695,7 +3695,7 @@
         <v>177</v>
       </c>
       <c r="O2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -3703,7 +3703,7 @@
         <v>2388192</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C3" t="s">
         <v>66</v>
@@ -3714,7 +3714,7 @@
         <v>2390495</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>178</v>
+        <v>964</v>
       </c>
       <c r="C4" t="s">
         <v>175</v>
@@ -3728,10 +3728,10 @@
         <v>2394650</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D5">
         <v>999989584</v>
@@ -3837,49 +3837,49 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
+        <v>897</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>898</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
+        <v>899</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>900</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
+        <v>901</v>
+      </c>
+      <c r="B3" s="29" t="s">
         <v>902</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
+        <v>903</v>
+      </c>
+      <c r="B4" s="29" t="s">
         <v>904</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
   </sheetData>
@@ -3905,19 +3905,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>908</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>910</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>911</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>912</v>
       </c>
     </row>
   </sheetData>
@@ -3952,72 +3952,72 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
   </sheetData>
@@ -4042,36 +4042,36 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B1" t="s">
         <v>934</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>935</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>936</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>937</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>938</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>939</v>
-      </c>
-      <c r="G1" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>940</v>
+      </c>
+      <c r="B2" t="s">
         <v>941</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>942</v>
-      </c>
-      <c r="C2" t="s">
-        <v>943</v>
       </c>
     </row>
   </sheetData>
@@ -4099,42 +4099,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
+        <v>943</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>944</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="C1" s="31" t="s">
         <v>945</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="31" t="s">
         <v>946</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="E1" s="31" t="s">
         <v>947</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="31" t="s">
         <v>948</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="G1" s="31" t="s">
         <v>949</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="H1" s="31" t="s">
         <v>950</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="I1" s="31" t="s">
         <v>951</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>952</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>953</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>57</v>
@@ -4277,31 +4277,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4309,19 +4309,19 @@
         <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>161</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -4329,22 +4329,22 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -4352,22 +4352,22 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -4375,48 +4375,48 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -4425,19 +4425,19 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>211</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -4446,22 +4446,22 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -4469,22 +4469,22 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -4501,7 +4501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AH76" sqref="AH76"/>
     </sheetView>
   </sheetViews>
@@ -4603,10 +4603,10 @@
         <v>22</v>
       </c>
       <c r="X1" t="s">
+        <v>955</v>
+      </c>
+      <c r="Y1" t="s">
         <v>956</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>957</v>
       </c>
       <c r="Z1" t="s">
         <v>22</v>
@@ -4618,25 +4618,25 @@
         <v>34</v>
       </c>
       <c r="AC1" s="36" t="s">
+        <v>957</v>
+      </c>
+      <c r="AD1" s="36" t="s">
         <v>958</v>
       </c>
-      <c r="AD1" s="36" t="s">
+      <c r="AE1" s="36" t="s">
         <v>959</v>
       </c>
-      <c r="AE1" s="36" t="s">
+      <c r="AF1" s="36" t="s">
         <v>960</v>
       </c>
-      <c r="AF1" s="36" t="s">
+      <c r="AG1" s="36" t="s">
         <v>961</v>
       </c>
-      <c r="AG1" s="36" t="s">
+      <c r="AH1" s="36" t="s">
         <v>962</v>
       </c>
-      <c r="AH1" s="36" t="s">
+      <c r="AI1" s="37" t="s">
         <v>963</v>
-      </c>
-      <c r="AI1" s="37" t="s">
-        <v>964</v>
       </c>
       <c r="AJ1" t="s">
         <v>42</v>
@@ -4729,7 +4729,7 @@
         <v>140</v>
       </c>
       <c r="AL2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
@@ -4783,7 +4783,7 @@
         <v>140</v>
       </c>
       <c r="AL3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
@@ -4873,7 +4873,7 @@
         <v>140</v>
       </c>
       <c r="AL4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
@@ -4927,7 +4927,7 @@
         <v>140</v>
       </c>
       <c r="AL5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
@@ -5098,7 +5098,7 @@
         <v>140</v>
       </c>
       <c r="AL7" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
@@ -5106,19 +5106,19 @@
         <v>130</v>
       </c>
       <c r="B8" s="19" t="s">
+        <v>599</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>600</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="D8" s="19" t="s">
+        <v>600</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>601</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>601</v>
-      </c>
-      <c r="E8" s="19" t="s">
+      <c r="F8" s="19" t="s">
         <v>602</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>603</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>172</v>
@@ -5127,7 +5127,7 @@
         <v>31</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="J8" s="19" t="s">
         <v>172</v>
@@ -5139,7 +5139,7 @@
         <v>160</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N8" s="19" t="s">
         <v>31</v>
@@ -5182,7 +5182,7 @@
         <v>140</v>
       </c>
       <c r="AL8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
@@ -5190,16 +5190,16 @@
         <v>130</v>
       </c>
       <c r="B9" s="21" t="s">
+        <v>605</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>606</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="D9" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>607</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>607</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>608</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -5236,7 +5236,7 @@
         <v>140</v>
       </c>
       <c r="AL9" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
@@ -5244,16 +5244,16 @@
         <v>130</v>
       </c>
       <c r="B10" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>609</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>478</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>478</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>610</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
@@ -5290,7 +5290,7 @@
         <v>140</v>
       </c>
       <c r="AL10" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
@@ -5298,16 +5298,16 @@
         <v>130</v>
       </c>
       <c r="B11" s="21" t="s">
+        <v>610</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>611</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>612</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -5344,7 +5344,7 @@
         <v>140</v>
       </c>
       <c r="AL11" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
@@ -5352,16 +5352,16 @@
         <v>130</v>
       </c>
       <c r="B12" s="19" t="s">
+        <v>612</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>613</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="D12" s="19" t="s">
+        <v>613</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>614</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>614</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>615</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
@@ -5398,7 +5398,7 @@
         <v>140</v>
       </c>
       <c r="AL12" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
@@ -5406,16 +5406,16 @@
         <v>130</v>
       </c>
       <c r="B13" s="21" t="s">
+        <v>615</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>616</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>617</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -5452,7 +5452,7 @@
         <v>140</v>
       </c>
       <c r="AL13" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
@@ -5460,16 +5460,16 @@
         <v>130</v>
       </c>
       <c r="B14" s="19" t="s">
+        <v>617</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>618</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="D14" s="19" t="s">
+        <v>618</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>619</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>619</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>620</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
@@ -5506,7 +5506,7 @@
         <v>140</v>
       </c>
       <c r="AL14" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
@@ -5514,16 +5514,16 @@
         <v>130</v>
       </c>
       <c r="B15" s="21" t="s">
+        <v>620</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>525</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>525</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>621</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>526</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>526</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>622</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -5560,7 +5560,7 @@
         <v>140</v>
       </c>
       <c r="AL15" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
@@ -5568,16 +5568,16 @@
         <v>130</v>
       </c>
       <c r="B16" s="19" t="s">
+        <v>622</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>623</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="D16" s="19" t="s">
+        <v>623</v>
+      </c>
+      <c r="E16" s="19" t="s">
         <v>624</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>624</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>625</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
@@ -5614,7 +5614,7 @@
         <v>140</v>
       </c>
       <c r="AL16" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
@@ -5622,16 +5622,16 @@
         <v>130</v>
       </c>
       <c r="B17" s="21" t="s">
+        <v>625</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>626</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="D17" s="21" t="s">
+        <v>626</v>
+      </c>
+      <c r="E17" s="21" t="s">
         <v>627</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>627</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>628</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
@@ -5668,7 +5668,7 @@
         <v>140</v>
       </c>
       <c r="AL17" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
@@ -5676,16 +5676,16 @@
         <v>130</v>
       </c>
       <c r="B18" s="19" t="s">
+        <v>628</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>629</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="D18" s="19" t="s">
+        <v>629</v>
+      </c>
+      <c r="E18" s="19" t="s">
         <v>630</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>630</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>631</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
@@ -5722,24 +5722,24 @@
         <v>140</v>
       </c>
       <c r="AL18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
+        <v>631</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>632</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="C19" s="21" t="s">
         <v>633</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="D19" s="21" t="s">
+        <v>633</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>634</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>634</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>635</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
@@ -5776,24 +5776,24 @@
         <v>140</v>
       </c>
       <c r="AL19" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B20" s="19" t="s">
+        <v>635</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>636</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="D20" s="19" t="s">
+        <v>636</v>
+      </c>
+      <c r="E20" s="19" t="s">
         <v>637</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>637</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>638</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
@@ -5830,24 +5830,24 @@
         <v>140</v>
       </c>
       <c r="AL20" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B21" s="21" t="s">
+        <v>638</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>639</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="D21" s="21" t="s">
+        <v>639</v>
+      </c>
+      <c r="E21" s="21" t="s">
         <v>640</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>640</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>641</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
@@ -5884,24 +5884,24 @@
         <v>140</v>
       </c>
       <c r="AL21" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B22" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>642</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="D22" s="19" t="s">
+        <v>642</v>
+      </c>
+      <c r="E22" s="19" t="s">
         <v>643</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>643</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>644</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
@@ -5938,24 +5938,24 @@
         <v>140</v>
       </c>
       <c r="AL22" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B23" s="21" t="s">
+        <v>644</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>645</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="D23" s="21" t="s">
+        <v>645</v>
+      </c>
+      <c r="E23" s="21" t="s">
         <v>646</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>646</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>647</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
@@ -5992,24 +5992,24 @@
         <v>140</v>
       </c>
       <c r="AL23" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B24" s="19" t="s">
+        <v>647</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>648</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="D24" s="19" t="s">
+        <v>648</v>
+      </c>
+      <c r="E24" s="19" t="s">
         <v>649</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>649</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>650</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
@@ -6046,24 +6046,24 @@
         <v>140</v>
       </c>
       <c r="AL24" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B25" s="21" t="s">
+        <v>650</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>651</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="D25" s="21" t="s">
+        <v>651</v>
+      </c>
+      <c r="E25" s="21" t="s">
         <v>652</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>652</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>653</v>
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
@@ -6100,24 +6100,24 @@
         <v>140</v>
       </c>
       <c r="AL25" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B26" s="19" t="s">
+        <v>653</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>654</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="D26" s="19" t="s">
+        <v>654</v>
+      </c>
+      <c r="E26" s="19" t="s">
         <v>655</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>655</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>656</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
@@ -6156,19 +6156,19 @@
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B27" s="21" t="s">
+        <v>656</v>
+      </c>
+      <c r="C27" s="21" t="s">
         <v>657</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="D27" s="21" t="s">
+        <v>657</v>
+      </c>
+      <c r="E27" s="21" t="s">
         <v>658</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>658</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>659</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -6205,24 +6205,24 @@
         <v>140</v>
       </c>
       <c r="AL27" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B28" s="19" t="s">
+        <v>659</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>660</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="D28" s="19" t="s">
+        <v>660</v>
+      </c>
+      <c r="E28" s="19" t="s">
         <v>661</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>661</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>662</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
@@ -6259,24 +6259,24 @@
         <v>140</v>
       </c>
       <c r="AL28" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B29" s="21" t="s">
+        <v>662</v>
+      </c>
+      <c r="C29" s="21" t="s">
         <v>663</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="D29" s="21" t="s">
+        <v>663</v>
+      </c>
+      <c r="E29" s="21" t="s">
         <v>664</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>664</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>665</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
@@ -6313,24 +6313,24 @@
         <v>140</v>
       </c>
       <c r="AL29" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B30" s="19" t="s">
+        <v>665</v>
+      </c>
+      <c r="C30" s="19" t="s">
         <v>666</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="D30" s="19" t="s">
+        <v>666</v>
+      </c>
+      <c r="E30" s="19" t="s">
         <v>667</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>667</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>668</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
@@ -6367,27 +6367,27 @@
         <v>140</v>
       </c>
       <c r="AL30" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B31" s="21" t="s">
+        <v>668</v>
+      </c>
+      <c r="C31" s="21" t="s">
         <v>669</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="D31" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="E31" s="21" t="s">
         <v>670</v>
       </c>
-      <c r="D31" s="21" t="s">
-        <v>670</v>
-      </c>
-      <c r="E31" s="21" t="s">
+      <c r="F31" s="21" t="s">
         <v>671</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>672</v>
       </c>
       <c r="G31" s="21" t="s">
         <v>172</v>
@@ -6396,7 +6396,7 @@
         <v>31</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J31" s="21" t="s">
         <v>172</v>
@@ -6405,7 +6405,7 @@
         <v>31</v>
       </c>
       <c r="L31" s="21" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="M31" s="21" t="s">
         <v>172</v>
@@ -6439,24 +6439,24 @@
         <v>140</v>
       </c>
       <c r="AL31" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B32" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>675</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="D32" s="19" t="s">
+        <v>675</v>
+      </c>
+      <c r="E32" s="19" t="s">
         <v>676</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>676</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>677</v>
       </c>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
@@ -6493,24 +6493,24 @@
         <v>140</v>
       </c>
       <c r="AL32" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B33" s="21" t="s">
+        <v>677</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="E33" s="21" t="s">
         <v>678</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>530</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>530</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>679</v>
       </c>
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
@@ -6547,27 +6547,27 @@
         <v>140</v>
       </c>
       <c r="AL33" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B34" s="19" t="s">
+        <v>679</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="E34" s="19" t="s">
         <v>680</v>
       </c>
-      <c r="C34" s="19" t="s">
-        <v>553</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>553</v>
-      </c>
-      <c r="E34" s="19" t="s">
+      <c r="F34" s="19" t="s">
         <v>681</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>682</v>
       </c>
       <c r="G34" s="19" t="s">
         <v>172</v>
@@ -6576,7 +6576,7 @@
         <v>31</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J34" s="19" t="s">
         <v>172</v>
@@ -6585,7 +6585,7 @@
         <v>31</v>
       </c>
       <c r="L34" s="19" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="M34" s="19" t="s">
         <v>172</v>
@@ -6594,7 +6594,7 @@
         <v>31</v>
       </c>
       <c r="O34" s="19" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="P34" s="19" t="s">
         <v>172</v>
@@ -6625,24 +6625,24 @@
         <v>140</v>
       </c>
       <c r="AL34" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B35" s="21" t="s">
+        <v>685</v>
+      </c>
+      <c r="C35" s="21" t="s">
         <v>686</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="D35" s="21" t="s">
+        <v>686</v>
+      </c>
+      <c r="E35" s="21" t="s">
         <v>687</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>687</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>688</v>
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
@@ -6679,24 +6679,24 @@
         <v>140</v>
       </c>
       <c r="AL35" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B36" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="C36" s="19" t="s">
         <v>689</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="D36" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="E36" s="19" t="s">
         <v>690</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>690</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>691</v>
       </c>
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
@@ -6733,24 +6733,24 @@
         <v>140</v>
       </c>
       <c r="AL36" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B37" s="21" t="s">
+        <v>691</v>
+      </c>
+      <c r="C37" s="21" t="s">
         <v>692</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="D37" s="21" t="s">
+        <v>692</v>
+      </c>
+      <c r="E37" s="21" t="s">
         <v>693</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>693</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>694</v>
       </c>
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
@@ -6787,24 +6787,24 @@
         <v>72</v>
       </c>
       <c r="AL37" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B38" s="19" t="s">
+        <v>694</v>
+      </c>
+      <c r="C38" s="19" t="s">
         <v>695</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="D38" s="19" t="s">
+        <v>695</v>
+      </c>
+      <c r="E38" s="19" t="s">
         <v>696</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>696</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>697</v>
       </c>
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
@@ -6841,24 +6841,24 @@
         <v>69</v>
       </c>
       <c r="AL38" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B39" s="21" t="s">
+        <v>697</v>
+      </c>
+      <c r="C39" s="21" t="s">
         <v>698</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="D39" s="21" t="s">
+        <v>698</v>
+      </c>
+      <c r="E39" s="21" t="s">
         <v>699</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>699</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>700</v>
       </c>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
@@ -6895,24 +6895,24 @@
         <v>69</v>
       </c>
       <c r="AL39" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B40" s="19" t="s">
+        <v>700</v>
+      </c>
+      <c r="C40" s="19" t="s">
         <v>701</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="D40" s="19" t="s">
+        <v>701</v>
+      </c>
+      <c r="E40" s="19" t="s">
         <v>702</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>702</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>703</v>
       </c>
       <c r="F40" s="19"/>
       <c r="G40" s="19"/>
@@ -6949,24 +6949,24 @@
         <v>140</v>
       </c>
       <c r="AL40" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B41" s="21" t="s">
+        <v>703</v>
+      </c>
+      <c r="C41" s="21" t="s">
         <v>704</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="D41" s="21" t="s">
+        <v>704</v>
+      </c>
+      <c r="E41" s="21" t="s">
         <v>705</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>705</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>706</v>
       </c>
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
@@ -7003,24 +7003,24 @@
         <v>140</v>
       </c>
       <c r="AL41" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B42" s="19" t="s">
+        <v>706</v>
+      </c>
+      <c r="C42" s="19" t="s">
         <v>707</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="D42" s="19" t="s">
+        <v>707</v>
+      </c>
+      <c r="E42" s="19" t="s">
         <v>708</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>708</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>709</v>
       </c>
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
@@ -7057,24 +7057,24 @@
         <v>140</v>
       </c>
       <c r="AL42" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B43" s="21" t="s">
+        <v>709</v>
+      </c>
+      <c r="C43" s="21" t="s">
         <v>710</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="D43" s="21" t="s">
+        <v>710</v>
+      </c>
+      <c r="E43" s="21" t="s">
         <v>711</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>711</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>712</v>
       </c>
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
@@ -7111,24 +7111,24 @@
         <v>140</v>
       </c>
       <c r="AL43" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B44" s="19" t="s">
+        <v>712</v>
+      </c>
+      <c r="C44" s="19" t="s">
         <v>713</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="D44" s="19" t="s">
+        <v>713</v>
+      </c>
+      <c r="E44" s="19" t="s">
         <v>714</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>714</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>715</v>
       </c>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
@@ -7165,24 +7165,24 @@
         <v>140</v>
       </c>
       <c r="AL44" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B45" s="21" t="s">
+        <v>715</v>
+      </c>
+      <c r="C45" s="21" t="s">
         <v>716</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="D45" s="21" t="s">
+        <v>716</v>
+      </c>
+      <c r="E45" s="21" t="s">
         <v>717</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>717</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>718</v>
       </c>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
@@ -7219,24 +7219,24 @@
         <v>140</v>
       </c>
       <c r="AL45" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B46" s="19" t="s">
+        <v>718</v>
+      </c>
+      <c r="C46" s="19" t="s">
         <v>719</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="D46" s="19" t="s">
+        <v>719</v>
+      </c>
+      <c r="E46" s="19" t="s">
         <v>720</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>720</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>721</v>
       </c>
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
@@ -7273,24 +7273,24 @@
         <v>140</v>
       </c>
       <c r="AL46" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B47" s="21" t="s">
+        <v>721</v>
+      </c>
+      <c r="C47" s="21" t="s">
         <v>722</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="D47" s="21" t="s">
+        <v>722</v>
+      </c>
+      <c r="E47" s="21" t="s">
         <v>723</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>723</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>724</v>
       </c>
       <c r="F47" s="21"/>
       <c r="G47" s="21"/>
@@ -7327,24 +7327,24 @@
         <v>140</v>
       </c>
       <c r="AL47" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B48" s="19" t="s">
+        <v>724</v>
+      </c>
+      <c r="C48" s="19" t="s">
         <v>725</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="D48" s="19" t="s">
+        <v>725</v>
+      </c>
+      <c r="E48" s="19" t="s">
         <v>726</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>726</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>727</v>
       </c>
       <c r="F48" s="19"/>
       <c r="G48" s="19"/>
@@ -7381,24 +7381,24 @@
         <v>140</v>
       </c>
       <c r="AL48" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B49" s="21" t="s">
+        <v>727</v>
+      </c>
+      <c r="C49" s="21" t="s">
         <v>728</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="D49" s="21" t="s">
+        <v>728</v>
+      </c>
+      <c r="E49" s="21" t="s">
         <v>729</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>729</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>730</v>
       </c>
       <c r="F49" s="21"/>
       <c r="G49" s="21"/>
@@ -7435,24 +7435,24 @@
         <v>140</v>
       </c>
       <c r="AL49" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B50" s="19" t="s">
+        <v>730</v>
+      </c>
+      <c r="C50" s="19" t="s">
         <v>731</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="D50" s="19" t="s">
+        <v>731</v>
+      </c>
+      <c r="E50" s="19" t="s">
         <v>732</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>732</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>733</v>
       </c>
       <c r="F50" s="19"/>
       <c r="G50" s="19"/>
@@ -7489,24 +7489,24 @@
         <v>74</v>
       </c>
       <c r="AL50" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B51" s="21" t="s">
+        <v>733</v>
+      </c>
+      <c r="C51" s="21" t="s">
         <v>734</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="D51" s="21" t="s">
+        <v>734</v>
+      </c>
+      <c r="E51" s="21" t="s">
         <v>735</v>
-      </c>
-      <c r="D51" s="21" t="s">
-        <v>735</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>736</v>
       </c>
       <c r="F51" s="21"/>
       <c r="G51" s="21"/>
@@ -7543,24 +7543,24 @@
         <v>74</v>
       </c>
       <c r="AL51" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B52" s="19" t="s">
+        <v>736</v>
+      </c>
+      <c r="C52" s="19" t="s">
         <v>737</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="D52" s="19" t="s">
+        <v>737</v>
+      </c>
+      <c r="E52" s="19" t="s">
         <v>738</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>738</v>
-      </c>
-      <c r="E52" s="19" t="s">
-        <v>739</v>
       </c>
       <c r="F52" s="19"/>
       <c r="G52" s="19"/>
@@ -7597,24 +7597,24 @@
         <v>140</v>
       </c>
       <c r="AL52" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B53" s="21" t="s">
+        <v>739</v>
+      </c>
+      <c r="C53" s="21" t="s">
         <v>740</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="D53" s="21" t="s">
+        <v>740</v>
+      </c>
+      <c r="E53" s="21" t="s">
         <v>741</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>741</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>742</v>
       </c>
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
@@ -7651,24 +7651,24 @@
         <v>140</v>
       </c>
       <c r="AL53" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B54" s="19" t="s">
+        <v>742</v>
+      </c>
+      <c r="C54" s="19" t="s">
         <v>743</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="D54" s="19" t="s">
+        <v>743</v>
+      </c>
+      <c r="E54" s="19" t="s">
         <v>744</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>744</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>745</v>
       </c>
       <c r="F54" s="19"/>
       <c r="G54" s="19"/>
@@ -7705,24 +7705,24 @@
         <v>140</v>
       </c>
       <c r="AL54" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B55" s="21" t="s">
+        <v>745</v>
+      </c>
+      <c r="C55" s="21" t="s">
         <v>746</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="D55" s="21" t="s">
+        <v>746</v>
+      </c>
+      <c r="E55" s="21" t="s">
         <v>747</v>
-      </c>
-      <c r="D55" s="21" t="s">
-        <v>747</v>
-      </c>
-      <c r="E55" s="21" t="s">
-        <v>748</v>
       </c>
       <c r="F55" s="21"/>
       <c r="G55" s="21"/>
@@ -7759,24 +7759,24 @@
         <v>140</v>
       </c>
       <c r="AL55" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B56" s="19" t="s">
+        <v>748</v>
+      </c>
+      <c r="C56" s="19" t="s">
         <v>749</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="D56" s="19" t="s">
+        <v>749</v>
+      </c>
+      <c r="E56" s="19" t="s">
         <v>750</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>750</v>
-      </c>
-      <c r="E56" s="19" t="s">
-        <v>751</v>
       </c>
       <c r="F56" s="19"/>
       <c r="G56" s="19"/>
@@ -7813,24 +7813,24 @@
         <v>140</v>
       </c>
       <c r="AL56" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B57" s="21" t="s">
+        <v>751</v>
+      </c>
+      <c r="C57" s="21" t="s">
         <v>752</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="D57" s="21" t="s">
+        <v>752</v>
+      </c>
+      <c r="E57" s="21" t="s">
         <v>753</v>
-      </c>
-      <c r="D57" s="21" t="s">
-        <v>753</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>754</v>
       </c>
       <c r="F57" s="21"/>
       <c r="G57" s="21"/>
@@ -7867,24 +7867,24 @@
         <v>140</v>
       </c>
       <c r="AL57" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B58" s="19" t="s">
+        <v>754</v>
+      </c>
+      <c r="C58" s="19" t="s">
         <v>755</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="D58" s="19" t="s">
+        <v>755</v>
+      </c>
+      <c r="E58" s="19" t="s">
         <v>756</v>
-      </c>
-      <c r="D58" s="19" t="s">
-        <v>756</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>757</v>
       </c>
       <c r="F58" s="19"/>
       <c r="G58" s="19"/>
@@ -7921,24 +7921,24 @@
         <v>140</v>
       </c>
       <c r="AL58" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B59" s="21" t="s">
+        <v>757</v>
+      </c>
+      <c r="C59" s="21" t="s">
         <v>758</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="D59" s="21" t="s">
+        <v>758</v>
+      </c>
+      <c r="E59" s="21" t="s">
         <v>759</v>
-      </c>
-      <c r="D59" s="21" t="s">
-        <v>759</v>
-      </c>
-      <c r="E59" s="21" t="s">
-        <v>760</v>
       </c>
       <c r="F59" s="21"/>
       <c r="G59" s="21"/>
@@ -7975,24 +7975,24 @@
         <v>74</v>
       </c>
       <c r="AL59" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B60" s="19" t="s">
+        <v>760</v>
+      </c>
+      <c r="C60" s="19" t="s">
         <v>761</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="D60" s="19" t="s">
+        <v>761</v>
+      </c>
+      <c r="E60" s="19" t="s">
         <v>762</v>
-      </c>
-      <c r="D60" s="19" t="s">
-        <v>762</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>763</v>
       </c>
       <c r="F60" s="19"/>
       <c r="G60" s="19"/>
@@ -8029,24 +8029,24 @@
         <v>140</v>
       </c>
       <c r="AL60" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B61" s="21" t="s">
+        <v>763</v>
+      </c>
+      <c r="C61" s="21" t="s">
         <v>764</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="D61" s="21" t="s">
+        <v>764</v>
+      </c>
+      <c r="E61" s="21" t="s">
         <v>765</v>
-      </c>
-      <c r="D61" s="21" t="s">
-        <v>765</v>
-      </c>
-      <c r="E61" s="21" t="s">
-        <v>766</v>
       </c>
       <c r="F61" s="21"/>
       <c r="G61" s="21"/>
@@ -8083,24 +8083,24 @@
         <v>140</v>
       </c>
       <c r="AL61" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B62" s="19" t="s">
+        <v>766</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>573</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>573</v>
+      </c>
+      <c r="E62" s="19" t="s">
         <v>767</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>574</v>
-      </c>
-      <c r="D62" s="19" t="s">
-        <v>574</v>
-      </c>
-      <c r="E62" s="19" t="s">
-        <v>768</v>
       </c>
       <c r="F62" s="19"/>
       <c r="G62" s="19"/>
@@ -8137,24 +8137,24 @@
         <v>140</v>
       </c>
       <c r="AL62" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B63" s="21" t="s">
+        <v>768</v>
+      </c>
+      <c r="C63" s="21" t="s">
         <v>769</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="D63" s="21" t="s">
+        <v>769</v>
+      </c>
+      <c r="E63" s="21" t="s">
         <v>770</v>
-      </c>
-      <c r="D63" s="21" t="s">
-        <v>770</v>
-      </c>
-      <c r="E63" s="21" t="s">
-        <v>771</v>
       </c>
       <c r="F63" s="21"/>
       <c r="G63" s="21"/>
@@ -8191,21 +8191,21 @@
         <v>69</v>
       </c>
       <c r="AL63" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B64" s="19" t="s">
+        <v>771</v>
+      </c>
+      <c r="C64" s="19" t="s">
         <v>772</v>
       </c>
-      <c r="C64" s="19" t="s">
-        <v>773</v>
-      </c>
       <c r="D64" s="19" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E64" s="19" t="s">
         <v>106</v>
@@ -8245,24 +8245,24 @@
         <v>140</v>
       </c>
       <c r="AL64" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B65" s="21" t="s">
+        <v>773</v>
+      </c>
+      <c r="C65" s="21" t="s">
         <v>774</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="D65" s="21" t="s">
+        <v>774</v>
+      </c>
+      <c r="E65" s="21" t="s">
         <v>775</v>
-      </c>
-      <c r="D65" s="21" t="s">
-        <v>775</v>
-      </c>
-      <c r="E65" s="21" t="s">
-        <v>776</v>
       </c>
       <c r="F65" s="21"/>
       <c r="G65" s="21"/>
@@ -8299,24 +8299,24 @@
         <v>140</v>
       </c>
       <c r="AL65" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B66" s="19" t="s">
+        <v>776</v>
+      </c>
+      <c r="C66" s="19" t="s">
         <v>777</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="D66" s="19" t="s">
+        <v>777</v>
+      </c>
+      <c r="E66" s="19" t="s">
         <v>778</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>778</v>
-      </c>
-      <c r="E66" s="19" t="s">
-        <v>779</v>
       </c>
       <c r="F66" s="19"/>
       <c r="G66" s="19"/>
@@ -8353,24 +8353,24 @@
         <v>140</v>
       </c>
       <c r="AL66" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B67" s="21" t="s">
+        <v>779</v>
+      </c>
+      <c r="C67" s="21" t="s">
         <v>780</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="D67" s="21" t="s">
+        <v>780</v>
+      </c>
+      <c r="E67" s="21" t="s">
         <v>781</v>
-      </c>
-      <c r="D67" s="21" t="s">
-        <v>781</v>
-      </c>
-      <c r="E67" s="21" t="s">
-        <v>782</v>
       </c>
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
@@ -8407,24 +8407,24 @@
         <v>140</v>
       </c>
       <c r="AL67" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B68" s="19" t="s">
+        <v>782</v>
+      </c>
+      <c r="C68" s="19" t="s">
         <v>783</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="D68" s="19" t="s">
+        <v>783</v>
+      </c>
+      <c r="E68" s="19" t="s">
         <v>784</v>
-      </c>
-      <c r="D68" s="19" t="s">
-        <v>784</v>
-      </c>
-      <c r="E68" s="19" t="s">
-        <v>785</v>
       </c>
       <c r="F68" s="19"/>
       <c r="G68" s="19"/>
@@ -8461,24 +8461,24 @@
         <v>140</v>
       </c>
       <c r="AL68" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B69" s="21" t="s">
+        <v>785</v>
+      </c>
+      <c r="C69" s="21" t="s">
         <v>786</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="D69" s="21" t="s">
+        <v>786</v>
+      </c>
+      <c r="E69" s="21" t="s">
         <v>787</v>
-      </c>
-      <c r="D69" s="21" t="s">
-        <v>787</v>
-      </c>
-      <c r="E69" s="21" t="s">
-        <v>788</v>
       </c>
       <c r="F69" s="21"/>
       <c r="G69" s="21"/>
@@ -8515,24 +8515,24 @@
         <v>140</v>
       </c>
       <c r="AL69" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B70" s="19" t="s">
+        <v>788</v>
+      </c>
+      <c r="C70" s="19" t="s">
         <v>789</v>
       </c>
-      <c r="C70" s="19" t="s">
+      <c r="D70" s="19" t="s">
+        <v>789</v>
+      </c>
+      <c r="E70" s="19" t="s">
         <v>790</v>
-      </c>
-      <c r="D70" s="19" t="s">
-        <v>790</v>
-      </c>
-      <c r="E70" s="19" t="s">
-        <v>791</v>
       </c>
       <c r="F70" s="19"/>
       <c r="G70" s="19"/>
@@ -8569,24 +8569,24 @@
         <v>140</v>
       </c>
       <c r="AL70" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B71" s="21" t="s">
+        <v>791</v>
+      </c>
+      <c r="C71" s="21" t="s">
         <v>792</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="D71" s="21" t="s">
+        <v>792</v>
+      </c>
+      <c r="E71" s="21" t="s">
         <v>793</v>
-      </c>
-      <c r="D71" s="21" t="s">
-        <v>793</v>
-      </c>
-      <c r="E71" s="21" t="s">
-        <v>794</v>
       </c>
       <c r="F71" s="21"/>
       <c r="G71" s="21"/>
@@ -8623,24 +8623,24 @@
         <v>140</v>
       </c>
       <c r="AL71" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B72" s="19" t="s">
+        <v>794</v>
+      </c>
+      <c r="C72" s="19" t="s">
         <v>795</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="D72" s="19" t="s">
+        <v>795</v>
+      </c>
+      <c r="E72" s="19" t="s">
         <v>796</v>
-      </c>
-      <c r="D72" s="19" t="s">
-        <v>796</v>
-      </c>
-      <c r="E72" s="19" t="s">
-        <v>797</v>
       </c>
       <c r="F72" s="19"/>
       <c r="G72" s="19"/>
@@ -8677,24 +8677,24 @@
         <v>140</v>
       </c>
       <c r="AL72" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B73" s="21" t="s">
+        <v>797</v>
+      </c>
+      <c r="C73" s="21" t="s">
         <v>798</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="D73" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="E73" s="21" t="s">
         <v>799</v>
-      </c>
-      <c r="D73" s="21" t="s">
-        <v>799</v>
-      </c>
-      <c r="E73" s="21" t="s">
-        <v>800</v>
       </c>
       <c r="F73" s="21"/>
       <c r="G73" s="21"/>
@@ -8731,24 +8731,24 @@
         <v>140</v>
       </c>
       <c r="AL73" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B74" s="19" t="s">
+        <v>800</v>
+      </c>
+      <c r="C74" s="19" t="s">
         <v>801</v>
       </c>
-      <c r="C74" s="19" t="s">
+      <c r="D74" s="19" t="s">
+        <v>801</v>
+      </c>
+      <c r="E74" s="19" t="s">
         <v>802</v>
-      </c>
-      <c r="D74" s="19" t="s">
-        <v>802</v>
-      </c>
-      <c r="E74" s="19" t="s">
-        <v>803</v>
       </c>
       <c r="F74" s="19"/>
       <c r="G74" s="19"/>
@@ -8785,24 +8785,24 @@
         <v>140</v>
       </c>
       <c r="AL74" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B75" s="21" t="s">
+        <v>803</v>
+      </c>
+      <c r="C75" s="21" t="s">
         <v>804</v>
       </c>
-      <c r="C75" s="21" t="s">
+      <c r="D75" s="21" t="s">
+        <v>804</v>
+      </c>
+      <c r="E75" s="21" t="s">
         <v>805</v>
-      </c>
-      <c r="D75" s="21" t="s">
-        <v>805</v>
-      </c>
-      <c r="E75" s="21" t="s">
-        <v>806</v>
       </c>
       <c r="F75" s="21"/>
       <c r="G75" s="21"/>
@@ -8839,24 +8839,24 @@
         <v>140</v>
       </c>
       <c r="AL75" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B76" s="19" t="s">
+        <v>806</v>
+      </c>
+      <c r="C76" s="19" t="s">
         <v>807</v>
       </c>
-      <c r="C76" s="19" t="s">
+      <c r="D76" s="19" t="s">
+        <v>807</v>
+      </c>
+      <c r="E76" s="19" t="s">
         <v>808</v>
-      </c>
-      <c r="D76" s="19" t="s">
-        <v>808</v>
-      </c>
-      <c r="E76" s="19" t="s">
-        <v>809</v>
       </c>
       <c r="F76" s="19"/>
       <c r="G76" s="19"/>
@@ -8893,24 +8893,24 @@
         <v>140</v>
       </c>
       <c r="AL76" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B77" s="21" t="s">
+        <v>809</v>
+      </c>
+      <c r="C77" s="21" t="s">
         <v>810</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="D77" s="21" t="s">
+        <v>810</v>
+      </c>
+      <c r="E77" s="21" t="s">
         <v>811</v>
-      </c>
-      <c r="D77" s="21" t="s">
-        <v>811</v>
-      </c>
-      <c r="E77" s="21" t="s">
-        <v>812</v>
       </c>
       <c r="F77" s="21"/>
       <c r="G77" s="21"/>
@@ -8947,24 +8947,24 @@
         <v>140</v>
       </c>
       <c r="AL77" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B78" s="19" t="s">
+        <v>812</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>597</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>597</v>
+      </c>
+      <c r="E78" s="19" t="s">
         <v>813</v>
-      </c>
-      <c r="C78" s="19" t="s">
-        <v>598</v>
-      </c>
-      <c r="D78" s="19" t="s">
-        <v>598</v>
-      </c>
-      <c r="E78" s="19" t="s">
-        <v>814</v>
       </c>
       <c r="F78" s="19"/>
       <c r="G78" s="19"/>
@@ -9001,7 +9001,7 @@
         <v>74</v>
       </c>
       <c r="AL78" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
   </sheetData>
@@ -9117,10 +9117,10 @@
         <v>22</v>
       </c>
       <c r="X1" t="s">
+        <v>955</v>
+      </c>
+      <c r="Y1" t="s">
         <v>956</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>957</v>
       </c>
       <c r="Z1" t="s">
         <v>22</v>
@@ -9132,25 +9132,25 @@
         <v>34</v>
       </c>
       <c r="AC1" s="36" t="s">
+        <v>957</v>
+      </c>
+      <c r="AD1" s="36" t="s">
         <v>958</v>
       </c>
-      <c r="AD1" s="36" t="s">
+      <c r="AE1" s="36" t="s">
         <v>959</v>
       </c>
-      <c r="AE1" s="36" t="s">
+      <c r="AF1" s="36" t="s">
         <v>960</v>
       </c>
-      <c r="AF1" s="36" t="s">
+      <c r="AG1" s="36" t="s">
         <v>961</v>
       </c>
-      <c r="AG1" s="36" t="s">
+      <c r="AH1" s="36" t="s">
         <v>962</v>
       </c>
-      <c r="AH1" s="36" t="s">
+      <c r="AI1" s="37" t="s">
         <v>963</v>
-      </c>
-      <c r="AI1" s="37" t="s">
-        <v>964</v>
       </c>
       <c r="AJ1" t="s">
         <v>42</v>
@@ -9243,7 +9243,7 @@
         <v>140</v>
       </c>
       <c r="AL2" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
@@ -9297,7 +9297,7 @@
         <v>140</v>
       </c>
       <c r="AL3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
@@ -9387,7 +9387,7 @@
         <v>140</v>
       </c>
       <c r="AL4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
@@ -9441,7 +9441,7 @@
         <v>140</v>
       </c>
       <c r="AL5" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
@@ -9525,7 +9525,7 @@
         <v>140</v>
       </c>
       <c r="AL6" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
@@ -9615,7 +9615,7 @@
         <v>140</v>
       </c>
       <c r="AL7" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
   </sheetData>
@@ -9659,7 +9659,7 @@
         <v>19</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -9759,16 +9759,16 @@
         <v>114</v>
       </c>
       <c r="B7" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="D7" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>226</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>227</v>
       </c>
       <c r="F7" s="25"/>
     </row>
@@ -9777,16 +9777,16 @@
         <v>114</v>
       </c>
       <c r="B8" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="D8" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>229</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>230</v>
       </c>
       <c r="F8" s="25"/>
     </row>
@@ -9795,16 +9795,16 @@
         <v>114</v>
       </c>
       <c r="B9" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="D9" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>232</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>233</v>
       </c>
       <c r="F9" s="25"/>
     </row>
@@ -9813,16 +9813,16 @@
         <v>114</v>
       </c>
       <c r="B10" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="D10" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="E10" s="25" t="s">
         <v>235</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>236</v>
       </c>
       <c r="F10" s="25"/>
     </row>
@@ -9831,16 +9831,16 @@
         <v>114</v>
       </c>
       <c r="B11" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="D11" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>238</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>239</v>
       </c>
       <c r="F11" s="25"/>
     </row>
@@ -9849,16 +9849,16 @@
         <v>114</v>
       </c>
       <c r="B12" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="D12" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>241</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>242</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -9867,16 +9867,16 @@
         <v>114</v>
       </c>
       <c r="B13" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="D13" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="E13" s="25" t="s">
         <v>244</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>245</v>
       </c>
       <c r="F13" s="25"/>
     </row>
@@ -9885,16 +9885,16 @@
         <v>114</v>
       </c>
       <c r="B14" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="D14" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="E14" s="25" t="s">
         <v>247</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>248</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>36</v>
@@ -9905,16 +9905,16 @@
         <v>114</v>
       </c>
       <c r="B15" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="C15" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="D15" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="E15" s="25" t="s">
         <v>250</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>251</v>
       </c>
       <c r="F15" s="25"/>
     </row>
@@ -9923,16 +9923,16 @@
         <v>114</v>
       </c>
       <c r="B16" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C16" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="D16" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="E16" s="25" t="s">
         <v>253</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>254</v>
       </c>
       <c r="F16" s="25" t="s">
         <v>36</v>
@@ -9943,16 +9943,16 @@
         <v>114</v>
       </c>
       <c r="B17" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="C17" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="D17" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="E17" s="25" t="s">
         <v>256</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>257</v>
       </c>
       <c r="F17" s="25" t="s">
         <v>36</v>
@@ -9963,16 +9963,16 @@
         <v>114</v>
       </c>
       <c r="B18" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="C18" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="D18" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="E18" s="25" t="s">
         <v>259</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>259</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>260</v>
       </c>
       <c r="F18" s="25" t="s">
         <v>36</v>
@@ -9983,16 +9983,16 @@
         <v>114</v>
       </c>
       <c r="B19" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="D19" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="E19" s="25" t="s">
         <v>262</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>263</v>
       </c>
       <c r="F19" s="25"/>
     </row>
@@ -10001,16 +10001,16 @@
         <v>114</v>
       </c>
       <c r="B20" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="C20" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="D20" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="E20" s="25" t="s">
         <v>265</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>266</v>
       </c>
       <c r="F20" s="25"/>
     </row>
@@ -10019,16 +10019,16 @@
         <v>114</v>
       </c>
       <c r="B21" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="C21" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="D21" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="E21" s="25" t="s">
         <v>268</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>269</v>
       </c>
       <c r="F21" s="25" t="s">
         <v>36</v>
@@ -10039,16 +10039,16 @@
         <v>114</v>
       </c>
       <c r="B22" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="C22" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="D22" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="E22" s="25" t="s">
         <v>271</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>272</v>
       </c>
       <c r="F22" s="25"/>
     </row>
@@ -10057,16 +10057,16 @@
         <v>114</v>
       </c>
       <c r="B23" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="C23" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="D23" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E23" s="25" t="s">
         <v>274</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>275</v>
       </c>
       <c r="F23" s="25"/>
     </row>
@@ -10075,16 +10075,16 @@
         <v>114</v>
       </c>
       <c r="B24" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="C24" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="D24" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="E24" s="25" t="s">
         <v>277</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>278</v>
       </c>
       <c r="F24" s="25" t="s">
         <v>36</v>
@@ -10095,16 +10095,16 @@
         <v>114</v>
       </c>
       <c r="B25" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="C25" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="D25" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="E25" s="25" t="s">
         <v>280</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>281</v>
       </c>
       <c r="F25" s="25"/>
     </row>
@@ -10113,16 +10113,16 @@
         <v>114</v>
       </c>
       <c r="B26" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="C26" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="D26" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="E26" s="25" t="s">
         <v>283</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>284</v>
       </c>
       <c r="F26" s="25"/>
     </row>
@@ -10131,16 +10131,16 @@
         <v>114</v>
       </c>
       <c r="B27" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="C27" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="D27" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="E27" s="25" t="s">
         <v>286</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>287</v>
       </c>
       <c r="F27" s="25" t="s">
         <v>36</v>
@@ -10151,16 +10151,16 @@
         <v>114</v>
       </c>
       <c r="B28" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="C28" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="D28" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="E28" s="25" t="s">
         <v>289</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>289</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>290</v>
       </c>
       <c r="F28" s="25" t="s">
         <v>36</v>
@@ -10171,16 +10171,16 @@
         <v>114</v>
       </c>
       <c r="B29" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="C29" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="D29" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="E29" s="25" t="s">
         <v>292</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>292</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>293</v>
       </c>
       <c r="F29" s="25" t="s">
         <v>36</v>
@@ -10191,16 +10191,16 @@
         <v>114</v>
       </c>
       <c r="B30" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="C30" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="D30" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="E30" s="25" t="s">
         <v>295</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>296</v>
       </c>
       <c r="F30" s="25"/>
     </row>
@@ -10209,16 +10209,16 @@
         <v>114</v>
       </c>
       <c r="B31" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="C31" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="D31" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="E31" s="25" t="s">
         <v>298</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>298</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>299</v>
       </c>
       <c r="F31" s="25" t="s">
         <v>36</v>
@@ -10229,16 +10229,16 @@
         <v>114</v>
       </c>
       <c r="B32" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="C32" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="D32" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="E32" s="25" t="s">
         <v>301</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>302</v>
       </c>
       <c r="F32" s="25"/>
     </row>
@@ -10247,16 +10247,16 @@
         <v>114</v>
       </c>
       <c r="B33" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="C33" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="D33" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="E33" s="25" t="s">
         <v>304</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="E33" s="25" t="s">
-        <v>305</v>
       </c>
       <c r="F33" s="25" t="s">
         <v>36</v>
@@ -10267,16 +10267,16 @@
         <v>114</v>
       </c>
       <c r="B34" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="C34" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="D34" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="E34" s="25" t="s">
         <v>307</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>307</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>308</v>
       </c>
       <c r="F34" s="25"/>
     </row>
@@ -10285,16 +10285,16 @@
         <v>114</v>
       </c>
       <c r="B35" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="C35" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="D35" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="E35" s="25" t="s">
         <v>310</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>311</v>
       </c>
       <c r="F35" s="25"/>
     </row>
@@ -10303,16 +10303,16 @@
         <v>114</v>
       </c>
       <c r="B36" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="C36" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="D36" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="E36" s="25" t="s">
         <v>313</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>314</v>
       </c>
       <c r="F36" s="25"/>
     </row>
@@ -10321,19 +10321,19 @@
         <v>114</v>
       </c>
       <c r="B37" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="C37" s="25" t="s">
         <v>315</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="D37" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="E37" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="D37" s="25" t="s">
-        <v>316</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>317</v>
-      </c>
       <c r="F37" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -10341,16 +10341,16 @@
         <v>114</v>
       </c>
       <c r="B38" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="C38" s="25" t="s">
         <v>318</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="D38" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="E38" s="25" t="s">
         <v>319</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>319</v>
-      </c>
-      <c r="E38" s="25" t="s">
-        <v>320</v>
       </c>
       <c r="F38" s="25"/>
     </row>
@@ -10359,16 +10359,16 @@
         <v>114</v>
       </c>
       <c r="B39" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="C39" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="D39" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="E39" s="25" t="s">
         <v>322</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>323</v>
       </c>
       <c r="F39" s="25"/>
     </row>
@@ -10377,16 +10377,16 @@
         <v>114</v>
       </c>
       <c r="B40" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="C40" s="25" t="s">
         <v>324</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="D40" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="E40" s="25" t="s">
         <v>325</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>325</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>326</v>
       </c>
       <c r="F40" s="25"/>
     </row>
@@ -10395,16 +10395,16 @@
         <v>114</v>
       </c>
       <c r="B41" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C41" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="D41" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="E41" s="25" t="s">
         <v>328</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>328</v>
-      </c>
-      <c r="E41" s="25" t="s">
-        <v>329</v>
       </c>
       <c r="F41" s="25"/>
     </row>
@@ -10413,16 +10413,16 @@
         <v>114</v>
       </c>
       <c r="B42" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="C42" s="25" t="s">
         <v>330</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="D42" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="E42" s="25" t="s">
         <v>331</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="E42" s="25" t="s">
-        <v>332</v>
       </c>
       <c r="F42" s="25" t="s">
         <v>36</v>
@@ -10433,16 +10433,16 @@
         <v>114</v>
       </c>
       <c r="B43" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="C43" s="25" t="s">
         <v>333</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="D43" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="E43" s="25" t="s">
         <v>334</v>
-      </c>
-      <c r="D43" s="25" t="s">
-        <v>334</v>
-      </c>
-      <c r="E43" s="25" t="s">
-        <v>335</v>
       </c>
       <c r="F43" s="25"/>
     </row>
@@ -10451,16 +10451,16 @@
         <v>114</v>
       </c>
       <c r="B44" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="C44" s="25" t="s">
         <v>336</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="D44" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="E44" s="25" t="s">
         <v>337</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>337</v>
-      </c>
-      <c r="E44" s="25" t="s">
-        <v>338</v>
       </c>
       <c r="F44" s="25" t="s">
         <v>36</v>
@@ -10471,16 +10471,16 @@
         <v>114</v>
       </c>
       <c r="B45" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="C45" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="D45" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="E45" s="25" t="s">
         <v>340</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>340</v>
-      </c>
-      <c r="E45" s="25" t="s">
-        <v>341</v>
       </c>
       <c r="F45" s="25"/>
     </row>
@@ -10489,16 +10489,16 @@
         <v>114</v>
       </c>
       <c r="B46" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="C46" s="25" t="s">
         <v>342</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="D46" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="E46" s="25" t="s">
         <v>343</v>
-      </c>
-      <c r="D46" s="25" t="s">
-        <v>343</v>
-      </c>
-      <c r="E46" s="25" t="s">
-        <v>344</v>
       </c>
       <c r="F46" s="25"/>
     </row>
@@ -10507,16 +10507,16 @@
         <v>114</v>
       </c>
       <c r="B47" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="C47" s="25" t="s">
         <v>345</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="D47" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="E47" s="25" t="s">
         <v>346</v>
-      </c>
-      <c r="D47" s="25" t="s">
-        <v>346</v>
-      </c>
-      <c r="E47" s="25" t="s">
-        <v>347</v>
       </c>
       <c r="F47" s="25"/>
     </row>
@@ -10525,16 +10525,16 @@
         <v>114</v>
       </c>
       <c r="B48" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="C48" s="25" t="s">
         <v>348</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="D48" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="E48" s="25" t="s">
         <v>349</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>349</v>
-      </c>
-      <c r="E48" s="25" t="s">
-        <v>350</v>
       </c>
       <c r="F48" s="25" t="s">
         <v>36</v>
@@ -10545,19 +10545,19 @@
         <v>114</v>
       </c>
       <c r="B49" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C49" s="25" t="s">
         <v>351</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="D49" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="E49" s="25" t="s">
         <v>352</v>
       </c>
-      <c r="D49" s="25" t="s">
-        <v>352</v>
-      </c>
-      <c r="E49" s="25" t="s">
-        <v>353</v>
-      </c>
       <c r="F49" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -10565,16 +10565,16 @@
         <v>114</v>
       </c>
       <c r="B50" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="C50" s="25" t="s">
         <v>354</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="D50" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="E50" s="25" t="s">
         <v>355</v>
-      </c>
-      <c r="D50" s="25" t="s">
-        <v>355</v>
-      </c>
-      <c r="E50" s="25" t="s">
-        <v>356</v>
       </c>
       <c r="F50" s="25"/>
     </row>
@@ -10583,16 +10583,16 @@
         <v>114</v>
       </c>
       <c r="B51" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="C51" s="25" t="s">
         <v>357</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="D51" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="E51" s="25" t="s">
         <v>358</v>
-      </c>
-      <c r="D51" s="25" t="s">
-        <v>358</v>
-      </c>
-      <c r="E51" s="25" t="s">
-        <v>359</v>
       </c>
       <c r="F51" s="25"/>
     </row>
@@ -10601,13 +10601,13 @@
         <v>114</v>
       </c>
       <c r="B52" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="C52" s="25" t="s">
         <v>360</v>
       </c>
-      <c r="C52" s="25" t="s">
-        <v>361</v>
-      </c>
       <c r="D52" s="25" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E52" s="25" t="s">
         <v>104</v>
@@ -10619,16 +10619,16 @@
         <v>114</v>
       </c>
       <c r="B53" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="C53" s="25" t="s">
         <v>362</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="D53" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="E53" s="25" t="s">
         <v>363</v>
-      </c>
-      <c r="D53" s="25" t="s">
-        <v>363</v>
-      </c>
-      <c r="E53" s="25" t="s">
-        <v>364</v>
       </c>
       <c r="F53" s="25" t="s">
         <v>36</v>
@@ -10639,16 +10639,16 @@
         <v>114</v>
       </c>
       <c r="B54" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="C54" s="25" t="s">
         <v>365</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="D54" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="E54" s="25" t="s">
         <v>366</v>
-      </c>
-      <c r="D54" s="25" t="s">
-        <v>366</v>
-      </c>
-      <c r="E54" s="25" t="s">
-        <v>367</v>
       </c>
       <c r="F54" s="25"/>
     </row>
@@ -10657,16 +10657,16 @@
         <v>114</v>
       </c>
       <c r="B55" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="C55" s="25" t="s">
         <v>368</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="D55" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="E55" s="25" t="s">
         <v>369</v>
-      </c>
-      <c r="D55" s="25" t="s">
-        <v>369</v>
-      </c>
-      <c r="E55" s="25" t="s">
-        <v>370</v>
       </c>
       <c r="F55" s="25"/>
     </row>
@@ -10675,16 +10675,16 @@
         <v>114</v>
       </c>
       <c r="B56" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="C56" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="D56" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="E56" s="25" t="s">
         <v>372</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="E56" s="25" t="s">
-        <v>373</v>
       </c>
       <c r="F56" s="25"/>
     </row>
@@ -10693,19 +10693,19 @@
         <v>114</v>
       </c>
       <c r="B57" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="C57" s="25" t="s">
         <v>374</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="D57" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="E57" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="D57" s="25" t="s">
-        <v>375</v>
-      </c>
-      <c r="E57" s="25" t="s">
-        <v>376</v>
-      </c>
       <c r="F57" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -10713,16 +10713,16 @@
         <v>114</v>
       </c>
       <c r="B58" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="C58" s="25" t="s">
         <v>377</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="D58" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="E58" s="25" t="s">
         <v>378</v>
-      </c>
-      <c r="D58" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="E58" s="25" t="s">
-        <v>379</v>
       </c>
       <c r="F58" s="25" t="s">
         <v>36</v>
@@ -10733,16 +10733,16 @@
         <v>114</v>
       </c>
       <c r="B59" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="C59" s="25" t="s">
         <v>380</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="D59" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="E59" s="25" t="s">
         <v>381</v>
-      </c>
-      <c r="D59" s="25" t="s">
-        <v>381</v>
-      </c>
-      <c r="E59" s="25" t="s">
-        <v>382</v>
       </c>
       <c r="F59" s="25"/>
     </row>
@@ -10751,70 +10751,70 @@
         <v>114</v>
       </c>
       <c r="B60" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="C60" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="D60" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="E60" s="25" t="s">
         <v>384</v>
-      </c>
-      <c r="D60" s="25" t="s">
-        <v>384</v>
-      </c>
-      <c r="E60" s="25" t="s">
-        <v>385</v>
       </c>
       <c r="F60" s="25"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="B61" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="B61" s="25" t="s">
+      <c r="C61" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="D61" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="E61" s="25" t="s">
         <v>388</v>
-      </c>
-      <c r="D61" s="25" t="s">
-        <v>388</v>
-      </c>
-      <c r="E61" s="25" t="s">
-        <v>389</v>
       </c>
       <c r="F61" s="25"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B62" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="C62" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="D62" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="E62" s="25" t="s">
         <v>391</v>
-      </c>
-      <c r="D62" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="E62" s="25" t="s">
-        <v>392</v>
       </c>
       <c r="F62" s="25"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B63" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="C63" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="D63" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="E63" s="25" t="s">
         <v>394</v>
-      </c>
-      <c r="D63" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="E63" s="25" t="s">
-        <v>395</v>
       </c>
       <c r="F63" s="25" t="s">
         <v>36</v>
@@ -10822,19 +10822,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B64" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="C64" s="25" t="s">
         <v>396</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="D64" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="E64" s="25" t="s">
         <v>397</v>
-      </c>
-      <c r="D64" s="25" t="s">
-        <v>397</v>
-      </c>
-      <c r="E64" s="25" t="s">
-        <v>398</v>
       </c>
       <c r="F64" s="25" t="s">
         <v>36</v>
@@ -10842,145 +10842,145 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B65" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="C65" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="D65" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="E65" s="25" t="s">
         <v>400</v>
-      </c>
-      <c r="D65" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="E65" s="25" t="s">
-        <v>401</v>
       </c>
       <c r="F65" s="25"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B66" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="C66" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="D66" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="E66" s="25" t="s">
         <v>403</v>
-      </c>
-      <c r="D66" s="25" t="s">
-        <v>403</v>
-      </c>
-      <c r="E66" s="25" t="s">
-        <v>404</v>
       </c>
       <c r="F66" s="25"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B67" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="C67" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="D67" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="E67" s="25" t="s">
         <v>406</v>
-      </c>
-      <c r="D67" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="E67" s="25" t="s">
-        <v>407</v>
       </c>
       <c r="F67" s="25"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B68" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="C68" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="D68" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="E68" s="25" t="s">
         <v>409</v>
-      </c>
-      <c r="D68" s="25" t="s">
-        <v>409</v>
-      </c>
-      <c r="E68" s="25" t="s">
-        <v>410</v>
       </c>
       <c r="F68" s="25"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B69" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="C69" s="25" t="s">
         <v>411</v>
       </c>
-      <c r="C69" s="25" t="s">
+      <c r="D69" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="E69" s="25" t="s">
         <v>412</v>
-      </c>
-      <c r="D69" s="25" t="s">
-        <v>412</v>
-      </c>
-      <c r="E69" s="25" t="s">
-        <v>413</v>
       </c>
       <c r="F69" s="25"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B70" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="C70" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="C70" s="25" t="s">
+      <c r="D70" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="E70" s="25" t="s">
         <v>415</v>
-      </c>
-      <c r="D70" s="25" t="s">
-        <v>415</v>
-      </c>
-      <c r="E70" s="25" t="s">
-        <v>416</v>
       </c>
       <c r="F70" s="25"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B71" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="C71" s="25" t="s">
         <v>417</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="D71" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="E71" s="25" t="s">
         <v>418</v>
-      </c>
-      <c r="D71" s="25" t="s">
-        <v>418</v>
-      </c>
-      <c r="E71" s="25" t="s">
-        <v>419</v>
       </c>
       <c r="F71" s="25"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B72" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="C72" s="25" t="s">
         <v>420</v>
       </c>
-      <c r="C72" s="25" t="s">
+      <c r="D72" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="E72" s="25" t="s">
         <v>421</v>
-      </c>
-      <c r="D72" s="25" t="s">
-        <v>421</v>
-      </c>
-      <c r="E72" s="25" t="s">
-        <v>422</v>
       </c>
       <c r="F72" s="25" t="s">
         <v>36</v>
@@ -10988,19 +10988,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B73" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="C73" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="C73" s="25" t="s">
+      <c r="D73" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="E73" s="25" t="s">
         <v>424</v>
-      </c>
-      <c r="D73" s="25" t="s">
-        <v>424</v>
-      </c>
-      <c r="E73" s="25" t="s">
-        <v>425</v>
       </c>
       <c r="F73" s="25" t="s">
         <v>36</v>
@@ -11008,55 +11008,55 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B74" s="25" t="s">
+        <v>425</v>
+      </c>
+      <c r="C74" s="25" t="s">
         <v>426</v>
       </c>
-      <c r="C74" s="25" t="s">
+      <c r="D74" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="E74" s="25" t="s">
         <v>427</v>
-      </c>
-      <c r="D74" s="25" t="s">
-        <v>427</v>
-      </c>
-      <c r="E74" s="25" t="s">
-        <v>428</v>
       </c>
       <c r="F74" s="25"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B75" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="C75" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="C75" s="25" t="s">
+      <c r="D75" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="E75" s="25" t="s">
         <v>430</v>
-      </c>
-      <c r="D75" s="25" t="s">
-        <v>430</v>
-      </c>
-      <c r="E75" s="25" t="s">
-        <v>431</v>
       </c>
       <c r="F75" s="25"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B76" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="C76" s="25" t="s">
         <v>432</v>
       </c>
-      <c r="C76" s="25" t="s">
+      <c r="D76" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="E76" s="25" t="s">
         <v>433</v>
-      </c>
-      <c r="D76" s="25" t="s">
-        <v>433</v>
-      </c>
-      <c r="E76" s="25" t="s">
-        <v>434</v>
       </c>
       <c r="F76" s="25" t="s">
         <v>36</v>
@@ -11064,91 +11064,91 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B77" s="25" t="s">
+        <v>434</v>
+      </c>
+      <c r="C77" s="25" t="s">
         <v>435</v>
       </c>
-      <c r="C77" s="25" t="s">
+      <c r="D77" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="E77" s="25" t="s">
         <v>436</v>
-      </c>
-      <c r="D77" s="25" t="s">
-        <v>436</v>
-      </c>
-      <c r="E77" s="25" t="s">
-        <v>437</v>
       </c>
       <c r="F77" s="25"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B78" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="C78" s="25" t="s">
         <v>438</v>
       </c>
-      <c r="C78" s="25" t="s">
+      <c r="D78" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="E78" s="25" t="s">
         <v>439</v>
-      </c>
-      <c r="D78" s="25" t="s">
-        <v>439</v>
-      </c>
-      <c r="E78" s="25" t="s">
-        <v>440</v>
       </c>
       <c r="F78" s="25"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B79" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="C79" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="C79" s="25" t="s">
+      <c r="D79" s="25" t="s">
+        <v>441</v>
+      </c>
+      <c r="E79" s="25" t="s">
         <v>442</v>
-      </c>
-      <c r="D79" s="25" t="s">
-        <v>442</v>
-      </c>
-      <c r="E79" s="25" t="s">
-        <v>443</v>
       </c>
       <c r="F79" s="25"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B80" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="C80" s="25" t="s">
         <v>444</v>
       </c>
-      <c r="C80" s="25" t="s">
+      <c r="D80" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="E80" s="25" t="s">
         <v>445</v>
-      </c>
-      <c r="D80" s="25" t="s">
-        <v>445</v>
-      </c>
-      <c r="E80" s="25" t="s">
-        <v>446</v>
       </c>
       <c r="F80" s="25"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B81" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="C81" s="25" t="s">
         <v>447</v>
       </c>
-      <c r="C81" s="25" t="s">
+      <c r="D81" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="E81" s="25" t="s">
         <v>448</v>
-      </c>
-      <c r="D81" s="25" t="s">
-        <v>448</v>
-      </c>
-      <c r="E81" s="25" t="s">
-        <v>449</v>
       </c>
       <c r="F81" s="25" t="s">
         <v>36</v>
@@ -11156,55 +11156,55 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B82" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="C82" s="25" t="s">
         <v>450</v>
       </c>
-      <c r="C82" s="25" t="s">
+      <c r="D82" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="E82" s="25" t="s">
         <v>451</v>
-      </c>
-      <c r="D82" s="25" t="s">
-        <v>451</v>
-      </c>
-      <c r="E82" s="25" t="s">
-        <v>452</v>
       </c>
       <c r="F82" s="25"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B83" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="C83" s="25" t="s">
         <v>453</v>
       </c>
-      <c r="C83" s="25" t="s">
+      <c r="D83" s="25" t="s">
+        <v>453</v>
+      </c>
+      <c r="E83" s="25" t="s">
         <v>454</v>
-      </c>
-      <c r="D83" s="25" t="s">
-        <v>454</v>
-      </c>
-      <c r="E83" s="25" t="s">
-        <v>455</v>
       </c>
       <c r="F83" s="25"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B84" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="C84" s="25" t="s">
         <v>456</v>
       </c>
-      <c r="C84" s="25" t="s">
+      <c r="D84" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="E84" s="25" t="s">
         <v>457</v>
-      </c>
-      <c r="D84" s="25" t="s">
-        <v>457</v>
-      </c>
-      <c r="E84" s="25" t="s">
-        <v>458</v>
       </c>
       <c r="F84" s="25" t="s">
         <v>36</v>
@@ -11212,163 +11212,163 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B85" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="C85" s="25" t="s">
         <v>459</v>
       </c>
-      <c r="C85" s="25" t="s">
+      <c r="D85" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="E85" s="25" t="s">
         <v>460</v>
-      </c>
-      <c r="D85" s="25" t="s">
-        <v>460</v>
-      </c>
-      <c r="E85" s="25" t="s">
-        <v>461</v>
       </c>
       <c r="F85" s="25"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B86" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="C86" s="25" t="s">
         <v>462</v>
       </c>
-      <c r="C86" s="25" t="s">
+      <c r="D86" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="E86" s="25" t="s">
         <v>463</v>
-      </c>
-      <c r="D86" s="25" t="s">
-        <v>463</v>
-      </c>
-      <c r="E86" s="25" t="s">
-        <v>464</v>
       </c>
       <c r="F86" s="25"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B87" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="C87" s="25" t="s">
         <v>465</v>
       </c>
-      <c r="C87" s="25" t="s">
+      <c r="D87" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="E87" s="25" t="s">
         <v>466</v>
-      </c>
-      <c r="D87" s="25" t="s">
-        <v>466</v>
-      </c>
-      <c r="E87" s="25" t="s">
-        <v>467</v>
       </c>
       <c r="F87" s="25"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B88" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="C88" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="C88" s="25" t="s">
+      <c r="D88" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="E88" s="25" t="s">
         <v>469</v>
-      </c>
-      <c r="D88" s="25" t="s">
-        <v>469</v>
-      </c>
-      <c r="E88" s="25" t="s">
-        <v>470</v>
       </c>
       <c r="F88" s="25"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B89" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="C89" s="25" t="s">
         <v>471</v>
       </c>
-      <c r="C89" s="25" t="s">
+      <c r="D89" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="E89" s="25" t="s">
         <v>472</v>
-      </c>
-      <c r="D89" s="25" t="s">
-        <v>472</v>
-      </c>
-      <c r="E89" s="25" t="s">
-        <v>473</v>
       </c>
       <c r="F89" s="25"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B90" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="C90" s="25" t="s">
         <v>474</v>
       </c>
-      <c r="C90" s="25" t="s">
+      <c r="D90" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="E90" s="25" t="s">
         <v>475</v>
-      </c>
-      <c r="D90" s="25" t="s">
-        <v>475</v>
-      </c>
-      <c r="E90" s="25" t="s">
-        <v>476</v>
       </c>
       <c r="F90" s="25"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B91" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="C91" s="25" t="s">
         <v>477</v>
       </c>
-      <c r="C91" s="25" t="s">
+      <c r="D91" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="E91" s="25" t="s">
         <v>478</v>
-      </c>
-      <c r="D91" s="25" t="s">
-        <v>478</v>
-      </c>
-      <c r="E91" s="25" t="s">
-        <v>479</v>
       </c>
       <c r="F91" s="25"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B92" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="C92" s="25" t="s">
         <v>480</v>
       </c>
-      <c r="C92" s="25" t="s">
+      <c r="D92" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="E92" s="25" t="s">
         <v>481</v>
-      </c>
-      <c r="D92" s="25" t="s">
-        <v>481</v>
-      </c>
-      <c r="E92" s="25" t="s">
-        <v>482</v>
       </c>
       <c r="F92" s="25"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B93" s="25" t="s">
+        <v>482</v>
+      </c>
+      <c r="C93" s="25" t="s">
         <v>483</v>
       </c>
-      <c r="C93" s="25" t="s">
+      <c r="D93" s="25" t="s">
+        <v>483</v>
+      </c>
+      <c r="E93" s="25" t="s">
         <v>484</v>
-      </c>
-      <c r="D93" s="25" t="s">
-        <v>484</v>
-      </c>
-      <c r="E93" s="25" t="s">
-        <v>485</v>
       </c>
       <c r="F93" s="25" t="s">
         <v>36</v>
@@ -11376,19 +11376,19 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B94" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="C94" s="25" t="s">
         <v>486</v>
       </c>
-      <c r="C94" s="25" t="s">
+      <c r="D94" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="E94" s="25" t="s">
         <v>487</v>
-      </c>
-      <c r="D94" s="25" t="s">
-        <v>487</v>
-      </c>
-      <c r="E94" s="25" t="s">
-        <v>488</v>
       </c>
       <c r="F94" s="25" t="s">
         <v>36</v>
@@ -11396,127 +11396,127 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B95" s="25" t="s">
+        <v>488</v>
+      </c>
+      <c r="C95" s="25" t="s">
         <v>489</v>
       </c>
-      <c r="C95" s="25" t="s">
+      <c r="D95" s="25" t="s">
+        <v>489</v>
+      </c>
+      <c r="E95" s="25" t="s">
         <v>490</v>
-      </c>
-      <c r="D95" s="25" t="s">
-        <v>490</v>
-      </c>
-      <c r="E95" s="25" t="s">
-        <v>491</v>
       </c>
       <c r="F95" s="25"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B96" s="25" t="s">
+        <v>491</v>
+      </c>
+      <c r="C96" s="25" t="s">
         <v>492</v>
       </c>
-      <c r="C96" s="25" t="s">
+      <c r="D96" s="25" t="s">
+        <v>492</v>
+      </c>
+      <c r="E96" s="25" t="s">
         <v>493</v>
-      </c>
-      <c r="D96" s="25" t="s">
-        <v>493</v>
-      </c>
-      <c r="E96" s="25" t="s">
-        <v>494</v>
       </c>
       <c r="F96" s="25"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B97" s="25" t="s">
+        <v>494</v>
+      </c>
+      <c r="C97" s="25" t="s">
         <v>495</v>
       </c>
-      <c r="C97" s="25" t="s">
+      <c r="D97" s="25" t="s">
+        <v>495</v>
+      </c>
+      <c r="E97" s="25" t="s">
         <v>496</v>
-      </c>
-      <c r="D97" s="25" t="s">
-        <v>496</v>
-      </c>
-      <c r="E97" s="25" t="s">
-        <v>497</v>
       </c>
       <c r="F97" s="25"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B98" s="25" t="s">
+        <v>497</v>
+      </c>
+      <c r="C98" s="25" t="s">
         <v>498</v>
       </c>
-      <c r="C98" s="25" t="s">
+      <c r="D98" s="25" t="s">
+        <v>498</v>
+      </c>
+      <c r="E98" s="25" t="s">
         <v>499</v>
-      </c>
-      <c r="D98" s="25" t="s">
-        <v>499</v>
-      </c>
-      <c r="E98" s="25" t="s">
-        <v>500</v>
       </c>
       <c r="F98" s="25"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B99" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="C99" s="25" t="s">
         <v>501</v>
       </c>
-      <c r="C99" s="25" t="s">
+      <c r="D99" s="25" t="s">
+        <v>501</v>
+      </c>
+      <c r="E99" s="25" t="s">
         <v>502</v>
-      </c>
-      <c r="D99" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="E99" s="25" t="s">
-        <v>503</v>
       </c>
       <c r="F99" s="25"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B100" s="25" t="s">
+        <v>503</v>
+      </c>
+      <c r="C100" s="25" t="s">
         <v>504</v>
       </c>
-      <c r="C100" s="25" t="s">
+      <c r="D100" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="E100" s="25" t="s">
         <v>505</v>
-      </c>
-      <c r="D100" s="25" t="s">
-        <v>505</v>
-      </c>
-      <c r="E100" s="25" t="s">
-        <v>506</v>
       </c>
       <c r="F100" s="25"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B101" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="C101" s="25" t="s">
         <v>507</v>
       </c>
-      <c r="C101" s="25" t="s">
+      <c r="D101" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="E101" s="25" t="s">
         <v>508</v>
-      </c>
-      <c r="D101" s="25" t="s">
-        <v>508</v>
-      </c>
-      <c r="E101" s="25" t="s">
-        <v>509</v>
       </c>
       <c r="F101" s="25" t="s">
         <v>36</v>
@@ -11524,250 +11524,250 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B102" s="25" t="s">
+        <v>509</v>
+      </c>
+      <c r="C102" s="25" t="s">
         <v>510</v>
       </c>
-      <c r="C102" s="25" t="s">
+      <c r="D102" s="25" t="s">
+        <v>510</v>
+      </c>
+      <c r="E102" s="25" t="s">
         <v>511</v>
-      </c>
-      <c r="D102" s="25" t="s">
-        <v>511</v>
-      </c>
-      <c r="E102" s="25" t="s">
-        <v>512</v>
       </c>
       <c r="F102" s="25"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B103" s="25" t="s">
+        <v>512</v>
+      </c>
+      <c r="C103" s="25" t="s">
         <v>513</v>
       </c>
-      <c r="C103" s="25" t="s">
+      <c r="D103" s="25" t="s">
+        <v>513</v>
+      </c>
+      <c r="E103" s="25" t="s">
         <v>514</v>
-      </c>
-      <c r="D103" s="25" t="s">
-        <v>514</v>
-      </c>
-      <c r="E103" s="25" t="s">
-        <v>515</v>
       </c>
       <c r="F103" s="25"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B104" s="25" t="s">
+        <v>515</v>
+      </c>
+      <c r="C104" s="25" t="s">
         <v>516</v>
       </c>
-      <c r="C104" s="25" t="s">
+      <c r="D104" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="E104" s="25" t="s">
         <v>517</v>
-      </c>
-      <c r="D104" s="25" t="s">
-        <v>517</v>
-      </c>
-      <c r="E104" s="25" t="s">
-        <v>518</v>
       </c>
       <c r="F104" s="25"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B105" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="C105" s="25" t="s">
         <v>519</v>
       </c>
-      <c r="C105" s="25" t="s">
+      <c r="D105" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="E105" s="25" t="s">
         <v>520</v>
-      </c>
-      <c r="D105" s="25" t="s">
-        <v>520</v>
-      </c>
-      <c r="E105" s="25" t="s">
-        <v>521</v>
       </c>
       <c r="F105" s="25"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B106" s="25" t="s">
+        <v>521</v>
+      </c>
+      <c r="C106" s="25" t="s">
         <v>522</v>
       </c>
-      <c r="C106" s="25" t="s">
+      <c r="D106" s="25" t="s">
+        <v>522</v>
+      </c>
+      <c r="E106" s="25" t="s">
         <v>523</v>
-      </c>
-      <c r="D106" s="25" t="s">
-        <v>523</v>
-      </c>
-      <c r="E106" s="25" t="s">
-        <v>524</v>
       </c>
       <c r="F106" s="25"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B107" s="25" t="s">
+        <v>524</v>
+      </c>
+      <c r="C107" s="25" t="s">
         <v>525</v>
       </c>
-      <c r="C107" s="25" t="s">
+      <c r="D107" s="25" t="s">
+        <v>525</v>
+      </c>
+      <c r="E107" s="25" t="s">
         <v>526</v>
-      </c>
-      <c r="D107" s="25" t="s">
-        <v>526</v>
-      </c>
-      <c r="E107" s="25" t="s">
-        <v>527</v>
       </c>
       <c r="F107" s="25"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="25" t="s">
+        <v>527</v>
+      </c>
+      <c r="B108" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="B108" s="25" t="s">
+      <c r="C108" s="25" t="s">
         <v>529</v>
       </c>
-      <c r="C108" s="25" t="s">
+      <c r="D108" s="25" t="s">
+        <v>529</v>
+      </c>
+      <c r="E108" s="25" t="s">
         <v>530</v>
-      </c>
-      <c r="D108" s="25" t="s">
-        <v>530</v>
-      </c>
-      <c r="E108" s="25" t="s">
-        <v>531</v>
       </c>
       <c r="F108" s="25"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B109" s="25" t="s">
+        <v>531</v>
+      </c>
+      <c r="C109" s="25" t="s">
         <v>532</v>
       </c>
-      <c r="C109" s="25" t="s">
+      <c r="D109" s="25" t="s">
+        <v>532</v>
+      </c>
+      <c r="E109" s="25" t="s">
         <v>533</v>
-      </c>
-      <c r="D109" s="25" t="s">
-        <v>533</v>
-      </c>
-      <c r="E109" s="25" t="s">
-        <v>534</v>
       </c>
       <c r="F109" s="25"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B110" s="25" t="s">
+        <v>534</v>
+      </c>
+      <c r="C110" s="25" t="s">
         <v>535</v>
       </c>
-      <c r="C110" s="25" t="s">
+      <c r="D110" s="25" t="s">
+        <v>535</v>
+      </c>
+      <c r="E110" s="25" t="s">
         <v>536</v>
-      </c>
-      <c r="D110" s="25" t="s">
-        <v>536</v>
-      </c>
-      <c r="E110" s="25" t="s">
-        <v>537</v>
       </c>
       <c r="F110" s="25"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B111" s="25" t="s">
+        <v>537</v>
+      </c>
+      <c r="C111" s="25" t="s">
         <v>538</v>
       </c>
-      <c r="C111" s="25" t="s">
+      <c r="D111" s="25" t="s">
+        <v>538</v>
+      </c>
+      <c r="E111" s="25" t="s">
         <v>539</v>
-      </c>
-      <c r="D111" s="25" t="s">
-        <v>539</v>
-      </c>
-      <c r="E111" s="25" t="s">
-        <v>540</v>
       </c>
       <c r="F111" s="25"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B112" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="C112" s="25" t="s">
         <v>541</v>
       </c>
-      <c r="C112" s="25" t="s">
+      <c r="D112" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="E112" s="25" t="s">
         <v>542</v>
-      </c>
-      <c r="D112" s="25" t="s">
-        <v>542</v>
-      </c>
-      <c r="E112" s="25" t="s">
-        <v>543</v>
       </c>
       <c r="F112" s="25"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B113" s="25" t="s">
+        <v>543</v>
+      </c>
+      <c r="C113" s="25" t="s">
         <v>544</v>
       </c>
-      <c r="C113" s="25" t="s">
+      <c r="D113" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="E113" s="25" t="s">
         <v>545</v>
-      </c>
-      <c r="D113" s="25" t="s">
-        <v>545</v>
-      </c>
-      <c r="E113" s="25" t="s">
-        <v>546</v>
       </c>
       <c r="F113" s="25"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B114" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="C114" s="25" t="s">
         <v>547</v>
       </c>
-      <c r="C114" s="25" t="s">
+      <c r="D114" s="25" t="s">
+        <v>547</v>
+      </c>
+      <c r="E114" s="25" t="s">
         <v>548</v>
-      </c>
-      <c r="D114" s="25" t="s">
-        <v>548</v>
-      </c>
-      <c r="E114" s="25" t="s">
-        <v>549</v>
       </c>
       <c r="F114" s="25"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B115" s="25" t="s">
+        <v>549</v>
+      </c>
+      <c r="C115" s="25" t="s">
         <v>550</v>
       </c>
-      <c r="C115" s="25" t="s">
-        <v>551</v>
-      </c>
       <c r="D115" s="25" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E115" s="25" t="s">
         <v>105</v>
@@ -11776,37 +11776,37 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B116" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="C116" s="25" t="s">
         <v>552</v>
       </c>
-      <c r="C116" s="25" t="s">
+      <c r="D116" s="25" t="s">
+        <v>552</v>
+      </c>
+      <c r="E116" s="25" t="s">
         <v>553</v>
-      </c>
-      <c r="D116" s="25" t="s">
-        <v>553</v>
-      </c>
-      <c r="E116" s="25" t="s">
-        <v>554</v>
       </c>
       <c r="F116" s="25"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B117" s="25" t="s">
+        <v>554</v>
+      </c>
+      <c r="C117" s="25" t="s">
         <v>555</v>
       </c>
-      <c r="C117" s="25" t="s">
+      <c r="D117" s="25" t="s">
+        <v>555</v>
+      </c>
+      <c r="E117" s="25" t="s">
         <v>556</v>
-      </c>
-      <c r="D117" s="25" t="s">
-        <v>556</v>
-      </c>
-      <c r="E117" s="25" t="s">
-        <v>557</v>
       </c>
       <c r="F117" s="25" t="s">
         <v>36</v>
@@ -11814,221 +11814,221 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B118" s="25" t="s">
+        <v>557</v>
+      </c>
+      <c r="C118" s="25" t="s">
         <v>558</v>
       </c>
-      <c r="C118" s="25" t="s">
+      <c r="D118" s="25" t="s">
+        <v>558</v>
+      </c>
+      <c r="E118" s="25" t="s">
         <v>559</v>
-      </c>
-      <c r="D118" s="25" t="s">
-        <v>559</v>
-      </c>
-      <c r="E118" s="25" t="s">
-        <v>560</v>
       </c>
       <c r="F118" s="25"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B119" s="25" t="s">
+        <v>560</v>
+      </c>
+      <c r="C119" s="25" t="s">
         <v>561</v>
       </c>
-      <c r="C119" s="25" t="s">
+      <c r="D119" s="25" t="s">
+        <v>561</v>
+      </c>
+      <c r="E119" s="25" t="s">
         <v>562</v>
-      </c>
-      <c r="D119" s="25" t="s">
-        <v>562</v>
-      </c>
-      <c r="E119" s="25" t="s">
-        <v>563</v>
       </c>
       <c r="F119" s="25"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B120" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="C120" s="25" t="s">
         <v>564</v>
       </c>
-      <c r="C120" s="25" t="s">
+      <c r="D120" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="E120" s="25" t="s">
         <v>565</v>
-      </c>
-      <c r="D120" s="25" t="s">
-        <v>565</v>
-      </c>
-      <c r="E120" s="25" t="s">
-        <v>566</v>
       </c>
       <c r="F120" s="25"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B121" s="25" t="s">
+        <v>566</v>
+      </c>
+      <c r="C121" s="25" t="s">
         <v>567</v>
       </c>
-      <c r="C121" s="25" t="s">
+      <c r="D121" s="25" t="s">
+        <v>567</v>
+      </c>
+      <c r="E121" s="25" t="s">
         <v>568</v>
-      </c>
-      <c r="D121" s="25" t="s">
-        <v>568</v>
-      </c>
-      <c r="E121" s="25" t="s">
-        <v>569</v>
       </c>
       <c r="F121" s="25"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B122" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="C122" s="25" t="s">
         <v>570</v>
       </c>
-      <c r="C122" s="25" t="s">
+      <c r="D122" s="25" t="s">
+        <v>570</v>
+      </c>
+      <c r="E122" s="25" t="s">
         <v>571</v>
       </c>
-      <c r="D122" s="25" t="s">
-        <v>571</v>
-      </c>
-      <c r="E122" s="25" t="s">
-        <v>572</v>
-      </c>
       <c r="F122" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A123" s="27" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B123" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="C123" s="25" t="s">
         <v>573</v>
       </c>
-      <c r="C123" s="25" t="s">
+      <c r="D123" s="25" t="s">
+        <v>573</v>
+      </c>
+      <c r="E123" s="25" t="s">
         <v>574</v>
-      </c>
-      <c r="D123" s="25" t="s">
-        <v>574</v>
-      </c>
-      <c r="E123" s="25" t="s">
-        <v>575</v>
       </c>
       <c r="F123" s="25"/>
     </row>
     <row r="124" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A124" s="27" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B124" s="25" t="s">
+        <v>575</v>
+      </c>
+      <c r="C124" s="25" t="s">
         <v>576</v>
       </c>
-      <c r="C124" s="25" t="s">
+      <c r="D124" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="E124" s="25" t="s">
         <v>577</v>
-      </c>
-      <c r="D124" s="25" t="s">
-        <v>577</v>
-      </c>
-      <c r="E124" s="25" t="s">
-        <v>578</v>
       </c>
       <c r="F124" s="25"/>
     </row>
     <row r="125" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A125" s="27" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B125" s="25" t="s">
+        <v>578</v>
+      </c>
+      <c r="C125" s="25" t="s">
         <v>579</v>
       </c>
-      <c r="C125" s="25" t="s">
+      <c r="D125" s="25" t="s">
+        <v>579</v>
+      </c>
+      <c r="E125" s="25" t="s">
         <v>580</v>
-      </c>
-      <c r="D125" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="E125" s="25" t="s">
-        <v>581</v>
       </c>
       <c r="F125" s="25"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B126" s="25" t="s">
+        <v>581</v>
+      </c>
+      <c r="C126" s="25" t="s">
         <v>582</v>
       </c>
-      <c r="C126" s="25" t="s">
+      <c r="D126" s="25" t="s">
+        <v>582</v>
+      </c>
+      <c r="E126" s="25" t="s">
         <v>583</v>
-      </c>
-      <c r="D126" s="25" t="s">
-        <v>583</v>
-      </c>
-      <c r="E126" s="25" t="s">
-        <v>584</v>
       </c>
       <c r="F126" s="25"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B127" s="25" t="s">
+        <v>584</v>
+      </c>
+      <c r="C127" s="25" t="s">
         <v>585</v>
       </c>
-      <c r="C127" s="25" t="s">
+      <c r="D127" s="25" t="s">
+        <v>585</v>
+      </c>
+      <c r="E127" s="25" t="s">
         <v>586</v>
       </c>
-      <c r="D127" s="25" t="s">
-        <v>586</v>
-      </c>
-      <c r="E127" s="25" t="s">
-        <v>587</v>
-      </c>
       <c r="F127" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B128" s="25" t="s">
+        <v>587</v>
+      </c>
+      <c r="C128" s="25" t="s">
         <v>588</v>
       </c>
-      <c r="C128" s="25" t="s">
+      <c r="D128" s="25" t="s">
+        <v>588</v>
+      </c>
+      <c r="E128" s="25" t="s">
         <v>589</v>
-      </c>
-      <c r="D128" s="25" t="s">
-        <v>589</v>
-      </c>
-      <c r="E128" s="25" t="s">
-        <v>590</v>
       </c>
       <c r="F128" s="25"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B129" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="C129" s="25" t="s">
         <v>591</v>
       </c>
-      <c r="C129" s="25" t="s">
+      <c r="D129" s="25" t="s">
+        <v>591</v>
+      </c>
+      <c r="E129" s="25" t="s">
         <v>592</v>
-      </c>
-      <c r="D129" s="25" t="s">
-        <v>592</v>
-      </c>
-      <c r="E129" s="25" t="s">
-        <v>593</v>
       </c>
       <c r="F129" s="25" t="s">
         <v>36</v>
@@ -12036,37 +12036,37 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B130" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="C130" s="25" t="s">
         <v>594</v>
       </c>
-      <c r="C130" s="25" t="s">
+      <c r="D130" s="25" t="s">
+        <v>594</v>
+      </c>
+      <c r="E130" s="25" t="s">
         <v>595</v>
-      </c>
-      <c r="D130" s="25" t="s">
-        <v>595</v>
-      </c>
-      <c r="E130" s="25" t="s">
-        <v>596</v>
       </c>
       <c r="F130" s="25"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B131" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="C131" s="25" t="s">
         <v>597</v>
       </c>
-      <c r="C131" s="25" t="s">
+      <c r="D131" s="25" t="s">
+        <v>597</v>
+      </c>
+      <c r="E131" s="25" t="s">
         <v>598</v>
-      </c>
-      <c r="D131" s="25" t="s">
-        <v>598</v>
-      </c>
-      <c r="E131" s="25" t="s">
-        <v>599</v>
       </c>
       <c r="F131" s="25" t="s">
         <v>36</v>
@@ -12112,7 +12112,7 @@
         <v>19</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">

--- a/Excels/MW.xlsx
+++ b/Excels/MW.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20280" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20280"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -580,9 +580,6 @@
     <t>***5D6K0</t>
   </si>
   <si>
-    <t>SnVseUAxMjMk</t>
-  </si>
-  <si>
     <t>TableName</t>
   </si>
   <si>
@@ -2717,12 +2714,6 @@
     <t>210820000211</t>
   </si>
   <si>
-    <t>Rm9yZ290QDEyMw</t>
-  </si>
-  <si>
-    <t>U2FmZUAxMjM</t>
-  </si>
-  <si>
     <t>030920000221</t>
   </si>
   <si>
@@ -2940,6 +2931,15 @@
   </si>
   <si>
     <t>Total Committed SLA</t>
+  </si>
+  <si>
+    <t>QWlydGVsIzMyMQ</t>
+  </si>
+  <si>
+    <t>U2VwdEAxMjMk</t>
+  </si>
+  <si>
+    <t>S3l1Y2hheWllQDEyMw</t>
   </si>
 </sst>
 </file>
@@ -3259,7 +3259,7 @@
         <xdr:cNvPr id="2" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3591,8 +3591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3648,7 +3648,7 @@
         <v>12</v>
       </c>
       <c r="O1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -3656,7 +3656,7 @@
         <v>2390495</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>178</v>
+        <v>963</v>
       </c>
       <c r="C2" t="s">
         <v>67</v>
@@ -3695,7 +3695,7 @@
         <v>177</v>
       </c>
       <c r="O2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -3703,7 +3703,7 @@
         <v>2388192</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>891</v>
+        <v>962</v>
       </c>
       <c r="C3" t="s">
         <v>66</v>
@@ -3714,7 +3714,7 @@
         <v>2390495</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>178</v>
+        <v>963</v>
       </c>
       <c r="C4" t="s">
         <v>175</v>
@@ -3728,10 +3728,10 @@
         <v>2394650</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>890</v>
+        <v>964</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D5">
         <v>999989584</v>
@@ -3837,49 +3837,49 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
   </sheetData>
@@ -3905,19 +3905,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>908</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>909</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>910</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>911</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>912</v>
       </c>
     </row>
   </sheetData>
@@ -3952,72 +3952,72 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="B1" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C1" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B2" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
   </sheetData>
@@ -4042,36 +4042,36 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>931</v>
+      </c>
+      <c r="B1" t="s">
+        <v>932</v>
+      </c>
+      <c r="C1" t="s">
+        <v>933</v>
+      </c>
+      <c r="D1" t="s">
         <v>934</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>935</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>936</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>937</v>
-      </c>
-      <c r="E1" t="s">
-        <v>938</v>
-      </c>
-      <c r="F1" t="s">
-        <v>939</v>
-      </c>
-      <c r="G1" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="B2" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="C2" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
   </sheetData>
@@ -4099,42 +4099,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
+        <v>941</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>942</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>943</v>
+      </c>
+      <c r="D1" s="31" t="s">
         <v>944</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="E1" s="31" t="s">
         <v>945</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="F1" s="31" t="s">
         <v>946</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="G1" s="31" t="s">
         <v>947</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="H1" s="31" t="s">
         <v>948</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="I1" s="31" t="s">
         <v>949</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>950</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>951</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>952</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>953</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>57</v>
@@ -4277,31 +4277,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>186</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4309,19 +4309,19 @@
         <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>161</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -4329,22 +4329,22 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -4352,22 +4352,22 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>200</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -4375,48 +4375,48 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -4425,19 +4425,19 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>211</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -4446,22 +4446,22 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -4469,22 +4469,22 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -4501,7 +4501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AH76" sqref="AH76"/>
     </sheetView>
   </sheetViews>
@@ -4603,10 +4603,10 @@
         <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="Y1" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="Z1" t="s">
         <v>22</v>
@@ -4618,25 +4618,25 @@
         <v>34</v>
       </c>
       <c r="AC1" s="36" t="s">
+        <v>955</v>
+      </c>
+      <c r="AD1" s="36" t="s">
+        <v>956</v>
+      </c>
+      <c r="AE1" s="36" t="s">
+        <v>957</v>
+      </c>
+      <c r="AF1" s="36" t="s">
         <v>958</v>
       </c>
-      <c r="AD1" s="36" t="s">
+      <c r="AG1" s="36" t="s">
         <v>959</v>
       </c>
-      <c r="AE1" s="36" t="s">
+      <c r="AH1" s="36" t="s">
         <v>960</v>
       </c>
-      <c r="AF1" s="36" t="s">
+      <c r="AI1" s="37" t="s">
         <v>961</v>
-      </c>
-      <c r="AG1" s="36" t="s">
-        <v>962</v>
-      </c>
-      <c r="AH1" s="36" t="s">
-        <v>963</v>
-      </c>
-      <c r="AI1" s="37" t="s">
-        <v>964</v>
       </c>
       <c r="AJ1" t="s">
         <v>42</v>
@@ -4729,7 +4729,7 @@
         <v>140</v>
       </c>
       <c r="AL2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
@@ -4783,7 +4783,7 @@
         <v>140</v>
       </c>
       <c r="AL3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
@@ -4873,7 +4873,7 @@
         <v>140</v>
       </c>
       <c r="AL4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
@@ -4927,7 +4927,7 @@
         <v>140</v>
       </c>
       <c r="AL5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
@@ -5098,7 +5098,7 @@
         <v>140</v>
       </c>
       <c r="AL7" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
@@ -5106,19 +5106,19 @@
         <v>130</v>
       </c>
       <c r="B8" s="19" t="s">
+        <v>599</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>600</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="D8" s="19" t="s">
+        <v>600</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>601</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>601</v>
-      </c>
-      <c r="E8" s="19" t="s">
+      <c r="F8" s="19" t="s">
         <v>602</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>603</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>172</v>
@@ -5127,7 +5127,7 @@
         <v>31</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="J8" s="19" t="s">
         <v>172</v>
@@ -5139,7 +5139,7 @@
         <v>160</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N8" s="19" t="s">
         <v>31</v>
@@ -5182,7 +5182,7 @@
         <v>140</v>
       </c>
       <c r="AL8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
@@ -5190,16 +5190,16 @@
         <v>130</v>
       </c>
       <c r="B9" s="21" t="s">
+        <v>605</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>606</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="D9" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>607</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>607</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>608</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -5236,7 +5236,7 @@
         <v>140</v>
       </c>
       <c r="AL9" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
@@ -5244,16 +5244,16 @@
         <v>130</v>
       </c>
       <c r="B10" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>609</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>478</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>478</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>610</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
@@ -5290,7 +5290,7 @@
         <v>140</v>
       </c>
       <c r="AL10" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
@@ -5298,16 +5298,16 @@
         <v>130</v>
       </c>
       <c r="B11" s="21" t="s">
+        <v>610</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>611</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>612</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -5344,7 +5344,7 @@
         <v>140</v>
       </c>
       <c r="AL11" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
@@ -5352,16 +5352,16 @@
         <v>130</v>
       </c>
       <c r="B12" s="19" t="s">
+        <v>612</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>613</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="D12" s="19" t="s">
+        <v>613</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>614</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>614</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>615</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
@@ -5398,7 +5398,7 @@
         <v>140</v>
       </c>
       <c r="AL12" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
@@ -5406,16 +5406,16 @@
         <v>130</v>
       </c>
       <c r="B13" s="21" t="s">
+        <v>615</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>616</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>617</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -5452,7 +5452,7 @@
         <v>140</v>
       </c>
       <c r="AL13" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
@@ -5460,16 +5460,16 @@
         <v>130</v>
       </c>
       <c r="B14" s="19" t="s">
+        <v>617</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>618</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="D14" s="19" t="s">
+        <v>618</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>619</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>619</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>620</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
@@ -5506,7 +5506,7 @@
         <v>140</v>
       </c>
       <c r="AL14" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
@@ -5514,16 +5514,16 @@
         <v>130</v>
       </c>
       <c r="B15" s="21" t="s">
+        <v>620</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>525</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>525</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>621</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>526</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>526</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>622</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -5560,7 +5560,7 @@
         <v>140</v>
       </c>
       <c r="AL15" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
@@ -5568,16 +5568,16 @@
         <v>130</v>
       </c>
       <c r="B16" s="19" t="s">
+        <v>622</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>623</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="D16" s="19" t="s">
+        <v>623</v>
+      </c>
+      <c r="E16" s="19" t="s">
         <v>624</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>624</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>625</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
@@ -5614,7 +5614,7 @@
         <v>140</v>
       </c>
       <c r="AL16" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
@@ -5622,16 +5622,16 @@
         <v>130</v>
       </c>
       <c r="B17" s="21" t="s">
+        <v>625</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>626</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="D17" s="21" t="s">
+        <v>626</v>
+      </c>
+      <c r="E17" s="21" t="s">
         <v>627</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>627</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>628</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
@@ -5668,7 +5668,7 @@
         <v>140</v>
       </c>
       <c r="AL17" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
@@ -5676,16 +5676,16 @@
         <v>130</v>
       </c>
       <c r="B18" s="19" t="s">
+        <v>628</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>629</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="D18" s="19" t="s">
+        <v>629</v>
+      </c>
+      <c r="E18" s="19" t="s">
         <v>630</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>630</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>631</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
@@ -5722,24 +5722,24 @@
         <v>140</v>
       </c>
       <c r="AL18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
+        <v>631</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>632</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="C19" s="21" t="s">
         <v>633</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="D19" s="21" t="s">
+        <v>633</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>634</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>634</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>635</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
@@ -5776,24 +5776,24 @@
         <v>140</v>
       </c>
       <c r="AL19" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B20" s="19" t="s">
+        <v>635</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>636</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="D20" s="19" t="s">
+        <v>636</v>
+      </c>
+      <c r="E20" s="19" t="s">
         <v>637</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>637</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>638</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
@@ -5830,24 +5830,24 @@
         <v>140</v>
       </c>
       <c r="AL20" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B21" s="21" t="s">
+        <v>638</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>639</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="D21" s="21" t="s">
+        <v>639</v>
+      </c>
+      <c r="E21" s="21" t="s">
         <v>640</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>640</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>641</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
@@ -5884,24 +5884,24 @@
         <v>140</v>
       </c>
       <c r="AL21" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B22" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>642</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="D22" s="19" t="s">
+        <v>642</v>
+      </c>
+      <c r="E22" s="19" t="s">
         <v>643</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>643</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>644</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
@@ -5938,24 +5938,24 @@
         <v>140</v>
       </c>
       <c r="AL22" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B23" s="21" t="s">
+        <v>644</v>
+      </c>
+      <c r="C23" s="21" t="s">
         <v>645</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="D23" s="21" t="s">
+        <v>645</v>
+      </c>
+      <c r="E23" s="21" t="s">
         <v>646</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>646</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>647</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
@@ -5992,24 +5992,24 @@
         <v>140</v>
       </c>
       <c r="AL23" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B24" s="19" t="s">
+        <v>647</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>648</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="D24" s="19" t="s">
+        <v>648</v>
+      </c>
+      <c r="E24" s="19" t="s">
         <v>649</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>649</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>650</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
@@ -6046,24 +6046,24 @@
         <v>140</v>
       </c>
       <c r="AL24" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B25" s="21" t="s">
+        <v>650</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>651</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="D25" s="21" t="s">
+        <v>651</v>
+      </c>
+      <c r="E25" s="21" t="s">
         <v>652</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>652</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>653</v>
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
@@ -6100,24 +6100,24 @@
         <v>140</v>
       </c>
       <c r="AL25" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B26" s="19" t="s">
+        <v>653</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>654</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="D26" s="19" t="s">
+        <v>654</v>
+      </c>
+      <c r="E26" s="19" t="s">
         <v>655</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>655</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>656</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
@@ -6156,19 +6156,19 @@
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B27" s="21" t="s">
+        <v>656</v>
+      </c>
+      <c r="C27" s="21" t="s">
         <v>657</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="D27" s="21" t="s">
+        <v>657</v>
+      </c>
+      <c r="E27" s="21" t="s">
         <v>658</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>658</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>659</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -6205,24 +6205,24 @@
         <v>140</v>
       </c>
       <c r="AL27" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B28" s="19" t="s">
+        <v>659</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>660</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="D28" s="19" t="s">
+        <v>660</v>
+      </c>
+      <c r="E28" s="19" t="s">
         <v>661</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>661</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>662</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
@@ -6259,24 +6259,24 @@
         <v>140</v>
       </c>
       <c r="AL28" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B29" s="21" t="s">
+        <v>662</v>
+      </c>
+      <c r="C29" s="21" t="s">
         <v>663</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="D29" s="21" t="s">
+        <v>663</v>
+      </c>
+      <c r="E29" s="21" t="s">
         <v>664</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>664</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>665</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
@@ -6313,24 +6313,24 @@
         <v>140</v>
       </c>
       <c r="AL29" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B30" s="19" t="s">
+        <v>665</v>
+      </c>
+      <c r="C30" s="19" t="s">
         <v>666</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="D30" s="19" t="s">
+        <v>666</v>
+      </c>
+      <c r="E30" s="19" t="s">
         <v>667</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>667</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>668</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
@@ -6367,27 +6367,27 @@
         <v>140</v>
       </c>
       <c r="AL30" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B31" s="21" t="s">
+        <v>668</v>
+      </c>
+      <c r="C31" s="21" t="s">
         <v>669</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="D31" s="21" t="s">
+        <v>669</v>
+      </c>
+      <c r="E31" s="21" t="s">
         <v>670</v>
       </c>
-      <c r="D31" s="21" t="s">
-        <v>670</v>
-      </c>
-      <c r="E31" s="21" t="s">
+      <c r="F31" s="21" t="s">
         <v>671</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>672</v>
       </c>
       <c r="G31" s="21" t="s">
         <v>172</v>
@@ -6396,7 +6396,7 @@
         <v>31</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="J31" s="21" t="s">
         <v>172</v>
@@ -6405,7 +6405,7 @@
         <v>31</v>
       </c>
       <c r="L31" s="21" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="M31" s="21" t="s">
         <v>172</v>
@@ -6439,24 +6439,24 @@
         <v>140</v>
       </c>
       <c r="AL31" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B32" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>675</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="D32" s="19" t="s">
+        <v>675</v>
+      </c>
+      <c r="E32" s="19" t="s">
         <v>676</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>676</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>677</v>
       </c>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
@@ -6493,24 +6493,24 @@
         <v>140</v>
       </c>
       <c r="AL32" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B33" s="21" t="s">
+        <v>677</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="E33" s="21" t="s">
         <v>678</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>530</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>530</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>679</v>
       </c>
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
@@ -6547,27 +6547,27 @@
         <v>140</v>
       </c>
       <c r="AL33" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B34" s="19" t="s">
+        <v>679</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="E34" s="19" t="s">
         <v>680</v>
       </c>
-      <c r="C34" s="19" t="s">
-        <v>553</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>553</v>
-      </c>
-      <c r="E34" s="19" t="s">
+      <c r="F34" s="19" t="s">
         <v>681</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>682</v>
       </c>
       <c r="G34" s="19" t="s">
         <v>172</v>
@@ -6576,7 +6576,7 @@
         <v>31</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J34" s="19" t="s">
         <v>172</v>
@@ -6585,7 +6585,7 @@
         <v>31</v>
       </c>
       <c r="L34" s="19" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="M34" s="19" t="s">
         <v>172</v>
@@ -6594,7 +6594,7 @@
         <v>31</v>
       </c>
       <c r="O34" s="19" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="P34" s="19" t="s">
         <v>172</v>
@@ -6625,24 +6625,24 @@
         <v>140</v>
       </c>
       <c r="AL34" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B35" s="21" t="s">
+        <v>685</v>
+      </c>
+      <c r="C35" s="21" t="s">
         <v>686</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="D35" s="21" t="s">
+        <v>686</v>
+      </c>
+      <c r="E35" s="21" t="s">
         <v>687</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>687</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>688</v>
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
@@ -6679,24 +6679,24 @@
         <v>140</v>
       </c>
       <c r="AL35" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B36" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="C36" s="19" t="s">
         <v>689</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="D36" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="E36" s="19" t="s">
         <v>690</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>690</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>691</v>
       </c>
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
@@ -6733,24 +6733,24 @@
         <v>140</v>
       </c>
       <c r="AL36" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B37" s="21" t="s">
+        <v>691</v>
+      </c>
+      <c r="C37" s="21" t="s">
         <v>692</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="D37" s="21" t="s">
+        <v>692</v>
+      </c>
+      <c r="E37" s="21" t="s">
         <v>693</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>693</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>694</v>
       </c>
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
@@ -6787,24 +6787,24 @@
         <v>72</v>
       </c>
       <c r="AL37" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B38" s="19" t="s">
+        <v>694</v>
+      </c>
+      <c r="C38" s="19" t="s">
         <v>695</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="D38" s="19" t="s">
+        <v>695</v>
+      </c>
+      <c r="E38" s="19" t="s">
         <v>696</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>696</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>697</v>
       </c>
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
@@ -6841,24 +6841,24 @@
         <v>69</v>
       </c>
       <c r="AL38" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B39" s="21" t="s">
+        <v>697</v>
+      </c>
+      <c r="C39" s="21" t="s">
         <v>698</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="D39" s="21" t="s">
+        <v>698</v>
+      </c>
+      <c r="E39" s="21" t="s">
         <v>699</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>699</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>700</v>
       </c>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
@@ -6895,24 +6895,24 @@
         <v>69</v>
       </c>
       <c r="AL39" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B40" s="19" t="s">
+        <v>700</v>
+      </c>
+      <c r="C40" s="19" t="s">
         <v>701</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="D40" s="19" t="s">
+        <v>701</v>
+      </c>
+      <c r="E40" s="19" t="s">
         <v>702</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>702</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>703</v>
       </c>
       <c r="F40" s="19"/>
       <c r="G40" s="19"/>
@@ -6949,24 +6949,24 @@
         <v>140</v>
       </c>
       <c r="AL40" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B41" s="21" t="s">
+        <v>703</v>
+      </c>
+      <c r="C41" s="21" t="s">
         <v>704</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="D41" s="21" t="s">
+        <v>704</v>
+      </c>
+      <c r="E41" s="21" t="s">
         <v>705</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>705</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>706</v>
       </c>
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
@@ -7003,24 +7003,24 @@
         <v>140</v>
       </c>
       <c r="AL41" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B42" s="19" t="s">
+        <v>706</v>
+      </c>
+      <c r="C42" s="19" t="s">
         <v>707</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="D42" s="19" t="s">
+        <v>707</v>
+      </c>
+      <c r="E42" s="19" t="s">
         <v>708</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>708</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>709</v>
       </c>
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
@@ -7057,24 +7057,24 @@
         <v>140</v>
       </c>
       <c r="AL42" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B43" s="21" t="s">
+        <v>709</v>
+      </c>
+      <c r="C43" s="21" t="s">
         <v>710</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="D43" s="21" t="s">
+        <v>710</v>
+      </c>
+      <c r="E43" s="21" t="s">
         <v>711</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>711</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>712</v>
       </c>
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
@@ -7111,24 +7111,24 @@
         <v>140</v>
       </c>
       <c r="AL43" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B44" s="19" t="s">
+        <v>712</v>
+      </c>
+      <c r="C44" s="19" t="s">
         <v>713</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="D44" s="19" t="s">
+        <v>713</v>
+      </c>
+      <c r="E44" s="19" t="s">
         <v>714</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>714</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>715</v>
       </c>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
@@ -7165,24 +7165,24 @@
         <v>140</v>
       </c>
       <c r="AL44" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B45" s="21" t="s">
+        <v>715</v>
+      </c>
+      <c r="C45" s="21" t="s">
         <v>716</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="D45" s="21" t="s">
+        <v>716</v>
+      </c>
+      <c r="E45" s="21" t="s">
         <v>717</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>717</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>718</v>
       </c>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
@@ -7219,24 +7219,24 @@
         <v>140</v>
       </c>
       <c r="AL45" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B46" s="19" t="s">
+        <v>718</v>
+      </c>
+      <c r="C46" s="19" t="s">
         <v>719</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="D46" s="19" t="s">
+        <v>719</v>
+      </c>
+      <c r="E46" s="19" t="s">
         <v>720</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>720</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>721</v>
       </c>
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
@@ -7273,24 +7273,24 @@
         <v>140</v>
       </c>
       <c r="AL46" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B47" s="21" t="s">
+        <v>721</v>
+      </c>
+      <c r="C47" s="21" t="s">
         <v>722</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="D47" s="21" t="s">
+        <v>722</v>
+      </c>
+      <c r="E47" s="21" t="s">
         <v>723</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>723</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>724</v>
       </c>
       <c r="F47" s="21"/>
       <c r="G47" s="21"/>
@@ -7327,24 +7327,24 @@
         <v>140</v>
       </c>
       <c r="AL47" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B48" s="19" t="s">
+        <v>724</v>
+      </c>
+      <c r="C48" s="19" t="s">
         <v>725</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="D48" s="19" t="s">
+        <v>725</v>
+      </c>
+      <c r="E48" s="19" t="s">
         <v>726</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>726</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>727</v>
       </c>
       <c r="F48" s="19"/>
       <c r="G48" s="19"/>
@@ -7381,24 +7381,24 @@
         <v>140</v>
       </c>
       <c r="AL48" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B49" s="21" t="s">
+        <v>727</v>
+      </c>
+      <c r="C49" s="21" t="s">
         <v>728</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="D49" s="21" t="s">
+        <v>728</v>
+      </c>
+      <c r="E49" s="21" t="s">
         <v>729</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>729</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>730</v>
       </c>
       <c r="F49" s="21"/>
       <c r="G49" s="21"/>
@@ -7435,24 +7435,24 @@
         <v>140</v>
       </c>
       <c r="AL49" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B50" s="19" t="s">
+        <v>730</v>
+      </c>
+      <c r="C50" s="19" t="s">
         <v>731</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="D50" s="19" t="s">
+        <v>731</v>
+      </c>
+      <c r="E50" s="19" t="s">
         <v>732</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>732</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>733</v>
       </c>
       <c r="F50" s="19"/>
       <c r="G50" s="19"/>
@@ -7489,24 +7489,24 @@
         <v>74</v>
       </c>
       <c r="AL50" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B51" s="21" t="s">
+        <v>733</v>
+      </c>
+      <c r="C51" s="21" t="s">
         <v>734</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="D51" s="21" t="s">
+        <v>734</v>
+      </c>
+      <c r="E51" s="21" t="s">
         <v>735</v>
-      </c>
-      <c r="D51" s="21" t="s">
-        <v>735</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>736</v>
       </c>
       <c r="F51" s="21"/>
       <c r="G51" s="21"/>
@@ -7543,24 +7543,24 @@
         <v>74</v>
       </c>
       <c r="AL51" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B52" s="19" t="s">
+        <v>736</v>
+      </c>
+      <c r="C52" s="19" t="s">
         <v>737</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="D52" s="19" t="s">
+        <v>737</v>
+      </c>
+      <c r="E52" s="19" t="s">
         <v>738</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>738</v>
-      </c>
-      <c r="E52" s="19" t="s">
-        <v>739</v>
       </c>
       <c r="F52" s="19"/>
       <c r="G52" s="19"/>
@@ -7597,24 +7597,24 @@
         <v>140</v>
       </c>
       <c r="AL52" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B53" s="21" t="s">
+        <v>739</v>
+      </c>
+      <c r="C53" s="21" t="s">
         <v>740</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="D53" s="21" t="s">
+        <v>740</v>
+      </c>
+      <c r="E53" s="21" t="s">
         <v>741</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>741</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>742</v>
       </c>
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
@@ -7651,24 +7651,24 @@
         <v>140</v>
       </c>
       <c r="AL53" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B54" s="19" t="s">
+        <v>742</v>
+      </c>
+      <c r="C54" s="19" t="s">
         <v>743</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="D54" s="19" t="s">
+        <v>743</v>
+      </c>
+      <c r="E54" s="19" t="s">
         <v>744</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>744</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>745</v>
       </c>
       <c r="F54" s="19"/>
       <c r="G54" s="19"/>
@@ -7705,24 +7705,24 @@
         <v>140</v>
       </c>
       <c r="AL54" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B55" s="21" t="s">
+        <v>745</v>
+      </c>
+      <c r="C55" s="21" t="s">
         <v>746</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="D55" s="21" t="s">
+        <v>746</v>
+      </c>
+      <c r="E55" s="21" t="s">
         <v>747</v>
-      </c>
-      <c r="D55" s="21" t="s">
-        <v>747</v>
-      </c>
-      <c r="E55" s="21" t="s">
-        <v>748</v>
       </c>
       <c r="F55" s="21"/>
       <c r="G55" s="21"/>
@@ -7759,24 +7759,24 @@
         <v>140</v>
       </c>
       <c r="AL55" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B56" s="19" t="s">
+        <v>748</v>
+      </c>
+      <c r="C56" s="19" t="s">
         <v>749</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="D56" s="19" t="s">
+        <v>749</v>
+      </c>
+      <c r="E56" s="19" t="s">
         <v>750</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>750</v>
-      </c>
-      <c r="E56" s="19" t="s">
-        <v>751</v>
       </c>
       <c r="F56" s="19"/>
       <c r="G56" s="19"/>
@@ -7813,24 +7813,24 @@
         <v>140</v>
       </c>
       <c r="AL56" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B57" s="21" t="s">
+        <v>751</v>
+      </c>
+      <c r="C57" s="21" t="s">
         <v>752</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="D57" s="21" t="s">
+        <v>752</v>
+      </c>
+      <c r="E57" s="21" t="s">
         <v>753</v>
-      </c>
-      <c r="D57" s="21" t="s">
-        <v>753</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>754</v>
       </c>
       <c r="F57" s="21"/>
       <c r="G57" s="21"/>
@@ -7867,24 +7867,24 @@
         <v>140</v>
       </c>
       <c r="AL57" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B58" s="19" t="s">
+        <v>754</v>
+      </c>
+      <c r="C58" s="19" t="s">
         <v>755</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="D58" s="19" t="s">
+        <v>755</v>
+      </c>
+      <c r="E58" s="19" t="s">
         <v>756</v>
-      </c>
-      <c r="D58" s="19" t="s">
-        <v>756</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>757</v>
       </c>
       <c r="F58" s="19"/>
       <c r="G58" s="19"/>
@@ -7921,24 +7921,24 @@
         <v>140</v>
       </c>
       <c r="AL58" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B59" s="21" t="s">
+        <v>757</v>
+      </c>
+      <c r="C59" s="21" t="s">
         <v>758</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="D59" s="21" t="s">
+        <v>758</v>
+      </c>
+      <c r="E59" s="21" t="s">
         <v>759</v>
-      </c>
-      <c r="D59" s="21" t="s">
-        <v>759</v>
-      </c>
-      <c r="E59" s="21" t="s">
-        <v>760</v>
       </c>
       <c r="F59" s="21"/>
       <c r="G59" s="21"/>
@@ -7975,24 +7975,24 @@
         <v>74</v>
       </c>
       <c r="AL59" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B60" s="19" t="s">
+        <v>760</v>
+      </c>
+      <c r="C60" s="19" t="s">
         <v>761</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="D60" s="19" t="s">
+        <v>761</v>
+      </c>
+      <c r="E60" s="19" t="s">
         <v>762</v>
-      </c>
-      <c r="D60" s="19" t="s">
-        <v>762</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>763</v>
       </c>
       <c r="F60" s="19"/>
       <c r="G60" s="19"/>
@@ -8029,24 +8029,24 @@
         <v>140</v>
       </c>
       <c r="AL60" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B61" s="21" t="s">
+        <v>763</v>
+      </c>
+      <c r="C61" s="21" t="s">
         <v>764</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="D61" s="21" t="s">
+        <v>764</v>
+      </c>
+      <c r="E61" s="21" t="s">
         <v>765</v>
-      </c>
-      <c r="D61" s="21" t="s">
-        <v>765</v>
-      </c>
-      <c r="E61" s="21" t="s">
-        <v>766</v>
       </c>
       <c r="F61" s="21"/>
       <c r="G61" s="21"/>
@@ -8083,24 +8083,24 @@
         <v>140</v>
       </c>
       <c r="AL61" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B62" s="19" t="s">
+        <v>766</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>573</v>
+      </c>
+      <c r="D62" s="19" t="s">
+        <v>573</v>
+      </c>
+      <c r="E62" s="19" t="s">
         <v>767</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>574</v>
-      </c>
-      <c r="D62" s="19" t="s">
-        <v>574</v>
-      </c>
-      <c r="E62" s="19" t="s">
-        <v>768</v>
       </c>
       <c r="F62" s="19"/>
       <c r="G62" s="19"/>
@@ -8137,24 +8137,24 @@
         <v>140</v>
       </c>
       <c r="AL62" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B63" s="21" t="s">
+        <v>768</v>
+      </c>
+      <c r="C63" s="21" t="s">
         <v>769</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="D63" s="21" t="s">
+        <v>769</v>
+      </c>
+      <c r="E63" s="21" t="s">
         <v>770</v>
-      </c>
-      <c r="D63" s="21" t="s">
-        <v>770</v>
-      </c>
-      <c r="E63" s="21" t="s">
-        <v>771</v>
       </c>
       <c r="F63" s="21"/>
       <c r="G63" s="21"/>
@@ -8191,21 +8191,21 @@
         <v>69</v>
       </c>
       <c r="AL63" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B64" s="19" t="s">
+        <v>771</v>
+      </c>
+      <c r="C64" s="19" t="s">
         <v>772</v>
       </c>
-      <c r="C64" s="19" t="s">
-        <v>773</v>
-      </c>
       <c r="D64" s="19" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E64" s="19" t="s">
         <v>106</v>
@@ -8245,24 +8245,24 @@
         <v>140</v>
       </c>
       <c r="AL64" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B65" s="21" t="s">
+        <v>773</v>
+      </c>
+      <c r="C65" s="21" t="s">
         <v>774</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="D65" s="21" t="s">
+        <v>774</v>
+      </c>
+      <c r="E65" s="21" t="s">
         <v>775</v>
-      </c>
-      <c r="D65" s="21" t="s">
-        <v>775</v>
-      </c>
-      <c r="E65" s="21" t="s">
-        <v>776</v>
       </c>
       <c r="F65" s="21"/>
       <c r="G65" s="21"/>
@@ -8299,24 +8299,24 @@
         <v>140</v>
       </c>
       <c r="AL65" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B66" s="19" t="s">
+        <v>776</v>
+      </c>
+      <c r="C66" s="19" t="s">
         <v>777</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="D66" s="19" t="s">
+        <v>777</v>
+      </c>
+      <c r="E66" s="19" t="s">
         <v>778</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>778</v>
-      </c>
-      <c r="E66" s="19" t="s">
-        <v>779</v>
       </c>
       <c r="F66" s="19"/>
       <c r="G66" s="19"/>
@@ -8353,24 +8353,24 @@
         <v>140</v>
       </c>
       <c r="AL66" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B67" s="21" t="s">
+        <v>779</v>
+      </c>
+      <c r="C67" s="21" t="s">
         <v>780</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="D67" s="21" t="s">
+        <v>780</v>
+      </c>
+      <c r="E67" s="21" t="s">
         <v>781</v>
-      </c>
-      <c r="D67" s="21" t="s">
-        <v>781</v>
-      </c>
-      <c r="E67" s="21" t="s">
-        <v>782</v>
       </c>
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
@@ -8407,24 +8407,24 @@
         <v>140</v>
       </c>
       <c r="AL67" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B68" s="19" t="s">
+        <v>782</v>
+      </c>
+      <c r="C68" s="19" t="s">
         <v>783</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="D68" s="19" t="s">
+        <v>783</v>
+      </c>
+      <c r="E68" s="19" t="s">
         <v>784</v>
-      </c>
-      <c r="D68" s="19" t="s">
-        <v>784</v>
-      </c>
-      <c r="E68" s="19" t="s">
-        <v>785</v>
       </c>
       <c r="F68" s="19"/>
       <c r="G68" s="19"/>
@@ -8461,24 +8461,24 @@
         <v>140</v>
       </c>
       <c r="AL68" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B69" s="21" t="s">
+        <v>785</v>
+      </c>
+      <c r="C69" s="21" t="s">
         <v>786</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="D69" s="21" t="s">
+        <v>786</v>
+      </c>
+      <c r="E69" s="21" t="s">
         <v>787</v>
-      </c>
-      <c r="D69" s="21" t="s">
-        <v>787</v>
-      </c>
-      <c r="E69" s="21" t="s">
-        <v>788</v>
       </c>
       <c r="F69" s="21"/>
       <c r="G69" s="21"/>
@@ -8515,24 +8515,24 @@
         <v>140</v>
       </c>
       <c r="AL69" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B70" s="19" t="s">
+        <v>788</v>
+      </c>
+      <c r="C70" s="19" t="s">
         <v>789</v>
       </c>
-      <c r="C70" s="19" t="s">
+      <c r="D70" s="19" t="s">
+        <v>789</v>
+      </c>
+      <c r="E70" s="19" t="s">
         <v>790</v>
-      </c>
-      <c r="D70" s="19" t="s">
-        <v>790</v>
-      </c>
-      <c r="E70" s="19" t="s">
-        <v>791</v>
       </c>
       <c r="F70" s="19"/>
       <c r="G70" s="19"/>
@@ -8569,24 +8569,24 @@
         <v>140</v>
       </c>
       <c r="AL70" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B71" s="21" t="s">
+        <v>791</v>
+      </c>
+      <c r="C71" s="21" t="s">
         <v>792</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="D71" s="21" t="s">
+        <v>792</v>
+      </c>
+      <c r="E71" s="21" t="s">
         <v>793</v>
-      </c>
-      <c r="D71" s="21" t="s">
-        <v>793</v>
-      </c>
-      <c r="E71" s="21" t="s">
-        <v>794</v>
       </c>
       <c r="F71" s="21"/>
       <c r="G71" s="21"/>
@@ -8623,24 +8623,24 @@
         <v>140</v>
       </c>
       <c r="AL71" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B72" s="19" t="s">
+        <v>794</v>
+      </c>
+      <c r="C72" s="19" t="s">
         <v>795</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="D72" s="19" t="s">
+        <v>795</v>
+      </c>
+      <c r="E72" s="19" t="s">
         <v>796</v>
-      </c>
-      <c r="D72" s="19" t="s">
-        <v>796</v>
-      </c>
-      <c r="E72" s="19" t="s">
-        <v>797</v>
       </c>
       <c r="F72" s="19"/>
       <c r="G72" s="19"/>
@@ -8677,24 +8677,24 @@
         <v>140</v>
       </c>
       <c r="AL72" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B73" s="21" t="s">
+        <v>797</v>
+      </c>
+      <c r="C73" s="21" t="s">
         <v>798</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="D73" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="E73" s="21" t="s">
         <v>799</v>
-      </c>
-      <c r="D73" s="21" t="s">
-        <v>799</v>
-      </c>
-      <c r="E73" s="21" t="s">
-        <v>800</v>
       </c>
       <c r="F73" s="21"/>
       <c r="G73" s="21"/>
@@ -8731,24 +8731,24 @@
         <v>140</v>
       </c>
       <c r="AL73" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B74" s="19" t="s">
+        <v>800</v>
+      </c>
+      <c r="C74" s="19" t="s">
         <v>801</v>
       </c>
-      <c r="C74" s="19" t="s">
+      <c r="D74" s="19" t="s">
+        <v>801</v>
+      </c>
+      <c r="E74" s="19" t="s">
         <v>802</v>
-      </c>
-      <c r="D74" s="19" t="s">
-        <v>802</v>
-      </c>
-      <c r="E74" s="19" t="s">
-        <v>803</v>
       </c>
       <c r="F74" s="19"/>
       <c r="G74" s="19"/>
@@ -8785,24 +8785,24 @@
         <v>140</v>
       </c>
       <c r="AL74" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B75" s="21" t="s">
+        <v>803</v>
+      </c>
+      <c r="C75" s="21" t="s">
         <v>804</v>
       </c>
-      <c r="C75" s="21" t="s">
+      <c r="D75" s="21" t="s">
+        <v>804</v>
+      </c>
+      <c r="E75" s="21" t="s">
         <v>805</v>
-      </c>
-      <c r="D75" s="21" t="s">
-        <v>805</v>
-      </c>
-      <c r="E75" s="21" t="s">
-        <v>806</v>
       </c>
       <c r="F75" s="21"/>
       <c r="G75" s="21"/>
@@ -8839,24 +8839,24 @@
         <v>140</v>
       </c>
       <c r="AL75" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B76" s="19" t="s">
+        <v>806</v>
+      </c>
+      <c r="C76" s="19" t="s">
         <v>807</v>
       </c>
-      <c r="C76" s="19" t="s">
+      <c r="D76" s="19" t="s">
+        <v>807</v>
+      </c>
+      <c r="E76" s="19" t="s">
         <v>808</v>
-      </c>
-      <c r="D76" s="19" t="s">
-        <v>808</v>
-      </c>
-      <c r="E76" s="19" t="s">
-        <v>809</v>
       </c>
       <c r="F76" s="19"/>
       <c r="G76" s="19"/>
@@ -8893,24 +8893,24 @@
         <v>140</v>
       </c>
       <c r="AL76" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B77" s="21" t="s">
+        <v>809</v>
+      </c>
+      <c r="C77" s="21" t="s">
         <v>810</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="D77" s="21" t="s">
+        <v>810</v>
+      </c>
+      <c r="E77" s="21" t="s">
         <v>811</v>
-      </c>
-      <c r="D77" s="21" t="s">
-        <v>811</v>
-      </c>
-      <c r="E77" s="21" t="s">
-        <v>812</v>
       </c>
       <c r="F77" s="21"/>
       <c r="G77" s="21"/>
@@ -8947,24 +8947,24 @@
         <v>140</v>
       </c>
       <c r="AL77" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B78" s="19" t="s">
+        <v>812</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>597</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>597</v>
+      </c>
+      <c r="E78" s="19" t="s">
         <v>813</v>
-      </c>
-      <c r="C78" s="19" t="s">
-        <v>598</v>
-      </c>
-      <c r="D78" s="19" t="s">
-        <v>598</v>
-      </c>
-      <c r="E78" s="19" t="s">
-        <v>814</v>
       </c>
       <c r="F78" s="19"/>
       <c r="G78" s="19"/>
@@ -9001,7 +9001,7 @@
         <v>74</v>
       </c>
       <c r="AL78" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
   </sheetData>
@@ -9117,10 +9117,10 @@
         <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="Y1" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="Z1" t="s">
         <v>22</v>
@@ -9132,25 +9132,25 @@
         <v>34</v>
       </c>
       <c r="AC1" s="36" t="s">
+        <v>955</v>
+      </c>
+      <c r="AD1" s="36" t="s">
+        <v>956</v>
+      </c>
+      <c r="AE1" s="36" t="s">
+        <v>957</v>
+      </c>
+      <c r="AF1" s="36" t="s">
         <v>958</v>
       </c>
-      <c r="AD1" s="36" t="s">
+      <c r="AG1" s="36" t="s">
         <v>959</v>
       </c>
-      <c r="AE1" s="36" t="s">
+      <c r="AH1" s="36" t="s">
         <v>960</v>
       </c>
-      <c r="AF1" s="36" t="s">
+      <c r="AI1" s="37" t="s">
         <v>961</v>
-      </c>
-      <c r="AG1" s="36" t="s">
-        <v>962</v>
-      </c>
-      <c r="AH1" s="36" t="s">
-        <v>963</v>
-      </c>
-      <c r="AI1" s="37" t="s">
-        <v>964</v>
       </c>
       <c r="AJ1" t="s">
         <v>42</v>
@@ -9243,7 +9243,7 @@
         <v>140</v>
       </c>
       <c r="AL2" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
@@ -9297,7 +9297,7 @@
         <v>140</v>
       </c>
       <c r="AL3" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
@@ -9387,7 +9387,7 @@
         <v>140</v>
       </c>
       <c r="AL4" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
@@ -9441,7 +9441,7 @@
         <v>140</v>
       </c>
       <c r="AL5" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
@@ -9525,7 +9525,7 @@
         <v>140</v>
       </c>
       <c r="AL6" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
@@ -9615,7 +9615,7 @@
         <v>140</v>
       </c>
       <c r="AL7" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
   </sheetData>
@@ -9659,7 +9659,7 @@
         <v>19</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -9759,16 +9759,16 @@
         <v>114</v>
       </c>
       <c r="B7" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="D7" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>226</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>227</v>
       </c>
       <c r="F7" s="25"/>
     </row>
@@ -9777,16 +9777,16 @@
         <v>114</v>
       </c>
       <c r="B8" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="D8" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>229</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>230</v>
       </c>
       <c r="F8" s="25"/>
     </row>
@@ -9795,16 +9795,16 @@
         <v>114</v>
       </c>
       <c r="B9" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="D9" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>232</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>232</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>233</v>
       </c>
       <c r="F9" s="25"/>
     </row>
@@ -9813,16 +9813,16 @@
         <v>114</v>
       </c>
       <c r="B10" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="D10" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="E10" s="25" t="s">
         <v>235</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>235</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>236</v>
       </c>
       <c r="F10" s="25"/>
     </row>
@@ -9831,16 +9831,16 @@
         <v>114</v>
       </c>
       <c r="B11" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>237</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="D11" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>238</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>239</v>
       </c>
       <c r="F11" s="25"/>
     </row>
@@ -9849,16 +9849,16 @@
         <v>114</v>
       </c>
       <c r="B12" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="D12" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>241</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>242</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -9867,16 +9867,16 @@
         <v>114</v>
       </c>
       <c r="B13" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="D13" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="E13" s="25" t="s">
         <v>244</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>245</v>
       </c>
       <c r="F13" s="25"/>
     </row>
@@ -9885,16 +9885,16 @@
         <v>114</v>
       </c>
       <c r="B14" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="D14" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="E14" s="25" t="s">
         <v>247</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>248</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>36</v>
@@ -9905,16 +9905,16 @@
         <v>114</v>
       </c>
       <c r="B15" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="C15" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="D15" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="E15" s="25" t="s">
         <v>250</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>250</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>251</v>
       </c>
       <c r="F15" s="25"/>
     </row>
@@ -9923,16 +9923,16 @@
         <v>114</v>
       </c>
       <c r="B16" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C16" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="D16" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="E16" s="25" t="s">
         <v>253</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>254</v>
       </c>
       <c r="F16" s="25" t="s">
         <v>36</v>
@@ -9943,16 +9943,16 @@
         <v>114</v>
       </c>
       <c r="B17" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="C17" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="D17" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="E17" s="25" t="s">
         <v>256</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>257</v>
       </c>
       <c r="F17" s="25" t="s">
         <v>36</v>
@@ -9963,16 +9963,16 @@
         <v>114</v>
       </c>
       <c r="B18" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="C18" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="D18" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="E18" s="25" t="s">
         <v>259</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>259</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>260</v>
       </c>
       <c r="F18" s="25" t="s">
         <v>36</v>
@@ -9983,16 +9983,16 @@
         <v>114</v>
       </c>
       <c r="B19" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="D19" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="E19" s="25" t="s">
         <v>262</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>263</v>
       </c>
       <c r="F19" s="25"/>
     </row>
@@ -10001,16 +10001,16 @@
         <v>114</v>
       </c>
       <c r="B20" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="C20" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="D20" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="E20" s="25" t="s">
         <v>265</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>266</v>
       </c>
       <c r="F20" s="25"/>
     </row>
@@ -10019,16 +10019,16 @@
         <v>114</v>
       </c>
       <c r="B21" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="C21" s="25" t="s">
         <v>267</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="D21" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="E21" s="25" t="s">
         <v>268</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>269</v>
       </c>
       <c r="F21" s="25" t="s">
         <v>36</v>
@@ -10039,16 +10039,16 @@
         <v>114</v>
       </c>
       <c r="B22" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="C22" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="D22" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="E22" s="25" t="s">
         <v>271</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>272</v>
       </c>
       <c r="F22" s="25"/>
     </row>
@@ -10057,16 +10057,16 @@
         <v>114</v>
       </c>
       <c r="B23" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="C23" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="D23" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E23" s="25" t="s">
         <v>274</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>275</v>
       </c>
       <c r="F23" s="25"/>
     </row>
@@ -10075,16 +10075,16 @@
         <v>114</v>
       </c>
       <c r="B24" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="C24" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="D24" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="E24" s="25" t="s">
         <v>277</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>278</v>
       </c>
       <c r="F24" s="25" t="s">
         <v>36</v>
@@ -10095,16 +10095,16 @@
         <v>114</v>
       </c>
       <c r="B25" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="C25" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="D25" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="E25" s="25" t="s">
         <v>280</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>281</v>
       </c>
       <c r="F25" s="25"/>
     </row>
@@ -10113,16 +10113,16 @@
         <v>114</v>
       </c>
       <c r="B26" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="C26" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="D26" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="E26" s="25" t="s">
         <v>283</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>284</v>
       </c>
       <c r="F26" s="25"/>
     </row>
@@ -10131,16 +10131,16 @@
         <v>114</v>
       </c>
       <c r="B27" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="C27" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="D27" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="E27" s="25" t="s">
         <v>286</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>287</v>
       </c>
       <c r="F27" s="25" t="s">
         <v>36</v>
@@ -10151,16 +10151,16 @@
         <v>114</v>
       </c>
       <c r="B28" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="C28" s="25" t="s">
         <v>288</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="D28" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="E28" s="25" t="s">
         <v>289</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>289</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>290</v>
       </c>
       <c r="F28" s="25" t="s">
         <v>36</v>
@@ -10171,16 +10171,16 @@
         <v>114</v>
       </c>
       <c r="B29" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="C29" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="D29" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="E29" s="25" t="s">
         <v>292</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>292</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>293</v>
       </c>
       <c r="F29" s="25" t="s">
         <v>36</v>
@@ -10191,16 +10191,16 @@
         <v>114</v>
       </c>
       <c r="B30" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="C30" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="D30" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="E30" s="25" t="s">
         <v>295</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>296</v>
       </c>
       <c r="F30" s="25"/>
     </row>
@@ -10209,16 +10209,16 @@
         <v>114</v>
       </c>
       <c r="B31" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="C31" s="25" t="s">
         <v>297</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="D31" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="E31" s="25" t="s">
         <v>298</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>298</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>299</v>
       </c>
       <c r="F31" s="25" t="s">
         <v>36</v>
@@ -10229,16 +10229,16 @@
         <v>114</v>
       </c>
       <c r="B32" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="C32" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="D32" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="E32" s="25" t="s">
         <v>301</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>302</v>
       </c>
       <c r="F32" s="25"/>
     </row>
@@ -10247,16 +10247,16 @@
         <v>114</v>
       </c>
       <c r="B33" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="C33" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="D33" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="E33" s="25" t="s">
         <v>304</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="E33" s="25" t="s">
-        <v>305</v>
       </c>
       <c r="F33" s="25" t="s">
         <v>36</v>
@@ -10267,16 +10267,16 @@
         <v>114</v>
       </c>
       <c r="B34" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="C34" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="D34" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="E34" s="25" t="s">
         <v>307</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>307</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>308</v>
       </c>
       <c r="F34" s="25"/>
     </row>
@@ -10285,16 +10285,16 @@
         <v>114</v>
       </c>
       <c r="B35" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="C35" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="C35" s="25" t="s">
+      <c r="D35" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="E35" s="25" t="s">
         <v>310</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>311</v>
       </c>
       <c r="F35" s="25"/>
     </row>
@@ -10303,16 +10303,16 @@
         <v>114</v>
       </c>
       <c r="B36" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="C36" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="D36" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="E36" s="25" t="s">
         <v>313</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>314</v>
       </c>
       <c r="F36" s="25"/>
     </row>
@@ -10321,19 +10321,19 @@
         <v>114</v>
       </c>
       <c r="B37" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="C37" s="25" t="s">
         <v>315</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="D37" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="E37" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="D37" s="25" t="s">
-        <v>316</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>317</v>
-      </c>
       <c r="F37" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -10341,16 +10341,16 @@
         <v>114</v>
       </c>
       <c r="B38" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="C38" s="25" t="s">
         <v>318</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="D38" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="E38" s="25" t="s">
         <v>319</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>319</v>
-      </c>
-      <c r="E38" s="25" t="s">
-        <v>320</v>
       </c>
       <c r="F38" s="25"/>
     </row>
@@ -10359,16 +10359,16 @@
         <v>114</v>
       </c>
       <c r="B39" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="C39" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="D39" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="E39" s="25" t="s">
         <v>322</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>323</v>
       </c>
       <c r="F39" s="25"/>
     </row>
@@ -10377,16 +10377,16 @@
         <v>114</v>
       </c>
       <c r="B40" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="C40" s="25" t="s">
         <v>324</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="D40" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="E40" s="25" t="s">
         <v>325</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>325</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>326</v>
       </c>
       <c r="F40" s="25"/>
     </row>
@@ -10395,16 +10395,16 @@
         <v>114</v>
       </c>
       <c r="B41" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C41" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="D41" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="E41" s="25" t="s">
         <v>328</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>328</v>
-      </c>
-      <c r="E41" s="25" t="s">
-        <v>329</v>
       </c>
       <c r="F41" s="25"/>
     </row>
@@ -10413,16 +10413,16 @@
         <v>114</v>
       </c>
       <c r="B42" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="C42" s="25" t="s">
         <v>330</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="D42" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="E42" s="25" t="s">
         <v>331</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="E42" s="25" t="s">
-        <v>332</v>
       </c>
       <c r="F42" s="25" t="s">
         <v>36</v>
@@ -10433,16 +10433,16 @@
         <v>114</v>
       </c>
       <c r="B43" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="C43" s="25" t="s">
         <v>333</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="D43" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="E43" s="25" t="s">
         <v>334</v>
-      </c>
-      <c r="D43" s="25" t="s">
-        <v>334</v>
-      </c>
-      <c r="E43" s="25" t="s">
-        <v>335</v>
       </c>
       <c r="F43" s="25"/>
     </row>
@@ -10451,16 +10451,16 @@
         <v>114</v>
       </c>
       <c r="B44" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="C44" s="25" t="s">
         <v>336</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="D44" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="E44" s="25" t="s">
         <v>337</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>337</v>
-      </c>
-      <c r="E44" s="25" t="s">
-        <v>338</v>
       </c>
       <c r="F44" s="25" t="s">
         <v>36</v>
@@ -10471,16 +10471,16 @@
         <v>114</v>
       </c>
       <c r="B45" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="C45" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="D45" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="E45" s="25" t="s">
         <v>340</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>340</v>
-      </c>
-      <c r="E45" s="25" t="s">
-        <v>341</v>
       </c>
       <c r="F45" s="25"/>
     </row>
@@ -10489,16 +10489,16 @@
         <v>114</v>
       </c>
       <c r="B46" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="C46" s="25" t="s">
         <v>342</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="D46" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="E46" s="25" t="s">
         <v>343</v>
-      </c>
-      <c r="D46" s="25" t="s">
-        <v>343</v>
-      </c>
-      <c r="E46" s="25" t="s">
-        <v>344</v>
       </c>
       <c r="F46" s="25"/>
     </row>
@@ -10507,16 +10507,16 @@
         <v>114</v>
       </c>
       <c r="B47" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="C47" s="25" t="s">
         <v>345</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="D47" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="E47" s="25" t="s">
         <v>346</v>
-      </c>
-      <c r="D47" s="25" t="s">
-        <v>346</v>
-      </c>
-      <c r="E47" s="25" t="s">
-        <v>347</v>
       </c>
       <c r="F47" s="25"/>
     </row>
@@ -10525,16 +10525,16 @@
         <v>114</v>
       </c>
       <c r="B48" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="C48" s="25" t="s">
         <v>348</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="D48" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="E48" s="25" t="s">
         <v>349</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>349</v>
-      </c>
-      <c r="E48" s="25" t="s">
-        <v>350</v>
       </c>
       <c r="F48" s="25" t="s">
         <v>36</v>
@@ -10545,19 +10545,19 @@
         <v>114</v>
       </c>
       <c r="B49" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C49" s="25" t="s">
         <v>351</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="D49" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="E49" s="25" t="s">
         <v>352</v>
       </c>
-      <c r="D49" s="25" t="s">
-        <v>352</v>
-      </c>
-      <c r="E49" s="25" t="s">
-        <v>353</v>
-      </c>
       <c r="F49" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -10565,16 +10565,16 @@
         <v>114</v>
       </c>
       <c r="B50" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="C50" s="25" t="s">
         <v>354</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="D50" s="25" t="s">
+        <v>354</v>
+      </c>
+      <c r="E50" s="25" t="s">
         <v>355</v>
-      </c>
-      <c r="D50" s="25" t="s">
-        <v>355</v>
-      </c>
-      <c r="E50" s="25" t="s">
-        <v>356</v>
       </c>
       <c r="F50" s="25"/>
     </row>
@@ -10583,16 +10583,16 @@
         <v>114</v>
       </c>
       <c r="B51" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="C51" s="25" t="s">
         <v>357</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="D51" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="E51" s="25" t="s">
         <v>358</v>
-      </c>
-      <c r="D51" s="25" t="s">
-        <v>358</v>
-      </c>
-      <c r="E51" s="25" t="s">
-        <v>359</v>
       </c>
       <c r="F51" s="25"/>
     </row>
@@ -10601,13 +10601,13 @@
         <v>114</v>
       </c>
       <c r="B52" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="C52" s="25" t="s">
         <v>360</v>
       </c>
-      <c r="C52" s="25" t="s">
-        <v>361</v>
-      </c>
       <c r="D52" s="25" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E52" s="25" t="s">
         <v>104</v>
@@ -10619,16 +10619,16 @@
         <v>114</v>
       </c>
       <c r="B53" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="C53" s="25" t="s">
         <v>362</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="D53" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="E53" s="25" t="s">
         <v>363</v>
-      </c>
-      <c r="D53" s="25" t="s">
-        <v>363</v>
-      </c>
-      <c r="E53" s="25" t="s">
-        <v>364</v>
       </c>
       <c r="F53" s="25" t="s">
         <v>36</v>
@@ -10639,16 +10639,16 @@
         <v>114</v>
       </c>
       <c r="B54" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="C54" s="25" t="s">
         <v>365</v>
       </c>
-      <c r="C54" s="25" t="s">
+      <c r="D54" s="25" t="s">
+        <v>365</v>
+      </c>
+      <c r="E54" s="25" t="s">
         <v>366</v>
-      </c>
-      <c r="D54" s="25" t="s">
-        <v>366</v>
-      </c>
-      <c r="E54" s="25" t="s">
-        <v>367</v>
       </c>
       <c r="F54" s="25"/>
     </row>
@@ -10657,16 +10657,16 @@
         <v>114</v>
       </c>
       <c r="B55" s="25" t="s">
+        <v>367</v>
+      </c>
+      <c r="C55" s="25" t="s">
         <v>368</v>
       </c>
-      <c r="C55" s="25" t="s">
+      <c r="D55" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="E55" s="25" t="s">
         <v>369</v>
-      </c>
-      <c r="D55" s="25" t="s">
-        <v>369</v>
-      </c>
-      <c r="E55" s="25" t="s">
-        <v>370</v>
       </c>
       <c r="F55" s="25"/>
     </row>
@@ -10675,16 +10675,16 @@
         <v>114</v>
       </c>
       <c r="B56" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="C56" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="D56" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="E56" s="25" t="s">
         <v>372</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="E56" s="25" t="s">
-        <v>373</v>
       </c>
       <c r="F56" s="25"/>
     </row>
@@ -10693,19 +10693,19 @@
         <v>114</v>
       </c>
       <c r="B57" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="C57" s="25" t="s">
         <v>374</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="D57" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="E57" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="D57" s="25" t="s">
-        <v>375</v>
-      </c>
-      <c r="E57" s="25" t="s">
-        <v>376</v>
-      </c>
       <c r="F57" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -10713,16 +10713,16 @@
         <v>114</v>
       </c>
       <c r="B58" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="C58" s="25" t="s">
         <v>377</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="D58" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="E58" s="25" t="s">
         <v>378</v>
-      </c>
-      <c r="D58" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="E58" s="25" t="s">
-        <v>379</v>
       </c>
       <c r="F58" s="25" t="s">
         <v>36</v>
@@ -10733,16 +10733,16 @@
         <v>114</v>
       </c>
       <c r="B59" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="C59" s="25" t="s">
         <v>380</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="D59" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="E59" s="25" t="s">
         <v>381</v>
-      </c>
-      <c r="D59" s="25" t="s">
-        <v>381</v>
-      </c>
-      <c r="E59" s="25" t="s">
-        <v>382</v>
       </c>
       <c r="F59" s="25"/>
     </row>
@@ -10751,70 +10751,70 @@
         <v>114</v>
       </c>
       <c r="B60" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="C60" s="25" t="s">
         <v>383</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="D60" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="E60" s="25" t="s">
         <v>384</v>
-      </c>
-      <c r="D60" s="25" t="s">
-        <v>384</v>
-      </c>
-      <c r="E60" s="25" t="s">
-        <v>385</v>
       </c>
       <c r="F60" s="25"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="B61" s="25" t="s">
         <v>386</v>
       </c>
-      <c r="B61" s="25" t="s">
+      <c r="C61" s="25" t="s">
         <v>387</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="D61" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="E61" s="25" t="s">
         <v>388</v>
-      </c>
-      <c r="D61" s="25" t="s">
-        <v>388</v>
-      </c>
-      <c r="E61" s="25" t="s">
-        <v>389</v>
       </c>
       <c r="F61" s="25"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B62" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="C62" s="25" t="s">
         <v>390</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="D62" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="E62" s="25" t="s">
         <v>391</v>
-      </c>
-      <c r="D62" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="E62" s="25" t="s">
-        <v>392</v>
       </c>
       <c r="F62" s="25"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B63" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="C63" s="25" t="s">
         <v>393</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="D63" s="25" t="s">
+        <v>393</v>
+      </c>
+      <c r="E63" s="25" t="s">
         <v>394</v>
-      </c>
-      <c r="D63" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="E63" s="25" t="s">
-        <v>395</v>
       </c>
       <c r="F63" s="25" t="s">
         <v>36</v>
@@ -10822,19 +10822,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B64" s="25" t="s">
+        <v>395</v>
+      </c>
+      <c r="C64" s="25" t="s">
         <v>396</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="D64" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="E64" s="25" t="s">
         <v>397</v>
-      </c>
-      <c r="D64" s="25" t="s">
-        <v>397</v>
-      </c>
-      <c r="E64" s="25" t="s">
-        <v>398</v>
       </c>
       <c r="F64" s="25" t="s">
         <v>36</v>
@@ -10842,145 +10842,145 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B65" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="C65" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="D65" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="E65" s="25" t="s">
         <v>400</v>
-      </c>
-      <c r="D65" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="E65" s="25" t="s">
-        <v>401</v>
       </c>
       <c r="F65" s="25"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B66" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="C66" s="25" t="s">
         <v>402</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="D66" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="E66" s="25" t="s">
         <v>403</v>
-      </c>
-      <c r="D66" s="25" t="s">
-        <v>403</v>
-      </c>
-      <c r="E66" s="25" t="s">
-        <v>404</v>
       </c>
       <c r="F66" s="25"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B67" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="C67" s="25" t="s">
         <v>405</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="D67" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="E67" s="25" t="s">
         <v>406</v>
-      </c>
-      <c r="D67" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="E67" s="25" t="s">
-        <v>407</v>
       </c>
       <c r="F67" s="25"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B68" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="C68" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="C68" s="25" t="s">
+      <c r="D68" s="25" t="s">
+        <v>408</v>
+      </c>
+      <c r="E68" s="25" t="s">
         <v>409</v>
-      </c>
-      <c r="D68" s="25" t="s">
-        <v>409</v>
-      </c>
-      <c r="E68" s="25" t="s">
-        <v>410</v>
       </c>
       <c r="F68" s="25"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B69" s="25" t="s">
+        <v>410</v>
+      </c>
+      <c r="C69" s="25" t="s">
         <v>411</v>
       </c>
-      <c r="C69" s="25" t="s">
+      <c r="D69" s="25" t="s">
+        <v>411</v>
+      </c>
+      <c r="E69" s="25" t="s">
         <v>412</v>
-      </c>
-      <c r="D69" s="25" t="s">
-        <v>412</v>
-      </c>
-      <c r="E69" s="25" t="s">
-        <v>413</v>
       </c>
       <c r="F69" s="25"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B70" s="25" t="s">
+        <v>413</v>
+      </c>
+      <c r="C70" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="C70" s="25" t="s">
+      <c r="D70" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="E70" s="25" t="s">
         <v>415</v>
-      </c>
-      <c r="D70" s="25" t="s">
-        <v>415</v>
-      </c>
-      <c r="E70" s="25" t="s">
-        <v>416</v>
       </c>
       <c r="F70" s="25"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B71" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="C71" s="25" t="s">
         <v>417</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="D71" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="E71" s="25" t="s">
         <v>418</v>
-      </c>
-      <c r="D71" s="25" t="s">
-        <v>418</v>
-      </c>
-      <c r="E71" s="25" t="s">
-        <v>419</v>
       </c>
       <c r="F71" s="25"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B72" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="C72" s="25" t="s">
         <v>420</v>
       </c>
-      <c r="C72" s="25" t="s">
+      <c r="D72" s="25" t="s">
+        <v>420</v>
+      </c>
+      <c r="E72" s="25" t="s">
         <v>421</v>
-      </c>
-      <c r="D72" s="25" t="s">
-        <v>421</v>
-      </c>
-      <c r="E72" s="25" t="s">
-        <v>422</v>
       </c>
       <c r="F72" s="25" t="s">
         <v>36</v>
@@ -10988,19 +10988,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B73" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="C73" s="25" t="s">
         <v>423</v>
       </c>
-      <c r="C73" s="25" t="s">
+      <c r="D73" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="E73" s="25" t="s">
         <v>424</v>
-      </c>
-      <c r="D73" s="25" t="s">
-        <v>424</v>
-      </c>
-      <c r="E73" s="25" t="s">
-        <v>425</v>
       </c>
       <c r="F73" s="25" t="s">
         <v>36</v>
@@ -11008,55 +11008,55 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B74" s="25" t="s">
+        <v>425</v>
+      </c>
+      <c r="C74" s="25" t="s">
         <v>426</v>
       </c>
-      <c r="C74" s="25" t="s">
+      <c r="D74" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="E74" s="25" t="s">
         <v>427</v>
-      </c>
-      <c r="D74" s="25" t="s">
-        <v>427</v>
-      </c>
-      <c r="E74" s="25" t="s">
-        <v>428</v>
       </c>
       <c r="F74" s="25"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B75" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="C75" s="25" t="s">
         <v>429</v>
       </c>
-      <c r="C75" s="25" t="s">
+      <c r="D75" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="E75" s="25" t="s">
         <v>430</v>
-      </c>
-      <c r="D75" s="25" t="s">
-        <v>430</v>
-      </c>
-      <c r="E75" s="25" t="s">
-        <v>431</v>
       </c>
       <c r="F75" s="25"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B76" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="C76" s="25" t="s">
         <v>432</v>
       </c>
-      <c r="C76" s="25" t="s">
+      <c r="D76" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="E76" s="25" t="s">
         <v>433</v>
-      </c>
-      <c r="D76" s="25" t="s">
-        <v>433</v>
-      </c>
-      <c r="E76" s="25" t="s">
-        <v>434</v>
       </c>
       <c r="F76" s="25" t="s">
         <v>36</v>
@@ -11064,91 +11064,91 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B77" s="25" t="s">
+        <v>434</v>
+      </c>
+      <c r="C77" s="25" t="s">
         <v>435</v>
       </c>
-      <c r="C77" s="25" t="s">
+      <c r="D77" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="E77" s="25" t="s">
         <v>436</v>
-      </c>
-      <c r="D77" s="25" t="s">
-        <v>436</v>
-      </c>
-      <c r="E77" s="25" t="s">
-        <v>437</v>
       </c>
       <c r="F77" s="25"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B78" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="C78" s="25" t="s">
         <v>438</v>
       </c>
-      <c r="C78" s="25" t="s">
+      <c r="D78" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="E78" s="25" t="s">
         <v>439</v>
-      </c>
-      <c r="D78" s="25" t="s">
-        <v>439</v>
-      </c>
-      <c r="E78" s="25" t="s">
-        <v>440</v>
       </c>
       <c r="F78" s="25"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B79" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="C79" s="25" t="s">
         <v>441</v>
       </c>
-      <c r="C79" s="25" t="s">
+      <c r="D79" s="25" t="s">
+        <v>441</v>
+      </c>
+      <c r="E79" s="25" t="s">
         <v>442</v>
-      </c>
-      <c r="D79" s="25" t="s">
-        <v>442</v>
-      </c>
-      <c r="E79" s="25" t="s">
-        <v>443</v>
       </c>
       <c r="F79" s="25"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B80" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="C80" s="25" t="s">
         <v>444</v>
       </c>
-      <c r="C80" s="25" t="s">
+      <c r="D80" s="25" t="s">
+        <v>444</v>
+      </c>
+      <c r="E80" s="25" t="s">
         <v>445</v>
-      </c>
-      <c r="D80" s="25" t="s">
-        <v>445</v>
-      </c>
-      <c r="E80" s="25" t="s">
-        <v>446</v>
       </c>
       <c r="F80" s="25"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B81" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="C81" s="25" t="s">
         <v>447</v>
       </c>
-      <c r="C81" s="25" t="s">
+      <c r="D81" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="E81" s="25" t="s">
         <v>448</v>
-      </c>
-      <c r="D81" s="25" t="s">
-        <v>448</v>
-      </c>
-      <c r="E81" s="25" t="s">
-        <v>449</v>
       </c>
       <c r="F81" s="25" t="s">
         <v>36</v>
@@ -11156,55 +11156,55 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B82" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="C82" s="25" t="s">
         <v>450</v>
       </c>
-      <c r="C82" s="25" t="s">
+      <c r="D82" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="E82" s="25" t="s">
         <v>451</v>
-      </c>
-      <c r="D82" s="25" t="s">
-        <v>451</v>
-      </c>
-      <c r="E82" s="25" t="s">
-        <v>452</v>
       </c>
       <c r="F82" s="25"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B83" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="C83" s="25" t="s">
         <v>453</v>
       </c>
-      <c r="C83" s="25" t="s">
+      <c r="D83" s="25" t="s">
+        <v>453</v>
+      </c>
+      <c r="E83" s="25" t="s">
         <v>454</v>
-      </c>
-      <c r="D83" s="25" t="s">
-        <v>454</v>
-      </c>
-      <c r="E83" s="25" t="s">
-        <v>455</v>
       </c>
       <c r="F83" s="25"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B84" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="C84" s="25" t="s">
         <v>456</v>
       </c>
-      <c r="C84" s="25" t="s">
+      <c r="D84" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="E84" s="25" t="s">
         <v>457</v>
-      </c>
-      <c r="D84" s="25" t="s">
-        <v>457</v>
-      </c>
-      <c r="E84" s="25" t="s">
-        <v>458</v>
       </c>
       <c r="F84" s="25" t="s">
         <v>36</v>
@@ -11212,163 +11212,163 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B85" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="C85" s="25" t="s">
         <v>459</v>
       </c>
-      <c r="C85" s="25" t="s">
+      <c r="D85" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="E85" s="25" t="s">
         <v>460</v>
-      </c>
-      <c r="D85" s="25" t="s">
-        <v>460</v>
-      </c>
-      <c r="E85" s="25" t="s">
-        <v>461</v>
       </c>
       <c r="F85" s="25"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B86" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="C86" s="25" t="s">
         <v>462</v>
       </c>
-      <c r="C86" s="25" t="s">
+      <c r="D86" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="E86" s="25" t="s">
         <v>463</v>
-      </c>
-      <c r="D86" s="25" t="s">
-        <v>463</v>
-      </c>
-      <c r="E86" s="25" t="s">
-        <v>464</v>
       </c>
       <c r="F86" s="25"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B87" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="C87" s="25" t="s">
         <v>465</v>
       </c>
-      <c r="C87" s="25" t="s">
+      <c r="D87" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="E87" s="25" t="s">
         <v>466</v>
-      </c>
-      <c r="D87" s="25" t="s">
-        <v>466</v>
-      </c>
-      <c r="E87" s="25" t="s">
-        <v>467</v>
       </c>
       <c r="F87" s="25"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B88" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="C88" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="C88" s="25" t="s">
+      <c r="D88" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="E88" s="25" t="s">
         <v>469</v>
-      </c>
-      <c r="D88" s="25" t="s">
-        <v>469</v>
-      </c>
-      <c r="E88" s="25" t="s">
-        <v>470</v>
       </c>
       <c r="F88" s="25"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B89" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="C89" s="25" t="s">
         <v>471</v>
       </c>
-      <c r="C89" s="25" t="s">
+      <c r="D89" s="25" t="s">
+        <v>471</v>
+      </c>
+      <c r="E89" s="25" t="s">
         <v>472</v>
-      </c>
-      <c r="D89" s="25" t="s">
-        <v>472</v>
-      </c>
-      <c r="E89" s="25" t="s">
-        <v>473</v>
       </c>
       <c r="F89" s="25"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B90" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="C90" s="25" t="s">
         <v>474</v>
       </c>
-      <c r="C90" s="25" t="s">
+      <c r="D90" s="25" t="s">
+        <v>474</v>
+      </c>
+      <c r="E90" s="25" t="s">
         <v>475</v>
-      </c>
-      <c r="D90" s="25" t="s">
-        <v>475</v>
-      </c>
-      <c r="E90" s="25" t="s">
-        <v>476</v>
       </c>
       <c r="F90" s="25"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B91" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="C91" s="25" t="s">
         <v>477</v>
       </c>
-      <c r="C91" s="25" t="s">
+      <c r="D91" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="E91" s="25" t="s">
         <v>478</v>
-      </c>
-      <c r="D91" s="25" t="s">
-        <v>478</v>
-      </c>
-      <c r="E91" s="25" t="s">
-        <v>479</v>
       </c>
       <c r="F91" s="25"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B92" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="C92" s="25" t="s">
         <v>480</v>
       </c>
-      <c r="C92" s="25" t="s">
+      <c r="D92" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="E92" s="25" t="s">
         <v>481</v>
-      </c>
-      <c r="D92" s="25" t="s">
-        <v>481</v>
-      </c>
-      <c r="E92" s="25" t="s">
-        <v>482</v>
       </c>
       <c r="F92" s="25"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B93" s="25" t="s">
+        <v>482</v>
+      </c>
+      <c r="C93" s="25" t="s">
         <v>483</v>
       </c>
-      <c r="C93" s="25" t="s">
+      <c r="D93" s="25" t="s">
+        <v>483</v>
+      </c>
+      <c r="E93" s="25" t="s">
         <v>484</v>
-      </c>
-      <c r="D93" s="25" t="s">
-        <v>484</v>
-      </c>
-      <c r="E93" s="25" t="s">
-        <v>485</v>
       </c>
       <c r="F93" s="25" t="s">
         <v>36</v>
@@ -11376,19 +11376,19 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B94" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="C94" s="25" t="s">
         <v>486</v>
       </c>
-      <c r="C94" s="25" t="s">
+      <c r="D94" s="25" t="s">
+        <v>486</v>
+      </c>
+      <c r="E94" s="25" t="s">
         <v>487</v>
-      </c>
-      <c r="D94" s="25" t="s">
-        <v>487</v>
-      </c>
-      <c r="E94" s="25" t="s">
-        <v>488</v>
       </c>
       <c r="F94" s="25" t="s">
         <v>36</v>
@@ -11396,127 +11396,127 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B95" s="25" t="s">
+        <v>488</v>
+      </c>
+      <c r="C95" s="25" t="s">
         <v>489</v>
       </c>
-      <c r="C95" s="25" t="s">
+      <c r="D95" s="25" t="s">
+        <v>489</v>
+      </c>
+      <c r="E95" s="25" t="s">
         <v>490</v>
-      </c>
-      <c r="D95" s="25" t="s">
-        <v>490</v>
-      </c>
-      <c r="E95" s="25" t="s">
-        <v>491</v>
       </c>
       <c r="F95" s="25"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B96" s="25" t="s">
+        <v>491</v>
+      </c>
+      <c r="C96" s="25" t="s">
         <v>492</v>
       </c>
-      <c r="C96" s="25" t="s">
+      <c r="D96" s="25" t="s">
+        <v>492</v>
+      </c>
+      <c r="E96" s="25" t="s">
         <v>493</v>
-      </c>
-      <c r="D96" s="25" t="s">
-        <v>493</v>
-      </c>
-      <c r="E96" s="25" t="s">
-        <v>494</v>
       </c>
       <c r="F96" s="25"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B97" s="25" t="s">
+        <v>494</v>
+      </c>
+      <c r="C97" s="25" t="s">
         <v>495</v>
       </c>
-      <c r="C97" s="25" t="s">
+      <c r="D97" s="25" t="s">
+        <v>495</v>
+      </c>
+      <c r="E97" s="25" t="s">
         <v>496</v>
-      </c>
-      <c r="D97" s="25" t="s">
-        <v>496</v>
-      </c>
-      <c r="E97" s="25" t="s">
-        <v>497</v>
       </c>
       <c r="F97" s="25"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B98" s="25" t="s">
+        <v>497</v>
+      </c>
+      <c r="C98" s="25" t="s">
         <v>498</v>
       </c>
-      <c r="C98" s="25" t="s">
+      <c r="D98" s="25" t="s">
+        <v>498</v>
+      </c>
+      <c r="E98" s="25" t="s">
         <v>499</v>
-      </c>
-      <c r="D98" s="25" t="s">
-        <v>499</v>
-      </c>
-      <c r="E98" s="25" t="s">
-        <v>500</v>
       </c>
       <c r="F98" s="25"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B99" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="C99" s="25" t="s">
         <v>501</v>
       </c>
-      <c r="C99" s="25" t="s">
+      <c r="D99" s="25" t="s">
+        <v>501</v>
+      </c>
+      <c r="E99" s="25" t="s">
         <v>502</v>
-      </c>
-      <c r="D99" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="E99" s="25" t="s">
-        <v>503</v>
       </c>
       <c r="F99" s="25"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B100" s="25" t="s">
+        <v>503</v>
+      </c>
+      <c r="C100" s="25" t="s">
         <v>504</v>
       </c>
-      <c r="C100" s="25" t="s">
+      <c r="D100" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="E100" s="25" t="s">
         <v>505</v>
-      </c>
-      <c r="D100" s="25" t="s">
-        <v>505</v>
-      </c>
-      <c r="E100" s="25" t="s">
-        <v>506</v>
       </c>
       <c r="F100" s="25"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B101" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="C101" s="25" t="s">
         <v>507</v>
       </c>
-      <c r="C101" s="25" t="s">
+      <c r="D101" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="E101" s="25" t="s">
         <v>508</v>
-      </c>
-      <c r="D101" s="25" t="s">
-        <v>508</v>
-      </c>
-      <c r="E101" s="25" t="s">
-        <v>509</v>
       </c>
       <c r="F101" s="25" t="s">
         <v>36</v>
@@ -11524,250 +11524,250 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B102" s="25" t="s">
+        <v>509</v>
+      </c>
+      <c r="C102" s="25" t="s">
         <v>510</v>
       </c>
-      <c r="C102" s="25" t="s">
+      <c r="D102" s="25" t="s">
+        <v>510</v>
+      </c>
+      <c r="E102" s="25" t="s">
         <v>511</v>
-      </c>
-      <c r="D102" s="25" t="s">
-        <v>511</v>
-      </c>
-      <c r="E102" s="25" t="s">
-        <v>512</v>
       </c>
       <c r="F102" s="25"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B103" s="25" t="s">
+        <v>512</v>
+      </c>
+      <c r="C103" s="25" t="s">
         <v>513</v>
       </c>
-      <c r="C103" s="25" t="s">
+      <c r="D103" s="25" t="s">
+        <v>513</v>
+      </c>
+      <c r="E103" s="25" t="s">
         <v>514</v>
-      </c>
-      <c r="D103" s="25" t="s">
-        <v>514</v>
-      </c>
-      <c r="E103" s="25" t="s">
-        <v>515</v>
       </c>
       <c r="F103" s="25"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B104" s="25" t="s">
+        <v>515</v>
+      </c>
+      <c r="C104" s="25" t="s">
         <v>516</v>
       </c>
-      <c r="C104" s="25" t="s">
+      <c r="D104" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="E104" s="25" t="s">
         <v>517</v>
-      </c>
-      <c r="D104" s="25" t="s">
-        <v>517</v>
-      </c>
-      <c r="E104" s="25" t="s">
-        <v>518</v>
       </c>
       <c r="F104" s="25"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B105" s="25" t="s">
+        <v>518</v>
+      </c>
+      <c r="C105" s="25" t="s">
         <v>519</v>
       </c>
-      <c r="C105" s="25" t="s">
+      <c r="D105" s="25" t="s">
+        <v>519</v>
+      </c>
+      <c r="E105" s="25" t="s">
         <v>520</v>
-      </c>
-      <c r="D105" s="25" t="s">
-        <v>520</v>
-      </c>
-      <c r="E105" s="25" t="s">
-        <v>521</v>
       </c>
       <c r="F105" s="25"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B106" s="25" t="s">
+        <v>521</v>
+      </c>
+      <c r="C106" s="25" t="s">
         <v>522</v>
       </c>
-      <c r="C106" s="25" t="s">
+      <c r="D106" s="25" t="s">
+        <v>522</v>
+      </c>
+      <c r="E106" s="25" t="s">
         <v>523</v>
-      </c>
-      <c r="D106" s="25" t="s">
-        <v>523</v>
-      </c>
-      <c r="E106" s="25" t="s">
-        <v>524</v>
       </c>
       <c r="F106" s="25"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B107" s="25" t="s">
+        <v>524</v>
+      </c>
+      <c r="C107" s="25" t="s">
         <v>525</v>
       </c>
-      <c r="C107" s="25" t="s">
+      <c r="D107" s="25" t="s">
+        <v>525</v>
+      </c>
+      <c r="E107" s="25" t="s">
         <v>526</v>
-      </c>
-      <c r="D107" s="25" t="s">
-        <v>526</v>
-      </c>
-      <c r="E107" s="25" t="s">
-        <v>527</v>
       </c>
       <c r="F107" s="25"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="25" t="s">
+        <v>527</v>
+      </c>
+      <c r="B108" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="B108" s="25" t="s">
+      <c r="C108" s="25" t="s">
         <v>529</v>
       </c>
-      <c r="C108" s="25" t="s">
+      <c r="D108" s="25" t="s">
+        <v>529</v>
+      </c>
+      <c r="E108" s="25" t="s">
         <v>530</v>
-      </c>
-      <c r="D108" s="25" t="s">
-        <v>530</v>
-      </c>
-      <c r="E108" s="25" t="s">
-        <v>531</v>
       </c>
       <c r="F108" s="25"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B109" s="25" t="s">
+        <v>531</v>
+      </c>
+      <c r="C109" s="25" t="s">
         <v>532</v>
       </c>
-      <c r="C109" s="25" t="s">
+      <c r="D109" s="25" t="s">
+        <v>532</v>
+      </c>
+      <c r="E109" s="25" t="s">
         <v>533</v>
-      </c>
-      <c r="D109" s="25" t="s">
-        <v>533</v>
-      </c>
-      <c r="E109" s="25" t="s">
-        <v>534</v>
       </c>
       <c r="F109" s="25"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B110" s="25" t="s">
+        <v>534</v>
+      </c>
+      <c r="C110" s="25" t="s">
         <v>535</v>
       </c>
-      <c r="C110" s="25" t="s">
+      <c r="D110" s="25" t="s">
+        <v>535</v>
+      </c>
+      <c r="E110" s="25" t="s">
         <v>536</v>
-      </c>
-      <c r="D110" s="25" t="s">
-        <v>536</v>
-      </c>
-      <c r="E110" s="25" t="s">
-        <v>537</v>
       </c>
       <c r="F110" s="25"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B111" s="25" t="s">
+        <v>537</v>
+      </c>
+      <c r="C111" s="25" t="s">
         <v>538</v>
       </c>
-      <c r="C111" s="25" t="s">
+      <c r="D111" s="25" t="s">
+        <v>538</v>
+      </c>
+      <c r="E111" s="25" t="s">
         <v>539</v>
-      </c>
-      <c r="D111" s="25" t="s">
-        <v>539</v>
-      </c>
-      <c r="E111" s="25" t="s">
-        <v>540</v>
       </c>
       <c r="F111" s="25"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B112" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="C112" s="25" t="s">
         <v>541</v>
       </c>
-      <c r="C112" s="25" t="s">
+      <c r="D112" s="25" t="s">
+        <v>541</v>
+      </c>
+      <c r="E112" s="25" t="s">
         <v>542</v>
-      </c>
-      <c r="D112" s="25" t="s">
-        <v>542</v>
-      </c>
-      <c r="E112" s="25" t="s">
-        <v>543</v>
       </c>
       <c r="F112" s="25"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B113" s="25" t="s">
+        <v>543</v>
+      </c>
+      <c r="C113" s="25" t="s">
         <v>544</v>
       </c>
-      <c r="C113" s="25" t="s">
+      <c r="D113" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="E113" s="25" t="s">
         <v>545</v>
-      </c>
-      <c r="D113" s="25" t="s">
-        <v>545</v>
-      </c>
-      <c r="E113" s="25" t="s">
-        <v>546</v>
       </c>
       <c r="F113" s="25"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B114" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="C114" s="25" t="s">
         <v>547</v>
       </c>
-      <c r="C114" s="25" t="s">
+      <c r="D114" s="25" t="s">
+        <v>547</v>
+      </c>
+      <c r="E114" s="25" t="s">
         <v>548</v>
-      </c>
-      <c r="D114" s="25" t="s">
-        <v>548</v>
-      </c>
-      <c r="E114" s="25" t="s">
-        <v>549</v>
       </c>
       <c r="F114" s="25"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B115" s="25" t="s">
+        <v>549</v>
+      </c>
+      <c r="C115" s="25" t="s">
         <v>550</v>
       </c>
-      <c r="C115" s="25" t="s">
-        <v>551</v>
-      </c>
       <c r="D115" s="25" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E115" s="25" t="s">
         <v>105</v>
@@ -11776,37 +11776,37 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B116" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="C116" s="25" t="s">
         <v>552</v>
       </c>
-      <c r="C116" s="25" t="s">
+      <c r="D116" s="25" t="s">
+        <v>552</v>
+      </c>
+      <c r="E116" s="25" t="s">
         <v>553</v>
-      </c>
-      <c r="D116" s="25" t="s">
-        <v>553</v>
-      </c>
-      <c r="E116" s="25" t="s">
-        <v>554</v>
       </c>
       <c r="F116" s="25"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B117" s="25" t="s">
+        <v>554</v>
+      </c>
+      <c r="C117" s="25" t="s">
         <v>555</v>
       </c>
-      <c r="C117" s="25" t="s">
+      <c r="D117" s="25" t="s">
+        <v>555</v>
+      </c>
+      <c r="E117" s="25" t="s">
         <v>556</v>
-      </c>
-      <c r="D117" s="25" t="s">
-        <v>556</v>
-      </c>
-      <c r="E117" s="25" t="s">
-        <v>557</v>
       </c>
       <c r="F117" s="25" t="s">
         <v>36</v>
@@ -11814,221 +11814,221 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B118" s="25" t="s">
+        <v>557</v>
+      </c>
+      <c r="C118" s="25" t="s">
         <v>558</v>
       </c>
-      <c r="C118" s="25" t="s">
+      <c r="D118" s="25" t="s">
+        <v>558</v>
+      </c>
+      <c r="E118" s="25" t="s">
         <v>559</v>
-      </c>
-      <c r="D118" s="25" t="s">
-        <v>559</v>
-      </c>
-      <c r="E118" s="25" t="s">
-        <v>560</v>
       </c>
       <c r="F118" s="25"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B119" s="25" t="s">
+        <v>560</v>
+      </c>
+      <c r="C119" s="25" t="s">
         <v>561</v>
       </c>
-      <c r="C119" s="25" t="s">
+      <c r="D119" s="25" t="s">
+        <v>561</v>
+      </c>
+      <c r="E119" s="25" t="s">
         <v>562</v>
-      </c>
-      <c r="D119" s="25" t="s">
-        <v>562</v>
-      </c>
-      <c r="E119" s="25" t="s">
-        <v>563</v>
       </c>
       <c r="F119" s="25"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B120" s="25" t="s">
+        <v>563</v>
+      </c>
+      <c r="C120" s="25" t="s">
         <v>564</v>
       </c>
-      <c r="C120" s="25" t="s">
+      <c r="D120" s="25" t="s">
+        <v>564</v>
+      </c>
+      <c r="E120" s="25" t="s">
         <v>565</v>
-      </c>
-      <c r="D120" s="25" t="s">
-        <v>565</v>
-      </c>
-      <c r="E120" s="25" t="s">
-        <v>566</v>
       </c>
       <c r="F120" s="25"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B121" s="25" t="s">
+        <v>566</v>
+      </c>
+      <c r="C121" s="25" t="s">
         <v>567</v>
       </c>
-      <c r="C121" s="25" t="s">
+      <c r="D121" s="25" t="s">
+        <v>567</v>
+      </c>
+      <c r="E121" s="25" t="s">
         <v>568</v>
-      </c>
-      <c r="D121" s="25" t="s">
-        <v>568</v>
-      </c>
-      <c r="E121" s="25" t="s">
-        <v>569</v>
       </c>
       <c r="F121" s="25"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B122" s="25" t="s">
+        <v>569</v>
+      </c>
+      <c r="C122" s="25" t="s">
         <v>570</v>
       </c>
-      <c r="C122" s="25" t="s">
+      <c r="D122" s="25" t="s">
+        <v>570</v>
+      </c>
+      <c r="E122" s="25" t="s">
         <v>571</v>
       </c>
-      <c r="D122" s="25" t="s">
-        <v>571</v>
-      </c>
-      <c r="E122" s="25" t="s">
-        <v>572</v>
-      </c>
       <c r="F122" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A123" s="27" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B123" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="C123" s="25" t="s">
         <v>573</v>
       </c>
-      <c r="C123" s="25" t="s">
+      <c r="D123" s="25" t="s">
+        <v>573</v>
+      </c>
+      <c r="E123" s="25" t="s">
         <v>574</v>
-      </c>
-      <c r="D123" s="25" t="s">
-        <v>574</v>
-      </c>
-      <c r="E123" s="25" t="s">
-        <v>575</v>
       </c>
       <c r="F123" s="25"/>
     </row>
     <row r="124" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A124" s="27" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B124" s="25" t="s">
+        <v>575</v>
+      </c>
+      <c r="C124" s="25" t="s">
         <v>576</v>
       </c>
-      <c r="C124" s="25" t="s">
+      <c r="D124" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="E124" s="25" t="s">
         <v>577</v>
-      </c>
-      <c r="D124" s="25" t="s">
-        <v>577</v>
-      </c>
-      <c r="E124" s="25" t="s">
-        <v>578</v>
       </c>
       <c r="F124" s="25"/>
     </row>
     <row r="125" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A125" s="27" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B125" s="25" t="s">
+        <v>578</v>
+      </c>
+      <c r="C125" s="25" t="s">
         <v>579</v>
       </c>
-      <c r="C125" s="25" t="s">
+      <c r="D125" s="25" t="s">
+        <v>579</v>
+      </c>
+      <c r="E125" s="25" t="s">
         <v>580</v>
-      </c>
-      <c r="D125" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="E125" s="25" t="s">
-        <v>581</v>
       </c>
       <c r="F125" s="25"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B126" s="25" t="s">
+        <v>581</v>
+      </c>
+      <c r="C126" s="25" t="s">
         <v>582</v>
       </c>
-      <c r="C126" s="25" t="s">
+      <c r="D126" s="25" t="s">
+        <v>582</v>
+      </c>
+      <c r="E126" s="25" t="s">
         <v>583</v>
-      </c>
-      <c r="D126" s="25" t="s">
-        <v>583</v>
-      </c>
-      <c r="E126" s="25" t="s">
-        <v>584</v>
       </c>
       <c r="F126" s="25"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B127" s="25" t="s">
+        <v>584</v>
+      </c>
+      <c r="C127" s="25" t="s">
         <v>585</v>
       </c>
-      <c r="C127" s="25" t="s">
+      <c r="D127" s="25" t="s">
+        <v>585</v>
+      </c>
+      <c r="E127" s="25" t="s">
         <v>586</v>
       </c>
-      <c r="D127" s="25" t="s">
-        <v>586</v>
-      </c>
-      <c r="E127" s="25" t="s">
-        <v>587</v>
-      </c>
       <c r="F127" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B128" s="25" t="s">
+        <v>587</v>
+      </c>
+      <c r="C128" s="25" t="s">
         <v>588</v>
       </c>
-      <c r="C128" s="25" t="s">
+      <c r="D128" s="25" t="s">
+        <v>588</v>
+      </c>
+      <c r="E128" s="25" t="s">
         <v>589</v>
-      </c>
-      <c r="D128" s="25" t="s">
-        <v>589</v>
-      </c>
-      <c r="E128" s="25" t="s">
-        <v>590</v>
       </c>
       <c r="F128" s="25"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B129" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="C129" s="25" t="s">
         <v>591</v>
       </c>
-      <c r="C129" s="25" t="s">
+      <c r="D129" s="25" t="s">
+        <v>591</v>
+      </c>
+      <c r="E129" s="25" t="s">
         <v>592</v>
-      </c>
-      <c r="D129" s="25" t="s">
-        <v>592</v>
-      </c>
-      <c r="E129" s="25" t="s">
-        <v>593</v>
       </c>
       <c r="F129" s="25" t="s">
         <v>36</v>
@@ -12036,37 +12036,37 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B130" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="C130" s="25" t="s">
         <v>594</v>
       </c>
-      <c r="C130" s="25" t="s">
+      <c r="D130" s="25" t="s">
+        <v>594</v>
+      </c>
+      <c r="E130" s="25" t="s">
         <v>595</v>
-      </c>
-      <c r="D130" s="25" t="s">
-        <v>595</v>
-      </c>
-      <c r="E130" s="25" t="s">
-        <v>596</v>
       </c>
       <c r="F130" s="25"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B131" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="C131" s="25" t="s">
         <v>597</v>
       </c>
-      <c r="C131" s="25" t="s">
+      <c r="D131" s="25" t="s">
+        <v>597</v>
+      </c>
+      <c r="E131" s="25" t="s">
         <v>598</v>
-      </c>
-      <c r="D131" s="25" t="s">
-        <v>598</v>
-      </c>
-      <c r="E131" s="25" t="s">
-        <v>599</v>
       </c>
       <c r="F131" s="25" t="s">
         <v>36</v>
@@ -12112,7 +12112,7 @@
         <v>19</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">

--- a/Excels/MW.xlsx
+++ b/Excels/MW.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20280"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20280" firstSheet="12" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="Authentication Policy" sheetId="18" r:id="rId13"/>
     <sheet name="Action Tagging" sheetId="19" r:id="rId14"/>
     <sheet name="State Queue Mapping" sheetId="20" r:id="rId15"/>
+    <sheet name="Transfer To Queue" sheetId="21" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'FTRTickets-Reg'!$A$1:$F$131</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="965">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="926">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2489,457 +2490,340 @@
     <t>COM084</t>
   </si>
   <si>
-    <t>210820000136</t>
-  </si>
-  <si>
-    <t>210820000137</t>
-  </si>
-  <si>
-    <t>210820000138</t>
-  </si>
-  <si>
-    <t>210820000139</t>
-  </si>
-  <si>
-    <t>210820000140</t>
-  </si>
-  <si>
-    <t>210820000141</t>
-  </si>
-  <si>
-    <t>210820000142</t>
-  </si>
-  <si>
-    <t>210820000143</t>
-  </si>
-  <si>
-    <t>210820000144</t>
-  </si>
-  <si>
-    <t>210820000145</t>
+    <t>030920000221</t>
+  </si>
+  <si>
+    <t>030920000222</t>
+  </si>
+  <si>
+    <t>030920000223</t>
+  </si>
+  <si>
+    <t>030920000224</t>
+  </si>
+  <si>
+    <t>030920000225</t>
+  </si>
+  <si>
+    <t>030920000226</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>Langugae</t>
+  </si>
+  <si>
+    <t>CS Profile Management</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>CS SMS Management</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Customer Service Backend Agent</t>
+  </si>
+  <si>
+    <t>Swahili</t>
+  </si>
+  <si>
+    <t>Customer Service Frontend Agent</t>
+  </si>
+  <si>
+    <t>Customer Service Backend Supervisor</t>
+  </si>
+  <si>
+    <t>NFTR Issue Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ticket From State </t>
+  </si>
+  <si>
+    <t>Ticket To State</t>
+  </si>
+  <si>
+    <t>From Queue</t>
+  </si>
+  <si>
+    <t>To Queue</t>
+  </si>
+  <si>
+    <t>Available Credit Balance (For Prepaid)</t>
+  </si>
+  <si>
+    <t>Last Recharge Date (For Pre-Paid)</t>
+  </si>
+  <si>
+    <t>Frequently dialled number (at least two) – 2 last dialled number, validated on ECMS:</t>
+  </si>
+  <si>
+    <t>Last Recharge Value (For Prepaid)</t>
+  </si>
+  <si>
+    <t>National ID/Passport/Alien Number (Mandatory)</t>
+  </si>
+  <si>
+    <t>Customer Name (Mandatory)</t>
+  </si>
+  <si>
+    <t>No authentication policy statement configured</t>
+  </si>
+  <si>
+    <t>KE Action Authentication</t>
+  </si>
+  <si>
+    <t>Question10</t>
+  </si>
+  <si>
+    <t>Question9</t>
+  </si>
+  <si>
+    <t>Question8</t>
+  </si>
+  <si>
+    <t>Question7</t>
+  </si>
+  <si>
+    <t>Question6</t>
+  </si>
+  <si>
+    <t>Question5</t>
+  </si>
+  <si>
+    <t>Question4</t>
+  </si>
+  <si>
+    <t>Question3</t>
+  </si>
+  <si>
+    <t>Question2</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Minimum Question</t>
+  </si>
+  <si>
+    <t>Policy Message</t>
+  </si>
+  <si>
+    <t>Policy Name</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Option1</t>
+  </si>
+  <si>
+    <t>Option2</t>
+  </si>
+  <si>
+    <t>Option3</t>
+  </si>
+  <si>
+    <t>Option4</t>
+  </si>
+  <si>
+    <t>Option5</t>
+  </si>
+  <si>
+    <t>Category code</t>
+  </si>
+  <si>
+    <t>SIM Bar Unbar</t>
+  </si>
+  <si>
+    <t>SIM Lost</t>
+  </si>
+  <si>
+    <t>SIM Broken</t>
+  </si>
+  <si>
+    <t>Queue Name</t>
+  </si>
+  <si>
+    <t>State name1</t>
+  </si>
+  <si>
+    <t>State name2</t>
+  </si>
+  <si>
+    <t>State name3</t>
+  </si>
+  <si>
+    <t>State name4</t>
+  </si>
+  <si>
+    <t>State name5</t>
+  </si>
+  <si>
+    <t>State name6</t>
+  </si>
+  <si>
+    <t>State name7</t>
+  </si>
+  <si>
+    <t>State name8</t>
+  </si>
+  <si>
+    <t>State name9</t>
+  </si>
+  <si>
+    <t>State name10</t>
+  </si>
+  <si>
+    <t>Corporate with CRM</t>
+  </si>
+  <si>
+    <t>Issue Field 7 - Label</t>
+  </si>
+  <si>
+    <t>Field 7 Type</t>
+  </si>
+  <si>
+    <t>Workgroup 2</t>
+  </si>
+  <si>
+    <t>SLA2 ( Hrs : Mins)</t>
+  </si>
+  <si>
+    <t>Workgroup 3</t>
+  </si>
+  <si>
+    <t>SLA3 ( Hrs : Mins)</t>
+  </si>
+  <si>
+    <t>Workgroup 4</t>
+  </si>
+  <si>
+    <t>SLA4 ( Hrs : Mins)</t>
+  </si>
+  <si>
+    <t>Total Committed SLA</t>
+  </si>
+  <si>
+    <t>QWlydGVsIzMyMQ</t>
+  </si>
+  <si>
+    <t>U2VwdEAxMjMk</t>
+  </si>
+  <si>
+    <t>S3l1Y2hheWllQDEyMw</t>
+  </si>
+  <si>
+    <t>Ticket Field 1 - Label</t>
+  </si>
+  <si>
+    <t>Ticket 1 Type</t>
+  </si>
+  <si>
+    <t>Ticket Field 2 - Label</t>
+  </si>
+  <si>
+    <t>Ticket Field 3 - Label</t>
+  </si>
+  <si>
+    <t>Ticket Field 4 - Label</t>
+  </si>
+  <si>
+    <t>Ticket Field 5 - Label</t>
+  </si>
+  <si>
+    <t>Ticket Field 6 - Label</t>
+  </si>
+  <si>
+    <t>Ticket Field 7 - Label</t>
+  </si>
+  <si>
+    <t>910820000143</t>
   </si>
   <si>
     <t>210820000146</t>
   </si>
   <si>
-    <t>210820000147</t>
-  </si>
-  <si>
-    <t>210820000148</t>
-  </si>
-  <si>
-    <t>210820000149</t>
-  </si>
-  <si>
-    <t>210820000150</t>
-  </si>
-  <si>
-    <t>210820000151</t>
-  </si>
-  <si>
-    <t>210820000152</t>
-  </si>
-  <si>
-    <t>210820000153</t>
-  </si>
-  <si>
-    <t>210820000154</t>
-  </si>
-  <si>
-    <t>210820000155</t>
-  </si>
-  <si>
-    <t>210820000156</t>
-  </si>
-  <si>
-    <t>210820000157</t>
-  </si>
-  <si>
-    <t>210820000158</t>
-  </si>
-  <si>
-    <t>210820000160</t>
-  </si>
-  <si>
-    <t>210820000161</t>
-  </si>
-  <si>
-    <t>210820000162</t>
-  </si>
-  <si>
-    <t>210820000163</t>
-  </si>
-  <si>
-    <t>210820000164</t>
-  </si>
-  <si>
-    <t>210820000165</t>
-  </si>
-  <si>
-    <t>210820000166</t>
-  </si>
-  <si>
-    <t>210820000167</t>
-  </si>
-  <si>
-    <t>210820000168</t>
-  </si>
-  <si>
-    <t>210820000169</t>
-  </si>
-  <si>
-    <t>210820000170</t>
-  </si>
-  <si>
-    <t>210820000171</t>
-  </si>
-  <si>
-    <t>210820000172</t>
-  </si>
-  <si>
-    <t>210820000173</t>
-  </si>
-  <si>
-    <t>210820000174</t>
-  </si>
-  <si>
-    <t>210820000175</t>
-  </si>
-  <si>
-    <t>210820000176</t>
-  </si>
-  <si>
-    <t>210820000177</t>
-  </si>
-  <si>
-    <t>210820000178</t>
-  </si>
-  <si>
-    <t>210820000179</t>
-  </si>
-  <si>
-    <t>210820000180</t>
-  </si>
-  <si>
-    <t>210820000181</t>
-  </si>
-  <si>
-    <t>210820000182</t>
-  </si>
-  <si>
-    <t>210820000183</t>
-  </si>
-  <si>
-    <t>210820000184</t>
-  </si>
-  <si>
-    <t>210820000185</t>
-  </si>
-  <si>
-    <t>210820000186</t>
-  </si>
-  <si>
-    <t>210820000187</t>
-  </si>
-  <si>
-    <t>210820000188</t>
-  </si>
-  <si>
-    <t>210820000189</t>
-  </si>
-  <si>
-    <t>210820000190</t>
-  </si>
-  <si>
-    <t>210820000191</t>
-  </si>
-  <si>
-    <t>210820000192</t>
-  </si>
-  <si>
-    <t>210820000193</t>
-  </si>
-  <si>
-    <t>210820000194</t>
-  </si>
-  <si>
-    <t>210820000195</t>
-  </si>
-  <si>
-    <t>210820000196</t>
-  </si>
-  <si>
-    <t>210820000197</t>
-  </si>
-  <si>
-    <t>210820000198</t>
-  </si>
-  <si>
-    <t>210820000199</t>
-  </si>
-  <si>
-    <t>210820000200</t>
-  </si>
-  <si>
-    <t>210820000201</t>
-  </si>
-  <si>
-    <t>210820000202</t>
-  </si>
-  <si>
-    <t>210820000203</t>
-  </si>
-  <si>
-    <t>210820000204</t>
-  </si>
-  <si>
-    <t>210820000205</t>
-  </si>
-  <si>
-    <t>210820000206</t>
-  </si>
-  <si>
-    <t>210820000207</t>
-  </si>
-  <si>
-    <t>210820000208</t>
-  </si>
-  <si>
-    <t>210820000209</t>
-  </si>
-  <si>
-    <t>210820000210</t>
-  </si>
-  <si>
-    <t>210820000211</t>
-  </si>
-  <si>
-    <t>Rm9yZ290QDEyMw</t>
-  </si>
-  <si>
-    <t>U2FmZUAxMjM</t>
-  </si>
-  <si>
-    <t>030920000221</t>
-  </si>
-  <si>
-    <t>030920000222</t>
-  </si>
-  <si>
-    <t>030920000223</t>
-  </si>
-  <si>
-    <t>030920000224</t>
-  </si>
-  <si>
-    <t>030920000225</t>
-  </si>
-  <si>
-    <t>030920000226</t>
-  </si>
-  <si>
-    <t>Roles</t>
-  </si>
-  <si>
-    <t>Langugae</t>
-  </si>
-  <si>
-    <t>CS Profile Management</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>CS SMS Management</t>
-  </si>
-  <si>
-    <t>French</t>
-  </si>
-  <si>
-    <t>Customer Service Backend Agent</t>
-  </si>
-  <si>
-    <t>Swahili</t>
-  </si>
-  <si>
-    <t>Customer Service Frontend Agent</t>
-  </si>
-  <si>
-    <t>Customer Service Backend Supervisor</t>
-  </si>
-  <si>
-    <t>NFTR Issue Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ticket From State </t>
-  </si>
-  <si>
-    <t>Ticket To State</t>
-  </si>
-  <si>
-    <t>From Queue</t>
-  </si>
-  <si>
-    <t>To Queue</t>
-  </si>
-  <si>
-    <t>Available Credit Balance (For Prepaid)</t>
-  </si>
-  <si>
-    <t>Last Recharge Date (For Pre-Paid)</t>
-  </si>
-  <si>
-    <t>Frequently dialled number (at least two) – 2 last dialled number, validated on ECMS:</t>
-  </si>
-  <si>
-    <t>Last Recharge Value (For Prepaid)</t>
-  </si>
-  <si>
-    <t>National ID/Passport/Alien Number (Mandatory)</t>
-  </si>
-  <si>
-    <t>Customer Name (Mandatory)</t>
-  </si>
-  <si>
-    <t>No authentication policy statement configured</t>
-  </si>
-  <si>
-    <t>KE Action Authentication</t>
-  </si>
-  <si>
-    <t>Question10</t>
-  </si>
-  <si>
-    <t>Question9</t>
-  </si>
-  <si>
-    <t>Question8</t>
-  </si>
-  <si>
-    <t>Question7</t>
-  </si>
-  <si>
-    <t>Question6</t>
-  </si>
-  <si>
-    <t>Question5</t>
-  </si>
-  <si>
-    <t>Question4</t>
-  </si>
-  <si>
-    <t>Question3</t>
-  </si>
-  <si>
-    <t>Question2</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Minimum Question</t>
-  </si>
-  <si>
-    <t>Policy Message</t>
-  </si>
-  <si>
-    <t>Policy Name</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Option1</t>
-  </si>
-  <si>
-    <t>Option2</t>
-  </si>
-  <si>
-    <t>Option3</t>
-  </si>
-  <si>
-    <t>Option4</t>
-  </si>
-  <si>
-    <t>Option5</t>
-  </si>
-  <si>
-    <t>Category code</t>
-  </si>
-  <si>
-    <t>SIM Bar Unbar</t>
-  </si>
-  <si>
-    <t>SIM Lost</t>
-  </si>
-  <si>
-    <t>SIM Broken</t>
-  </si>
-  <si>
-    <t>Queue Name</t>
-  </si>
-  <si>
-    <t>State name1</t>
-  </si>
-  <si>
-    <t>State name2</t>
-  </si>
-  <si>
-    <t>State name3</t>
-  </si>
-  <si>
-    <t>State name4</t>
-  </si>
-  <si>
-    <t>State name5</t>
-  </si>
-  <si>
-    <t>State name6</t>
-  </si>
-  <si>
-    <t>State name7</t>
-  </si>
-  <si>
-    <t>State name8</t>
-  </si>
-  <si>
-    <t>State name9</t>
-  </si>
-  <si>
-    <t>State name10</t>
-  </si>
-  <si>
-    <t>Corporate with CRM</t>
-  </si>
-  <si>
-    <t>Issue Field 7 - Label</t>
-  </si>
-  <si>
-    <t>Field 7 Type</t>
-  </si>
-  <si>
-    <t>Workgroup 2</t>
-  </si>
-  <si>
-    <t>SLA2 ( Hrs : Mins)</t>
-  </si>
-  <si>
-    <t>Workgroup 3</t>
-  </si>
-  <si>
-    <t>SLA3 ( Hrs : Mins)</t>
-  </si>
-  <si>
-    <t>Workgroup 4</t>
-  </si>
-  <si>
-    <t>SLA4 ( Hrs : Mins)</t>
-  </si>
-  <si>
-    <t>Total Committed SLA</t>
-  </si>
-  <si>
-    <t>U2VwdEAxMjMk</t>
+    <t>Outbound</t>
+  </si>
+  <si>
+    <t>Loan Services</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Loan Amount (Ksh)</t>
+  </si>
+  <si>
+    <t>Credited On</t>
+  </si>
+  <si>
+    <t>Current Outstanding</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>Loan Details</t>
+  </si>
+  <si>
+    <t>Total Loan Eligibility</t>
+  </si>
+  <si>
+    <t>Number of Loan Taken</t>
+  </si>
+  <si>
+    <t>Total Loan Amount</t>
+  </si>
+  <si>
+    <t>Total Loan Paid</t>
+  </si>
+  <si>
+    <t>Total Current Outstanding</t>
+  </si>
+  <si>
+    <t>Loan History</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Amount Credited</t>
+  </si>
+  <si>
+    <t>Service Charge</t>
+  </si>
+  <si>
+    <t>Recovered</t>
+  </si>
+  <si>
+    <t>Loan Channel</t>
+  </si>
+  <si>
+    <t>Loan Type</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>Loan Recoveries</t>
+  </si>
+  <si>
+    <t>Transaction ID</t>
+  </si>
+  <si>
+    <t>Amount Recovered</t>
+  </si>
+  <si>
+    <t>Recovery Method</t>
+  </si>
+  <si>
+    <t>Date Recovered</t>
   </si>
 </sst>
 </file>
@@ -3012,6 +2896,7 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3148,7 +3033,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3197,6 +3082,8 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3257,6 +3144,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1800225"/>
+          <a:ext cx="304800" cy="301625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
@@ -3591,8 +3526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3656,7 +3591,7 @@
         <v>2390495</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>964</v>
+        <v>888</v>
       </c>
       <c r="C2" t="s">
         <v>67</v>
@@ -3703,7 +3638,7 @@
         <v>2388192</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C3" t="s">
         <v>66</v>
@@ -3714,7 +3649,7 @@
         <v>2390495</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>964</v>
+        <v>888</v>
       </c>
       <c r="C4" t="s">
         <v>175</v>
@@ -3837,39 +3772,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>897</v>
+        <v>820</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>898</v>
+        <v>821</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>899</v>
+        <v>822</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>900</v>
+        <v>823</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>901</v>
+        <v>824</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>902</v>
+        <v>825</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>903</v>
+        <v>826</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>904</v>
+        <v>827</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>905</v>
+        <v>828</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3879,7 +3814,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>906</v>
+        <v>829</v>
       </c>
     </row>
   </sheetData>
@@ -3891,8 +3826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3905,19 +3840,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>907</v>
+        <v>830</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>908</v>
+        <v>831</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>909</v>
+        <v>832</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>910</v>
+        <v>833</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>911</v>
+        <v>834</v>
       </c>
     </row>
   </sheetData>
@@ -3952,72 +3887,72 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>932</v>
+        <v>855</v>
       </c>
       <c r="B1" t="s">
-        <v>931</v>
+        <v>854</v>
       </c>
       <c r="C1" t="s">
-        <v>930</v>
+        <v>853</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>929</v>
+        <v>852</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>928</v>
+        <v>851</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>927</v>
+        <v>850</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>926</v>
+        <v>849</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>925</v>
+        <v>848</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>924</v>
+        <v>847</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>923</v>
+        <v>846</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>922</v>
+        <v>845</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>921</v>
+        <v>844</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>920</v>
+        <v>843</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>919</v>
+        <v>842</v>
       </c>
       <c r="B2" t="s">
-        <v>918</v>
+        <v>841</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>917</v>
+        <v>840</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>916</v>
+        <v>839</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>915</v>
+        <v>838</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>914</v>
+        <v>837</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>913</v>
+        <v>836</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>912</v>
+        <v>835</v>
       </c>
     </row>
   </sheetData>
@@ -4042,36 +3977,36 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>933</v>
+        <v>856</v>
       </c>
       <c r="B1" t="s">
-        <v>934</v>
+        <v>857</v>
       </c>
       <c r="C1" t="s">
-        <v>935</v>
+        <v>858</v>
       </c>
       <c r="D1" t="s">
-        <v>936</v>
+        <v>859</v>
       </c>
       <c r="E1" t="s">
-        <v>937</v>
+        <v>860</v>
       </c>
       <c r="F1" t="s">
-        <v>938</v>
+        <v>861</v>
       </c>
       <c r="G1" t="s">
-        <v>939</v>
+        <v>862</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>940</v>
+        <v>863</v>
       </c>
       <c r="B2" t="s">
-        <v>941</v>
+        <v>864</v>
       </c>
       <c r="C2" t="s">
-        <v>942</v>
+        <v>865</v>
       </c>
     </row>
   </sheetData>
@@ -4099,42 +4034,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
-        <v>943</v>
+        <v>866</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>944</v>
+        <v>867</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>945</v>
+        <v>868</v>
       </c>
       <c r="D1" s="31" t="s">
-        <v>946</v>
+        <v>869</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>947</v>
+        <v>870</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>948</v>
+        <v>871</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>949</v>
+        <v>872</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>950</v>
+        <v>873</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>951</v>
+        <v>874</v>
       </c>
       <c r="J1" s="31" t="s">
-        <v>952</v>
+        <v>875</v>
       </c>
       <c r="K1" s="31" t="s">
-        <v>953</v>
+        <v>876</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>954</v>
+        <v>877</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>57</v>
@@ -4194,6 +4129,58 @@
       <c r="I4" s="31"/>
       <c r="J4" s="31"/>
       <c r="K4" s="31"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="24.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4256,10 +4243,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4490,6 +4477,100 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="39" t="s">
+        <v>901</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
+        <v>907</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="39" t="s">
+        <v>913</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4499,10 +4580,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL78"/>
+  <dimension ref="A1:BG78"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH76" sqref="AH76"/>
+    <sheetView topLeftCell="AQ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BG9" sqref="BG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4532,7 +4613,7 @@
     <col min="24" max="24" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>15</v>
       </c>
@@ -4603,52 +4684,115 @@
         <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>955</v>
+        <v>878</v>
       </c>
       <c r="Y1" t="s">
-        <v>956</v>
+        <v>879</v>
       </c>
       <c r="Z1" t="s">
         <v>22</v>
       </c>
       <c r="AA1" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>891</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>892</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>893</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>894</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>895</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>896</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>897</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>879</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV1" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AW1" t="s">
         <v>34</v>
       </c>
-      <c r="AC1" s="36" t="s">
-        <v>957</v>
-      </c>
-      <c r="AD1" s="36" t="s">
-        <v>958</v>
-      </c>
-      <c r="AE1" s="36" t="s">
-        <v>959</v>
-      </c>
-      <c r="AF1" s="36" t="s">
-        <v>960</v>
-      </c>
-      <c r="AG1" s="36" t="s">
-        <v>961</v>
-      </c>
-      <c r="AH1" s="36" t="s">
-        <v>962</v>
-      </c>
-      <c r="AI1" s="37" t="s">
-        <v>963</v>
-      </c>
-      <c r="AJ1" t="s">
+      <c r="AX1" s="36" t="s">
+        <v>880</v>
+      </c>
+      <c r="AY1" s="36" t="s">
+        <v>881</v>
+      </c>
+      <c r="AZ1" s="36" t="s">
+        <v>882</v>
+      </c>
+      <c r="BA1" s="36" t="s">
+        <v>883</v>
+      </c>
+      <c r="BB1" s="36" t="s">
+        <v>884</v>
+      </c>
+      <c r="BC1" s="36" t="s">
+        <v>885</v>
+      </c>
+      <c r="BD1" s="37" t="s">
+        <v>886</v>
+      </c>
+      <c r="BE1" t="s">
         <v>42</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="BF1" t="s">
         <v>43</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="BG1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>130</v>
       </c>
@@ -4712,27 +4856,24 @@
       <c r="U2" s="19"/>
       <c r="V2" s="19"/>
       <c r="W2" s="19"/>
-      <c r="AA2" s="19" t="s">
+      <c r="AV2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="19">
-        <v>24</v>
-      </c>
-      <c r="AI2">
-        <f>SUM(AB2,AD2,AF2,AH2)</f>
-        <v>24</v>
-      </c>
-      <c r="AJ2" s="19" t="s">
+      <c r="AW2" s="19">
+        <v>24</v>
+      </c>
+      <c r="BD2">
+        <f>SUM(AW2,AY2,BA2,BC2)</f>
+        <v>24</v>
+      </c>
+      <c r="BE2" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AK2" s="19" t="s">
+      <c r="BF2" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="AL2" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>130</v>
       </c>
@@ -4766,27 +4907,24 @@
       <c r="U3" s="21"/>
       <c r="V3" s="21"/>
       <c r="W3" s="21"/>
-      <c r="AA3" s="21" t="s">
+      <c r="AV3" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AB3" s="21">
-        <v>24</v>
-      </c>
-      <c r="AI3">
-        <f t="shared" ref="AI3:AI66" si="0">SUM(AB3,AD3,AF3,AH3)</f>
-        <v>24</v>
-      </c>
-      <c r="AJ3" s="21" t="s">
+      <c r="AW3" s="21">
+        <v>24</v>
+      </c>
+      <c r="BD3">
+        <f t="shared" ref="BD3:BD66" si="0">SUM(AW3,AY3,BA3,BC3)</f>
+        <v>24</v>
+      </c>
+      <c r="BE3" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AK3" s="21" t="s">
+      <c r="BF3" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AL3" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>130</v>
       </c>
@@ -4856,27 +4994,24 @@
       <c r="W4" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="AA4" s="19" t="s">
+      <c r="AV4" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AB4" s="19">
-        <v>24</v>
-      </c>
-      <c r="AI4">
+      <c r="AW4" s="19">
+        <v>24</v>
+      </c>
+      <c r="BD4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ4" s="19" t="s">
+      <c r="BE4" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AK4" s="19" t="s">
+      <c r="BF4" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="AL4" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>130</v>
       </c>
@@ -4910,27 +5045,24 @@
       <c r="U5" s="21"/>
       <c r="V5" s="21"/>
       <c r="W5" s="21"/>
-      <c r="AA5" s="21" t="s">
+      <c r="AV5" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AB5" s="21">
-        <v>24</v>
-      </c>
-      <c r="AI5">
+      <c r="AW5" s="21">
+        <v>24</v>
+      </c>
+      <c r="BD5">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ5" s="21" t="s">
+      <c r="BE5" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AK5" s="21" t="s">
+      <c r="BF5" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AL5" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>130</v>
       </c>
@@ -4994,24 +5126,25 @@
       <c r="U6" s="22"/>
       <c r="V6" s="22"/>
       <c r="W6" s="19"/>
-      <c r="AA6" s="19" t="s">
+      <c r="AV6" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AB6" s="19">
-        <v>24</v>
-      </c>
-      <c r="AI6">
+      <c r="AW6" s="19">
+        <v>24</v>
+      </c>
+      <c r="BD6">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ6" s="19" t="s">
+      <c r="BE6" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AK6" s="19" t="s">
+      <c r="BF6" s="19" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="BG6" s="38"/>
+    </row>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>130</v>
       </c>
@@ -5081,27 +5214,24 @@
       <c r="W7" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="AA7" s="21" t="s">
+      <c r="AV7" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AB7" s="21">
-        <v>24</v>
-      </c>
-      <c r="AI7">
+      <c r="AW7" s="21">
+        <v>24</v>
+      </c>
+      <c r="BD7">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ7" s="21" t="s">
+      <c r="BE7" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AK7" s="21" t="s">
+      <c r="BF7" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AL7" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>130</v>
       </c>
@@ -5165,27 +5295,24 @@
       <c r="U8" s="19"/>
       <c r="V8" s="19"/>
       <c r="W8" s="19"/>
-      <c r="AA8" s="19" t="s">
+      <c r="AV8" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AB8" s="19">
-        <v>24</v>
-      </c>
-      <c r="AI8">
+      <c r="AW8" s="19">
+        <v>24</v>
+      </c>
+      <c r="BD8">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ8" s="19" t="s">
+      <c r="BE8" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AK8" s="19" t="s">
+      <c r="BF8" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="AL8" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>130</v>
       </c>
@@ -5219,27 +5346,24 @@
       <c r="U9" s="21"/>
       <c r="V9" s="21"/>
       <c r="W9" s="21"/>
-      <c r="AA9" s="21" t="s">
+      <c r="AV9" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AB9" s="21">
-        <v>24</v>
-      </c>
-      <c r="AI9">
+      <c r="AW9" s="21">
+        <v>24</v>
+      </c>
+      <c r="BD9">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ9" s="21" t="s">
+      <c r="BE9" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AK9" s="21" t="s">
+      <c r="BF9" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AL9" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>130</v>
       </c>
@@ -5273,27 +5397,27 @@
       <c r="U10" s="19"/>
       <c r="V10" s="19"/>
       <c r="W10" s="19"/>
-      <c r="AA10" s="19" t="s">
+      <c r="AV10" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AB10" s="19">
-        <v>24</v>
-      </c>
-      <c r="AI10">
+      <c r="AW10" s="19">
+        <v>24</v>
+      </c>
+      <c r="BD10">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ10" s="19" t="s">
+      <c r="BE10" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AK10" s="19" t="s">
+      <c r="BF10" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="AL10" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="BG10" s="38" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>130</v>
       </c>
@@ -5327,27 +5451,27 @@
       <c r="U11" s="21"/>
       <c r="V11" s="21"/>
       <c r="W11" s="21"/>
-      <c r="AA11" s="21" t="s">
+      <c r="AV11" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AB11" s="21">
-        <v>24</v>
-      </c>
-      <c r="AI11">
+      <c r="AW11" s="21">
+        <v>24</v>
+      </c>
+      <c r="BD11">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ11" s="21" t="s">
+      <c r="BE11" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AK11" s="21" t="s">
+      <c r="BF11" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AL11" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="BG11" s="38" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>130</v>
       </c>
@@ -5381,27 +5505,24 @@
       <c r="U12" s="19"/>
       <c r="V12" s="19"/>
       <c r="W12" s="19"/>
-      <c r="AA12" s="19" t="s">
+      <c r="AV12" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AB12" s="19">
-        <v>24</v>
-      </c>
-      <c r="AI12">
+      <c r="AW12" s="19">
+        <v>24</v>
+      </c>
+      <c r="BD12">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ12" s="19" t="s">
+      <c r="BE12" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AK12" s="19" t="s">
+      <c r="BF12" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="AL12" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>130</v>
       </c>
@@ -5435,27 +5556,24 @@
       <c r="U13" s="21"/>
       <c r="V13" s="21"/>
       <c r="W13" s="21"/>
-      <c r="AA13" s="21" t="s">
+      <c r="AV13" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AB13" s="21">
-        <v>24</v>
-      </c>
-      <c r="AI13">
+      <c r="AW13" s="21">
+        <v>24</v>
+      </c>
+      <c r="BD13">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ13" s="21" t="s">
+      <c r="BE13" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AK13" s="21" t="s">
+      <c r="BF13" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AL13" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>130</v>
       </c>
@@ -5489,27 +5607,24 @@
       <c r="U14" s="19"/>
       <c r="V14" s="19"/>
       <c r="W14" s="19"/>
-      <c r="AA14" s="19" t="s">
+      <c r="AV14" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AB14" s="19">
-        <v>24</v>
-      </c>
-      <c r="AI14">
+      <c r="AW14" s="19">
+        <v>24</v>
+      </c>
+      <c r="BD14">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ14" s="19" t="s">
+      <c r="BE14" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AK14" s="19" t="s">
+      <c r="BF14" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="AL14" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>130</v>
       </c>
@@ -5543,27 +5658,24 @@
       <c r="U15" s="21"/>
       <c r="V15" s="21"/>
       <c r="W15" s="21"/>
-      <c r="AA15" s="21" t="s">
+      <c r="AV15" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AB15" s="21">
-        <v>24</v>
-      </c>
-      <c r="AI15">
+      <c r="AW15" s="21">
+        <v>24</v>
+      </c>
+      <c r="BD15">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ15" s="21" t="s">
+      <c r="BE15" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AK15" s="21" t="s">
+      <c r="BF15" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AL15" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>130</v>
       </c>
@@ -5597,27 +5709,24 @@
       <c r="U16" s="19"/>
       <c r="V16" s="19"/>
       <c r="W16" s="19"/>
-      <c r="AA16" s="19" t="s">
+      <c r="AV16" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AB16" s="19">
-        <v>24</v>
-      </c>
-      <c r="AI16">
+      <c r="AW16" s="19">
+        <v>24</v>
+      </c>
+      <c r="BD16">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ16" s="19" t="s">
+      <c r="BE16" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AK16" s="19" t="s">
+      <c r="BF16" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="AL16" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>130</v>
       </c>
@@ -5651,27 +5760,24 @@
       <c r="U17" s="21"/>
       <c r="V17" s="21"/>
       <c r="W17" s="21"/>
-      <c r="AA17" s="21" t="s">
+      <c r="AV17" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AB17" s="21">
-        <v>24</v>
-      </c>
-      <c r="AI17">
+      <c r="AW17" s="21">
+        <v>24</v>
+      </c>
+      <c r="BD17">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ17" s="21" t="s">
+      <c r="BE17" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AK17" s="21" t="s">
+      <c r="BF17" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AL17" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>130</v>
       </c>
@@ -5705,27 +5811,24 @@
       <c r="U18" s="19"/>
       <c r="V18" s="19"/>
       <c r="W18" s="19"/>
-      <c r="AA18" s="19" t="s">
+      <c r="AV18" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AB18" s="19">
-        <v>24</v>
-      </c>
-      <c r="AI18">
+      <c r="AW18" s="19">
+        <v>24</v>
+      </c>
+      <c r="BD18">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ18" s="19" t="s">
+      <c r="BE18" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AK18" s="19" t="s">
+      <c r="BF18" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="AL18" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>631</v>
       </c>
@@ -5759,27 +5862,24 @@
       <c r="U19" s="21"/>
       <c r="V19" s="21"/>
       <c r="W19" s="21"/>
-      <c r="AA19" s="21" t="s">
+      <c r="AV19" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AB19" s="21">
-        <v>24</v>
-      </c>
-      <c r="AI19">
+      <c r="AW19" s="21">
+        <v>24</v>
+      </c>
+      <c r="BD19">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ19" s="21" t="s">
+      <c r="BE19" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AK19" s="21" t="s">
+      <c r="BF19" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AL19" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>631</v>
       </c>
@@ -5813,27 +5913,24 @@
       <c r="U20" s="19"/>
       <c r="V20" s="19"/>
       <c r="W20" s="19"/>
-      <c r="AA20" s="19" t="s">
+      <c r="AV20" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AB20" s="19">
-        <v>24</v>
-      </c>
-      <c r="AI20">
+      <c r="AW20" s="19">
+        <v>24</v>
+      </c>
+      <c r="BD20">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ20" s="19" t="s">
+      <c r="BE20" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AK20" s="19" t="s">
+      <c r="BF20" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="AL20" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>631</v>
       </c>
@@ -5867,27 +5964,24 @@
       <c r="U21" s="21"/>
       <c r="V21" s="21"/>
       <c r="W21" s="21"/>
-      <c r="AA21" s="21" t="s">
+      <c r="AV21" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AB21" s="21">
-        <v>24</v>
-      </c>
-      <c r="AI21">
+      <c r="AW21" s="21">
+        <v>24</v>
+      </c>
+      <c r="BD21">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ21" s="21" t="s">
+      <c r="BE21" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AK21" s="21" t="s">
+      <c r="BF21" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AL21" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>631</v>
       </c>
@@ -5921,27 +6015,24 @@
       <c r="U22" s="19"/>
       <c r="V22" s="19"/>
       <c r="W22" s="19"/>
-      <c r="AA22" s="19" t="s">
+      <c r="AV22" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AB22" s="19">
-        <v>24</v>
-      </c>
-      <c r="AI22">
+      <c r="AW22" s="19">
+        <v>24</v>
+      </c>
+      <c r="BD22">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ22" s="19" t="s">
+      <c r="BE22" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AK22" s="19" t="s">
+      <c r="BF22" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="AL22" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>631</v>
       </c>
@@ -5975,27 +6066,24 @@
       <c r="U23" s="21"/>
       <c r="V23" s="21"/>
       <c r="W23" s="21"/>
-      <c r="AA23" s="21" t="s">
+      <c r="AV23" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AB23" s="21">
-        <v>24</v>
-      </c>
-      <c r="AI23">
+      <c r="AW23" s="21">
+        <v>24</v>
+      </c>
+      <c r="BD23">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ23" s="21" t="s">
+      <c r="BE23" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AK23" s="21" t="s">
+      <c r="BF23" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AL23" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>631</v>
       </c>
@@ -6029,27 +6117,24 @@
       <c r="U24" s="19"/>
       <c r="V24" s="19"/>
       <c r="W24" s="19"/>
-      <c r="AA24" s="19" t="s">
+      <c r="AV24" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AB24" s="19">
-        <v>24</v>
-      </c>
-      <c r="AI24">
+      <c r="AW24" s="19">
+        <v>24</v>
+      </c>
+      <c r="BD24">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ24" s="19" t="s">
+      <c r="BE24" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AK24" s="19" t="s">
+      <c r="BF24" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="AL24" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>631</v>
       </c>
@@ -6083,27 +6168,24 @@
       <c r="U25" s="21"/>
       <c r="V25" s="21"/>
       <c r="W25" s="21"/>
-      <c r="AA25" s="21" t="s">
+      <c r="AV25" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AB25" s="21">
-        <v>24</v>
-      </c>
-      <c r="AI25">
+      <c r="AW25" s="21">
+        <v>24</v>
+      </c>
+      <c r="BD25">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ25" s="21" t="s">
+      <c r="BE25" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AK25" s="21" t="s">
+      <c r="BF25" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AL25" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>631</v>
       </c>
@@ -6137,24 +6219,24 @@
       <c r="U26" s="19"/>
       <c r="V26" s="19"/>
       <c r="W26" s="19"/>
-      <c r="AA26" s="19" t="s">
+      <c r="AV26" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AB26" s="19">
-        <v>24</v>
-      </c>
-      <c r="AI26">
+      <c r="AW26" s="19">
+        <v>24</v>
+      </c>
+      <c r="BD26">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ26" s="19" t="s">
+      <c r="BE26" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AK26" s="19" t="s">
+      <c r="BF26" s="19" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>631</v>
       </c>
@@ -6188,27 +6270,24 @@
       <c r="U27" s="21"/>
       <c r="V27" s="21"/>
       <c r="W27" s="21"/>
-      <c r="AA27" s="21" t="s">
+      <c r="AV27" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AB27" s="21">
-        <v>24</v>
-      </c>
-      <c r="AI27">
+      <c r="AW27" s="21">
+        <v>24</v>
+      </c>
+      <c r="BD27">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ27" s="21" t="s">
+      <c r="BE27" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AK27" s="21" t="s">
+      <c r="BF27" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AL27" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>631</v>
       </c>
@@ -6242,27 +6321,24 @@
       <c r="U28" s="19"/>
       <c r="V28" s="19"/>
       <c r="W28" s="19"/>
-      <c r="AA28" s="19" t="s">
+      <c r="AV28" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AB28" s="19">
-        <v>24</v>
-      </c>
-      <c r="AI28">
+      <c r="AW28" s="19">
+        <v>24</v>
+      </c>
+      <c r="BD28">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ28" s="19" t="s">
+      <c r="BE28" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AK28" s="19" t="s">
+      <c r="BF28" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="AL28" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>631</v>
       </c>
@@ -6296,27 +6372,24 @@
       <c r="U29" s="21"/>
       <c r="V29" s="21"/>
       <c r="W29" s="21"/>
-      <c r="AA29" s="21" t="s">
+      <c r="AV29" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AB29" s="21">
-        <v>24</v>
-      </c>
-      <c r="AI29">
+      <c r="AW29" s="21">
+        <v>24</v>
+      </c>
+      <c r="BD29">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ29" s="21" t="s">
+      <c r="BE29" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AK29" s="21" t="s">
+      <c r="BF29" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AL29" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>631</v>
       </c>
@@ -6350,27 +6423,24 @@
       <c r="U30" s="19"/>
       <c r="V30" s="19"/>
       <c r="W30" s="19"/>
-      <c r="AA30" s="19" t="s">
+      <c r="AV30" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AB30" s="19">
-        <v>24</v>
-      </c>
-      <c r="AI30">
+      <c r="AW30" s="19">
+        <v>24</v>
+      </c>
+      <c r="BD30">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ30" s="19" t="s">
+      <c r="BE30" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AK30" s="19" t="s">
+      <c r="BF30" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="AL30" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>631</v>
       </c>
@@ -6422,27 +6492,24 @@
       <c r="U31" s="21"/>
       <c r="V31" s="21"/>
       <c r="W31" s="21"/>
-      <c r="AA31" s="21" t="s">
+      <c r="AV31" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AB31" s="21">
-        <v>24</v>
-      </c>
-      <c r="AI31">
+      <c r="AW31" s="21">
+        <v>24</v>
+      </c>
+      <c r="BD31">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ31" s="21" t="s">
+      <c r="BE31" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AK31" s="21" t="s">
+      <c r="BF31" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AL31" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>631</v>
       </c>
@@ -6476,27 +6543,24 @@
       <c r="U32" s="19"/>
       <c r="V32" s="19"/>
       <c r="W32" s="19"/>
-      <c r="AA32" s="19" t="s">
+      <c r="AV32" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AB32" s="19">
-        <v>24</v>
-      </c>
-      <c r="AI32">
+      <c r="AW32" s="19">
+        <v>24</v>
+      </c>
+      <c r="BD32">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ32" s="19" t="s">
+      <c r="BE32" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AK32" s="19" t="s">
+      <c r="BF32" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="AL32" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>631</v>
       </c>
@@ -6530,27 +6594,24 @@
       <c r="U33" s="21"/>
       <c r="V33" s="21"/>
       <c r="W33" s="21"/>
-      <c r="AA33" s="21" t="s">
+      <c r="AV33" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AB33" s="21">
-        <v>24</v>
-      </c>
-      <c r="AI33">
+      <c r="AW33" s="21">
+        <v>24</v>
+      </c>
+      <c r="BD33">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ33" s="21" t="s">
+      <c r="BE33" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AK33" s="21" t="s">
+      <c r="BF33" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AL33" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>631</v>
       </c>
@@ -6608,27 +6669,24 @@
       <c r="U34" s="19"/>
       <c r="V34" s="19"/>
       <c r="W34" s="19"/>
-      <c r="AA34" s="19" t="s">
+      <c r="AV34" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AB34" s="19">
-        <v>24</v>
-      </c>
-      <c r="AI34">
+      <c r="AW34" s="19">
+        <v>24</v>
+      </c>
+      <c r="BD34">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ34" s="19" t="s">
+      <c r="BE34" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AK34" s="19" t="s">
+      <c r="BF34" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="AL34" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>631</v>
       </c>
@@ -6662,27 +6720,24 @@
       <c r="U35" s="21"/>
       <c r="V35" s="21"/>
       <c r="W35" s="21"/>
-      <c r="AA35" s="21" t="s">
+      <c r="AV35" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AB35" s="21">
-        <v>24</v>
-      </c>
-      <c r="AI35">
+      <c r="AW35" s="21">
+        <v>24</v>
+      </c>
+      <c r="BD35">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ35" s="21" t="s">
+      <c r="BE35" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AK35" s="21" t="s">
+      <c r="BF35" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AL35" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>631</v>
       </c>
@@ -6716,27 +6771,24 @@
       <c r="U36" s="19"/>
       <c r="V36" s="19"/>
       <c r="W36" s="19"/>
-      <c r="AA36" s="19" t="s">
+      <c r="AV36" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AB36" s="19">
-        <v>24</v>
-      </c>
-      <c r="AI36">
+      <c r="AW36" s="19">
+        <v>24</v>
+      </c>
+      <c r="BD36">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ36" s="19" t="s">
+      <c r="BE36" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AK36" s="19" t="s">
+      <c r="BF36" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="AL36" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>631</v>
       </c>
@@ -6770,27 +6822,24 @@
       <c r="U37" s="21"/>
       <c r="V37" s="21"/>
       <c r="W37" s="21"/>
-      <c r="AA37" s="21" t="s">
+      <c r="AV37" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="AB37" s="21">
+      <c r="AW37" s="21">
         <v>48</v>
       </c>
-      <c r="AI37">
+      <c r="BD37">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AJ37" s="21" t="s">
+      <c r="BE37" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="AK37" s="21" t="s">
+      <c r="BF37" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="AL37" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>631</v>
       </c>
@@ -6824,27 +6873,24 @@
       <c r="U38" s="19"/>
       <c r="V38" s="19"/>
       <c r="W38" s="19"/>
-      <c r="AA38" s="19" t="s">
+      <c r="AV38" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="AB38" s="19">
-        <v>24</v>
-      </c>
-      <c r="AI38">
+      <c r="AW38" s="19">
+        <v>24</v>
+      </c>
+      <c r="BD38">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ38" s="19" t="s">
+      <c r="BE38" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="AK38" s="19" t="s">
+      <c r="BF38" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="AL38" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
         <v>631</v>
       </c>
@@ -6878,27 +6924,24 @@
       <c r="U39" s="21"/>
       <c r="V39" s="21"/>
       <c r="W39" s="21"/>
-      <c r="AA39" s="21" t="s">
+      <c r="AV39" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="AB39" s="21">
-        <v>24</v>
-      </c>
-      <c r="AI39">
+      <c r="AW39" s="21">
+        <v>24</v>
+      </c>
+      <c r="BD39">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ39" s="21" t="s">
+      <c r="BE39" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="AK39" s="21" t="s">
+      <c r="BF39" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="AL39" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>631</v>
       </c>
@@ -6932,27 +6975,24 @@
       <c r="U40" s="19"/>
       <c r="V40" s="19"/>
       <c r="W40" s="19"/>
-      <c r="AA40" s="19" t="s">
+      <c r="AV40" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AB40" s="19">
-        <v>24</v>
-      </c>
-      <c r="AI40">
+      <c r="AW40" s="19">
+        <v>24</v>
+      </c>
+      <c r="BD40">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ40" s="19" t="s">
+      <c r="BE40" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AK40" s="19" t="s">
+      <c r="BF40" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="AL40" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
         <v>631</v>
       </c>
@@ -6986,27 +7026,24 @@
       <c r="U41" s="21"/>
       <c r="V41" s="21"/>
       <c r="W41" s="21"/>
-      <c r="AA41" s="21" t="s">
+      <c r="AV41" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AB41" s="21">
-        <v>24</v>
-      </c>
-      <c r="AI41">
+      <c r="AW41" s="21">
+        <v>24</v>
+      </c>
+      <c r="BD41">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ41" s="21" t="s">
+      <c r="BE41" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AK41" s="21" t="s">
+      <c r="BF41" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AL41" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>631</v>
       </c>
@@ -7040,27 +7077,24 @@
       <c r="U42" s="19"/>
       <c r="V42" s="19"/>
       <c r="W42" s="19"/>
-      <c r="AA42" s="19" t="s">
+      <c r="AV42" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AB42" s="19">
-        <v>24</v>
-      </c>
-      <c r="AI42">
+      <c r="AW42" s="19">
+        <v>24</v>
+      </c>
+      <c r="BD42">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ42" s="19" t="s">
+      <c r="BE42" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AK42" s="19" t="s">
+      <c r="BF42" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="AL42" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
         <v>631</v>
       </c>
@@ -7094,27 +7128,24 @@
       <c r="U43" s="21"/>
       <c r="V43" s="21"/>
       <c r="W43" s="21"/>
-      <c r="AA43" s="21" t="s">
+      <c r="AV43" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AB43" s="21">
-        <v>24</v>
-      </c>
-      <c r="AI43">
+      <c r="AW43" s="21">
+        <v>24</v>
+      </c>
+      <c r="BD43">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ43" s="21" t="s">
+      <c r="BE43" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AK43" s="21" t="s">
+      <c r="BF43" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AL43" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>631</v>
       </c>
@@ -7148,27 +7179,24 @@
       <c r="U44" s="19"/>
       <c r="V44" s="19"/>
       <c r="W44" s="19"/>
-      <c r="AA44" s="19" t="s">
+      <c r="AV44" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AB44" s="19">
-        <v>24</v>
-      </c>
-      <c r="AI44">
+      <c r="AW44" s="19">
+        <v>24</v>
+      </c>
+      <c r="BD44">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ44" s="19" t="s">
+      <c r="BE44" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AK44" s="19" t="s">
+      <c r="BF44" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="AL44" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
         <v>631</v>
       </c>
@@ -7202,27 +7230,24 @@
       <c r="U45" s="21"/>
       <c r="V45" s="21"/>
       <c r="W45" s="21"/>
-      <c r="AA45" s="21" t="s">
+      <c r="AV45" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AB45" s="21">
-        <v>24</v>
-      </c>
-      <c r="AI45">
+      <c r="AW45" s="21">
+        <v>24</v>
+      </c>
+      <c r="BD45">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ45" s="21" t="s">
+      <c r="BE45" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AK45" s="21" t="s">
+      <c r="BF45" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AL45" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>631</v>
       </c>
@@ -7256,27 +7281,24 @@
       <c r="U46" s="19"/>
       <c r="V46" s="19"/>
       <c r="W46" s="19"/>
-      <c r="AA46" s="19" t="s">
+      <c r="AV46" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AB46" s="19">
-        <v>24</v>
-      </c>
-      <c r="AI46">
+      <c r="AW46" s="19">
+        <v>24</v>
+      </c>
+      <c r="BD46">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ46" s="19" t="s">
+      <c r="BE46" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AK46" s="19" t="s">
+      <c r="BF46" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="AL46" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>631</v>
       </c>
@@ -7310,27 +7332,24 @@
       <c r="U47" s="21"/>
       <c r="V47" s="21"/>
       <c r="W47" s="21"/>
-      <c r="AA47" s="21" t="s">
+      <c r="AV47" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AB47" s="21">
-        <v>24</v>
-      </c>
-      <c r="AI47">
+      <c r="AW47" s="21">
+        <v>24</v>
+      </c>
+      <c r="BD47">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ47" s="21" t="s">
+      <c r="BE47" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AK47" s="21" t="s">
+      <c r="BF47" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AL47" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>631</v>
       </c>
@@ -7364,27 +7383,24 @@
       <c r="U48" s="19"/>
       <c r="V48" s="19"/>
       <c r="W48" s="19"/>
-      <c r="AA48" s="19" t="s">
+      <c r="AV48" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AB48" s="19">
-        <v>24</v>
-      </c>
-      <c r="AI48">
+      <c r="AW48" s="19">
+        <v>24</v>
+      </c>
+      <c r="BD48">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ48" s="19" t="s">
+      <c r="BE48" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AK48" s="19" t="s">
+      <c r="BF48" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="AL48" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
         <v>631</v>
       </c>
@@ -7418,27 +7434,24 @@
       <c r="U49" s="21"/>
       <c r="V49" s="21"/>
       <c r="W49" s="21"/>
-      <c r="AA49" s="21" t="s">
+      <c r="AV49" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AB49" s="21">
-        <v>24</v>
-      </c>
-      <c r="AI49">
+      <c r="AW49" s="21">
+        <v>24</v>
+      </c>
+      <c r="BD49">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ49" s="21" t="s">
+      <c r="BE49" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AK49" s="21" t="s">
+      <c r="BF49" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AL49" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>631</v>
       </c>
@@ -7472,27 +7485,24 @@
       <c r="U50" s="19"/>
       <c r="V50" s="19"/>
       <c r="W50" s="19"/>
-      <c r="AA50" s="19" t="s">
+      <c r="AV50" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="AB50" s="19">
+      <c r="AW50" s="19">
         <v>48</v>
       </c>
-      <c r="AI50">
+      <c r="BD50">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AJ50" s="19" t="s">
+      <c r="BE50" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="AK50" s="19" t="s">
+      <c r="BF50" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="AL50" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
         <v>631</v>
       </c>
@@ -7526,27 +7536,24 @@
       <c r="U51" s="21"/>
       <c r="V51" s="21"/>
       <c r="W51" s="21"/>
-      <c r="AA51" s="21" t="s">
+      <c r="AV51" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="AB51" s="21">
+      <c r="AW51" s="21">
         <v>48</v>
       </c>
-      <c r="AI51">
+      <c r="BD51">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AJ51" s="21" t="s">
+      <c r="BE51" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="AK51" s="21" t="s">
+      <c r="BF51" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="AL51" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>631</v>
       </c>
@@ -7580,27 +7587,24 @@
       <c r="U52" s="19"/>
       <c r="V52" s="19"/>
       <c r="W52" s="19"/>
-      <c r="AA52" s="19" t="s">
+      <c r="AV52" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AB52" s="19">
-        <v>24</v>
-      </c>
-      <c r="AI52">
+      <c r="AW52" s="19">
+        <v>24</v>
+      </c>
+      <c r="BD52">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ52" s="19" t="s">
+      <c r="BE52" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AK52" s="19" t="s">
+      <c r="BF52" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="AL52" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
         <v>631</v>
       </c>
@@ -7634,27 +7638,24 @@
       <c r="U53" s="21"/>
       <c r="V53" s="21"/>
       <c r="W53" s="21"/>
-      <c r="AA53" s="21" t="s">
+      <c r="AV53" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AB53" s="21">
-        <v>24</v>
-      </c>
-      <c r="AI53">
+      <c r="AW53" s="21">
+        <v>24</v>
+      </c>
+      <c r="BD53">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ53" s="21" t="s">
+      <c r="BE53" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AK53" s="21" t="s">
+      <c r="BF53" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AL53" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
         <v>631</v>
       </c>
@@ -7688,27 +7689,24 @@
       <c r="U54" s="19"/>
       <c r="V54" s="19"/>
       <c r="W54" s="19"/>
-      <c r="AA54" s="19" t="s">
+      <c r="AV54" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AB54" s="19">
-        <v>24</v>
-      </c>
-      <c r="AI54">
+      <c r="AW54" s="19">
+        <v>24</v>
+      </c>
+      <c r="BD54">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ54" s="19" t="s">
+      <c r="BE54" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AK54" s="19" t="s">
+      <c r="BF54" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="AL54" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>631</v>
       </c>
@@ -7742,27 +7740,24 @@
       <c r="U55" s="21"/>
       <c r="V55" s="21"/>
       <c r="W55" s="21"/>
-      <c r="AA55" s="21" t="s">
+      <c r="AV55" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AB55" s="21">
-        <v>24</v>
-      </c>
-      <c r="AI55">
+      <c r="AW55" s="21">
+        <v>24</v>
+      </c>
+      <c r="BD55">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ55" s="21" t="s">
+      <c r="BE55" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AK55" s="21" t="s">
+      <c r="BF55" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AL55" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
         <v>631</v>
       </c>
@@ -7796,27 +7791,24 @@
       <c r="U56" s="19"/>
       <c r="V56" s="19"/>
       <c r="W56" s="19"/>
-      <c r="AA56" s="19" t="s">
+      <c r="AV56" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AB56" s="19">
-        <v>24</v>
-      </c>
-      <c r="AI56">
+      <c r="AW56" s="19">
+        <v>24</v>
+      </c>
+      <c r="BD56">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ56" s="19" t="s">
+      <c r="BE56" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AK56" s="19" t="s">
+      <c r="BF56" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="AL56" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
         <v>631</v>
       </c>
@@ -7850,27 +7842,24 @@
       <c r="U57" s="21"/>
       <c r="V57" s="21"/>
       <c r="W57" s="21"/>
-      <c r="AA57" s="21" t="s">
+      <c r="AV57" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AB57" s="21">
-        <v>24</v>
-      </c>
-      <c r="AI57">
+      <c r="AW57" s="21">
+        <v>24</v>
+      </c>
+      <c r="BD57">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ57" s="21" t="s">
+      <c r="BE57" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AK57" s="21" t="s">
+      <c r="BF57" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AL57" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
         <v>631</v>
       </c>
@@ -7904,27 +7893,24 @@
       <c r="U58" s="19"/>
       <c r="V58" s="19"/>
       <c r="W58" s="19"/>
-      <c r="AA58" s="19" t="s">
+      <c r="AV58" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AB58" s="19">
-        <v>24</v>
-      </c>
-      <c r="AI58">
+      <c r="AW58" s="19">
+        <v>24</v>
+      </c>
+      <c r="BD58">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ58" s="19" t="s">
+      <c r="BE58" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AK58" s="19" t="s">
+      <c r="BF58" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="AL58" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
         <v>631</v>
       </c>
@@ -7958,27 +7944,24 @@
       <c r="U59" s="21"/>
       <c r="V59" s="21"/>
       <c r="W59" s="21"/>
-      <c r="AA59" s="21" t="s">
+      <c r="AV59" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="AB59" s="21">
+      <c r="AW59" s="21">
         <v>48</v>
       </c>
-      <c r="AI59">
+      <c r="BD59">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AJ59" s="21" t="s">
+      <c r="BE59" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="AK59" s="21" t="s">
+      <c r="BF59" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="AL59" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
         <v>631</v>
       </c>
@@ -8012,27 +7995,24 @@
       <c r="U60" s="19"/>
       <c r="V60" s="19"/>
       <c r="W60" s="19"/>
-      <c r="AA60" s="19" t="s">
+      <c r="AV60" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AB60" s="19">
-        <v>24</v>
-      </c>
-      <c r="AI60">
+      <c r="AW60" s="19">
+        <v>24</v>
+      </c>
+      <c r="BD60">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ60" s="19" t="s">
+      <c r="BE60" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AK60" s="19" t="s">
+      <c r="BF60" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="AL60" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
         <v>631</v>
       </c>
@@ -8066,27 +8046,24 @@
       <c r="U61" s="21"/>
       <c r="V61" s="21"/>
       <c r="W61" s="21"/>
-      <c r="AA61" s="21" t="s">
+      <c r="AV61" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AB61" s="21">
-        <v>24</v>
-      </c>
-      <c r="AI61">
+      <c r="AW61" s="21">
+        <v>24</v>
+      </c>
+      <c r="BD61">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ61" s="21" t="s">
+      <c r="BE61" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AK61" s="21" t="s">
+      <c r="BF61" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AL61" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
         <v>631</v>
       </c>
@@ -8120,27 +8097,24 @@
       <c r="U62" s="19"/>
       <c r="V62" s="19"/>
       <c r="W62" s="19"/>
-      <c r="AA62" s="19" t="s">
+      <c r="AV62" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AB62" s="19">
-        <v>24</v>
-      </c>
-      <c r="AI62">
+      <c r="AW62" s="19">
+        <v>24</v>
+      </c>
+      <c r="BD62">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ62" s="19" t="s">
+      <c r="BE62" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AK62" s="19" t="s">
+      <c r="BF62" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="AL62" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
         <v>631</v>
       </c>
@@ -8174,27 +8148,24 @@
       <c r="U63" s="21"/>
       <c r="V63" s="21"/>
       <c r="W63" s="21"/>
-      <c r="AA63" s="21" t="s">
+      <c r="AV63" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="AB63" s="21">
+      <c r="AW63" s="21">
         <v>48</v>
       </c>
-      <c r="AI63">
+      <c r="BD63">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="AJ63" s="21" t="s">
+      <c r="BE63" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="AK63" s="21" t="s">
+      <c r="BF63" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="AL63" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
         <v>631</v>
       </c>
@@ -8228,27 +8199,24 @@
       <c r="U64" s="19"/>
       <c r="V64" s="19"/>
       <c r="W64" s="19"/>
-      <c r="AA64" s="19" t="s">
+      <c r="AV64" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AB64" s="19">
-        <v>24</v>
-      </c>
-      <c r="AI64">
+      <c r="AW64" s="19">
+        <v>24</v>
+      </c>
+      <c r="BD64">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ64" s="19" t="s">
+      <c r="BE64" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AK64" s="19" t="s">
+      <c r="BF64" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="AL64" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
         <v>631</v>
       </c>
@@ -8282,27 +8250,24 @@
       <c r="U65" s="21"/>
       <c r="V65" s="21"/>
       <c r="W65" s="21"/>
-      <c r="AA65" s="21" t="s">
+      <c r="AV65" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AB65" s="21">
-        <v>24</v>
-      </c>
-      <c r="AI65">
+      <c r="AW65" s="21">
+        <v>24</v>
+      </c>
+      <c r="BD65">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ65" s="21" t="s">
+      <c r="BE65" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AK65" s="21" t="s">
+      <c r="BF65" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AL65" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
         <v>631</v>
       </c>
@@ -8336,27 +8301,24 @@
       <c r="U66" s="19"/>
       <c r="V66" s="19"/>
       <c r="W66" s="19"/>
-      <c r="AA66" s="19" t="s">
+      <c r="AV66" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AB66" s="19">
-        <v>24</v>
-      </c>
-      <c r="AI66">
+      <c r="AW66" s="19">
+        <v>24</v>
+      </c>
+      <c r="BD66">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ66" s="19" t="s">
+      <c r="BE66" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AK66" s="19" t="s">
+      <c r="BF66" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="AL66" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
         <v>631</v>
       </c>
@@ -8390,27 +8352,24 @@
       <c r="U67" s="21"/>
       <c r="V67" s="21"/>
       <c r="W67" s="21"/>
-      <c r="AA67" s="21" t="s">
+      <c r="AV67" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AB67" s="21">
-        <v>24</v>
-      </c>
-      <c r="AI67">
-        <f t="shared" ref="AI67:AI78" si="1">SUM(AB67,AD67,AF67,AH67)</f>
-        <v>24</v>
-      </c>
-      <c r="AJ67" s="21" t="s">
+      <c r="AW67" s="21">
+        <v>24</v>
+      </c>
+      <c r="BD67">
+        <f t="shared" ref="BD67:BD78" si="1">SUM(AW67,AY67,BA67,BC67)</f>
+        <v>24</v>
+      </c>
+      <c r="BE67" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AK67" s="21" t="s">
+      <c r="BF67" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AL67" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
         <v>631</v>
       </c>
@@ -8444,27 +8403,24 @@
       <c r="U68" s="19"/>
       <c r="V68" s="19"/>
       <c r="W68" s="19"/>
-      <c r="AA68" s="19" t="s">
+      <c r="AV68" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AB68" s="19">
-        <v>24</v>
-      </c>
-      <c r="AI68">
+      <c r="AW68" s="19">
+        <v>24</v>
+      </c>
+      <c r="BD68">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="AJ68" s="19" t="s">
+      <c r="BE68" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AK68" s="19" t="s">
+      <c r="BF68" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="AL68" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
         <v>631</v>
       </c>
@@ -8498,27 +8454,24 @@
       <c r="U69" s="21"/>
       <c r="V69" s="21"/>
       <c r="W69" s="21"/>
-      <c r="AA69" s="21" t="s">
+      <c r="AV69" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AB69" s="21">
-        <v>24</v>
-      </c>
-      <c r="AI69">
+      <c r="AW69" s="21">
+        <v>24</v>
+      </c>
+      <c r="BD69">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="AJ69" s="21" t="s">
+      <c r="BE69" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AK69" s="21" t="s">
+      <c r="BF69" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AL69" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
         <v>631</v>
       </c>
@@ -8552,27 +8505,24 @@
       <c r="U70" s="19"/>
       <c r="V70" s="19"/>
       <c r="W70" s="19"/>
-      <c r="AA70" s="19" t="s">
+      <c r="AV70" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AB70" s="19">
-        <v>24</v>
-      </c>
-      <c r="AI70">
+      <c r="AW70" s="19">
+        <v>24</v>
+      </c>
+      <c r="BD70">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="AJ70" s="19" t="s">
+      <c r="BE70" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AK70" s="19" t="s">
+      <c r="BF70" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="AL70" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
         <v>631</v>
       </c>
@@ -8606,27 +8556,24 @@
       <c r="U71" s="21"/>
       <c r="V71" s="21"/>
       <c r="W71" s="21"/>
-      <c r="AA71" s="21" t="s">
+      <c r="AV71" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AB71" s="21">
-        <v>24</v>
-      </c>
-      <c r="AI71">
+      <c r="AW71" s="21">
+        <v>24</v>
+      </c>
+      <c r="BD71">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="AJ71" s="21" t="s">
+      <c r="BE71" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AK71" s="21" t="s">
+      <c r="BF71" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AL71" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
         <v>631</v>
       </c>
@@ -8660,27 +8607,24 @@
       <c r="U72" s="19"/>
       <c r="V72" s="19"/>
       <c r="W72" s="19"/>
-      <c r="AA72" s="19" t="s">
+      <c r="AV72" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AB72" s="19">
-        <v>24</v>
-      </c>
-      <c r="AI72">
+      <c r="AW72" s="19">
+        <v>24</v>
+      </c>
+      <c r="BD72">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="AJ72" s="19" t="s">
+      <c r="BE72" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AK72" s="19" t="s">
+      <c r="BF72" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="AL72" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A73" s="20" t="s">
         <v>631</v>
       </c>
@@ -8714,27 +8658,24 @@
       <c r="U73" s="21"/>
       <c r="V73" s="21"/>
       <c r="W73" s="21"/>
-      <c r="AA73" s="21" t="s">
+      <c r="AV73" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AB73" s="21">
-        <v>24</v>
-      </c>
-      <c r="AI73">
+      <c r="AW73" s="21">
+        <v>24</v>
+      </c>
+      <c r="BD73">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="AJ73" s="21" t="s">
+      <c r="BE73" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AK73" s="21" t="s">
+      <c r="BF73" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AL73" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
         <v>631</v>
       </c>
@@ -8768,27 +8709,24 @@
       <c r="U74" s="19"/>
       <c r="V74" s="19"/>
       <c r="W74" s="19"/>
-      <c r="AA74" s="19" t="s">
+      <c r="AV74" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AB74" s="19">
-        <v>24</v>
-      </c>
-      <c r="AI74">
+      <c r="AW74" s="19">
+        <v>24</v>
+      </c>
+      <c r="BD74">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="AJ74" s="19" t="s">
+      <c r="BE74" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AK74" s="19" t="s">
+      <c r="BF74" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="AL74" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A75" s="20" t="s">
         <v>631</v>
       </c>
@@ -8822,27 +8760,24 @@
       <c r="U75" s="21"/>
       <c r="V75" s="21"/>
       <c r="W75" s="21"/>
-      <c r="AA75" s="21" t="s">
+      <c r="AV75" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AB75" s="21">
-        <v>24</v>
-      </c>
-      <c r="AI75">
+      <c r="AW75" s="21">
+        <v>24</v>
+      </c>
+      <c r="BD75">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="AJ75" s="21" t="s">
+      <c r="BE75" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AK75" s="21" t="s">
+      <c r="BF75" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AL75" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
         <v>631</v>
       </c>
@@ -8876,27 +8811,24 @@
       <c r="U76" s="19"/>
       <c r="V76" s="19"/>
       <c r="W76" s="19"/>
-      <c r="AA76" s="19" t="s">
+      <c r="AV76" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AB76" s="19">
-        <v>24</v>
-      </c>
-      <c r="AI76">
+      <c r="AW76" s="19">
+        <v>24</v>
+      </c>
+      <c r="BD76">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="AJ76" s="19" t="s">
+      <c r="BE76" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AK76" s="19" t="s">
+      <c r="BF76" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="AL76" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
         <v>631</v>
       </c>
@@ -8930,27 +8862,24 @@
       <c r="U77" s="21"/>
       <c r="V77" s="21"/>
       <c r="W77" s="21"/>
-      <c r="AA77" s="21" t="s">
+      <c r="AV77" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AB77" s="21">
-        <v>24</v>
-      </c>
-      <c r="AI77">
+      <c r="AW77" s="21">
+        <v>24</v>
+      </c>
+      <c r="BD77">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="AJ77" s="21" t="s">
+      <c r="BE77" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AK77" s="21" t="s">
+      <c r="BF77" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AL77" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
         <v>631</v>
       </c>
@@ -8984,24 +8913,21 @@
       <c r="U78" s="19"/>
       <c r="V78" s="19"/>
       <c r="W78" s="19"/>
-      <c r="AA78" s="19" t="s">
+      <c r="AV78" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="AB78" s="19">
+      <c r="AW78" s="19">
         <v>48</v>
       </c>
-      <c r="AI78">
+      <c r="BD78">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="AJ78" s="19" t="s">
+      <c r="BE78" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="AK78" s="19" t="s">
+      <c r="BF78" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="AL78" t="s">
-        <v>888</v>
       </c>
     </row>
   </sheetData>
@@ -9013,10 +8939,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL7"/>
+  <dimension ref="A1:BG7"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AG7" sqref="AG7"/>
+    <sheetView topLeftCell="AT1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="BD9" sqref="BD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9046,7 +8972,7 @@
     <col min="24" max="24" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>15</v>
       </c>
@@ -9117,52 +9043,115 @@
         <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>955</v>
+        <v>878</v>
       </c>
       <c r="Y1" t="s">
-        <v>956</v>
+        <v>879</v>
       </c>
       <c r="Z1" t="s">
         <v>22</v>
       </c>
       <c r="AA1" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>891</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>892</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>893</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>894</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>895</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>896</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>897</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>879</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV1" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AW1" t="s">
         <v>34</v>
       </c>
-      <c r="AC1" s="36" t="s">
-        <v>957</v>
-      </c>
-      <c r="AD1" s="36" t="s">
-        <v>958</v>
-      </c>
-      <c r="AE1" s="36" t="s">
-        <v>959</v>
-      </c>
-      <c r="AF1" s="36" t="s">
-        <v>960</v>
-      </c>
-      <c r="AG1" s="36" t="s">
-        <v>961</v>
-      </c>
-      <c r="AH1" s="36" t="s">
-        <v>962</v>
-      </c>
-      <c r="AI1" s="37" t="s">
-        <v>963</v>
-      </c>
-      <c r="AJ1" t="s">
+      <c r="AX1" s="36" t="s">
+        <v>880</v>
+      </c>
+      <c r="AY1" s="36" t="s">
+        <v>881</v>
+      </c>
+      <c r="AZ1" s="36" t="s">
+        <v>882</v>
+      </c>
+      <c r="BA1" s="36" t="s">
+        <v>883</v>
+      </c>
+      <c r="BB1" s="36" t="s">
+        <v>884</v>
+      </c>
+      <c r="BC1" s="36" t="s">
+        <v>885</v>
+      </c>
+      <c r="BD1" s="37" t="s">
+        <v>886</v>
+      </c>
+      <c r="BE1" t="s">
         <v>42</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="BF1" t="s">
         <v>43</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="BG1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>130</v>
       </c>
@@ -9226,27 +9215,27 @@
       <c r="U2" s="19"/>
       <c r="V2" s="19"/>
       <c r="W2" s="19"/>
-      <c r="AA2" s="19" t="s">
+      <c r="AV2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AB2" s="19">
-        <v>24</v>
-      </c>
-      <c r="AI2">
-        <f>SUM(AB2,AD2,AF2,AH2)</f>
-        <v>24</v>
-      </c>
-      <c r="AJ2" s="19" t="s">
+      <c r="AW2" s="19">
+        <v>24</v>
+      </c>
+      <c r="BD2">
+        <f>SUM(AW2,AY2,BA2,BC2)</f>
+        <v>24</v>
+      </c>
+      <c r="BE2" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AK2" s="19" t="s">
+      <c r="BF2" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="AL2" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="BG2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>130</v>
       </c>
@@ -9280,27 +9269,27 @@
       <c r="U3" s="21"/>
       <c r="V3" s="21"/>
       <c r="W3" s="21"/>
-      <c r="AA3" s="21" t="s">
+      <c r="AV3" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AB3" s="21">
-        <v>24</v>
-      </c>
-      <c r="AI3">
-        <f t="shared" ref="AI3:AI7" si="0">SUM(AB3,AD3,AF3,AH3)</f>
-        <v>24</v>
-      </c>
-      <c r="AJ3" s="21" t="s">
+      <c r="AW3" s="21">
+        <v>24</v>
+      </c>
+      <c r="BD3">
+        <f t="shared" ref="BD3:BD7" si="0">SUM(AW3,AY3,BA3,BC3)</f>
+        <v>24</v>
+      </c>
+      <c r="BE3" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AK3" s="21" t="s">
+      <c r="BF3" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AL3" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="BG3" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>130</v>
       </c>
@@ -9370,27 +9359,27 @@
       <c r="W4" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="AA4" s="19" t="s">
+      <c r="AV4" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AB4" s="19">
-        <v>24</v>
-      </c>
-      <c r="AI4">
+      <c r="AW4" s="19">
+        <v>24</v>
+      </c>
+      <c r="BD4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ4" s="19" t="s">
+      <c r="BE4" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AK4" s="19" t="s">
+      <c r="BF4" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="AL4" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="BG4" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>130</v>
       </c>
@@ -9424,27 +9413,27 @@
       <c r="U5" s="21"/>
       <c r="V5" s="21"/>
       <c r="W5" s="21"/>
-      <c r="AA5" s="21" t="s">
+      <c r="AV5" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AB5" s="21">
-        <v>24</v>
-      </c>
-      <c r="AI5">
+      <c r="AW5" s="21">
+        <v>24</v>
+      </c>
+      <c r="BD5">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ5" s="21" t="s">
+      <c r="BE5" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AK5" s="21" t="s">
+      <c r="BF5" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AL5" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="BG5" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>130</v>
       </c>
@@ -9508,27 +9497,27 @@
       <c r="U6" s="22"/>
       <c r="V6" s="22"/>
       <c r="W6" s="19"/>
-      <c r="AA6" s="19" t="s">
+      <c r="AV6" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AB6" s="19">
-        <v>24</v>
-      </c>
-      <c r="AI6">
+      <c r="AW6" s="19">
+        <v>24</v>
+      </c>
+      <c r="BD6">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ6" s="19" t="s">
+      <c r="BE6" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="AK6" s="19" t="s">
+      <c r="BF6" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="AL6" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="BG6" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>130</v>
       </c>
@@ -9598,24 +9587,24 @@
       <c r="W7" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="AA7" s="21" t="s">
+      <c r="AV7" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AB7" s="21">
-        <v>24</v>
-      </c>
-      <c r="AI7">
+      <c r="AW7" s="21">
+        <v>24</v>
+      </c>
+      <c r="BD7">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="AJ7" s="21" t="s">
+      <c r="BE7" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AK7" s="21" t="s">
+      <c r="BF7" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AL7" t="s">
-        <v>896</v>
+      <c r="BG7" t="s">
+        <v>819</v>
       </c>
     </row>
   </sheetData>
@@ -9629,7 +9618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
@@ -12210,7 +12199,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Excels/MW.xlsx
+++ b/Excels/MW.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\Excels\"/>
     </mc:Choice>
@@ -37,7 +37,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="1000">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2824,12 +2824,235 @@
   </si>
   <si>
     <t>Date Recovered</t>
+  </si>
+  <si>
+    <t>091120000302</t>
+  </si>
+  <si>
+    <t>091120000303</t>
+  </si>
+  <si>
+    <t>091120000304</t>
+  </si>
+  <si>
+    <t>091120000305</t>
+  </si>
+  <si>
+    <t>091120000306</t>
+  </si>
+  <si>
+    <t>091120000307</t>
+  </si>
+  <si>
+    <t>091120000308</t>
+  </si>
+  <si>
+    <t>091120000309</t>
+  </si>
+  <si>
+    <t>091120000310</t>
+  </si>
+  <si>
+    <t>091120000311</t>
+  </si>
+  <si>
+    <t>091120000312</t>
+  </si>
+  <si>
+    <t>091120000313</t>
+  </si>
+  <si>
+    <t>091120000314</t>
+  </si>
+  <si>
+    <t>091120000315</t>
+  </si>
+  <si>
+    <t>091120000316</t>
+  </si>
+  <si>
+    <t>091120000317</t>
+  </si>
+  <si>
+    <t>091120000318</t>
+  </si>
+  <si>
+    <t>091120000319</t>
+  </si>
+  <si>
+    <t>091120000320</t>
+  </si>
+  <si>
+    <t>091120000321</t>
+  </si>
+  <si>
+    <t>091120000322</t>
+  </si>
+  <si>
+    <t>091120000323</t>
+  </si>
+  <si>
+    <t>091120000324</t>
+  </si>
+  <si>
+    <t>091120000325</t>
+  </si>
+  <si>
+    <t>091120000326</t>
+  </si>
+  <si>
+    <t>091120000327</t>
+  </si>
+  <si>
+    <t>091120000328</t>
+  </si>
+  <si>
+    <t>091120000329</t>
+  </si>
+  <si>
+    <t>091120000330</t>
+  </si>
+  <si>
+    <t>091120000331</t>
+  </si>
+  <si>
+    <t>091120000332</t>
+  </si>
+  <si>
+    <t>091120000333</t>
+  </si>
+  <si>
+    <t>091120000334</t>
+  </si>
+  <si>
+    <t>091120000335</t>
+  </si>
+  <si>
+    <t>091120000336</t>
+  </si>
+  <si>
+    <t>091120000337</t>
+  </si>
+  <si>
+    <t>091120000338</t>
+  </si>
+  <si>
+    <t>091120000339</t>
+  </si>
+  <si>
+    <t>091120000340</t>
+  </si>
+  <si>
+    <t>091120000341</t>
+  </si>
+  <si>
+    <t>091120000342</t>
+  </si>
+  <si>
+    <t>091120000343</t>
+  </si>
+  <si>
+    <t>091120000344</t>
+  </si>
+  <si>
+    <t>091120000345</t>
+  </si>
+  <si>
+    <t>091120000346</t>
+  </si>
+  <si>
+    <t>091120000347</t>
+  </si>
+  <si>
+    <t>091120000348</t>
+  </si>
+  <si>
+    <t>091120000349</t>
+  </si>
+  <si>
+    <t>091120000350</t>
+  </si>
+  <si>
+    <t>091120000351</t>
+  </si>
+  <si>
+    <t>091120000352</t>
+  </si>
+  <si>
+    <t>091120000353</t>
+  </si>
+  <si>
+    <t>091120000354</t>
+  </si>
+  <si>
+    <t>091120000355</t>
+  </si>
+  <si>
+    <t>091120000356</t>
+  </si>
+  <si>
+    <t>091120000357</t>
+  </si>
+  <si>
+    <t>091120000358</t>
+  </si>
+  <si>
+    <t>091120000359</t>
+  </si>
+  <si>
+    <t>091120000360</t>
+  </si>
+  <si>
+    <t>091120000361</t>
+  </si>
+  <si>
+    <t>101120000362</t>
+  </si>
+  <si>
+    <t>101120000363</t>
+  </si>
+  <si>
+    <t>101120000364</t>
+  </si>
+  <si>
+    <t>101120000365</t>
+  </si>
+  <si>
+    <t>101120000366</t>
+  </si>
+  <si>
+    <t>101120000367</t>
+  </si>
+  <si>
+    <t>101120000368</t>
+  </si>
+  <si>
+    <t>101120000369</t>
+  </si>
+  <si>
+    <t>101120000370</t>
+  </si>
+  <si>
+    <t>101120000371</t>
+  </si>
+  <si>
+    <t>101120000372</t>
+  </si>
+  <si>
+    <t>101120000373</t>
+  </si>
+  <si>
+    <t>101120000374</t>
+  </si>
+  <si>
+    <t>101120000375</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3146,7 +3369,7 @@
         <xdr:cNvPr id="2" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3194,7 +3417,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3532,11 +3755,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.125" collapsed="true"/>
+    <col min="7" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -3691,9 +3914,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3766,8 +3989,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.875" style="29" customWidth="1" collapsed="1"/>
-    <col min="2" max="16384" width="9" style="29" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="29" width="30.875" collapsed="true"/>
+    <col min="2" max="16384" style="29" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -3832,10 +4055,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="37.25" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.75" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="13.375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="37.25" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.75" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3870,19 +4093,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="15.875" customWidth="1"/>
-    <col min="3" max="3" width="19.75" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="30" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="30" customWidth="1"/>
-    <col min="6" max="6" width="10.125" style="30" customWidth="1"/>
-    <col min="7" max="7" width="10" style="30" customWidth="1"/>
-    <col min="8" max="8" width="11" style="30" customWidth="1"/>
-    <col min="9" max="9" width="10.25" style="30" customWidth="1"/>
-    <col min="10" max="10" width="10.125" style="30" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="30" customWidth="1"/>
-    <col min="12" max="12" width="11.625" style="30" customWidth="1"/>
-    <col min="13" max="13" width="11.875" style="30" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.75" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="30" width="10.875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="30" width="11.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="30" width="10.125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="30" width="10.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="30" width="11.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="30" width="10.25" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="30" width="10.125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="30" width="10.5" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="30" width="11.625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="30" width="11.875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -3970,9 +4193,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -4025,11 +4248,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.25" style="32" customWidth="1"/>
-    <col min="2" max="2" width="9" style="32"/>
-    <col min="3" max="3" width="13.875" style="32" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="32" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="32"/>
+    <col min="1" max="1" customWidth="true" style="32" width="19.25" collapsed="true"/>
+    <col min="2" max="2" style="32" width="9.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="32" width="13.875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="32" width="11.5" collapsed="true"/>
+    <col min="5" max="16384" style="32" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -4146,8 +4369,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.125" customWidth="1"/>
-    <col min="2" max="2" width="24.25" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="23.125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.25" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -4198,7 +4421,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -4251,15 +4474,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.5" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4588,29 +4811,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4923,6 +5146,9 @@
       <c r="BF3" s="21" t="s">
         <v>140</v>
       </c>
+      <c r="BG3" t="s">
+        <v>926</v>
+      </c>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5061,6 +5287,9 @@
       <c r="BF5" s="21" t="s">
         <v>140</v>
       </c>
+      <c r="BG5" t="s">
+        <v>927</v>
+      </c>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
@@ -5142,7 +5371,9 @@
       <c r="BF6" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="BG6" s="38"/>
+      <c r="BG6" s="38" t="s">
+        <v>928</v>
+      </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
@@ -5229,6 +5460,9 @@
       </c>
       <c r="BF7" s="21" t="s">
         <v>140</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.25">
@@ -5362,6 +5596,9 @@
       <c r="BF9" s="21" t="s">
         <v>140</v>
       </c>
+      <c r="BG9" t="s">
+        <v>930</v>
+      </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
@@ -5414,7 +5651,7 @@
         <v>140</v>
       </c>
       <c r="BG10" s="38" t="s">
-        <v>898</v>
+        <v>931</v>
       </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.25">
@@ -5468,7 +5705,7 @@
         <v>140</v>
       </c>
       <c r="BG11" s="38" t="s">
-        <v>899</v>
+        <v>932</v>
       </c>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.25">
@@ -5521,6 +5758,9 @@
       <c r="BF12" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="BG12" t="s">
+        <v>933</v>
+      </c>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
@@ -5572,6 +5812,9 @@
       <c r="BF13" s="21" t="s">
         <v>140</v>
       </c>
+      <c r="BG13" t="s">
+        <v>934</v>
+      </c>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
@@ -5623,6 +5866,9 @@
       <c r="BF14" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="BG14" t="s">
+        <v>935</v>
+      </c>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
@@ -5674,6 +5920,9 @@
       <c r="BF15" s="21" t="s">
         <v>140</v>
       </c>
+      <c r="BG15" t="s">
+        <v>936</v>
+      </c>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
@@ -5725,6 +5974,9 @@
       <c r="BF16" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="BG16" t="s">
+        <v>937</v>
+      </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
@@ -5776,6 +6028,9 @@
       <c r="BF17" s="21" t="s">
         <v>140</v>
       </c>
+      <c r="BG17" t="s">
+        <v>938</v>
+      </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
@@ -5827,6 +6082,9 @@
       <c r="BF18" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="BG18" t="s">
+        <v>939</v>
+      </c>
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
@@ -5878,6 +6136,9 @@
       <c r="BF19" s="21" t="s">
         <v>140</v>
       </c>
+      <c r="BG19" t="s">
+        <v>940</v>
+      </c>
     </row>
     <row r="20" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
@@ -5929,6 +6190,9 @@
       <c r="BF20" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="BG20" t="s">
+        <v>941</v>
+      </c>
     </row>
     <row r="21" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
@@ -5980,6 +6244,9 @@
       <c r="BF21" s="21" t="s">
         <v>140</v>
       </c>
+      <c r="BG21" t="s">
+        <v>942</v>
+      </c>
     </row>
     <row r="22" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -6031,6 +6298,9 @@
       <c r="BF22" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="BG22" t="s">
+        <v>943</v>
+      </c>
     </row>
     <row r="23" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
@@ -6082,6 +6352,9 @@
       <c r="BF23" s="21" t="s">
         <v>140</v>
       </c>
+      <c r="BG23" t="s">
+        <v>944</v>
+      </c>
     </row>
     <row r="24" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
@@ -6133,6 +6406,9 @@
       <c r="BF24" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="BG24" t="s">
+        <v>945</v>
+      </c>
     </row>
     <row r="25" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
@@ -6184,6 +6460,9 @@
       <c r="BF25" s="21" t="s">
         <v>140</v>
       </c>
+      <c r="BG25" t="s">
+        <v>946</v>
+      </c>
     </row>
     <row r="26" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
@@ -6235,6 +6514,9 @@
       <c r="BF26" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="BG26" t="s">
+        <v>947</v>
+      </c>
     </row>
     <row r="27" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
@@ -6286,6 +6568,9 @@
       <c r="BF27" s="21" t="s">
         <v>140</v>
       </c>
+      <c r="BG27" t="s">
+        <v>948</v>
+      </c>
     </row>
     <row r="28" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
@@ -6337,6 +6622,9 @@
       <c r="BF28" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="BG28" t="s">
+        <v>949</v>
+      </c>
     </row>
     <row r="29" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
@@ -6388,6 +6676,9 @@
       <c r="BF29" s="21" t="s">
         <v>140</v>
       </c>
+      <c r="BG29" t="s">
+        <v>950</v>
+      </c>
     </row>
     <row r="30" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
@@ -6439,6 +6730,9 @@
       <c r="BF30" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="BG30" t="s">
+        <v>951</v>
+      </c>
     </row>
     <row r="31" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
@@ -6507,6 +6801,9 @@
       </c>
       <c r="BF31" s="21" t="s">
         <v>140</v>
+      </c>
+      <c r="BG31" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="32" spans="1:58" x14ac:dyDescent="0.25">
@@ -6559,6 +6856,9 @@
       <c r="BF32" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="BG32" t="s">
+        <v>953</v>
+      </c>
     </row>
     <row r="33" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
@@ -6610,6 +6910,9 @@
       <c r="BF33" s="21" t="s">
         <v>140</v>
       </c>
+      <c r="BG33" t="s">
+        <v>954</v>
+      </c>
     </row>
     <row r="34" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
@@ -6684,6 +6987,9 @@
       </c>
       <c r="BF34" s="19" t="s">
         <v>140</v>
+      </c>
+      <c r="BG34" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="35" spans="1:58" x14ac:dyDescent="0.25">
@@ -6736,6 +7042,9 @@
       <c r="BF35" s="21" t="s">
         <v>140</v>
       </c>
+      <c r="BG35" t="s">
+        <v>956</v>
+      </c>
     </row>
     <row r="36" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
@@ -6787,6 +7096,9 @@
       <c r="BF36" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="BG36" t="s">
+        <v>957</v>
+      </c>
     </row>
     <row r="37" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
@@ -6838,6 +7150,9 @@
       <c r="BF37" s="21" t="s">
         <v>72</v>
       </c>
+      <c r="BG37" t="s">
+        <v>958</v>
+      </c>
     </row>
     <row r="38" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
@@ -6889,6 +7204,9 @@
       <c r="BF38" s="19" t="s">
         <v>69</v>
       </c>
+      <c r="BG38" t="s">
+        <v>959</v>
+      </c>
     </row>
     <row r="39" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
@@ -6940,6 +7258,9 @@
       <c r="BF39" s="21" t="s">
         <v>69</v>
       </c>
+      <c r="BG39" t="s">
+        <v>960</v>
+      </c>
     </row>
     <row r="40" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
@@ -6991,6 +7312,9 @@
       <c r="BF40" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="BG40" t="s">
+        <v>961</v>
+      </c>
     </row>
     <row r="41" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
@@ -7042,6 +7366,9 @@
       <c r="BF41" s="21" t="s">
         <v>140</v>
       </c>
+      <c r="BG41" t="s">
+        <v>962</v>
+      </c>
     </row>
     <row r="42" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
@@ -7093,6 +7420,9 @@
       <c r="BF42" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="BG42" t="s">
+        <v>963</v>
+      </c>
     </row>
     <row r="43" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
@@ -7144,6 +7474,9 @@
       <c r="BF43" s="21" t="s">
         <v>140</v>
       </c>
+      <c r="BG43" t="s">
+        <v>964</v>
+      </c>
     </row>
     <row r="44" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
@@ -7195,6 +7528,9 @@
       <c r="BF44" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="BG44" t="s">
+        <v>965</v>
+      </c>
     </row>
     <row r="45" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
@@ -7246,6 +7582,9 @@
       <c r="BF45" s="21" t="s">
         <v>140</v>
       </c>
+      <c r="BG45" t="s">
+        <v>966</v>
+      </c>
     </row>
     <row r="46" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
@@ -7297,6 +7636,9 @@
       <c r="BF46" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="BG46" t="s">
+        <v>967</v>
+      </c>
     </row>
     <row r="47" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
@@ -7348,6 +7690,9 @@
       <c r="BF47" s="21" t="s">
         <v>140</v>
       </c>
+      <c r="BG47" t="s">
+        <v>968</v>
+      </c>
     </row>
     <row r="48" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
@@ -7399,6 +7744,9 @@
       <c r="BF48" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="BG48" t="s">
+        <v>969</v>
+      </c>
     </row>
     <row r="49" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
@@ -7450,6 +7798,9 @@
       <c r="BF49" s="21" t="s">
         <v>140</v>
       </c>
+      <c r="BG49" t="s">
+        <v>970</v>
+      </c>
     </row>
     <row r="50" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
@@ -7501,6 +7852,9 @@
       <c r="BF50" s="19" t="s">
         <v>74</v>
       </c>
+      <c r="BG50" t="s">
+        <v>971</v>
+      </c>
     </row>
     <row r="51" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
@@ -7552,6 +7906,9 @@
       <c r="BF51" s="21" t="s">
         <v>74</v>
       </c>
+      <c r="BG51" t="s">
+        <v>972</v>
+      </c>
     </row>
     <row r="52" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
@@ -7603,6 +7960,9 @@
       <c r="BF52" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="BG52" t="s">
+        <v>973</v>
+      </c>
     </row>
     <row r="53" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
@@ -7654,6 +8014,9 @@
       <c r="BF53" s="21" t="s">
         <v>140</v>
       </c>
+      <c r="BG53" t="s">
+        <v>974</v>
+      </c>
     </row>
     <row r="54" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
@@ -7705,6 +8068,9 @@
       <c r="BF54" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="BG54" t="s">
+        <v>975</v>
+      </c>
     </row>
     <row r="55" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
@@ -7756,6 +8122,9 @@
       <c r="BF55" s="21" t="s">
         <v>140</v>
       </c>
+      <c r="BG55" t="s">
+        <v>976</v>
+      </c>
     </row>
     <row r="56" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
@@ -7807,6 +8176,9 @@
       <c r="BF56" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="BG56" t="s">
+        <v>977</v>
+      </c>
     </row>
     <row r="57" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
@@ -7858,6 +8230,9 @@
       <c r="BF57" s="21" t="s">
         <v>140</v>
       </c>
+      <c r="BG57" t="s">
+        <v>978</v>
+      </c>
     </row>
     <row r="58" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
@@ -7909,6 +8284,9 @@
       <c r="BF58" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="BG58" t="s">
+        <v>979</v>
+      </c>
     </row>
     <row r="59" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
@@ -7960,6 +8338,9 @@
       <c r="BF59" s="21" t="s">
         <v>74</v>
       </c>
+      <c r="BG59" t="s">
+        <v>980</v>
+      </c>
     </row>
     <row r="60" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
@@ -8011,6 +8392,9 @@
       <c r="BF60" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="BG60" t="s">
+        <v>981</v>
+      </c>
     </row>
     <row r="61" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
@@ -8062,6 +8446,9 @@
       <c r="BF61" s="21" t="s">
         <v>140</v>
       </c>
+      <c r="BG61" t="s">
+        <v>982</v>
+      </c>
     </row>
     <row r="62" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
@@ -8113,6 +8500,9 @@
       <c r="BF62" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="BG62" t="s">
+        <v>983</v>
+      </c>
     </row>
     <row r="63" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
@@ -8164,6 +8554,9 @@
       <c r="BF63" s="21" t="s">
         <v>69</v>
       </c>
+      <c r="BG63" t="s">
+        <v>984</v>
+      </c>
     </row>
     <row r="64" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
@@ -8215,6 +8608,9 @@
       <c r="BF64" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="BG64" t="s">
+        <v>985</v>
+      </c>
     </row>
     <row r="65" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
@@ -8266,6 +8662,9 @@
       <c r="BF65" s="21" t="s">
         <v>140</v>
       </c>
+      <c r="BG65" t="s">
+        <v>986</v>
+      </c>
     </row>
     <row r="66" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
@@ -8317,6 +8716,9 @@
       <c r="BF66" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="BG66" t="s">
+        <v>987</v>
+      </c>
     </row>
     <row r="67" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
@@ -8368,6 +8770,9 @@
       <c r="BF67" s="21" t="s">
         <v>140</v>
       </c>
+      <c r="BG67" t="s">
+        <v>988</v>
+      </c>
     </row>
     <row r="68" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
@@ -8419,6 +8824,9 @@
       <c r="BF68" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="BG68" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="69" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
@@ -8470,6 +8878,9 @@
       <c r="BF69" s="21" t="s">
         <v>140</v>
       </c>
+      <c r="BG69" t="s">
+        <v>990</v>
+      </c>
     </row>
     <row r="70" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
@@ -8521,6 +8932,9 @@
       <c r="BF70" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="BG70" t="s">
+        <v>991</v>
+      </c>
     </row>
     <row r="71" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
@@ -8572,6 +8986,9 @@
       <c r="BF71" s="21" t="s">
         <v>140</v>
       </c>
+      <c r="BG71" t="s">
+        <v>992</v>
+      </c>
     </row>
     <row r="72" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
@@ -8623,6 +9040,9 @@
       <c r="BF72" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="BG72" t="s">
+        <v>993</v>
+      </c>
     </row>
     <row r="73" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A73" s="20" t="s">
@@ -8674,6 +9094,9 @@
       <c r="BF73" s="21" t="s">
         <v>140</v>
       </c>
+      <c r="BG73" t="s">
+        <v>994</v>
+      </c>
     </row>
     <row r="74" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
@@ -8725,6 +9148,9 @@
       <c r="BF74" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="BG74" t="s">
+        <v>995</v>
+      </c>
     </row>
     <row r="75" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A75" s="20" t="s">
@@ -8776,6 +9202,9 @@
       <c r="BF75" s="21" t="s">
         <v>140</v>
       </c>
+      <c r="BG75" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="76" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
@@ -8827,6 +9256,9 @@
       <c r="BF76" s="19" t="s">
         <v>140</v>
       </c>
+      <c r="BG76" t="s">
+        <v>997</v>
+      </c>
     </row>
     <row r="77" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
@@ -8878,6 +9310,9 @@
       <c r="BF77" s="21" t="s">
         <v>140</v>
       </c>
+      <c r="BG77" t="s">
+        <v>998</v>
+      </c>
     </row>
     <row r="78" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
@@ -8929,6 +9364,9 @@
       <c r="BF78" s="19" t="s">
         <v>74</v>
       </c>
+      <c r="BG78" t="s">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AB78"/>
@@ -8947,29 +9385,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -9624,11 +10062,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.625" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="24.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="20.125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -12078,10 +12516,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.625" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="24.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -12204,9 +12642,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="21.5" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.5" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/Excels/MW.xlsx
+++ b/Excels/MW.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20280" firstSheet="12" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20280" firstSheet="12" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="998">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2740,12 +2740,6 @@
   </si>
   <si>
     <t>Ticket Field 7 - Label</t>
-  </si>
-  <si>
-    <t>910820000143</t>
-  </si>
-  <si>
-    <t>210820000146</t>
   </si>
   <si>
     <t>Outbound</t>
@@ -3052,7 +3046,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3369,7 +3362,7 @@
         <xdr:cNvPr id="2" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3417,7 +3410,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3755,11 +3748,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="17.125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.125" collapsed="true"/>
-    <col min="7" max="8" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.375" collapsed="true"/>
+    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -3914,9 +3907,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="14.875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="1" max="1" width="24" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3989,8 +3982,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="29" width="30.875" collapsed="true"/>
-    <col min="2" max="16384" style="29" width="9.0" collapsed="true"/>
+    <col min="1" max="1" width="30.875" style="29" customWidth="1" collapsed="1"/>
+    <col min="2" max="16384" width="9" style="29" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -4049,16 +4042,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="13.375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="37.25" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="20.125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="27.75" collapsed="true"/>
+    <col min="2" max="2" width="13.375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="37.25" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.75" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -4093,19 +4086,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="15.875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.75" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="30" width="10.875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="30" width="11.5" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="30" width="10.125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="30" width="10.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="30" width="11.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="30" width="10.25" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="30" width="10.125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="30" width="10.5" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="30" width="11.625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="30" width="11.875" collapsed="true"/>
+    <col min="1" max="1" width="12" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.75" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.875" style="30" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5" style="30" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.125" style="30" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10" style="30" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11" style="30" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.25" style="30" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="10.125" style="30" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="10.5" style="30" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.625" style="30" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11.875" style="30" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -4193,9 +4186,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="1" max="1" width="13.375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -4248,11 +4241,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="32" width="19.25" collapsed="true"/>
-    <col min="2" max="2" style="32" width="9.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="32" width="13.875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="32" width="11.5" collapsed="true"/>
-    <col min="5" max="16384" style="32" width="9.0" collapsed="true"/>
+    <col min="1" max="1" width="19.25" style="32" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9" style="32" collapsed="1"/>
+    <col min="3" max="3" width="13.875" style="32" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.5" style="32" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9" style="32" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -4363,14 +4356,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.25" collapsed="true"/>
+    <col min="1" max="1" width="23.125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.25" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -4386,7 +4379,7 @@
         <v>877</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4421,7 +4414,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.5" collapsed="true"/>
+    <col min="1" max="1" width="16.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -4474,15 +4467,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.5" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="21.5" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="22.375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -4702,22 +4695,22 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
+        <v>899</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>901</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>902</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>903</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>904</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>905</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>906</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -4725,22 +4718,22 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
+        <v>905</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>908</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>910</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>911</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>912</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -4748,46 +4741,46 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
+        <v>911</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>913</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>914</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>915</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>916</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>917</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>918</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>919</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>920</v>
       </c>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>921</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>922</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>923</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>924</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>925</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -4805,35 +4798,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG78"/>
   <sheetViews>
-    <sheetView topLeftCell="AQ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BG9" sqref="BG9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5147,7 +5140,7 @@
         <v>140</v>
       </c>
       <c r="BG3" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.25">
@@ -5288,7 +5281,7 @@
         <v>140</v>
       </c>
       <c r="BG5" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.25">
@@ -5372,7 +5365,7 @@
         <v>140</v>
       </c>
       <c r="BG6" s="38" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.25">
@@ -5462,7 +5455,7 @@
         <v>140</v>
       </c>
       <c r="BG7" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.25">
@@ -5597,7 +5590,7 @@
         <v>140</v>
       </c>
       <c r="BG9" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.25">
@@ -5651,7 +5644,7 @@
         <v>140</v>
       </c>
       <c r="BG10" s="38" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.25">
@@ -5705,7 +5698,7 @@
         <v>140</v>
       </c>
       <c r="BG11" s="38" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.25">
@@ -5759,7 +5752,7 @@
         <v>140</v>
       </c>
       <c r="BG12" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.25">
@@ -5813,7 +5806,7 @@
         <v>140</v>
       </c>
       <c r="BG13" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.25">
@@ -5867,7 +5860,7 @@
         <v>140</v>
       </c>
       <c r="BG14" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.25">
@@ -5921,7 +5914,7 @@
         <v>140</v>
       </c>
       <c r="BG15" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.25">
@@ -5975,10 +5968,10 @@
         <v>140</v>
       </c>
       <c r="BG16" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="17" spans="1:58" x14ac:dyDescent="0.25">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>130</v>
       </c>
@@ -6029,10 +6022,10 @@
         <v>140</v>
       </c>
       <c r="BG17" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="18" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>130</v>
       </c>
@@ -6083,10 +6076,10 @@
         <v>140</v>
       </c>
       <c r="BG18" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="19" spans="1:58" x14ac:dyDescent="0.25">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="19" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>631</v>
       </c>
@@ -6137,10 +6130,10 @@
         <v>140</v>
       </c>
       <c r="BG19" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="20" spans="1:58" x14ac:dyDescent="0.25">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>631</v>
       </c>
@@ -6191,10 +6184,10 @@
         <v>140</v>
       </c>
       <c r="BG20" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="21" spans="1:58" x14ac:dyDescent="0.25">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="21" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>631</v>
       </c>
@@ -6245,10 +6238,10 @@
         <v>140</v>
       </c>
       <c r="BG21" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="22" spans="1:58" x14ac:dyDescent="0.25">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="22" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>631</v>
       </c>
@@ -6299,10 +6292,10 @@
         <v>140</v>
       </c>
       <c r="BG22" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="23" spans="1:58" x14ac:dyDescent="0.25">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="23" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>631</v>
       </c>
@@ -6353,10 +6346,10 @@
         <v>140</v>
       </c>
       <c r="BG23" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="24" spans="1:58" x14ac:dyDescent="0.25">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="24" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>631</v>
       </c>
@@ -6407,10 +6400,10 @@
         <v>140</v>
       </c>
       <c r="BG24" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="25" spans="1:58" x14ac:dyDescent="0.25">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="25" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>631</v>
       </c>
@@ -6461,10 +6454,10 @@
         <v>140</v>
       </c>
       <c r="BG25" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="26" spans="1:58" x14ac:dyDescent="0.25">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>631</v>
       </c>
@@ -6515,10 +6508,10 @@
         <v>140</v>
       </c>
       <c r="BG26" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="27" spans="1:58" x14ac:dyDescent="0.25">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="27" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>631</v>
       </c>
@@ -6569,10 +6562,10 @@
         <v>140</v>
       </c>
       <c r="BG27" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="28" spans="1:58" x14ac:dyDescent="0.25">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="28" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>631</v>
       </c>
@@ -6623,10 +6616,10 @@
         <v>140</v>
       </c>
       <c r="BG28" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="29" spans="1:58" x14ac:dyDescent="0.25">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="29" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>631</v>
       </c>
@@ -6677,10 +6670,10 @@
         <v>140</v>
       </c>
       <c r="BG29" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="30" spans="1:58" x14ac:dyDescent="0.25">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="30" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>631</v>
       </c>
@@ -6731,10 +6724,10 @@
         <v>140</v>
       </c>
       <c r="BG30" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="31" spans="1:58" x14ac:dyDescent="0.25">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="31" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>631</v>
       </c>
@@ -6803,10 +6796,10 @@
         <v>140</v>
       </c>
       <c r="BG31" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="32" spans="1:58" x14ac:dyDescent="0.25">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="32" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>631</v>
       </c>
@@ -6857,10 +6850,10 @@
         <v>140</v>
       </c>
       <c r="BG32" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="33" spans="1:58" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="33" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>631</v>
       </c>
@@ -6911,10 +6904,10 @@
         <v>140</v>
       </c>
       <c r="BG33" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="34" spans="1:58" x14ac:dyDescent="0.25">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="34" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>631</v>
       </c>
@@ -6989,10 +6982,10 @@
         <v>140</v>
       </c>
       <c r="BG34" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="35" spans="1:58" x14ac:dyDescent="0.25">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="35" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>631</v>
       </c>
@@ -7043,10 +7036,10 @@
         <v>140</v>
       </c>
       <c r="BG35" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="36" spans="1:58" x14ac:dyDescent="0.25">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="36" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>631</v>
       </c>
@@ -7097,10 +7090,10 @@
         <v>140</v>
       </c>
       <c r="BG36" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="37" spans="1:58" x14ac:dyDescent="0.25">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="37" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>631</v>
       </c>
@@ -7151,10 +7144,10 @@
         <v>72</v>
       </c>
       <c r="BG37" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="38" spans="1:58" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="38" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>631</v>
       </c>
@@ -7205,10 +7198,10 @@
         <v>69</v>
       </c>
       <c r="BG38" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="39" spans="1:58" x14ac:dyDescent="0.25">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="39" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
         <v>631</v>
       </c>
@@ -7259,10 +7252,10 @@
         <v>69</v>
       </c>
       <c r="BG39" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="40" spans="1:58" x14ac:dyDescent="0.25">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="40" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>631</v>
       </c>
@@ -7313,10 +7306,10 @@
         <v>140</v>
       </c>
       <c r="BG40" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="41" spans="1:58" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="41" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
         <v>631</v>
       </c>
@@ -7367,10 +7360,10 @@
         <v>140</v>
       </c>
       <c r="BG41" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="42" spans="1:58" x14ac:dyDescent="0.25">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="42" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>631</v>
       </c>
@@ -7421,10 +7414,10 @@
         <v>140</v>
       </c>
       <c r="BG42" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="43" spans="1:58" x14ac:dyDescent="0.25">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="43" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
         <v>631</v>
       </c>
@@ -7475,10 +7468,10 @@
         <v>140</v>
       </c>
       <c r="BG43" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="44" spans="1:58" x14ac:dyDescent="0.25">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="44" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>631</v>
       </c>
@@ -7529,10 +7522,10 @@
         <v>140</v>
       </c>
       <c r="BG44" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="45" spans="1:58" x14ac:dyDescent="0.25">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="45" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
         <v>631</v>
       </c>
@@ -7583,10 +7576,10 @@
         <v>140</v>
       </c>
       <c r="BG45" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="46" spans="1:58" x14ac:dyDescent="0.25">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="46" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>631</v>
       </c>
@@ -7637,10 +7630,10 @@
         <v>140</v>
       </c>
       <c r="BG46" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="47" spans="1:58" x14ac:dyDescent="0.25">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="47" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>631</v>
       </c>
@@ -7691,10 +7684,10 @@
         <v>140</v>
       </c>
       <c r="BG47" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="48" spans="1:58" x14ac:dyDescent="0.25">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="48" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>631</v>
       </c>
@@ -7745,10 +7738,10 @@
         <v>140</v>
       </c>
       <c r="BG48" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="49" spans="1:58" x14ac:dyDescent="0.25">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="49" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
         <v>631</v>
       </c>
@@ -7799,10 +7792,10 @@
         <v>140</v>
       </c>
       <c r="BG49" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="50" spans="1:58" x14ac:dyDescent="0.25">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="50" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>631</v>
       </c>
@@ -7853,10 +7846,10 @@
         <v>74</v>
       </c>
       <c r="BG50" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="51" spans="1:58" x14ac:dyDescent="0.25">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="51" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
         <v>631</v>
       </c>
@@ -7907,10 +7900,10 @@
         <v>74</v>
       </c>
       <c r="BG51" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="52" spans="1:58" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="52" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>631</v>
       </c>
@@ -7961,10 +7954,10 @@
         <v>140</v>
       </c>
       <c r="BG52" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="53" spans="1:58" x14ac:dyDescent="0.25">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="53" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
         <v>631</v>
       </c>
@@ -8015,10 +8008,10 @@
         <v>140</v>
       </c>
       <c r="BG53" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="54" spans="1:58" x14ac:dyDescent="0.25">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="54" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
         <v>631</v>
       </c>
@@ -8069,10 +8062,10 @@
         <v>140</v>
       </c>
       <c r="BG54" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="55" spans="1:58" x14ac:dyDescent="0.25">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="55" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>631</v>
       </c>
@@ -8123,10 +8116,10 @@
         <v>140</v>
       </c>
       <c r="BG55" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="56" spans="1:58" x14ac:dyDescent="0.25">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="56" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
         <v>631</v>
       </c>
@@ -8177,10 +8170,10 @@
         <v>140</v>
       </c>
       <c r="BG56" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="57" spans="1:58" x14ac:dyDescent="0.25">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="57" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
         <v>631</v>
       </c>
@@ -8231,10 +8224,10 @@
         <v>140</v>
       </c>
       <c r="BG57" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="58" spans="1:58" x14ac:dyDescent="0.25">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="58" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
         <v>631</v>
       </c>
@@ -8285,10 +8278,10 @@
         <v>140</v>
       </c>
       <c r="BG58" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="59" spans="1:58" x14ac:dyDescent="0.25">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="59" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
         <v>631</v>
       </c>
@@ -8339,10 +8332,10 @@
         <v>74</v>
       </c>
       <c r="BG59" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="60" spans="1:58" x14ac:dyDescent="0.25">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="60" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
         <v>631</v>
       </c>
@@ -8393,10 +8386,10 @@
         <v>140</v>
       </c>
       <c r="BG60" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="61" spans="1:58" x14ac:dyDescent="0.25">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="61" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
         <v>631</v>
       </c>
@@ -8447,10 +8440,10 @@
         <v>140</v>
       </c>
       <c r="BG61" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="62" spans="1:58" x14ac:dyDescent="0.25">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="62" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
         <v>631</v>
       </c>
@@ -8501,10 +8494,10 @@
         <v>140</v>
       </c>
       <c r="BG62" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="63" spans="1:58" x14ac:dyDescent="0.25">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="63" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
         <v>631</v>
       </c>
@@ -8555,10 +8548,10 @@
         <v>69</v>
       </c>
       <c r="BG63" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="64" spans="1:58" x14ac:dyDescent="0.25">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="64" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
         <v>631</v>
       </c>
@@ -8609,10 +8602,10 @@
         <v>140</v>
       </c>
       <c r="BG64" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="65" spans="1:58" x14ac:dyDescent="0.25">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="65" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
         <v>631</v>
       </c>
@@ -8663,10 +8656,10 @@
         <v>140</v>
       </c>
       <c r="BG65" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="66" spans="1:58" x14ac:dyDescent="0.25">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="66" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
         <v>631</v>
       </c>
@@ -8717,10 +8710,10 @@
         <v>140</v>
       </c>
       <c r="BG66" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="67" spans="1:58" x14ac:dyDescent="0.25">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="67" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
         <v>631</v>
       </c>
@@ -8771,10 +8764,10 @@
         <v>140</v>
       </c>
       <c r="BG67" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="68" spans="1:58" x14ac:dyDescent="0.25">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="68" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
         <v>631</v>
       </c>
@@ -8825,10 +8818,10 @@
         <v>140</v>
       </c>
       <c r="BG68" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="69" spans="1:58" x14ac:dyDescent="0.25">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="69" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
         <v>631</v>
       </c>
@@ -8879,10 +8872,10 @@
         <v>140</v>
       </c>
       <c r="BG69" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="70" spans="1:58" x14ac:dyDescent="0.25">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="70" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
         <v>631</v>
       </c>
@@ -8933,10 +8926,10 @@
         <v>140</v>
       </c>
       <c r="BG70" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="71" spans="1:58" x14ac:dyDescent="0.25">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="71" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
         <v>631</v>
       </c>
@@ -8987,10 +8980,10 @@
         <v>140</v>
       </c>
       <c r="BG71" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="72" spans="1:58" x14ac:dyDescent="0.25">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="72" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
         <v>631</v>
       </c>
@@ -9041,10 +9034,10 @@
         <v>140</v>
       </c>
       <c r="BG72" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="73" spans="1:58" x14ac:dyDescent="0.25">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="73" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A73" s="20" t="s">
         <v>631</v>
       </c>
@@ -9095,10 +9088,10 @@
         <v>140</v>
       </c>
       <c r="BG73" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="74" spans="1:58" x14ac:dyDescent="0.25">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="74" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
         <v>631</v>
       </c>
@@ -9149,10 +9142,10 @@
         <v>140</v>
       </c>
       <c r="BG74" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="75" spans="1:58" x14ac:dyDescent="0.25">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="75" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A75" s="20" t="s">
         <v>631</v>
       </c>
@@ -9203,10 +9196,10 @@
         <v>140</v>
       </c>
       <c r="BG75" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="76" spans="1:58" x14ac:dyDescent="0.25">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="76" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
         <v>631</v>
       </c>
@@ -9257,10 +9250,10 @@
         <v>140</v>
       </c>
       <c r="BG76" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="77" spans="1:58" x14ac:dyDescent="0.25">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="77" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
         <v>631</v>
       </c>
@@ -9311,10 +9304,10 @@
         <v>140</v>
       </c>
       <c r="BG77" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="78" spans="1:58" x14ac:dyDescent="0.25">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="78" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
         <v>631</v>
       </c>
@@ -9365,7 +9358,7 @@
         <v>74</v>
       </c>
       <c r="BG78" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
   </sheetData>
@@ -9385,29 +9378,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="12.375" collapsed="true"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="17.5" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="23.875" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="9.875" collapsed="true"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -10054,19 +10047,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.625" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="24.5" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="20.125" collapsed="true"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -10089,7 +10083,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>114</v>
       </c>
@@ -10107,7 +10101,7 @@
       </c>
       <c r="F2" s="25"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>114</v>
       </c>
@@ -10125,7 +10119,7 @@
       </c>
       <c r="F3" s="25"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>114</v>
       </c>
@@ -10143,7 +10137,7 @@
       </c>
       <c r="F4" s="25"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>114</v>
       </c>
@@ -10181,7 +10175,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
         <v>114</v>
       </c>
@@ -10199,7 +10193,7 @@
       </c>
       <c r="F7" s="25"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
         <v>114</v>
       </c>
@@ -10217,7 +10211,7 @@
       </c>
       <c r="F8" s="25"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
         <v>114</v>
       </c>
@@ -10235,7 +10229,7 @@
       </c>
       <c r="F9" s="25"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
         <v>114</v>
       </c>
@@ -10253,7 +10247,7 @@
       </c>
       <c r="F10" s="25"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
         <v>114</v>
       </c>
@@ -10271,7 +10265,7 @@
       </c>
       <c r="F11" s="25"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
         <v>114</v>
       </c>
@@ -10289,7 +10283,7 @@
       </c>
       <c r="F12" s="25"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
         <v>114</v>
       </c>
@@ -10327,7 +10321,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>114</v>
       </c>
@@ -10405,7 +10399,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>114</v>
       </c>
@@ -10423,7 +10417,7 @@
       </c>
       <c r="F19" s="25"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
         <v>114</v>
       </c>
@@ -10461,7 +10455,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>114</v>
       </c>
@@ -10479,7 +10473,7 @@
       </c>
       <c r="F22" s="25"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>114</v>
       </c>
@@ -10517,7 +10511,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>114</v>
       </c>
@@ -10535,7 +10529,7 @@
       </c>
       <c r="F25" s="25"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>114</v>
       </c>
@@ -10613,7 +10607,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>114</v>
       </c>
@@ -10651,7 +10645,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
         <v>114</v>
       </c>
@@ -10689,7 +10683,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>114</v>
       </c>
@@ -10707,7 +10701,7 @@
       </c>
       <c r="F34" s="25"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
         <v>114</v>
       </c>
@@ -10725,7 +10719,7 @@
       </c>
       <c r="F35" s="25"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
         <v>114</v>
       </c>
@@ -10743,7 +10737,7 @@
       </c>
       <c r="F36" s="25"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
         <v>114</v>
       </c>
@@ -10763,7 +10757,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
         <v>114</v>
       </c>
@@ -10781,7 +10775,7 @@
       </c>
       <c r="F38" s="25"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
         <v>114</v>
       </c>
@@ -10799,7 +10793,7 @@
       </c>
       <c r="F39" s="25"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
         <v>114</v>
       </c>
@@ -10817,7 +10811,7 @@
       </c>
       <c r="F40" s="25"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
         <v>114</v>
       </c>
@@ -10855,7 +10849,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
         <v>114</v>
       </c>
@@ -10893,7 +10887,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
         <v>114</v>
       </c>
@@ -10911,7 +10905,7 @@
       </c>
       <c r="F45" s="25"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
         <v>114</v>
       </c>
@@ -10929,7 +10923,7 @@
       </c>
       <c r="F46" s="25"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
         <v>114</v>
       </c>
@@ -10967,7 +10961,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
         <v>114</v>
       </c>
@@ -10987,7 +10981,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
         <v>114</v>
       </c>
@@ -11005,7 +10999,7 @@
       </c>
       <c r="F50" s="25"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
         <v>114</v>
       </c>
@@ -11023,7 +11017,7 @@
       </c>
       <c r="F51" s="25"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
         <v>114</v>
       </c>
@@ -11061,7 +11055,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
         <v>114</v>
       </c>
@@ -11079,7 +11073,7 @@
       </c>
       <c r="F54" s="25"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
         <v>114</v>
       </c>
@@ -11097,7 +11091,7 @@
       </c>
       <c r="F55" s="25"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
         <v>114</v>
       </c>
@@ -11115,7 +11109,7 @@
       </c>
       <c r="F56" s="25"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
         <v>114</v>
       </c>
@@ -11155,7 +11149,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
         <v>114</v>
       </c>
@@ -11173,7 +11167,7 @@
       </c>
       <c r="F59" s="25"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
         <v>114</v>
       </c>
@@ -11191,7 +11185,7 @@
       </c>
       <c r="F60" s="25"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
         <v>385</v>
       </c>
@@ -11209,7 +11203,7 @@
       </c>
       <c r="F61" s="25"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
         <v>385</v>
       </c>
@@ -11267,7 +11261,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
         <v>385</v>
       </c>
@@ -11285,7 +11279,7 @@
       </c>
       <c r="F65" s="25"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
         <v>385</v>
       </c>
@@ -11303,7 +11297,7 @@
       </c>
       <c r="F66" s="25"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
         <v>385</v>
       </c>
@@ -11321,7 +11315,7 @@
       </c>
       <c r="F67" s="25"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="25" t="s">
         <v>385</v>
       </c>
@@ -11339,7 +11333,7 @@
       </c>
       <c r="F68" s="25"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="s">
         <v>385</v>
       </c>
@@ -11357,7 +11351,7 @@
       </c>
       <c r="F69" s="25"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
         <v>385</v>
       </c>
@@ -11375,7 +11369,7 @@
       </c>
       <c r="F70" s="25"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
         <v>385</v>
       </c>
@@ -11433,7 +11427,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="25" t="s">
         <v>385</v>
       </c>
@@ -11451,7 +11445,7 @@
       </c>
       <c r="F74" s="25"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="25" t="s">
         <v>385</v>
       </c>
@@ -11489,7 +11483,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
         <v>385</v>
       </c>
@@ -11507,7 +11501,7 @@
       </c>
       <c r="F77" s="25"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
         <v>385</v>
       </c>
@@ -11525,7 +11519,7 @@
       </c>
       <c r="F78" s="25"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="25" t="s">
         <v>385</v>
       </c>
@@ -11543,7 +11537,7 @@
       </c>
       <c r="F79" s="25"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="25" t="s">
         <v>385</v>
       </c>
@@ -11581,7 +11575,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="25" t="s">
         <v>385</v>
       </c>
@@ -11599,7 +11593,7 @@
       </c>
       <c r="F82" s="25"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="25" t="s">
         <v>385</v>
       </c>
@@ -11637,7 +11631,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="25" t="s">
         <v>385</v>
       </c>
@@ -11655,7 +11649,7 @@
       </c>
       <c r="F85" s="25"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="25" t="s">
         <v>385</v>
       </c>
@@ -11673,7 +11667,7 @@
       </c>
       <c r="F86" s="25"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="25" t="s">
         <v>385</v>
       </c>
@@ -11691,7 +11685,7 @@
       </c>
       <c r="F87" s="25"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="25" t="s">
         <v>385</v>
       </c>
@@ -11709,7 +11703,7 @@
       </c>
       <c r="F88" s="25"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="25" t="s">
         <v>385</v>
       </c>
@@ -11727,7 +11721,7 @@
       </c>
       <c r="F89" s="25"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="25" t="s">
         <v>385</v>
       </c>
@@ -11745,7 +11739,7 @@
       </c>
       <c r="F90" s="25"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="25" t="s">
         <v>385</v>
       </c>
@@ -11763,7 +11757,7 @@
       </c>
       <c r="F91" s="25"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="25" t="s">
         <v>385</v>
       </c>
@@ -11821,7 +11815,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="25" t="s">
         <v>385</v>
       </c>
@@ -11839,7 +11833,7 @@
       </c>
       <c r="F95" s="25"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="25" t="s">
         <v>385</v>
       </c>
@@ -11857,7 +11851,7 @@
       </c>
       <c r="F96" s="25"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="25" t="s">
         <v>385</v>
       </c>
@@ -11875,7 +11869,7 @@
       </c>
       <c r="F97" s="25"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="25" t="s">
         <v>385</v>
       </c>
@@ -11893,7 +11887,7 @@
       </c>
       <c r="F98" s="25"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="25" t="s">
         <v>385</v>
       </c>
@@ -11911,7 +11905,7 @@
       </c>
       <c r="F99" s="25"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="25" t="s">
         <v>385</v>
       </c>
@@ -11949,7 +11943,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="25" t="s">
         <v>385</v>
       </c>
@@ -11967,7 +11961,7 @@
       </c>
       <c r="F102" s="25"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="25" t="s">
         <v>385</v>
       </c>
@@ -11985,7 +11979,7 @@
       </c>
       <c r="F103" s="25"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="25" t="s">
         <v>385</v>
       </c>
@@ -12003,7 +11997,7 @@
       </c>
       <c r="F104" s="25"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="25" t="s">
         <v>385</v>
       </c>
@@ -12021,7 +12015,7 @@
       </c>
       <c r="F105" s="25"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="25" t="s">
         <v>385</v>
       </c>
@@ -12039,7 +12033,7 @@
       </c>
       <c r="F106" s="25"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="25" t="s">
         <v>385</v>
       </c>
@@ -12057,7 +12051,7 @@
       </c>
       <c r="F107" s="25"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="25" t="s">
         <v>527</v>
       </c>
@@ -12075,7 +12069,7 @@
       </c>
       <c r="F108" s="25"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="25" t="s">
         <v>527</v>
       </c>
@@ -12093,7 +12087,7 @@
       </c>
       <c r="F109" s="25"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="25" t="s">
         <v>527</v>
       </c>
@@ -12111,7 +12105,7 @@
       </c>
       <c r="F110" s="25"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="25" t="s">
         <v>527</v>
       </c>
@@ -12129,7 +12123,7 @@
       </c>
       <c r="F111" s="25"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="25" t="s">
         <v>527</v>
       </c>
@@ -12147,7 +12141,7 @@
       </c>
       <c r="F112" s="25"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="25" t="s">
         <v>527</v>
       </c>
@@ -12165,7 +12159,7 @@
       </c>
       <c r="F113" s="25"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="25" t="s">
         <v>527</v>
       </c>
@@ -12183,7 +12177,7 @@
       </c>
       <c r="F114" s="25"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="25" t="s">
         <v>527</v>
       </c>
@@ -12201,7 +12195,7 @@
       </c>
       <c r="F115" s="25"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="25" t="s">
         <v>527</v>
       </c>
@@ -12239,7 +12233,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="25" t="s">
         <v>527</v>
       </c>
@@ -12257,7 +12251,7 @@
       </c>
       <c r="F118" s="25"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="25" t="s">
         <v>527</v>
       </c>
@@ -12275,7 +12269,7 @@
       </c>
       <c r="F119" s="25"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="25" t="s">
         <v>527</v>
       </c>
@@ -12293,7 +12287,7 @@
       </c>
       <c r="F120" s="25"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="25" t="s">
         <v>527</v>
       </c>
@@ -12311,7 +12305,7 @@
       </c>
       <c r="F121" s="25"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="25" t="s">
         <v>527</v>
       </c>
@@ -12331,7 +12325,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="27" t="s">
         <v>527</v>
       </c>
@@ -12349,7 +12343,7 @@
       </c>
       <c r="F123" s="25"/>
     </row>
-    <row r="124" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="27" t="s">
         <v>527</v>
       </c>
@@ -12367,7 +12361,7 @@
       </c>
       <c r="F124" s="25"/>
     </row>
-    <row r="125" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="27" t="s">
         <v>527</v>
       </c>
@@ -12385,7 +12379,7 @@
       </c>
       <c r="F125" s="25"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="25" t="s">
         <v>527</v>
       </c>
@@ -12403,7 +12397,7 @@
       </c>
       <c r="F126" s="25"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="25" t="s">
         <v>527</v>
       </c>
@@ -12423,7 +12417,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="25" t="s">
         <v>527</v>
       </c>
@@ -12461,7 +12455,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="25" t="s">
         <v>527</v>
       </c>
@@ -12500,7 +12494,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F131"/>
+  <autoFilter ref="A1:F131">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Airtel Money"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -12516,10 +12516,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.625" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="24.5" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="18.625" collapsed="true"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="24.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -12642,9 +12642,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="21.5" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.5" collapsed="true"/>
+    <col min="1" max="1" width="20.375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/Excels/MW.xlsx
+++ b/Excels/MW.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20280" firstSheet="12" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20280" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="1010">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -608,9 +608,6 @@
     <t>Row8</t>
   </si>
   <si>
-    <t>Amount (Ksh)</t>
-  </si>
-  <si>
     <t>To/From</t>
   </si>
   <si>
@@ -636,9 +633,6 @@
   </si>
   <si>
     <t>Recharge History</t>
-  </si>
-  <si>
-    <t>Charges (Ksh)</t>
   </si>
   <si>
     <t>Bundle Name</t>
@@ -666,9 +660,6 @@
     <t>Validity</t>
   </si>
   <si>
-    <t>Bundle Price (Ksh)</t>
-  </si>
-  <si>
     <t>SMS History</t>
   </si>
   <si>
@@ -2751,9 +2742,6 @@
     <t>Vendor</t>
   </si>
   <si>
-    <t>Loan Amount (Ksh)</t>
-  </si>
-  <si>
     <t>Credited On</t>
   </si>
   <si>
@@ -3040,6 +3028,54 @@
   </si>
   <si>
     <t>101120000375</t>
+  </si>
+  <si>
+    <t>More Recharge History</t>
+  </si>
+  <si>
+    <t>BenefitsVoice|Data|SMS</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Serial Number</t>
+  </si>
+  <si>
+    <t>Old Expiry Date</t>
+  </si>
+  <si>
+    <t>Detailed Usage History</t>
+  </si>
+  <si>
+    <t>Remaining Balance</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Search Tune Tab</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Renewal Amount</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Amount (MK)</t>
+  </si>
+  <si>
+    <t>Charges (MK)</t>
+  </si>
+  <si>
+    <t>Bundle Price (MK)</t>
+  </si>
+  <si>
+    <t>Loan Amount (MK)</t>
   </si>
 </sst>
 </file>
@@ -3249,7 +3285,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3300,6 +3336,9 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3362,7 +3401,7 @@
         <xdr:cNvPr id="2" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3408,6 +3447,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1800225"/>
+          <a:ext cx="304800" cy="301625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
@@ -3799,7 +3886,7 @@
         <v>12</v>
       </c>
       <c r="O1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -3807,7 +3894,7 @@
         <v>2390495</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C2" t="s">
         <v>67</v>
@@ -3846,7 +3933,7 @@
         <v>177</v>
       </c>
       <c r="O2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -3854,7 +3941,7 @@
         <v>2388192</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C3" t="s">
         <v>66</v>
@@ -3865,7 +3952,7 @@
         <v>2390495</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C4" t="s">
         <v>175</v>
@@ -3879,10 +3966,10 @@
         <v>2394650</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D5">
         <v>999989584</v>
@@ -3988,49 +4075,49 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
   </sheetData>
@@ -4056,19 +4143,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>831</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>832</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>834</v>
       </c>
     </row>
   </sheetData>
@@ -4103,72 +4190,72 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B1" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C1" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B2" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
   </sheetData>
@@ -4193,36 +4280,36 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B1" t="s">
+        <v>854</v>
+      </c>
+      <c r="C1" t="s">
+        <v>855</v>
+      </c>
+      <c r="D1" t="s">
         <v>856</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>857</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>858</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>859</v>
-      </c>
-      <c r="E1" t="s">
-        <v>860</v>
-      </c>
-      <c r="F1" t="s">
-        <v>861</v>
-      </c>
-      <c r="G1" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B2" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C2" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
   </sheetData>
@@ -4250,42 +4337,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
+        <v>863</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>864</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>865</v>
+      </c>
+      <c r="D1" s="31" t="s">
         <v>866</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="E1" s="31" t="s">
         <v>867</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="F1" s="31" t="s">
         <v>868</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="G1" s="31" t="s">
         <v>869</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="H1" s="31" t="s">
         <v>870</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="I1" s="31" t="s">
         <v>871</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>872</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>873</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>874</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>875</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>57</v>
@@ -4356,7 +4443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4368,18 +4455,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4459,10 +4546,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4478,7 +4565,7 @@
     <col min="9" max="9" width="16" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>178</v>
       </c>
@@ -4507,285 +4594,380 @@
         <v>186</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>161</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="I5" s="3" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
+        <v>896</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>900</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>901</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>902</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>903</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>904</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
+        <v>901</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>905</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>906</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>907</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>908</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>909</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>910</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
+        <v>907</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>911</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>912</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>913</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>914</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>915</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>916</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>917</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>918</v>
       </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>919</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>920</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>921</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>923</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="39" t="s">
+        <v>994</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>995</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>996</v>
+      </c>
+      <c r="H14" s="39" t="s">
+        <v>997</v>
+      </c>
+      <c r="I14" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>998</v>
+      </c>
+      <c r="K14" s="39" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
+        <v>999</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4900,25 +5082,25 @@
         <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="Y1" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="Z1" t="s">
         <v>22</v>
       </c>
       <c r="AA1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="AB1" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="AC1" t="s">
         <v>22</v>
       </c>
       <c r="AD1" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="AE1" t="s">
         <v>24</v>
@@ -4927,7 +5109,7 @@
         <v>22</v>
       </c>
       <c r="AG1" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="AH1" t="s">
         <v>26</v>
@@ -4936,7 +5118,7 @@
         <v>22</v>
       </c>
       <c r="AJ1" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="AK1" t="s">
         <v>28</v>
@@ -4945,7 +5127,7 @@
         <v>22</v>
       </c>
       <c r="AM1" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="AN1" t="s">
         <v>30</v>
@@ -4954,7 +5136,7 @@
         <v>22</v>
       </c>
       <c r="AP1" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="AQ1" t="s">
         <v>174</v>
@@ -4963,10 +5145,10 @@
         <v>22</v>
       </c>
       <c r="AS1" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="AT1" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="AU1" t="s">
         <v>22</v>
@@ -4978,25 +5160,25 @@
         <v>34</v>
       </c>
       <c r="AX1" s="36" t="s">
+        <v>877</v>
+      </c>
+      <c r="AY1" s="36" t="s">
+        <v>878</v>
+      </c>
+      <c r="AZ1" s="36" t="s">
+        <v>879</v>
+      </c>
+      <c r="BA1" s="36" t="s">
         <v>880</v>
       </c>
-      <c r="AY1" s="36" t="s">
+      <c r="BB1" s="36" t="s">
         <v>881</v>
       </c>
-      <c r="AZ1" s="36" t="s">
+      <c r="BC1" s="36" t="s">
         <v>882</v>
       </c>
-      <c r="BA1" s="36" t="s">
+      <c r="BD1" s="37" t="s">
         <v>883</v>
-      </c>
-      <c r="BB1" s="36" t="s">
-        <v>884</v>
-      </c>
-      <c r="BC1" s="36" t="s">
-        <v>885</v>
-      </c>
-      <c r="BD1" s="37" t="s">
-        <v>886</v>
       </c>
       <c r="BE1" t="s">
         <v>42</v>
@@ -5140,7 +5322,7 @@
         <v>140</v>
       </c>
       <c r="BG3" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.25">
@@ -5281,7 +5463,7 @@
         <v>140</v>
       </c>
       <c r="BG5" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.25">
@@ -5365,7 +5547,7 @@
         <v>140</v>
       </c>
       <c r="BG6" s="38" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.25">
@@ -5455,7 +5637,7 @@
         <v>140</v>
       </c>
       <c r="BG7" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.25">
@@ -5463,19 +5645,19 @@
         <v>130</v>
       </c>
       <c r="B8" s="19" t="s">
+        <v>596</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>597</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>597</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>598</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>599</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>600</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>600</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>601</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>602</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>172</v>
@@ -5484,7 +5666,7 @@
         <v>31</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="J8" s="19" t="s">
         <v>172</v>
@@ -5496,7 +5678,7 @@
         <v>160</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="N8" s="19" t="s">
         <v>31</v>
@@ -5544,16 +5726,16 @@
         <v>130</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -5590,7 +5772,7 @@
         <v>140</v>
       </c>
       <c r="BG9" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.25">
@@ -5598,16 +5780,16 @@
         <v>130</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
@@ -5644,7 +5826,7 @@
         <v>140</v>
       </c>
       <c r="BG10" s="38" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.25">
@@ -5652,16 +5834,16 @@
         <v>130</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -5698,7 +5880,7 @@
         <v>140</v>
       </c>
       <c r="BG11" s="38" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.25">
@@ -5706,16 +5888,16 @@
         <v>130</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
@@ -5752,7 +5934,7 @@
         <v>140</v>
       </c>
       <c r="BG12" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.25">
@@ -5760,16 +5942,16 @@
         <v>130</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -5806,7 +5988,7 @@
         <v>140</v>
       </c>
       <c r="BG13" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.25">
@@ -5814,16 +5996,16 @@
         <v>130</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
@@ -5860,7 +6042,7 @@
         <v>140</v>
       </c>
       <c r="BG14" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.25">
@@ -5868,16 +6050,16 @@
         <v>130</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -5914,7 +6096,7 @@
         <v>140</v>
       </c>
       <c r="BG15" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.25">
@@ -5922,16 +6104,16 @@
         <v>130</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
@@ -5968,7 +6150,7 @@
         <v>140</v>
       </c>
       <c r="BG16" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
     </row>
     <row r="17" spans="1:59" x14ac:dyDescent="0.25">
@@ -5976,16 +6158,16 @@
         <v>130</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
@@ -6022,7 +6204,7 @@
         <v>140</v>
       </c>
       <c r="BG17" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.25">
@@ -6030,16 +6212,16 @@
         <v>130</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
@@ -6076,24 +6258,24 @@
         <v>140</v>
       </c>
       <c r="BG18" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
+        <v>628</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>629</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>630</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>630</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>631</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>632</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>633</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>633</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>634</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
@@ -6130,24 +6312,24 @@
         <v>140</v>
       </c>
       <c r="BG19" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
     </row>
     <row r="20" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
@@ -6184,24 +6366,24 @@
         <v>140</v>
       </c>
       <c r="BG20" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="21" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
@@ -6238,24 +6420,24 @@
         <v>140</v>
       </c>
       <c r="BG21" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
     </row>
     <row r="22" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
@@ -6292,24 +6474,24 @@
         <v>140</v>
       </c>
       <c r="BG22" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
@@ -6346,24 +6528,24 @@
         <v>140</v>
       </c>
       <c r="BG23" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
@@ -6400,24 +6582,24 @@
         <v>140</v>
       </c>
       <c r="BG24" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
@@ -6454,24 +6636,24 @@
         <v>140</v>
       </c>
       <c r="BG25" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
@@ -6508,24 +6690,24 @@
         <v>140</v>
       </c>
       <c r="BG26" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
     </row>
     <row r="27" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -6562,24 +6744,24 @@
         <v>140</v>
       </c>
       <c r="BG27" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
     </row>
     <row r="28" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
@@ -6616,24 +6798,24 @@
         <v>140</v>
       </c>
       <c r="BG28" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
     </row>
     <row r="29" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
@@ -6670,24 +6852,24 @@
         <v>140</v>
       </c>
       <c r="BG29" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="30" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
@@ -6724,27 +6906,27 @@
         <v>140</v>
       </c>
       <c r="BG30" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
     </row>
     <row r="31" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B31" s="21" t="s">
+        <v>665</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>666</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>666</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>667</v>
+      </c>
+      <c r="F31" s="21" t="s">
         <v>668</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>669</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>669</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>670</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>671</v>
       </c>
       <c r="G31" s="21" t="s">
         <v>172</v>
@@ -6753,7 +6935,7 @@
         <v>31</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="J31" s="21" t="s">
         <v>172</v>
@@ -6762,7 +6944,7 @@
         <v>31</v>
       </c>
       <c r="L31" s="21" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="M31" s="21" t="s">
         <v>172</v>
@@ -6796,24 +6978,24 @@
         <v>140</v>
       </c>
       <c r="BG31" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
     </row>
     <row r="32" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
@@ -6850,24 +7032,24 @@
         <v>140</v>
       </c>
       <c r="BG32" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
     </row>
     <row r="33" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
@@ -6904,27 +7086,27 @@
         <v>140</v>
       </c>
       <c r="BG33" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
     </row>
     <row r="34" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="G34" s="19" t="s">
         <v>172</v>
@@ -6933,7 +7115,7 @@
         <v>31</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="J34" s="19" t="s">
         <v>172</v>
@@ -6942,7 +7124,7 @@
         <v>31</v>
       </c>
       <c r="L34" s="19" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="M34" s="19" t="s">
         <v>172</v>
@@ -6951,7 +7133,7 @@
         <v>31</v>
       </c>
       <c r="O34" s="19" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="P34" s="19" t="s">
         <v>172</v>
@@ -6982,24 +7164,24 @@
         <v>140</v>
       </c>
       <c r="BG34" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
     </row>
     <row r="35" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
@@ -7036,24 +7218,24 @@
         <v>140</v>
       </c>
       <c r="BG35" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
     </row>
     <row r="36" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
@@ -7090,24 +7272,24 @@
         <v>140</v>
       </c>
       <c r="BG36" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
     </row>
     <row r="37" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
@@ -7144,24 +7326,24 @@
         <v>72</v>
       </c>
       <c r="BG37" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
     </row>
     <row r="38" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
@@ -7198,24 +7380,24 @@
         <v>69</v>
       </c>
       <c r="BG38" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
     </row>
     <row r="39" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
@@ -7252,24 +7434,24 @@
         <v>69</v>
       </c>
       <c r="BG39" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="40" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="F40" s="19"/>
       <c r="G40" s="19"/>
@@ -7306,24 +7488,24 @@
         <v>140</v>
       </c>
       <c r="BG40" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
     </row>
     <row r="41" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
@@ -7360,24 +7542,24 @@
         <v>140</v>
       </c>
       <c r="BG41" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
     </row>
     <row r="42" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
@@ -7414,24 +7596,24 @@
         <v>140</v>
       </c>
       <c r="BG42" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
     </row>
     <row r="43" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
@@ -7468,24 +7650,24 @@
         <v>140</v>
       </c>
       <c r="BG43" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
     </row>
     <row r="44" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
@@ -7522,24 +7704,24 @@
         <v>140</v>
       </c>
       <c r="BG44" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
     </row>
     <row r="45" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
@@ -7576,24 +7758,24 @@
         <v>140</v>
       </c>
       <c r="BG45" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
     </row>
     <row r="46" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
@@ -7630,24 +7812,24 @@
         <v>140</v>
       </c>
       <c r="BG46" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
     </row>
     <row r="47" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B47" s="21" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F47" s="21"/>
       <c r="G47" s="21"/>
@@ -7684,24 +7866,24 @@
         <v>140</v>
       </c>
       <c r="BG47" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
     </row>
     <row r="48" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="F48" s="19"/>
       <c r="G48" s="19"/>
@@ -7738,24 +7920,24 @@
         <v>140</v>
       </c>
       <c r="BG48" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
     </row>
     <row r="49" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B49" s="21" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="F49" s="21"/>
       <c r="G49" s="21"/>
@@ -7792,24 +7974,24 @@
         <v>140</v>
       </c>
       <c r="BG49" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="50" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="F50" s="19"/>
       <c r="G50" s="19"/>
@@ -7846,24 +8028,24 @@
         <v>74</v>
       </c>
       <c r="BG50" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
     </row>
     <row r="51" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="F51" s="21"/>
       <c r="G51" s="21"/>
@@ -7900,24 +8082,24 @@
         <v>74</v>
       </c>
       <c r="BG51" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="52" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="F52" s="19"/>
       <c r="G52" s="19"/>
@@ -7954,24 +8136,24 @@
         <v>140</v>
       </c>
       <c r="BG52" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="53" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
@@ -8008,24 +8190,24 @@
         <v>140</v>
       </c>
       <c r="BG53" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="54" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="F54" s="19"/>
       <c r="G54" s="19"/>
@@ -8062,24 +8244,24 @@
         <v>140</v>
       </c>
       <c r="BG54" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="55" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="F55" s="21"/>
       <c r="G55" s="21"/>
@@ -8116,24 +8298,24 @@
         <v>140</v>
       </c>
       <c r="BG55" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="56" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="F56" s="19"/>
       <c r="G56" s="19"/>
@@ -8170,24 +8352,24 @@
         <v>140</v>
       </c>
       <c r="BG56" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="57" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F57" s="21"/>
       <c r="G57" s="21"/>
@@ -8224,24 +8406,24 @@
         <v>140</v>
       </c>
       <c r="BG57" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="58" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F58" s="19"/>
       <c r="G58" s="19"/>
@@ -8278,24 +8460,24 @@
         <v>140</v>
       </c>
       <c r="BG58" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="59" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D59" s="21" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="F59" s="21"/>
       <c r="G59" s="21"/>
@@ -8332,24 +8514,24 @@
         <v>74</v>
       </c>
       <c r="BG59" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="60" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="F60" s="19"/>
       <c r="G60" s="19"/>
@@ -8386,24 +8568,24 @@
         <v>140</v>
       </c>
       <c r="BG60" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
     </row>
     <row r="61" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="D61" s="21" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="F61" s="21"/>
       <c r="G61" s="21"/>
@@ -8440,24 +8622,24 @@
         <v>140</v>
       </c>
       <c r="BG61" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="62" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="F62" s="19"/>
       <c r="G62" s="19"/>
@@ -8494,24 +8676,24 @@
         <v>140</v>
       </c>
       <c r="BG62" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
     </row>
     <row r="63" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="D63" s="21" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="F63" s="21"/>
       <c r="G63" s="21"/>
@@ -8548,21 +8730,21 @@
         <v>69</v>
       </c>
       <c r="BG63" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
     <row r="64" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="E64" s="19" t="s">
         <v>106</v>
@@ -8602,24 +8784,24 @@
         <v>140</v>
       </c>
       <c r="BG64" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
     </row>
     <row r="65" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B65" s="21" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D65" s="21" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F65" s="21"/>
       <c r="G65" s="21"/>
@@ -8656,24 +8838,24 @@
         <v>140</v>
       </c>
       <c r="BG65" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
     </row>
     <row r="66" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="F66" s="19"/>
       <c r="G66" s="19"/>
@@ -8710,24 +8892,24 @@
         <v>140</v>
       </c>
       <c r="BG66" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="67" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
@@ -8764,24 +8946,24 @@
         <v>140</v>
       </c>
       <c r="BG67" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="68" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="F68" s="19"/>
       <c r="G68" s="19"/>
@@ -8818,24 +9000,24 @@
         <v>140</v>
       </c>
       <c r="BG68" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
     </row>
     <row r="69" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="F69" s="21"/>
       <c r="G69" s="21"/>
@@ -8872,24 +9054,24 @@
         <v>140</v>
       </c>
       <c r="BG69" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
     </row>
     <row r="70" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="F70" s="19"/>
       <c r="G70" s="19"/>
@@ -8926,24 +9108,24 @@
         <v>140</v>
       </c>
       <c r="BG70" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="71" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="F71" s="21"/>
       <c r="G71" s="21"/>
@@ -8980,24 +9162,24 @@
         <v>140</v>
       </c>
       <c r="BG71" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
     </row>
     <row r="72" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="E72" s="19" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="F72" s="19"/>
       <c r="G72" s="19"/>
@@ -9034,24 +9216,24 @@
         <v>140</v>
       </c>
       <c r="BG72" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
     </row>
     <row r="73" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A73" s="20" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="F73" s="21"/>
       <c r="G73" s="21"/>
@@ -9088,24 +9270,24 @@
         <v>140</v>
       </c>
       <c r="BG73" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="74" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="D74" s="19" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="E74" s="19" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="F74" s="19"/>
       <c r="G74" s="19"/>
@@ -9142,24 +9324,24 @@
         <v>140</v>
       </c>
       <c r="BG74" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
     </row>
     <row r="75" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A75" s="20" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="E75" s="21" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="F75" s="21"/>
       <c r="G75" s="21"/>
@@ -9196,24 +9378,24 @@
         <v>140</v>
       </c>
       <c r="BG75" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
     </row>
     <row r="76" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D76" s="19" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="F76" s="19"/>
       <c r="G76" s="19"/>
@@ -9250,24 +9432,24 @@
         <v>140</v>
       </c>
       <c r="BG76" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
     </row>
     <row r="77" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="E77" s="21" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="F77" s="21"/>
       <c r="G77" s="21"/>
@@ -9304,24 +9486,24 @@
         <v>140</v>
       </c>
       <c r="BG77" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
     </row>
     <row r="78" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E78" s="19" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="F78" s="19"/>
       <c r="G78" s="19"/>
@@ -9358,7 +9540,7 @@
         <v>74</v>
       </c>
       <c r="BG78" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
   </sheetData>
@@ -9474,25 +9656,25 @@
         <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="Y1" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="Z1" t="s">
         <v>22</v>
       </c>
       <c r="AA1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="AB1" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="AC1" t="s">
         <v>22</v>
       </c>
       <c r="AD1" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="AE1" t="s">
         <v>24</v>
@@ -9501,7 +9683,7 @@
         <v>22</v>
       </c>
       <c r="AG1" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="AH1" t="s">
         <v>26</v>
@@ -9510,7 +9692,7 @@
         <v>22</v>
       </c>
       <c r="AJ1" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="AK1" t="s">
         <v>28</v>
@@ -9519,7 +9701,7 @@
         <v>22</v>
       </c>
       <c r="AM1" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="AN1" t="s">
         <v>30</v>
@@ -9528,7 +9710,7 @@
         <v>22</v>
       </c>
       <c r="AP1" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="AQ1" t="s">
         <v>174</v>
@@ -9537,10 +9719,10 @@
         <v>22</v>
       </c>
       <c r="AS1" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="AT1" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="AU1" t="s">
         <v>22</v>
@@ -9552,25 +9734,25 @@
         <v>34</v>
       </c>
       <c r="AX1" s="36" t="s">
+        <v>877</v>
+      </c>
+      <c r="AY1" s="36" t="s">
+        <v>878</v>
+      </c>
+      <c r="AZ1" s="36" t="s">
+        <v>879</v>
+      </c>
+      <c r="BA1" s="36" t="s">
         <v>880</v>
       </c>
-      <c r="AY1" s="36" t="s">
+      <c r="BB1" s="36" t="s">
         <v>881</v>
       </c>
-      <c r="AZ1" s="36" t="s">
+      <c r="BC1" s="36" t="s">
         <v>882</v>
       </c>
-      <c r="BA1" s="36" t="s">
+      <c r="BD1" s="37" t="s">
         <v>883</v>
-      </c>
-      <c r="BB1" s="36" t="s">
-        <v>884</v>
-      </c>
-      <c r="BC1" s="36" t="s">
-        <v>885</v>
-      </c>
-      <c r="BD1" s="37" t="s">
-        <v>886</v>
       </c>
       <c r="BE1" t="s">
         <v>42</v>
@@ -9663,7 +9845,7 @@
         <v>140</v>
       </c>
       <c r="BG2" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.25">
@@ -9717,7 +9899,7 @@
         <v>140</v>
       </c>
       <c r="BG3" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.25">
@@ -9807,7 +9989,7 @@
         <v>140</v>
       </c>
       <c r="BG4" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.25">
@@ -9861,7 +10043,7 @@
         <v>140</v>
       </c>
       <c r="BG5" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.25">
@@ -9945,7 +10127,7 @@
         <v>140</v>
       </c>
       <c r="BG6" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.25">
@@ -10035,7 +10217,7 @@
         <v>140</v>
       </c>
       <c r="BG7" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
   </sheetData>
@@ -10080,7 +10262,7 @@
         <v>19</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -10180,16 +10362,16 @@
         <v>114</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F7" s="25"/>
     </row>
@@ -10198,16 +10380,16 @@
         <v>114</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F8" s="25"/>
     </row>
@@ -10216,16 +10398,16 @@
         <v>114</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F9" s="25"/>
     </row>
@@ -10234,16 +10416,16 @@
         <v>114</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F10" s="25"/>
     </row>
@@ -10252,16 +10434,16 @@
         <v>114</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F11" s="25"/>
     </row>
@@ -10270,16 +10452,16 @@
         <v>114</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -10288,16 +10470,16 @@
         <v>114</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F13" s="25"/>
     </row>
@@ -10306,16 +10488,16 @@
         <v>114</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>36</v>
@@ -10326,16 +10508,16 @@
         <v>114</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F15" s="25"/>
     </row>
@@ -10344,16 +10526,16 @@
         <v>114</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F16" s="25" t="s">
         <v>36</v>
@@ -10364,16 +10546,16 @@
         <v>114</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F17" s="25" t="s">
         <v>36</v>
@@ -10384,16 +10566,16 @@
         <v>114</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F18" s="25" t="s">
         <v>36</v>
@@ -10404,16 +10586,16 @@
         <v>114</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F19" s="25"/>
     </row>
@@ -10422,16 +10604,16 @@
         <v>114</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F20" s="25"/>
     </row>
@@ -10440,16 +10622,16 @@
         <v>114</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F21" s="25" t="s">
         <v>36</v>
@@ -10460,16 +10642,16 @@
         <v>114</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F22" s="25"/>
     </row>
@@ -10478,16 +10660,16 @@
         <v>114</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F23" s="25"/>
     </row>
@@ -10496,16 +10678,16 @@
         <v>114</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F24" s="25" t="s">
         <v>36</v>
@@ -10516,16 +10698,16 @@
         <v>114</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F25" s="25"/>
     </row>
@@ -10534,16 +10716,16 @@
         <v>114</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F26" s="25"/>
     </row>
@@ -10552,16 +10734,16 @@
         <v>114</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F27" s="25" t="s">
         <v>36</v>
@@ -10572,16 +10754,16 @@
         <v>114</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F28" s="25" t="s">
         <v>36</v>
@@ -10592,16 +10774,16 @@
         <v>114</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F29" s="25" t="s">
         <v>36</v>
@@ -10612,16 +10794,16 @@
         <v>114</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F30" s="25"/>
     </row>
@@ -10630,16 +10812,16 @@
         <v>114</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F31" s="25" t="s">
         <v>36</v>
@@ -10650,16 +10832,16 @@
         <v>114</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F32" s="25"/>
     </row>
@@ -10668,16 +10850,16 @@
         <v>114</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F33" s="25" t="s">
         <v>36</v>
@@ -10688,16 +10870,16 @@
         <v>114</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F34" s="25"/>
     </row>
@@ -10706,16 +10888,16 @@
         <v>114</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F35" s="25"/>
     </row>
@@ -10724,16 +10906,16 @@
         <v>114</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F36" s="25"/>
     </row>
@@ -10742,19 +10924,19 @@
         <v>114</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -10762,16 +10944,16 @@
         <v>114</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F38" s="25"/>
     </row>
@@ -10780,16 +10962,16 @@
         <v>114</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F39" s="25"/>
     </row>
@@ -10798,16 +10980,16 @@
         <v>114</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F40" s="25"/>
     </row>
@@ -10816,16 +10998,16 @@
         <v>114</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F41" s="25"/>
     </row>
@@ -10834,16 +11016,16 @@
         <v>114</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F42" s="25" t="s">
         <v>36</v>
@@ -10854,16 +11036,16 @@
         <v>114</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F43" s="25"/>
     </row>
@@ -10872,16 +11054,16 @@
         <v>114</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F44" s="25" t="s">
         <v>36</v>
@@ -10892,16 +11074,16 @@
         <v>114</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F45" s="25"/>
     </row>
@@ -10910,16 +11092,16 @@
         <v>114</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F46" s="25"/>
     </row>
@@ -10928,16 +11110,16 @@
         <v>114</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F47" s="25"/>
     </row>
@@ -10946,16 +11128,16 @@
         <v>114</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F48" s="25" t="s">
         <v>36</v>
@@ -10966,19 +11148,19 @@
         <v>114</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -10986,16 +11168,16 @@
         <v>114</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F50" s="25"/>
     </row>
@@ -11004,16 +11186,16 @@
         <v>114</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F51" s="25"/>
     </row>
@@ -11022,13 +11204,13 @@
         <v>114</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E52" s="25" t="s">
         <v>104</v>
@@ -11040,16 +11222,16 @@
         <v>114</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F53" s="25" t="s">
         <v>36</v>
@@ -11060,16 +11242,16 @@
         <v>114</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F54" s="25"/>
     </row>
@@ -11078,16 +11260,16 @@
         <v>114</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F55" s="25"/>
     </row>
@@ -11096,16 +11278,16 @@
         <v>114</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F56" s="25"/>
     </row>
@@ -11114,19 +11296,19 @@
         <v>114</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -11134,16 +11316,16 @@
         <v>114</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F58" s="25" t="s">
         <v>36</v>
@@ -11154,16 +11336,16 @@
         <v>114</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E59" s="25" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F59" s="25"/>
     </row>
@@ -11172,70 +11354,70 @@
         <v>114</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E60" s="25" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F60" s="25"/>
     </row>
     <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="E61" s="25" t="s">
         <v>385</v>
-      </c>
-      <c r="B61" s="25" t="s">
-        <v>386</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>387</v>
-      </c>
-      <c r="D61" s="25" t="s">
-        <v>387</v>
-      </c>
-      <c r="E61" s="25" t="s">
-        <v>388</v>
       </c>
       <c r="F61" s="25"/>
     </row>
     <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E62" s="25" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F62" s="25"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E63" s="25" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F63" s="25" t="s">
         <v>36</v>
@@ -11243,19 +11425,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E64" s="25" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F64" s="25" t="s">
         <v>36</v>
@@ -11263,145 +11445,145 @@
     </row>
     <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E65" s="25" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F65" s="25"/>
     </row>
     <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E66" s="25" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F66" s="25"/>
     </row>
     <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E67" s="25" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F67" s="25"/>
     </row>
     <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E68" s="25" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F68" s="25"/>
     </row>
     <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E69" s="25" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F69" s="25"/>
     </row>
     <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E70" s="25" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F70" s="25"/>
     </row>
     <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E71" s="25" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F71" s="25"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E72" s="25" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F72" s="25" t="s">
         <v>36</v>
@@ -11409,19 +11591,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E73" s="25" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F73" s="25" t="s">
         <v>36</v>
@@ -11429,55 +11611,55 @@
     </row>
     <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E74" s="25" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F74" s="25"/>
     </row>
     <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E75" s="25" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F75" s="25"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E76" s="25" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F76" s="25" t="s">
         <v>36</v>
@@ -11485,91 +11667,91 @@
     </row>
     <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E77" s="25" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F77" s="25"/>
     </row>
     <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F78" s="25"/>
     </row>
     <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E79" s="25" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F79" s="25"/>
     </row>
     <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E80" s="25" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F80" s="25"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E81" s="25" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F81" s="25" t="s">
         <v>36</v>
@@ -11577,55 +11759,55 @@
     </row>
     <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E82" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F82" s="25"/>
     </row>
     <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E83" s="25" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F83" s="25"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E84" s="25" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F84" s="25" t="s">
         <v>36</v>
@@ -11633,163 +11815,163 @@
     </row>
     <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E85" s="25" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F85" s="25"/>
     </row>
     <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E86" s="25" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F86" s="25"/>
     </row>
     <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E87" s="25" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F87" s="25"/>
     </row>
     <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E88" s="25" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F88" s="25"/>
     </row>
     <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E89" s="25" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F89" s="25"/>
     </row>
     <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E90" s="25" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F90" s="25"/>
     </row>
     <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E91" s="25" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F91" s="25"/>
     </row>
     <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E92" s="25" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F92" s="25"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F93" s="25" t="s">
         <v>36</v>
@@ -11797,19 +11979,19 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E94" s="25" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F94" s="25" t="s">
         <v>36</v>
@@ -11817,127 +11999,127 @@
     </row>
     <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E95" s="25" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="F95" s="25"/>
     </row>
     <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E96" s="25" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F96" s="25"/>
     </row>
     <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E97" s="25" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F97" s="25"/>
     </row>
     <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B98" s="25" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E98" s="25" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F98" s="25"/>
     </row>
     <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E99" s="25" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F99" s="25"/>
     </row>
     <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E100" s="25" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F100" s="25"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B101" s="25" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E101" s="25" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F101" s="25" t="s">
         <v>36</v>
@@ -11945,250 +12127,250 @@
     </row>
     <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E102" s="25" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="F102" s="25"/>
     </row>
     <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E103" s="25" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F103" s="25"/>
     </row>
     <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E104" s="25" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F104" s="25"/>
     </row>
     <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B105" s="25" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D105" s="25" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E105" s="25" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F105" s="25"/>
     </row>
     <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B106" s="25" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D106" s="25" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E106" s="25" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F106" s="25"/>
     </row>
     <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B107" s="25" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D107" s="25" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E107" s="25" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F107" s="25"/>
     </row>
     <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="25" t="s">
+        <v>524</v>
+      </c>
+      <c r="B108" s="25" t="s">
+        <v>525</v>
+      </c>
+      <c r="C108" s="25" t="s">
+        <v>526</v>
+      </c>
+      <c r="D108" s="25" t="s">
+        <v>526</v>
+      </c>
+      <c r="E108" s="25" t="s">
         <v>527</v>
-      </c>
-      <c r="B108" s="25" t="s">
-        <v>528</v>
-      </c>
-      <c r="C108" s="25" t="s">
-        <v>529</v>
-      </c>
-      <c r="D108" s="25" t="s">
-        <v>529</v>
-      </c>
-      <c r="E108" s="25" t="s">
-        <v>530</v>
       </c>
       <c r="F108" s="25"/>
     </row>
     <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="25" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B109" s="25" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D109" s="25" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E109" s="25" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F109" s="25"/>
     </row>
     <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="25" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B110" s="25" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D110" s="25" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E110" s="25" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F110" s="25"/>
     </row>
     <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="25" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B111" s="25" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D111" s="25" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E111" s="25" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F111" s="25"/>
     </row>
     <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="25" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B112" s="25" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E112" s="25" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F112" s="25"/>
     </row>
     <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="25" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B113" s="25" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C113" s="25" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E113" s="25" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F113" s="25"/>
     </row>
     <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="25" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C114" s="25" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E114" s="25" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F114" s="25"/>
     </row>
     <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="25" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B115" s="25" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E115" s="25" t="s">
         <v>105</v>
@@ -12197,37 +12379,37 @@
     </row>
     <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="25" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B116" s="25" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E116" s="25" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F116" s="25"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="25" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B117" s="25" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E117" s="25" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="F117" s="25" t="s">
         <v>36</v>
@@ -12235,221 +12417,221 @@
     </row>
     <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="25" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B118" s="25" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D118" s="25" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E118" s="25" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F118" s="25"/>
     </row>
     <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="25" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B119" s="25" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C119" s="25" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E119" s="25" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="F119" s="25"/>
     </row>
     <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="25" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B120" s="25" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D120" s="25" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E120" s="25" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F120" s="25"/>
     </row>
     <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="25" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B121" s="25" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C121" s="25" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D121" s="25" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E121" s="25" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="F121" s="25"/>
     </row>
     <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="25" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B122" s="25" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C122" s="25" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D122" s="25" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E122" s="25" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F122" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="27" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B123" s="25" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C123" s="25" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D123" s="25" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E123" s="25" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="F123" s="25"/>
     </row>
     <row r="124" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="27" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B124" s="25" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C124" s="25" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E124" s="25" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F124" s="25"/>
     </row>
     <row r="125" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="27" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B125" s="25" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C125" s="25" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D125" s="25" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="E125" s="25" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="F125" s="25"/>
     </row>
     <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="25" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B126" s="25" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C126" s="25" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D126" s="25" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E126" s="25" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F126" s="25"/>
     </row>
     <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="25" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B127" s="25" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C127" s="25" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D127" s="25" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E127" s="25" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="F127" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="25" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B128" s="25" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C128" s="25" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D128" s="25" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E128" s="25" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F128" s="25"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="25" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B129" s="25" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C129" s="25" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D129" s="25" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E129" s="25" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F129" s="25" t="s">
         <v>36</v>
@@ -12457,37 +12639,37 @@
     </row>
     <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="25" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B130" s="25" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C130" s="25" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D130" s="25" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E130" s="25" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F130" s="25"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="25" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B131" s="25" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C131" s="25" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D131" s="25" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E131" s="25" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="F131" s="25" t="s">
         <v>36</v>
@@ -12539,7 +12721,7 @@
         <v>19</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">

--- a/Excels/MW.xlsx
+++ b/Excels/MW.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="1010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="1015">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3076,6 +3076,21 @@
   </si>
   <si>
     <t>Loan Amount (MK)</t>
+  </si>
+  <si>
+    <t>Accumulator</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Next Reset Date</t>
   </si>
 </sst>
 </file>
@@ -3401,7 +3416,7 @@
         <xdr:cNvPr id="2" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3449,7 +3464,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3497,7 +3512,7 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4546,10 +4561,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4968,6 +4983,29 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="39" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excels/MW.xlsx
+++ b/Excels/MW.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20280" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20280"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -2703,9 +2703,6 @@
     <t>QWlydGVsIzMyMQ</t>
   </si>
   <si>
-    <t>U2VwdEAxMjMk</t>
-  </si>
-  <si>
     <t>S3l1Y2hheWllQDEyMw</t>
   </si>
   <si>
@@ -3091,6 +3088,9 @@
   </si>
   <si>
     <t>Next Reset Date</t>
+  </si>
+  <si>
+    <t>T2N0QDEyMyQ</t>
   </si>
 </sst>
 </file>
@@ -3416,7 +3416,7 @@
         <xdr:cNvPr id="2" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3464,7 +3464,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3512,7 +3512,7 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3844,8 +3844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3909,7 +3909,7 @@
         <v>2390495</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>885</v>
+        <v>1014</v>
       </c>
       <c r="C2" t="s">
         <v>67</v>
@@ -3967,7 +3967,7 @@
         <v>2390495</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>885</v>
+        <v>1014</v>
       </c>
       <c r="C4" t="s">
         <v>175</v>
@@ -3981,7 +3981,7 @@
         <v>2394650</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C5" t="s">
         <v>217</v>
@@ -4481,7 +4481,7 @@
         <v>874</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4563,7 +4563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -4614,7 +4614,7 @@
         <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>187</v>
@@ -4660,7 +4660,7 @@
         <v>195</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>192</v>
@@ -4704,7 +4704,7 @@
         <v>203</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -4797,22 +4797,22 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
+        <v>895</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>898</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>899</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>900</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -4822,22 +4822,22 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
+        <v>900</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>901</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>902</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>903</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>904</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>905</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>906</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -4847,28 +4847,28 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
+        <v>906</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>908</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>910</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>911</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>912</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>913</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>914</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -4876,19 +4876,19 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>915</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>916</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>917</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>918</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>919</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -4899,10 +4899,10 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>192</v>
@@ -4911,22 +4911,22 @@
         <v>196</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F14" s="39" t="s">
         <v>189</v>
       </c>
       <c r="G14" s="39" t="s">
+        <v>995</v>
+      </c>
+      <c r="H14" s="39" t="s">
         <v>996</v>
-      </c>
-      <c r="H14" s="39" t="s">
-        <v>997</v>
       </c>
       <c r="I14" s="39" t="s">
         <v>216</v>
       </c>
       <c r="J14" s="39" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="K14" s="39" t="s">
         <v>203</v>
@@ -4934,7 +4934,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>16</v>
@@ -4949,10 +4949,10 @@
         <v>168</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>1000</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>1001</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>196</v>
@@ -4963,16 +4963,16 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>1002</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>1003</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>1004</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>1005</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>853</v>
@@ -4986,19 +4986,19 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B17" s="39" t="s">
         <v>1010</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="C17" s="39" t="s">
         <v>1011</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="D17" s="39" t="s">
         <v>1012</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="E17" s="39" t="s">
         <v>1013</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>1014</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -5129,16 +5129,16 @@
         <v>22</v>
       </c>
       <c r="AA1" t="s">
+        <v>886</v>
+      </c>
+      <c r="AB1" t="s">
         <v>887</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>888</v>
       </c>
       <c r="AC1" t="s">
         <v>22</v>
       </c>
       <c r="AD1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="AE1" t="s">
         <v>24</v>
@@ -5147,7 +5147,7 @@
         <v>22</v>
       </c>
       <c r="AG1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="AH1" t="s">
         <v>26</v>
@@ -5156,7 +5156,7 @@
         <v>22</v>
       </c>
       <c r="AJ1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AK1" t="s">
         <v>28</v>
@@ -5165,7 +5165,7 @@
         <v>22</v>
       </c>
       <c r="AM1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="AN1" t="s">
         <v>30</v>
@@ -5174,7 +5174,7 @@
         <v>22</v>
       </c>
       <c r="AP1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="AQ1" t="s">
         <v>174</v>
@@ -5183,7 +5183,7 @@
         <v>22</v>
       </c>
       <c r="AS1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="AT1" t="s">
         <v>876</v>
@@ -5360,7 +5360,7 @@
         <v>140</v>
       </c>
       <c r="BG3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.25">
@@ -5501,7 +5501,7 @@
         <v>140</v>
       </c>
       <c r="BG5" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.25">
@@ -5585,7 +5585,7 @@
         <v>140</v>
       </c>
       <c r="BG6" s="38" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.25">
@@ -5675,7 +5675,7 @@
         <v>140</v>
       </c>
       <c r="BG7" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.25">
@@ -5810,7 +5810,7 @@
         <v>140</v>
       </c>
       <c r="BG9" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.25">
@@ -5864,7 +5864,7 @@
         <v>140</v>
       </c>
       <c r="BG10" s="38" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.25">
@@ -5918,7 +5918,7 @@
         <v>140</v>
       </c>
       <c r="BG11" s="38" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.25">
@@ -5972,7 +5972,7 @@
         <v>140</v>
       </c>
       <c r="BG12" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.25">
@@ -6026,7 +6026,7 @@
         <v>140</v>
       </c>
       <c r="BG13" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.25">
@@ -6080,7 +6080,7 @@
         <v>140</v>
       </c>
       <c r="BG14" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.25">
@@ -6134,7 +6134,7 @@
         <v>140</v>
       </c>
       <c r="BG15" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.25">
@@ -6188,7 +6188,7 @@
         <v>140</v>
       </c>
       <c r="BG16" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="17" spans="1:59" x14ac:dyDescent="0.25">
@@ -6242,7 +6242,7 @@
         <v>140</v>
       </c>
       <c r="BG17" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.25">
@@ -6296,7 +6296,7 @@
         <v>140</v>
       </c>
       <c r="BG18" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.25">
@@ -6350,7 +6350,7 @@
         <v>140</v>
       </c>
       <c r="BG19" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="20" spans="1:59" x14ac:dyDescent="0.25">
@@ -6404,7 +6404,7 @@
         <v>140</v>
       </c>
       <c r="BG20" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="21" spans="1:59" x14ac:dyDescent="0.25">
@@ -6458,7 +6458,7 @@
         <v>140</v>
       </c>
       <c r="BG21" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="22" spans="1:59" x14ac:dyDescent="0.25">
@@ -6512,7 +6512,7 @@
         <v>140</v>
       </c>
       <c r="BG22" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.25">
@@ -6566,7 +6566,7 @@
         <v>140</v>
       </c>
       <c r="BG23" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.25">
@@ -6620,7 +6620,7 @@
         <v>140</v>
       </c>
       <c r="BG24" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.25">
@@ -6674,7 +6674,7 @@
         <v>140</v>
       </c>
       <c r="BG25" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.25">
@@ -6728,7 +6728,7 @@
         <v>140</v>
       </c>
       <c r="BG26" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="27" spans="1:59" x14ac:dyDescent="0.25">
@@ -6782,7 +6782,7 @@
         <v>140</v>
       </c>
       <c r="BG27" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="28" spans="1:59" x14ac:dyDescent="0.25">
@@ -6836,7 +6836,7 @@
         <v>140</v>
       </c>
       <c r="BG28" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="29" spans="1:59" x14ac:dyDescent="0.25">
@@ -6890,7 +6890,7 @@
         <v>140</v>
       </c>
       <c r="BG29" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="30" spans="1:59" x14ac:dyDescent="0.25">
@@ -6944,7 +6944,7 @@
         <v>140</v>
       </c>
       <c r="BG30" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="31" spans="1:59" x14ac:dyDescent="0.25">
@@ -7016,7 +7016,7 @@
         <v>140</v>
       </c>
       <c r="BG31" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="32" spans="1:59" x14ac:dyDescent="0.25">
@@ -7070,7 +7070,7 @@
         <v>140</v>
       </c>
       <c r="BG32" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="33" spans="1:59" x14ac:dyDescent="0.25">
@@ -7124,7 +7124,7 @@
         <v>140</v>
       </c>
       <c r="BG33" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="34" spans="1:59" x14ac:dyDescent="0.25">
@@ -7202,7 +7202,7 @@
         <v>140</v>
       </c>
       <c r="BG34" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="35" spans="1:59" x14ac:dyDescent="0.25">
@@ -7256,7 +7256,7 @@
         <v>140</v>
       </c>
       <c r="BG35" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="36" spans="1:59" x14ac:dyDescent="0.25">
@@ -7310,7 +7310,7 @@
         <v>140</v>
       </c>
       <c r="BG36" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="37" spans="1:59" x14ac:dyDescent="0.25">
@@ -7364,7 +7364,7 @@
         <v>72</v>
       </c>
       <c r="BG37" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="38" spans="1:59" x14ac:dyDescent="0.25">
@@ -7418,7 +7418,7 @@
         <v>69</v>
       </c>
       <c r="BG38" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="39" spans="1:59" x14ac:dyDescent="0.25">
@@ -7472,7 +7472,7 @@
         <v>69</v>
       </c>
       <c r="BG39" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="40" spans="1:59" x14ac:dyDescent="0.25">
@@ -7526,7 +7526,7 @@
         <v>140</v>
       </c>
       <c r="BG40" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="41" spans="1:59" x14ac:dyDescent="0.25">
@@ -7580,7 +7580,7 @@
         <v>140</v>
       </c>
       <c r="BG41" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="42" spans="1:59" x14ac:dyDescent="0.25">
@@ -7634,7 +7634,7 @@
         <v>140</v>
       </c>
       <c r="BG42" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="43" spans="1:59" x14ac:dyDescent="0.25">
@@ -7688,7 +7688,7 @@
         <v>140</v>
       </c>
       <c r="BG43" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="44" spans="1:59" x14ac:dyDescent="0.25">
@@ -7742,7 +7742,7 @@
         <v>140</v>
       </c>
       <c r="BG44" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="45" spans="1:59" x14ac:dyDescent="0.25">
@@ -7796,7 +7796,7 @@
         <v>140</v>
       </c>
       <c r="BG45" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="46" spans="1:59" x14ac:dyDescent="0.25">
@@ -7850,7 +7850,7 @@
         <v>140</v>
       </c>
       <c r="BG46" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="47" spans="1:59" x14ac:dyDescent="0.25">
@@ -7904,7 +7904,7 @@
         <v>140</v>
       </c>
       <c r="BG47" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="48" spans="1:59" x14ac:dyDescent="0.25">
@@ -7958,7 +7958,7 @@
         <v>140</v>
       </c>
       <c r="BG48" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="49" spans="1:59" x14ac:dyDescent="0.25">
@@ -8012,7 +8012,7 @@
         <v>140</v>
       </c>
       <c r="BG49" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="50" spans="1:59" x14ac:dyDescent="0.25">
@@ -8066,7 +8066,7 @@
         <v>74</v>
       </c>
       <c r="BG50" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="51" spans="1:59" x14ac:dyDescent="0.25">
@@ -8120,7 +8120,7 @@
         <v>74</v>
       </c>
       <c r="BG51" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="52" spans="1:59" x14ac:dyDescent="0.25">
@@ -8174,7 +8174,7 @@
         <v>140</v>
       </c>
       <c r="BG52" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="53" spans="1:59" x14ac:dyDescent="0.25">
@@ -8228,7 +8228,7 @@
         <v>140</v>
       </c>
       <c r="BG53" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="54" spans="1:59" x14ac:dyDescent="0.25">
@@ -8282,7 +8282,7 @@
         <v>140</v>
       </c>
       <c r="BG54" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="55" spans="1:59" x14ac:dyDescent="0.25">
@@ -8336,7 +8336,7 @@
         <v>140</v>
       </c>
       <c r="BG55" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="56" spans="1:59" x14ac:dyDescent="0.25">
@@ -8390,7 +8390,7 @@
         <v>140</v>
       </c>
       <c r="BG56" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="57" spans="1:59" x14ac:dyDescent="0.25">
@@ -8444,7 +8444,7 @@
         <v>140</v>
       </c>
       <c r="BG57" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="58" spans="1:59" x14ac:dyDescent="0.25">
@@ -8498,7 +8498,7 @@
         <v>140</v>
       </c>
       <c r="BG58" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="59" spans="1:59" x14ac:dyDescent="0.25">
@@ -8552,7 +8552,7 @@
         <v>74</v>
       </c>
       <c r="BG59" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="60" spans="1:59" x14ac:dyDescent="0.25">
@@ -8606,7 +8606,7 @@
         <v>140</v>
       </c>
       <c r="BG60" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="61" spans="1:59" x14ac:dyDescent="0.25">
@@ -8660,7 +8660,7 @@
         <v>140</v>
       </c>
       <c r="BG61" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="62" spans="1:59" x14ac:dyDescent="0.25">
@@ -8714,7 +8714,7 @@
         <v>140</v>
       </c>
       <c r="BG62" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="63" spans="1:59" x14ac:dyDescent="0.25">
@@ -8768,7 +8768,7 @@
         <v>69</v>
       </c>
       <c r="BG63" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="64" spans="1:59" x14ac:dyDescent="0.25">
@@ -8822,7 +8822,7 @@
         <v>140</v>
       </c>
       <c r="BG64" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="65" spans="1:59" x14ac:dyDescent="0.25">
@@ -8876,7 +8876,7 @@
         <v>140</v>
       </c>
       <c r="BG65" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="66" spans="1:59" x14ac:dyDescent="0.25">
@@ -8930,7 +8930,7 @@
         <v>140</v>
       </c>
       <c r="BG66" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="67" spans="1:59" x14ac:dyDescent="0.25">
@@ -8984,7 +8984,7 @@
         <v>140</v>
       </c>
       <c r="BG67" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="68" spans="1:59" x14ac:dyDescent="0.25">
@@ -9038,7 +9038,7 @@
         <v>140</v>
       </c>
       <c r="BG68" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="69" spans="1:59" x14ac:dyDescent="0.25">
@@ -9092,7 +9092,7 @@
         <v>140</v>
       </c>
       <c r="BG69" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="70" spans="1:59" x14ac:dyDescent="0.25">
@@ -9146,7 +9146,7 @@
         <v>140</v>
       </c>
       <c r="BG70" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="71" spans="1:59" x14ac:dyDescent="0.25">
@@ -9200,7 +9200,7 @@
         <v>140</v>
       </c>
       <c r="BG71" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="72" spans="1:59" x14ac:dyDescent="0.25">
@@ -9254,7 +9254,7 @@
         <v>140</v>
       </c>
       <c r="BG72" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="73" spans="1:59" x14ac:dyDescent="0.25">
@@ -9308,7 +9308,7 @@
         <v>140</v>
       </c>
       <c r="BG73" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="74" spans="1:59" x14ac:dyDescent="0.25">
@@ -9362,7 +9362,7 @@
         <v>140</v>
       </c>
       <c r="BG74" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="75" spans="1:59" x14ac:dyDescent="0.25">
@@ -9416,7 +9416,7 @@
         <v>140</v>
       </c>
       <c r="BG75" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="76" spans="1:59" x14ac:dyDescent="0.25">
@@ -9470,7 +9470,7 @@
         <v>140</v>
       </c>
       <c r="BG76" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="77" spans="1:59" x14ac:dyDescent="0.25">
@@ -9524,7 +9524,7 @@
         <v>140</v>
       </c>
       <c r="BG77" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="78" spans="1:59" x14ac:dyDescent="0.25">
@@ -9578,7 +9578,7 @@
         <v>74</v>
       </c>
       <c r="BG78" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
   </sheetData>
@@ -9703,16 +9703,16 @@
         <v>22</v>
       </c>
       <c r="AA1" t="s">
+        <v>886</v>
+      </c>
+      <c r="AB1" t="s">
         <v>887</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>888</v>
       </c>
       <c r="AC1" t="s">
         <v>22</v>
       </c>
       <c r="AD1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="AE1" t="s">
         <v>24</v>
@@ -9721,7 +9721,7 @@
         <v>22</v>
       </c>
       <c r="AG1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="AH1" t="s">
         <v>26</v>
@@ -9730,7 +9730,7 @@
         <v>22</v>
       </c>
       <c r="AJ1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AK1" t="s">
         <v>28</v>
@@ -9739,7 +9739,7 @@
         <v>22</v>
       </c>
       <c r="AM1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="AN1" t="s">
         <v>30</v>
@@ -9748,7 +9748,7 @@
         <v>22</v>
       </c>
       <c r="AP1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="AQ1" t="s">
         <v>174</v>
@@ -9757,7 +9757,7 @@
         <v>22</v>
       </c>
       <c r="AS1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="AT1" t="s">
         <v>876</v>

--- a/Excels/MW.xlsx
+++ b/Excels/MW.xlsx
@@ -2703,9 +2703,6 @@
     <t>QWlydGVsIzMyMQ</t>
   </si>
   <si>
-    <t>S3l1Y2hheWllQDEyMw</t>
-  </si>
-  <si>
     <t>Ticket Field 1 - Label</t>
   </si>
   <si>
@@ -3091,6 +3088,9 @@
   </si>
   <si>
     <t>T2N0QDEyMyQ</t>
+  </si>
+  <si>
+    <t>Tm90ZXBhZEAxMjM</t>
   </si>
 </sst>
 </file>
@@ -3416,7 +3416,7 @@
         <xdr:cNvPr id="2" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3464,7 +3464,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3512,7 +3512,7 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3845,7 +3845,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3909,7 +3909,7 @@
         <v>2390495</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C2" t="s">
         <v>67</v>
@@ -3967,7 +3967,7 @@
         <v>2390495</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C4" t="s">
         <v>175</v>
@@ -3980,8 +3980,8 @@
       <c r="A5">
         <v>2394650</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>885</v>
+      <c r="B5" t="s">
+        <v>1014</v>
       </c>
       <c r="C5" t="s">
         <v>217</v>
@@ -4481,7 +4481,7 @@
         <v>874</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4614,7 +4614,7 @@
         <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>187</v>
@@ -4660,7 +4660,7 @@
         <v>195</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>192</v>
@@ -4704,7 +4704,7 @@
         <v>203</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -4797,22 +4797,22 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
+        <v>894</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>895</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>896</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>898</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>899</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -4822,22 +4822,22 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
+        <v>899</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>900</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>901</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>902</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>903</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>904</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>905</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -4847,28 +4847,28 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
+        <v>905</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>906</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>908</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>909</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>910</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>911</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>912</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>913</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -4876,19 +4876,19 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>914</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>915</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>916</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>917</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>918</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -4899,10 +4899,10 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>192</v>
@@ -4911,22 +4911,22 @@
         <v>196</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="F14" s="39" t="s">
         <v>189</v>
       </c>
       <c r="G14" s="39" t="s">
+        <v>994</v>
+      </c>
+      <c r="H14" s="39" t="s">
         <v>995</v>
-      </c>
-      <c r="H14" s="39" t="s">
-        <v>996</v>
       </c>
       <c r="I14" s="39" t="s">
         <v>216</v>
       </c>
       <c r="J14" s="39" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="K14" s="39" t="s">
         <v>203</v>
@@ -4934,7 +4934,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>16</v>
@@ -4949,10 +4949,10 @@
         <v>168</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>999</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>1000</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>196</v>
@@ -4963,16 +4963,16 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>1001</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>1002</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>1003</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>1004</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>853</v>
@@ -4986,19 +4986,19 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B17" s="39" t="s">
         <v>1009</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="C17" s="39" t="s">
         <v>1010</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="D17" s="39" t="s">
         <v>1011</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="E17" s="39" t="s">
         <v>1012</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>1013</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -5129,16 +5129,16 @@
         <v>22</v>
       </c>
       <c r="AA1" t="s">
+        <v>885</v>
+      </c>
+      <c r="AB1" t="s">
         <v>886</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>887</v>
       </c>
       <c r="AC1" t="s">
         <v>22</v>
       </c>
       <c r="AD1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="AE1" t="s">
         <v>24</v>
@@ -5147,7 +5147,7 @@
         <v>22</v>
       </c>
       <c r="AG1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="AH1" t="s">
         <v>26</v>
@@ -5156,7 +5156,7 @@
         <v>22</v>
       </c>
       <c r="AJ1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="AK1" t="s">
         <v>28</v>
@@ -5165,7 +5165,7 @@
         <v>22</v>
       </c>
       <c r="AM1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AN1" t="s">
         <v>30</v>
@@ -5174,7 +5174,7 @@
         <v>22</v>
       </c>
       <c r="AP1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="AQ1" t="s">
         <v>174</v>
@@ -5183,7 +5183,7 @@
         <v>22</v>
       </c>
       <c r="AS1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="AT1" t="s">
         <v>876</v>
@@ -5360,7 +5360,7 @@
         <v>140</v>
       </c>
       <c r="BG3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.25">
@@ -5501,7 +5501,7 @@
         <v>140</v>
       </c>
       <c r="BG5" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.25">
@@ -5585,7 +5585,7 @@
         <v>140</v>
       </c>
       <c r="BG6" s="38" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.25">
@@ -5675,7 +5675,7 @@
         <v>140</v>
       </c>
       <c r="BG7" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.25">
@@ -5810,7 +5810,7 @@
         <v>140</v>
       </c>
       <c r="BG9" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.25">
@@ -5864,7 +5864,7 @@
         <v>140</v>
       </c>
       <c r="BG10" s="38" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.25">
@@ -5918,7 +5918,7 @@
         <v>140</v>
       </c>
       <c r="BG11" s="38" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.25">
@@ -5972,7 +5972,7 @@
         <v>140</v>
       </c>
       <c r="BG12" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.25">
@@ -6026,7 +6026,7 @@
         <v>140</v>
       </c>
       <c r="BG13" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.25">
@@ -6080,7 +6080,7 @@
         <v>140</v>
       </c>
       <c r="BG14" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.25">
@@ -6134,7 +6134,7 @@
         <v>140</v>
       </c>
       <c r="BG15" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.25">
@@ -6188,7 +6188,7 @@
         <v>140</v>
       </c>
       <c r="BG16" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="17" spans="1:59" x14ac:dyDescent="0.25">
@@ -6242,7 +6242,7 @@
         <v>140</v>
       </c>
       <c r="BG17" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.25">
@@ -6296,7 +6296,7 @@
         <v>140</v>
       </c>
       <c r="BG18" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.25">
@@ -6350,7 +6350,7 @@
         <v>140</v>
       </c>
       <c r="BG19" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="20" spans="1:59" x14ac:dyDescent="0.25">
@@ -6404,7 +6404,7 @@
         <v>140</v>
       </c>
       <c r="BG20" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="21" spans="1:59" x14ac:dyDescent="0.25">
@@ -6458,7 +6458,7 @@
         <v>140</v>
       </c>
       <c r="BG21" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="22" spans="1:59" x14ac:dyDescent="0.25">
@@ -6512,7 +6512,7 @@
         <v>140</v>
       </c>
       <c r="BG22" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.25">
@@ -6566,7 +6566,7 @@
         <v>140</v>
       </c>
       <c r="BG23" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.25">
@@ -6620,7 +6620,7 @@
         <v>140</v>
       </c>
       <c r="BG24" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.25">
@@ -6674,7 +6674,7 @@
         <v>140</v>
       </c>
       <c r="BG25" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.25">
@@ -6728,7 +6728,7 @@
         <v>140</v>
       </c>
       <c r="BG26" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="27" spans="1:59" x14ac:dyDescent="0.25">
@@ -6782,7 +6782,7 @@
         <v>140</v>
       </c>
       <c r="BG27" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="28" spans="1:59" x14ac:dyDescent="0.25">
@@ -6836,7 +6836,7 @@
         <v>140</v>
       </c>
       <c r="BG28" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="29" spans="1:59" x14ac:dyDescent="0.25">
@@ -6890,7 +6890,7 @@
         <v>140</v>
       </c>
       <c r="BG29" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="30" spans="1:59" x14ac:dyDescent="0.25">
@@ -6944,7 +6944,7 @@
         <v>140</v>
       </c>
       <c r="BG30" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="31" spans="1:59" x14ac:dyDescent="0.25">
@@ -7016,7 +7016,7 @@
         <v>140</v>
       </c>
       <c r="BG31" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="32" spans="1:59" x14ac:dyDescent="0.25">
@@ -7070,7 +7070,7 @@
         <v>140</v>
       </c>
       <c r="BG32" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="33" spans="1:59" x14ac:dyDescent="0.25">
@@ -7124,7 +7124,7 @@
         <v>140</v>
       </c>
       <c r="BG33" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="34" spans="1:59" x14ac:dyDescent="0.25">
@@ -7202,7 +7202,7 @@
         <v>140</v>
       </c>
       <c r="BG34" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="35" spans="1:59" x14ac:dyDescent="0.25">
@@ -7256,7 +7256,7 @@
         <v>140</v>
       </c>
       <c r="BG35" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="36" spans="1:59" x14ac:dyDescent="0.25">
@@ -7310,7 +7310,7 @@
         <v>140</v>
       </c>
       <c r="BG36" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="37" spans="1:59" x14ac:dyDescent="0.25">
@@ -7364,7 +7364,7 @@
         <v>72</v>
       </c>
       <c r="BG37" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="38" spans="1:59" x14ac:dyDescent="0.25">
@@ -7418,7 +7418,7 @@
         <v>69</v>
       </c>
       <c r="BG38" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="39" spans="1:59" x14ac:dyDescent="0.25">
@@ -7472,7 +7472,7 @@
         <v>69</v>
       </c>
       <c r="BG39" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="40" spans="1:59" x14ac:dyDescent="0.25">
@@ -7526,7 +7526,7 @@
         <v>140</v>
       </c>
       <c r="BG40" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="41" spans="1:59" x14ac:dyDescent="0.25">
@@ -7580,7 +7580,7 @@
         <v>140</v>
       </c>
       <c r="BG41" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="42" spans="1:59" x14ac:dyDescent="0.25">
@@ -7634,7 +7634,7 @@
         <v>140</v>
       </c>
       <c r="BG42" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="43" spans="1:59" x14ac:dyDescent="0.25">
@@ -7688,7 +7688,7 @@
         <v>140</v>
       </c>
       <c r="BG43" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="44" spans="1:59" x14ac:dyDescent="0.25">
@@ -7742,7 +7742,7 @@
         <v>140</v>
       </c>
       <c r="BG44" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="45" spans="1:59" x14ac:dyDescent="0.25">
@@ -7796,7 +7796,7 @@
         <v>140</v>
       </c>
       <c r="BG45" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="46" spans="1:59" x14ac:dyDescent="0.25">
@@ -7850,7 +7850,7 @@
         <v>140</v>
       </c>
       <c r="BG46" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="47" spans="1:59" x14ac:dyDescent="0.25">
@@ -7904,7 +7904,7 @@
         <v>140</v>
       </c>
       <c r="BG47" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="48" spans="1:59" x14ac:dyDescent="0.25">
@@ -7958,7 +7958,7 @@
         <v>140</v>
       </c>
       <c r="BG48" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="49" spans="1:59" x14ac:dyDescent="0.25">
@@ -8012,7 +8012,7 @@
         <v>140</v>
       </c>
       <c r="BG49" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="50" spans="1:59" x14ac:dyDescent="0.25">
@@ -8066,7 +8066,7 @@
         <v>74</v>
       </c>
       <c r="BG50" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="51" spans="1:59" x14ac:dyDescent="0.25">
@@ -8120,7 +8120,7 @@
         <v>74</v>
       </c>
       <c r="BG51" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="52" spans="1:59" x14ac:dyDescent="0.25">
@@ -8174,7 +8174,7 @@
         <v>140</v>
       </c>
       <c r="BG52" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="53" spans="1:59" x14ac:dyDescent="0.25">
@@ -8228,7 +8228,7 @@
         <v>140</v>
       </c>
       <c r="BG53" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="54" spans="1:59" x14ac:dyDescent="0.25">
@@ -8282,7 +8282,7 @@
         <v>140</v>
       </c>
       <c r="BG54" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="55" spans="1:59" x14ac:dyDescent="0.25">
@@ -8336,7 +8336,7 @@
         <v>140</v>
       </c>
       <c r="BG55" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="56" spans="1:59" x14ac:dyDescent="0.25">
@@ -8390,7 +8390,7 @@
         <v>140</v>
       </c>
       <c r="BG56" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="57" spans="1:59" x14ac:dyDescent="0.25">
@@ -8444,7 +8444,7 @@
         <v>140</v>
       </c>
       <c r="BG57" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="58" spans="1:59" x14ac:dyDescent="0.25">
@@ -8498,7 +8498,7 @@
         <v>140</v>
       </c>
       <c r="BG58" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="59" spans="1:59" x14ac:dyDescent="0.25">
@@ -8552,7 +8552,7 @@
         <v>74</v>
       </c>
       <c r="BG59" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="60" spans="1:59" x14ac:dyDescent="0.25">
@@ -8606,7 +8606,7 @@
         <v>140</v>
       </c>
       <c r="BG60" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="61" spans="1:59" x14ac:dyDescent="0.25">
@@ -8660,7 +8660,7 @@
         <v>140</v>
       </c>
       <c r="BG61" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="62" spans="1:59" x14ac:dyDescent="0.25">
@@ -8714,7 +8714,7 @@
         <v>140</v>
       </c>
       <c r="BG62" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="63" spans="1:59" x14ac:dyDescent="0.25">
@@ -8768,7 +8768,7 @@
         <v>69</v>
       </c>
       <c r="BG63" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="64" spans="1:59" x14ac:dyDescent="0.25">
@@ -8822,7 +8822,7 @@
         <v>140</v>
       </c>
       <c r="BG64" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="65" spans="1:59" x14ac:dyDescent="0.25">
@@ -8876,7 +8876,7 @@
         <v>140</v>
       </c>
       <c r="BG65" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="66" spans="1:59" x14ac:dyDescent="0.25">
@@ -8930,7 +8930,7 @@
         <v>140</v>
       </c>
       <c r="BG66" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="67" spans="1:59" x14ac:dyDescent="0.25">
@@ -8984,7 +8984,7 @@
         <v>140</v>
       </c>
       <c r="BG67" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="68" spans="1:59" x14ac:dyDescent="0.25">
@@ -9038,7 +9038,7 @@
         <v>140</v>
       </c>
       <c r="BG68" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="69" spans="1:59" x14ac:dyDescent="0.25">
@@ -9092,7 +9092,7 @@
         <v>140</v>
       </c>
       <c r="BG69" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="70" spans="1:59" x14ac:dyDescent="0.25">
@@ -9146,7 +9146,7 @@
         <v>140</v>
       </c>
       <c r="BG70" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="71" spans="1:59" x14ac:dyDescent="0.25">
@@ -9200,7 +9200,7 @@
         <v>140</v>
       </c>
       <c r="BG71" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="72" spans="1:59" x14ac:dyDescent="0.25">
@@ -9254,7 +9254,7 @@
         <v>140</v>
       </c>
       <c r="BG72" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="73" spans="1:59" x14ac:dyDescent="0.25">
@@ -9308,7 +9308,7 @@
         <v>140</v>
       </c>
       <c r="BG73" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="74" spans="1:59" x14ac:dyDescent="0.25">
@@ -9362,7 +9362,7 @@
         <v>140</v>
       </c>
       <c r="BG74" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="75" spans="1:59" x14ac:dyDescent="0.25">
@@ -9416,7 +9416,7 @@
         <v>140</v>
       </c>
       <c r="BG75" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="76" spans="1:59" x14ac:dyDescent="0.25">
@@ -9470,7 +9470,7 @@
         <v>140</v>
       </c>
       <c r="BG76" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="77" spans="1:59" x14ac:dyDescent="0.25">
@@ -9524,7 +9524,7 @@
         <v>140</v>
       </c>
       <c r="BG77" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="78" spans="1:59" x14ac:dyDescent="0.25">
@@ -9578,7 +9578,7 @@
         <v>74</v>
       </c>
       <c r="BG78" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
   </sheetData>
@@ -9703,16 +9703,16 @@
         <v>22</v>
       </c>
       <c r="AA1" t="s">
+        <v>885</v>
+      </c>
+      <c r="AB1" t="s">
         <v>886</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>887</v>
       </c>
       <c r="AC1" t="s">
         <v>22</v>
       </c>
       <c r="AD1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="AE1" t="s">
         <v>24</v>
@@ -9721,7 +9721,7 @@
         <v>22</v>
       </c>
       <c r="AG1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="AH1" t="s">
         <v>26</v>
@@ -9730,7 +9730,7 @@
         <v>22</v>
       </c>
       <c r="AJ1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="AK1" t="s">
         <v>28</v>
@@ -9739,7 +9739,7 @@
         <v>22</v>
       </c>
       <c r="AM1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AN1" t="s">
         <v>30</v>
@@ -9748,7 +9748,7 @@
         <v>22</v>
       </c>
       <c r="AP1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="AQ1" t="s">
         <v>174</v>
@@ -9757,7 +9757,7 @@
         <v>22</v>
       </c>
       <c r="AS1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="AT1" t="s">
         <v>876</v>

--- a/Excels/MW.xlsx
+++ b/Excels/MW.xlsx
@@ -5,35 +5,37 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\Desktop\New folder (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20280"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20280" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="Priority" sheetId="10" r:id="rId2"/>
     <sheet name="Headers" sheetId="11" r:id="rId3"/>
     <sheet name="NFTRTickets-Reg" sheetId="15" r:id="rId4"/>
-    <sheet name="NFTRTickets-San" sheetId="3" r:id="rId5"/>
-    <sheet name="FTRTickets-Reg" sheetId="14" r:id="rId6"/>
-    <sheet name="FTRTickets-San" sheetId="2" r:id="rId7"/>
-    <sheet name="UserManagement" sheetId="13" r:id="rId8"/>
-    <sheet name="PinnedTags" sheetId="5" r:id="rId9"/>
-    <sheet name="Ticket State" sheetId="6" r:id="rId10"/>
-    <sheet name="TemplateManagement" sheetId="16" r:id="rId11"/>
-    <sheet name="Ticket Transfer Rules" sheetId="17" r:id="rId12"/>
-    <sheet name="Authentication Policy" sheetId="18" r:id="rId13"/>
-    <sheet name="Action Tagging" sheetId="19" r:id="rId14"/>
-    <sheet name="State Queue Mapping" sheetId="20" r:id="rId15"/>
-    <sheet name="Transfer To Queue" sheetId="21" r:id="rId16"/>
+    <sheet name="All NFTR codes" sheetId="22" r:id="rId5"/>
+    <sheet name="NFTRTickets-San" sheetId="3" r:id="rId6"/>
+    <sheet name="FTRTickets-Reg" sheetId="14" r:id="rId7"/>
+    <sheet name="All FTR codes" sheetId="23" r:id="rId8"/>
+    <sheet name="FTRTickets-San" sheetId="2" r:id="rId9"/>
+    <sheet name="UserManagement" sheetId="13" r:id="rId10"/>
+    <sheet name="PinnedTags" sheetId="5" r:id="rId11"/>
+    <sheet name="Ticket State" sheetId="6" r:id="rId12"/>
+    <sheet name="TemplateManagement" sheetId="16" r:id="rId13"/>
+    <sheet name="Ticket Transfer Rules" sheetId="17" r:id="rId14"/>
+    <sheet name="Authentication Policy" sheetId="18" r:id="rId15"/>
+    <sheet name="Action Tagging" sheetId="19" r:id="rId16"/>
+    <sheet name="State Queue Mapping" sheetId="20" r:id="rId17"/>
+    <sheet name="Transfer To Queue" sheetId="21" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'FTRTickets-Reg'!$A$1:$F$131</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'FTRTickets-San'!$A$1:$E$131</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'NFTRTickets-Reg'!$A$1:$AB$78</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'NFTRTickets-San'!$A$1:$AB$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'FTRTickets-Reg'!$A$1:$F$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'FTRTickets-San'!$A$1:$E$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'NFTRTickets-Reg'!$A$1:$AB$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'NFTRTickets-San'!$A$1:$AB$78</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="1015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="1043">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -629,19 +631,12 @@
     <t>Start Balance</t>
   </si>
   <si>
-    <t>End Balance</t>
-  </si>
-  <si>
     <t>Recharge History</t>
   </si>
   <si>
     <t>Bundle Name</t>
   </si>
   <si>
-    <t>Benefit
-Voice|Data|SMS</t>
-  </si>
-  <si>
     <t>Bundle Subscription History</t>
   </si>
   <si>
@@ -2700,9 +2695,6 @@
     <t>Total Committed SLA</t>
   </si>
   <si>
-    <t>QWlydGVsIzMyMQ</t>
-  </si>
-  <si>
     <t>Ticket Field 1 - Label</t>
   </si>
   <si>
@@ -3060,9 +3052,6 @@
     <t>Period</t>
   </si>
   <si>
-    <t>Amount (MK)</t>
-  </si>
-  <si>
     <t>Charges (MK)</t>
   </si>
   <si>
@@ -3087,10 +3076,110 @@
     <t>Next Reset Date</t>
   </si>
   <si>
-    <t>T2N0QDEyMyQ</t>
-  </si>
-  <si>
-    <t>Tm90ZXBhZEAxMjM</t>
+    <t>SmFuQDIwMjE</t>
+  </si>
+  <si>
+    <t>TWFyY2hAMTIzJA</t>
+  </si>
+  <si>
+    <t>RGVhdGhub3RlQDEyMw</t>
+  </si>
+  <si>
+    <t>Transfer Anyway</t>
+  </si>
+  <si>
+    <t>Test Data-UAT</t>
+  </si>
+  <si>
+    <t>Test Data-Prod</t>
+  </si>
+  <si>
+    <t>106222035384</t>
+  </si>
+  <si>
+    <t>Service Profile</t>
+  </si>
+  <si>
+    <t>Service Name</t>
+  </si>
+  <si>
+    <t>Service Details</t>
+  </si>
+  <si>
+    <t>HLR Code</t>
+  </si>
+  <si>
+    <t>HLR Code Detail</t>
+  </si>
+  <si>
+    <t>More Airtel Money History</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Beneficiary</t>
+  </si>
+  <si>
+    <t>Quick Actions</t>
+  </si>
+  <si>
+    <t>Action Trail Tab</t>
+  </si>
+  <si>
+    <t>Action Type</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Agent Id</t>
+  </si>
+  <si>
+    <t>Agent Name</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Row9</t>
+  </si>
+  <si>
+    <t>Row10</t>
+  </si>
+  <si>
+    <t>Row11</t>
+  </si>
+  <si>
+    <t>Row12</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>BenefitVoice|Data|SMS</t>
+  </si>
+  <si>
+    <t>Amount
+(MK)</t>
+  </si>
+  <si>
+    <t>Service Charge
+(MK)</t>
+  </si>
+  <si>
+    <t>Pre balance
+(MK)</t>
+  </si>
+  <si>
+    <t>Post balance
+(MK)</t>
   </si>
 </sst>
 </file>
@@ -3300,7 +3389,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3352,6 +3441,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3523,6 +3617,54 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="1800225"/>
+          <a:ext cx="304800" cy="301625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2095500"/>
           <a:ext cx="304800" cy="301625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3844,8 +3986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3901,7 +4043,7 @@
         <v>12</v>
       </c>
       <c r="O1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -3909,7 +4051,7 @@
         <v>2390495</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="C2" t="s">
         <v>67</v>
@@ -3948,7 +4090,7 @@
         <v>177</v>
       </c>
       <c r="O2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -3956,7 +4098,7 @@
         <v>2388192</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>884</v>
+        <v>1009</v>
       </c>
       <c r="C3" t="s">
         <v>66</v>
@@ -3967,7 +4109,7 @@
         <v>2390495</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="C4" t="s">
         <v>175</v>
@@ -3981,10 +4123,10 @@
         <v>2394650</v>
       </c>
       <c r="B5" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="C5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D5">
         <v>999989584</v>
@@ -3997,6 +4139,287 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2">
+        <v>991843845</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3">
+        <v>991843845</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4">
+        <v>991843845</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
@@ -4074,7 +4497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -4090,49 +4513,49 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
   </sheetData>
@@ -4140,7 +4563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -4158,19 +4581,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>828</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>829</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>830</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>831</v>
       </c>
     </row>
   </sheetData>
@@ -4178,7 +4601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -4205,72 +4628,72 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="H1" s="30" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B2" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
   </sheetData>
@@ -4278,12 +4701,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H1" sqref="H1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4293,38 +4716,52 @@
     <col min="7" max="7" width="14" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B1" t="s">
+        <v>852</v>
+      </c>
+      <c r="C1" t="s">
         <v>853</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>854</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>855</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>856</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>857</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="42" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>858</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B2" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>860</v>
       </c>
-      <c r="B2" t="s">
-        <v>861</v>
-      </c>
-      <c r="C2" t="s">
-        <v>862</v>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1015</v>
       </c>
     </row>
   </sheetData>
@@ -4333,7 +4770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -4352,42 +4789,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
+        <v>861</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>862</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>863</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="D1" s="31" t="s">
         <v>864</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="E1" s="31" t="s">
         <v>865</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="F1" s="31" t="s">
         <v>866</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="G1" s="31" t="s">
         <v>867</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="H1" s="31" t="s">
         <v>868</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="I1" s="31" t="s">
         <v>869</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="J1" s="31" t="s">
         <v>870</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="K1" s="31" t="s">
         <v>871</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>872</v>
-      </c>
-      <c r="K1" s="31" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>57</v>
@@ -4454,12 +4891,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4468,36 +4905,48 @@
     <col min="2" max="2" width="24.25" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>829</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>890</v>
+      </c>
+      <c r="C2" s="41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>87</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>88</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>87</v>
+      </c>
+      <c r="C4" s="41" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4561,10 +5010,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4580,7 +5029,7 @@
     <col min="9" max="9" width="16" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>178</v>
       </c>
@@ -4608,13 +5057,25 @@
       <c r="I1" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J1" s="39" t="s">
+        <v>1033</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>1034</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>1004</v>
+      <c r="B2" s="40" t="s">
+        <v>1037</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>187</v>
@@ -4631,8 +5092,12 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>190</v>
       </c>
@@ -4649,27 +5114,31 @@
         <v>193</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>194</v>
+        <v>995</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>192</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>1038</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>189</v>
@@ -4677,48 +5146,56 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>200</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>189</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="I5" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="B6" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>192</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>191</v>
@@ -4727,19 +5204,23 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>192</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>191</v>
@@ -4748,22 +5229,26 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>192</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>191</v>
@@ -4771,124 +5256,138 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
+        <v>891</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>894</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>895</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>896</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>897</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>898</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
+        <v>896</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>900</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>901</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>902</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>903</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>904</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
+        <v>902</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>905</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>906</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>907</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>908</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>909</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>910</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>911</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>912</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>913</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>914</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>915</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>916</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>917</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -4896,45 +5395,49 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>192</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="F14" s="39" t="s">
         <v>189</v>
       </c>
       <c r="G14" s="39" t="s">
+        <v>991</v>
+      </c>
+      <c r="H14" s="39" t="s">
+        <v>992</v>
+      </c>
+      <c r="I14" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>993</v>
+      </c>
+      <c r="K14" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="39" t="s">
         <v>994</v>
-      </c>
-      <c r="H14" s="39" t="s">
-        <v>995</v>
-      </c>
-      <c r="I14" s="39" t="s">
-        <v>216</v>
-      </c>
-      <c r="J14" s="39" t="s">
-        <v>996</v>
-      </c>
-      <c r="K14" s="39" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
-        <v>997</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>16</v>
@@ -4949,33 +5452,35 @@
         <v>168</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
+        <v>997</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>1000</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>1003</v>
-      </c>
       <c r="E16" s="3" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -4983,22 +5488,24 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E17" s="39" t="s">
         <v>1008</v>
-      </c>
-      <c r="B17" s="39" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>1011</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>1012</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -5006,6 +5513,105 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="39" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="I19" s="43" t="s">
+        <v>1040</v>
+      </c>
+      <c r="J19" s="43" t="s">
+        <v>1041</v>
+      </c>
+      <c r="K19" s="43" t="s">
+        <v>1042</v>
+      </c>
+      <c r="L19" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="M19" s="39" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="39" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5016,10 +5622,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG78"/>
+  <dimension ref="A1:BG4"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5120,25 +5726,25 @@
         <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="Y1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="Z1" t="s">
         <v>22</v>
       </c>
       <c r="AA1" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="AB1" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="AC1" t="s">
         <v>22</v>
       </c>
       <c r="AD1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="AE1" t="s">
         <v>24</v>
@@ -5147,7 +5753,7 @@
         <v>22</v>
       </c>
       <c r="AG1" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="AH1" t="s">
         <v>26</v>
@@ -5156,7 +5762,7 @@
         <v>22</v>
       </c>
       <c r="AJ1" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="AK1" t="s">
         <v>28</v>
@@ -5165,7 +5771,7 @@
         <v>22</v>
       </c>
       <c r="AM1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="AN1" t="s">
         <v>30</v>
@@ -5174,7 +5780,7 @@
         <v>22</v>
       </c>
       <c r="AP1" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="AQ1" t="s">
         <v>174</v>
@@ -5183,10 +5789,10 @@
         <v>22</v>
       </c>
       <c r="AS1" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="AT1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="AU1" t="s">
         <v>22</v>
@@ -5198,25 +5804,25 @@
         <v>34</v>
       </c>
       <c r="AX1" s="36" t="s">
+        <v>875</v>
+      </c>
+      <c r="AY1" s="36" t="s">
+        <v>876</v>
+      </c>
+      <c r="AZ1" s="36" t="s">
         <v>877</v>
       </c>
-      <c r="AY1" s="36" t="s">
+      <c r="BA1" s="36" t="s">
         <v>878</v>
       </c>
-      <c r="AZ1" s="36" t="s">
+      <c r="BB1" s="36" t="s">
         <v>879</v>
       </c>
-      <c r="BA1" s="36" t="s">
+      <c r="BC1" s="36" t="s">
         <v>880</v>
       </c>
-      <c r="BB1" s="36" t="s">
+      <c r="BD1" s="37" t="s">
         <v>881</v>
-      </c>
-      <c r="BC1" s="36" t="s">
-        <v>882</v>
-      </c>
-      <c r="BD1" s="37" t="s">
-        <v>883</v>
       </c>
       <c r="BE1" t="s">
         <v>42</v>
@@ -5350,7 +5956,7 @@
         <v>24</v>
       </c>
       <c r="BD3">
-        <f t="shared" ref="BD3:BD66" si="0">SUM(AW3,AY3,BA3,BC3)</f>
+        <f t="shared" ref="BD3:BD4" si="0">SUM(AW3,AY3,BA3,BC3)</f>
         <v>24</v>
       </c>
       <c r="BE3" s="21" t="s">
@@ -5359,8 +5965,448 @@
       <c r="BF3" s="21" t="s">
         <v>140</v>
       </c>
+    </row>
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="N4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="S4" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="T4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="U4" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="V4" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="W4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="AV4" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW4" s="19">
+        <v>24</v>
+      </c>
+      <c r="BD4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="BE4" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF4" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:AB78"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BG78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="17.5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="23.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.875" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="V1" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="W1" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>873</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>874</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>882</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>883</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>884</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>885</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>886</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>887</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>888</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>889</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>874</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX1" s="36" t="s">
+        <v>875</v>
+      </c>
+      <c r="AY1" s="36" t="s">
+        <v>876</v>
+      </c>
+      <c r="AZ1" s="36" t="s">
+        <v>877</v>
+      </c>
+      <c r="BA1" s="36" t="s">
+        <v>878</v>
+      </c>
+      <c r="BB1" s="36" t="s">
+        <v>879</v>
+      </c>
+      <c r="BC1" s="36" t="s">
+        <v>880</v>
+      </c>
+      <c r="BD1" s="37" t="s">
+        <v>881</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="T2" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="AV2" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW2" s="19">
+        <v>24</v>
+      </c>
+      <c r="BD2">
+        <f>SUM(AW2,AY2,BA2,BC2)</f>
+        <v>24</v>
+      </c>
+      <c r="BE2" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF2" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="AV3" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW3" s="21">
+        <v>24</v>
+      </c>
+      <c r="BD3">
+        <f t="shared" ref="BD3:BD66" si="0">SUM(AW3,AY3,BA3,BC3)</f>
+        <v>24</v>
+      </c>
+      <c r="BE3" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF3" s="21" t="s">
+        <v>140</v>
+      </c>
       <c r="BG3" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.25">
@@ -5501,7 +6547,7 @@
         <v>140</v>
       </c>
       <c r="BG5" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.25">
@@ -5585,7 +6631,7 @@
         <v>140</v>
       </c>
       <c r="BG6" s="38" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.25">
@@ -5675,7 +6721,7 @@
         <v>140</v>
       </c>
       <c r="BG7" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.25">
@@ -5683,19 +6729,19 @@
         <v>130</v>
       </c>
       <c r="B8" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>595</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>595</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>596</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="F8" s="19" t="s">
         <v>597</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>597</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>598</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>599</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>172</v>
@@ -5704,7 +6750,7 @@
         <v>31</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="J8" s="19" t="s">
         <v>172</v>
@@ -5716,7 +6762,7 @@
         <v>160</v>
       </c>
       <c r="M8" s="19" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="N8" s="19" t="s">
         <v>31</v>
@@ -5764,16 +6810,16 @@
         <v>130</v>
       </c>
       <c r="B9" s="21" t="s">
+        <v>600</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>602</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>603</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>603</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>604</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -5810,7 +6856,7 @@
         <v>140</v>
       </c>
       <c r="BG9" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.25">
@@ -5818,16 +6864,16 @@
         <v>130</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
@@ -5864,7 +6910,7 @@
         <v>140</v>
       </c>
       <c r="BG10" s="38" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.25">
@@ -5872,16 +6918,16 @@
         <v>130</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -5918,7 +6964,7 @@
         <v>140</v>
       </c>
       <c r="BG11" s="38" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.25">
@@ -5926,16 +6972,16 @@
         <v>130</v>
       </c>
       <c r="B12" s="19" t="s">
+        <v>607</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>608</v>
+      </c>
+      <c r="E12" s="19" t="s">
         <v>609</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>610</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>610</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>611</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
@@ -5972,7 +7018,7 @@
         <v>140</v>
       </c>
       <c r="BG12" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.25">
@@ -5980,16 +7026,16 @@
         <v>130</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -6026,7 +7072,7 @@
         <v>140</v>
       </c>
       <c r="BG13" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.25">
@@ -6034,16 +7080,16 @@
         <v>130</v>
       </c>
       <c r="B14" s="19" t="s">
+        <v>612</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>613</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>613</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>614</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>615</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>615</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>616</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
@@ -6080,7 +7126,7 @@
         <v>140</v>
       </c>
       <c r="BG14" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.25">
@@ -6088,16 +7134,16 @@
         <v>130</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -6134,7 +7180,7 @@
         <v>140</v>
       </c>
       <c r="BG15" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.25">
@@ -6142,16 +7188,16 @@
         <v>130</v>
       </c>
       <c r="B16" s="19" t="s">
+        <v>617</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>618</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>618</v>
+      </c>
+      <c r="E16" s="19" t="s">
         <v>619</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>620</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>620</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>621</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
@@ -6188,7 +7234,7 @@
         <v>140</v>
       </c>
       <c r="BG16" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="17" spans="1:59" x14ac:dyDescent="0.25">
@@ -6196,16 +7242,16 @@
         <v>130</v>
       </c>
       <c r="B17" s="21" t="s">
+        <v>620</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>621</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>621</v>
+      </c>
+      <c r="E17" s="21" t="s">
         <v>622</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>623</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>623</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>624</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
@@ -6242,7 +7288,7 @@
         <v>140</v>
       </c>
       <c r="BG17" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.25">
@@ -6250,16 +7296,16 @@
         <v>130</v>
       </c>
       <c r="B18" s="19" t="s">
+        <v>623</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>624</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>624</v>
+      </c>
+      <c r="E18" s="19" t="s">
         <v>625</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>626</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>626</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>627</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
@@ -6296,24 +7342,24 @@
         <v>140</v>
       </c>
       <c r="BG18" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
+        <v>626</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>627</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>628</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="D19" s="21" t="s">
+        <v>628</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>629</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>630</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>630</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>631</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
@@ -6350,24 +7396,24 @@
         <v>140</v>
       </c>
       <c r="BG19" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
     <row r="20" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B20" s="19" t="s">
+        <v>630</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>631</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>631</v>
+      </c>
+      <c r="E20" s="19" t="s">
         <v>632</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>633</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>633</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>634</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
@@ -6404,24 +7450,24 @@
         <v>140</v>
       </c>
       <c r="BG20" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="21" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B21" s="21" t="s">
+        <v>633</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>634</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>634</v>
+      </c>
+      <c r="E21" s="21" t="s">
         <v>635</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>636</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>636</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>637</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
@@ -6458,24 +7504,24 @@
         <v>140</v>
       </c>
       <c r="BG21" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
     </row>
     <row r="22" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B22" s="19" t="s">
+        <v>636</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>637</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>637</v>
+      </c>
+      <c r="E22" s="19" t="s">
         <v>638</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>639</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>639</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>640</v>
       </c>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
@@ -6512,24 +7558,24 @@
         <v>140</v>
       </c>
       <c r="BG22" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B23" s="21" t="s">
+        <v>639</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>640</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>640</v>
+      </c>
+      <c r="E23" s="21" t="s">
         <v>641</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>642</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>642</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>643</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
@@ -6566,24 +7612,24 @@
         <v>140</v>
       </c>
       <c r="BG23" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B24" s="19" t="s">
+        <v>642</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>643</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>643</v>
+      </c>
+      <c r="E24" s="19" t="s">
         <v>644</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>645</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>645</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>646</v>
       </c>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
@@ -6620,24 +7666,24 @@
         <v>140</v>
       </c>
       <c r="BG24" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B25" s="21" t="s">
+        <v>645</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>646</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>646</v>
+      </c>
+      <c r="E25" s="21" t="s">
         <v>647</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>648</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>648</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>649</v>
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
@@ -6674,24 +7720,24 @@
         <v>140</v>
       </c>
       <c r="BG25" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B26" s="19" t="s">
+        <v>648</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>649</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>649</v>
+      </c>
+      <c r="E26" s="19" t="s">
         <v>650</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>651</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>651</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>652</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
@@ -6728,24 +7774,24 @@
         <v>140</v>
       </c>
       <c r="BG26" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="27" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B27" s="21" t="s">
+        <v>651</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>652</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>652</v>
+      </c>
+      <c r="E27" s="21" t="s">
         <v>653</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>654</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>654</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>655</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -6782,24 +7828,24 @@
         <v>140</v>
       </c>
       <c r="BG27" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
     </row>
     <row r="28" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B28" s="19" t="s">
+        <v>654</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>655</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>655</v>
+      </c>
+      <c r="E28" s="19" t="s">
         <v>656</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>657</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>657</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>658</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
@@ -6836,24 +7882,24 @@
         <v>140</v>
       </c>
       <c r="BG28" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="29" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B29" s="21" t="s">
+        <v>657</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>658</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>658</v>
+      </c>
+      <c r="E29" s="21" t="s">
         <v>659</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>660</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>660</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>661</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
@@ -6890,24 +7936,24 @@
         <v>140</v>
       </c>
       <c r="BG29" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="30" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B30" s="19" t="s">
+        <v>660</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>661</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>661</v>
+      </c>
+      <c r="E30" s="19" t="s">
         <v>662</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>663</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>663</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>664</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
@@ -6944,27 +7990,27 @@
         <v>140</v>
       </c>
       <c r="BG30" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
     </row>
     <row r="31" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B31" s="21" t="s">
+        <v>663</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>664</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>664</v>
+      </c>
+      <c r="E31" s="21" t="s">
         <v>665</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="F31" s="21" t="s">
         <v>666</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>666</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>667</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>668</v>
       </c>
       <c r="G31" s="21" t="s">
         <v>172</v>
@@ -6973,7 +8019,7 @@
         <v>31</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="J31" s="21" t="s">
         <v>172</v>
@@ -6982,7 +8028,7 @@
         <v>31</v>
       </c>
       <c r="L31" s="21" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="M31" s="21" t="s">
         <v>172</v>
@@ -7016,24 +8062,24 @@
         <v>140</v>
       </c>
       <c r="BG31" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
     </row>
     <row r="32" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B32" s="19" t="s">
+        <v>669</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>670</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>670</v>
+      </c>
+      <c r="E32" s="19" t="s">
         <v>671</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>672</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>672</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>673</v>
       </c>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
@@ -7070,24 +8116,24 @@
         <v>140</v>
       </c>
       <c r="BG32" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="33" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
@@ -7124,27 +8170,27 @@
         <v>140</v>
       </c>
       <c r="BG33" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
     </row>
     <row r="34" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B34" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>547</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>675</v>
+      </c>
+      <c r="F34" s="19" t="s">
         <v>676</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>549</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>549</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>677</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>678</v>
       </c>
       <c r="G34" s="19" t="s">
         <v>172</v>
@@ -7153,7 +8199,7 @@
         <v>31</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="J34" s="19" t="s">
         <v>172</v>
@@ -7162,7 +8208,7 @@
         <v>31</v>
       </c>
       <c r="L34" s="19" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="M34" s="19" t="s">
         <v>172</v>
@@ -7171,7 +8217,7 @@
         <v>31</v>
       </c>
       <c r="O34" s="19" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="P34" s="19" t="s">
         <v>172</v>
@@ -7202,24 +8248,24 @@
         <v>140</v>
       </c>
       <c r="BG34" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
     </row>
     <row r="35" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B35" s="21" t="s">
+        <v>680</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>681</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>681</v>
+      </c>
+      <c r="E35" s="21" t="s">
         <v>682</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>683</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>683</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>684</v>
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
@@ -7256,24 +8302,24 @@
         <v>140</v>
       </c>
       <c r="BG35" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="36" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B36" s="19" t="s">
+        <v>683</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>684</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>684</v>
+      </c>
+      <c r="E36" s="19" t="s">
         <v>685</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>686</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>686</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>687</v>
       </c>
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
@@ -7310,24 +8356,24 @@
         <v>140</v>
       </c>
       <c r="BG36" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="37" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B37" s="21" t="s">
+        <v>686</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>687</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>687</v>
+      </c>
+      <c r="E37" s="21" t="s">
         <v>688</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>689</v>
-      </c>
-      <c r="D37" s="21" t="s">
-        <v>689</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>690</v>
       </c>
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
@@ -7364,24 +8410,24 @@
         <v>72</v>
       </c>
       <c r="BG37" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="38" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B38" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>690</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>690</v>
+      </c>
+      <c r="E38" s="19" t="s">
         <v>691</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>692</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>692</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>693</v>
       </c>
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
@@ -7418,24 +8464,24 @@
         <v>69</v>
       </c>
       <c r="BG38" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row r="39" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B39" s="21" t="s">
+        <v>692</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>693</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>693</v>
+      </c>
+      <c r="E39" s="21" t="s">
         <v>694</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>695</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>695</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>696</v>
       </c>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
@@ -7472,24 +8518,24 @@
         <v>69</v>
       </c>
       <c r="BG39" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="40" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B40" s="19" t="s">
+        <v>695</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>696</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>696</v>
+      </c>
+      <c r="E40" s="19" t="s">
         <v>697</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>698</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>698</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>699</v>
       </c>
       <c r="F40" s="19"/>
       <c r="G40" s="19"/>
@@ -7526,24 +8572,24 @@
         <v>140</v>
       </c>
       <c r="BG40" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
     </row>
     <row r="41" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B41" s="21" t="s">
+        <v>698</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>699</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>699</v>
+      </c>
+      <c r="E41" s="21" t="s">
         <v>700</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>701</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>701</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>702</v>
       </c>
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
@@ -7580,24 +8626,24 @@
         <v>140</v>
       </c>
       <c r="BG41" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
     </row>
     <row r="42" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B42" s="19" t="s">
+        <v>701</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>702</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>702</v>
+      </c>
+      <c r="E42" s="19" t="s">
         <v>703</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>704</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>704</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>705</v>
       </c>
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
@@ -7634,24 +8680,24 @@
         <v>140</v>
       </c>
       <c r="BG42" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="43" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B43" s="21" t="s">
+        <v>704</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>705</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>705</v>
+      </c>
+      <c r="E43" s="21" t="s">
         <v>706</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>707</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>707</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>708</v>
       </c>
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
@@ -7688,24 +8734,24 @@
         <v>140</v>
       </c>
       <c r="BG43" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
     </row>
     <row r="44" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B44" s="19" t="s">
+        <v>707</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>708</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>708</v>
+      </c>
+      <c r="E44" s="19" t="s">
         <v>709</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>710</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>710</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>711</v>
       </c>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
@@ -7742,24 +8788,24 @@
         <v>140</v>
       </c>
       <c r="BG44" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
     </row>
     <row r="45" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B45" s="21" t="s">
+        <v>710</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>711</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>711</v>
+      </c>
+      <c r="E45" s="21" t="s">
         <v>712</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>713</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>713</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>714</v>
       </c>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
@@ -7796,24 +8842,24 @@
         <v>140</v>
       </c>
       <c r="BG45" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
     </row>
     <row r="46" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B46" s="19" t="s">
+        <v>713</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>714</v>
+      </c>
+      <c r="E46" s="19" t="s">
         <v>715</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>716</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>716</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>717</v>
       </c>
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
@@ -7850,24 +8896,24 @@
         <v>140</v>
       </c>
       <c r="BG46" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
     </row>
     <row r="47" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B47" s="21" t="s">
+        <v>716</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>717</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>717</v>
+      </c>
+      <c r="E47" s="21" t="s">
         <v>718</v>
-      </c>
-      <c r="C47" s="21" t="s">
-        <v>719</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>719</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>720</v>
       </c>
       <c r="F47" s="21"/>
       <c r="G47" s="21"/>
@@ -7904,24 +8950,24 @@
         <v>140</v>
       </c>
       <c r="BG47" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
     </row>
     <row r="48" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B48" s="19" t="s">
+        <v>719</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>720</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>720</v>
+      </c>
+      <c r="E48" s="19" t="s">
         <v>721</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>722</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>722</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>723</v>
       </c>
       <c r="F48" s="19"/>
       <c r="G48" s="19"/>
@@ -7958,24 +9004,24 @@
         <v>140</v>
       </c>
       <c r="BG48" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
     </row>
     <row r="49" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B49" s="21" t="s">
+        <v>722</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>723</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>723</v>
+      </c>
+      <c r="E49" s="21" t="s">
         <v>724</v>
-      </c>
-      <c r="C49" s="21" t="s">
-        <v>725</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>725</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>726</v>
       </c>
       <c r="F49" s="21"/>
       <c r="G49" s="21"/>
@@ -8012,24 +9058,24 @@
         <v>140</v>
       </c>
       <c r="BG49" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
     </row>
     <row r="50" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B50" s="19" t="s">
+        <v>725</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>726</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>726</v>
+      </c>
+      <c r="E50" s="19" t="s">
         <v>727</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>728</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>728</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>729</v>
       </c>
       <c r="F50" s="19"/>
       <c r="G50" s="19"/>
@@ -8066,24 +9112,24 @@
         <v>74</v>
       </c>
       <c r="BG50" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
     </row>
     <row r="51" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B51" s="21" t="s">
+        <v>728</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>729</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>729</v>
+      </c>
+      <c r="E51" s="21" t="s">
         <v>730</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>731</v>
-      </c>
-      <c r="D51" s="21" t="s">
-        <v>731</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>732</v>
       </c>
       <c r="F51" s="21"/>
       <c r="G51" s="21"/>
@@ -8120,24 +9166,24 @@
         <v>74</v>
       </c>
       <c r="BG51" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
     </row>
     <row r="52" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B52" s="19" t="s">
+        <v>731</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>732</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>732</v>
+      </c>
+      <c r="E52" s="19" t="s">
         <v>733</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>734</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>734</v>
-      </c>
-      <c r="E52" s="19" t="s">
-        <v>735</v>
       </c>
       <c r="F52" s="19"/>
       <c r="G52" s="19"/>
@@ -8174,24 +9220,24 @@
         <v>140</v>
       </c>
       <c r="BG52" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
     </row>
     <row r="53" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B53" s="21" t="s">
+        <v>734</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>735</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>735</v>
+      </c>
+      <c r="E53" s="21" t="s">
         <v>736</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>737</v>
-      </c>
-      <c r="D53" s="21" t="s">
-        <v>737</v>
-      </c>
-      <c r="E53" s="21" t="s">
-        <v>738</v>
       </c>
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
@@ -8228,24 +9274,24 @@
         <v>140</v>
       </c>
       <c r="BG53" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
     </row>
     <row r="54" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B54" s="19" t="s">
+        <v>737</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>738</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>738</v>
+      </c>
+      <c r="E54" s="19" t="s">
         <v>739</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>740</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>740</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>741</v>
       </c>
       <c r="F54" s="19"/>
       <c r="G54" s="19"/>
@@ -8282,24 +9328,24 @@
         <v>140</v>
       </c>
       <c r="BG54" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
     </row>
     <row r="55" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B55" s="21" t="s">
+        <v>740</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>741</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>741</v>
+      </c>
+      <c r="E55" s="21" t="s">
         <v>742</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>743</v>
-      </c>
-      <c r="D55" s="21" t="s">
-        <v>743</v>
-      </c>
-      <c r="E55" s="21" t="s">
-        <v>744</v>
       </c>
       <c r="F55" s="21"/>
       <c r="G55" s="21"/>
@@ -8336,24 +9382,24 @@
         <v>140</v>
       </c>
       <c r="BG55" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
     </row>
     <row r="56" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B56" s="19" t="s">
+        <v>743</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>744</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>744</v>
+      </c>
+      <c r="E56" s="19" t="s">
         <v>745</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>746</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>746</v>
-      </c>
-      <c r="E56" s="19" t="s">
-        <v>747</v>
       </c>
       <c r="F56" s="19"/>
       <c r="G56" s="19"/>
@@ -8390,24 +9436,24 @@
         <v>140</v>
       </c>
       <c r="BG56" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
     </row>
     <row r="57" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B57" s="21" t="s">
+        <v>746</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>747</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>747</v>
+      </c>
+      <c r="E57" s="21" t="s">
         <v>748</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>749</v>
-      </c>
-      <c r="D57" s="21" t="s">
-        <v>749</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>750</v>
       </c>
       <c r="F57" s="21"/>
       <c r="G57" s="21"/>
@@ -8444,24 +9490,24 @@
         <v>140</v>
       </c>
       <c r="BG57" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
     </row>
     <row r="58" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B58" s="19" t="s">
+        <v>749</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>750</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>750</v>
+      </c>
+      <c r="E58" s="19" t="s">
         <v>751</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>752</v>
-      </c>
-      <c r="D58" s="19" t="s">
-        <v>752</v>
-      </c>
-      <c r="E58" s="19" t="s">
-        <v>753</v>
       </c>
       <c r="F58" s="19"/>
       <c r="G58" s="19"/>
@@ -8498,24 +9544,24 @@
         <v>140</v>
       </c>
       <c r="BG58" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
     </row>
     <row r="59" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B59" s="21" t="s">
+        <v>752</v>
+      </c>
+      <c r="C59" s="21" t="s">
+        <v>753</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>753</v>
+      </c>
+      <c r="E59" s="21" t="s">
         <v>754</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>755</v>
-      </c>
-      <c r="D59" s="21" t="s">
-        <v>755</v>
-      </c>
-      <c r="E59" s="21" t="s">
-        <v>756</v>
       </c>
       <c r="F59" s="21"/>
       <c r="G59" s="21"/>
@@ -8552,24 +9598,24 @@
         <v>74</v>
       </c>
       <c r="BG59" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
     </row>
     <row r="60" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B60" s="19" t="s">
+        <v>755</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>756</v>
+      </c>
+      <c r="D60" s="19" t="s">
+        <v>756</v>
+      </c>
+      <c r="E60" s="19" t="s">
         <v>757</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>758</v>
-      </c>
-      <c r="D60" s="19" t="s">
-        <v>758</v>
-      </c>
-      <c r="E60" s="19" t="s">
-        <v>759</v>
       </c>
       <c r="F60" s="19"/>
       <c r="G60" s="19"/>
@@ -8606,24 +9652,24 @@
         <v>140</v>
       </c>
       <c r="BG60" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="61" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B61" s="21" t="s">
+        <v>758</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>759</v>
+      </c>
+      <c r="D61" s="21" t="s">
+        <v>759</v>
+      </c>
+      <c r="E61" s="21" t="s">
         <v>760</v>
-      </c>
-      <c r="C61" s="21" t="s">
-        <v>761</v>
-      </c>
-      <c r="D61" s="21" t="s">
-        <v>761</v>
-      </c>
-      <c r="E61" s="21" t="s">
-        <v>762</v>
       </c>
       <c r="F61" s="21"/>
       <c r="G61" s="21"/>
@@ -8660,24 +9706,24 @@
         <v>140</v>
       </c>
       <c r="BG61" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
     </row>
     <row r="62" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A62" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F62" s="19"/>
       <c r="G62" s="19"/>
@@ -8714,24 +9760,24 @@
         <v>140</v>
       </c>
       <c r="BG62" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
     </row>
     <row r="63" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B63" s="21" t="s">
+        <v>763</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>764</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>764</v>
+      </c>
+      <c r="E63" s="21" t="s">
         <v>765</v>
-      </c>
-      <c r="C63" s="21" t="s">
-        <v>766</v>
-      </c>
-      <c r="D63" s="21" t="s">
-        <v>766</v>
-      </c>
-      <c r="E63" s="21" t="s">
-        <v>767</v>
       </c>
       <c r="F63" s="21"/>
       <c r="G63" s="21"/>
@@ -8768,21 +9814,21 @@
         <v>69</v>
       </c>
       <c r="BG63" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="64" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E64" s="19" t="s">
         <v>106</v>
@@ -8822,24 +9868,24 @@
         <v>140</v>
       </c>
       <c r="BG64" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="65" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B65" s="21" t="s">
+        <v>768</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>769</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>769</v>
+      </c>
+      <c r="E65" s="21" t="s">
         <v>770</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>771</v>
-      </c>
-      <c r="D65" s="21" t="s">
-        <v>771</v>
-      </c>
-      <c r="E65" s="21" t="s">
-        <v>772</v>
       </c>
       <c r="F65" s="21"/>
       <c r="G65" s="21"/>
@@ -8876,24 +9922,24 @@
         <v>140</v>
       </c>
       <c r="BG65" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="66" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A66" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B66" s="19" t="s">
+        <v>771</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>772</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>772</v>
+      </c>
+      <c r="E66" s="19" t="s">
         <v>773</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>774</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>774</v>
-      </c>
-      <c r="E66" s="19" t="s">
-        <v>775</v>
       </c>
       <c r="F66" s="19"/>
       <c r="G66" s="19"/>
@@ -8930,24 +9976,24 @@
         <v>140</v>
       </c>
       <c r="BG66" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="67" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B67" s="21" t="s">
+        <v>774</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>775</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>775</v>
+      </c>
+      <c r="E67" s="21" t="s">
         <v>776</v>
-      </c>
-      <c r="C67" s="21" t="s">
-        <v>777</v>
-      </c>
-      <c r="D67" s="21" t="s">
-        <v>777</v>
-      </c>
-      <c r="E67" s="21" t="s">
-        <v>778</v>
       </c>
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
@@ -8984,24 +10030,24 @@
         <v>140</v>
       </c>
       <c r="BG67" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
     </row>
     <row r="68" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B68" s="19" t="s">
+        <v>777</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>778</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>778</v>
+      </c>
+      <c r="E68" s="19" t="s">
         <v>779</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>780</v>
-      </c>
-      <c r="D68" s="19" t="s">
-        <v>780</v>
-      </c>
-      <c r="E68" s="19" t="s">
-        <v>781</v>
       </c>
       <c r="F68" s="19"/>
       <c r="G68" s="19"/>
@@ -9038,24 +10084,24 @@
         <v>140</v>
       </c>
       <c r="BG68" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
     </row>
     <row r="69" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B69" s="21" t="s">
+        <v>780</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>781</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>781</v>
+      </c>
+      <c r="E69" s="21" t="s">
         <v>782</v>
-      </c>
-      <c r="C69" s="21" t="s">
-        <v>783</v>
-      </c>
-      <c r="D69" s="21" t="s">
-        <v>783</v>
-      </c>
-      <c r="E69" s="21" t="s">
-        <v>784</v>
       </c>
       <c r="F69" s="21"/>
       <c r="G69" s="21"/>
@@ -9092,24 +10138,24 @@
         <v>140</v>
       </c>
       <c r="BG69" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
     </row>
     <row r="70" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A70" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B70" s="19" t="s">
+        <v>783</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>784</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>784</v>
+      </c>
+      <c r="E70" s="19" t="s">
         <v>785</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>786</v>
-      </c>
-      <c r="D70" s="19" t="s">
-        <v>786</v>
-      </c>
-      <c r="E70" s="19" t="s">
-        <v>787</v>
       </c>
       <c r="F70" s="19"/>
       <c r="G70" s="19"/>
@@ -9146,24 +10192,24 @@
         <v>140</v>
       </c>
       <c r="BG70" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
     </row>
     <row r="71" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B71" s="21" t="s">
+        <v>786</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>787</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>787</v>
+      </c>
+      <c r="E71" s="21" t="s">
         <v>788</v>
-      </c>
-      <c r="C71" s="21" t="s">
-        <v>789</v>
-      </c>
-      <c r="D71" s="21" t="s">
-        <v>789</v>
-      </c>
-      <c r="E71" s="21" t="s">
-        <v>790</v>
       </c>
       <c r="F71" s="21"/>
       <c r="G71" s="21"/>
@@ -9200,24 +10246,24 @@
         <v>140</v>
       </c>
       <c r="BG71" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="72" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A72" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B72" s="19" t="s">
+        <v>789</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>790</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>790</v>
+      </c>
+      <c r="E72" s="19" t="s">
         <v>791</v>
-      </c>
-      <c r="C72" s="19" t="s">
-        <v>792</v>
-      </c>
-      <c r="D72" s="19" t="s">
-        <v>792</v>
-      </c>
-      <c r="E72" s="19" t="s">
-        <v>793</v>
       </c>
       <c r="F72" s="19"/>
       <c r="G72" s="19"/>
@@ -9254,24 +10300,24 @@
         <v>140</v>
       </c>
       <c r="BG72" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
     </row>
     <row r="73" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A73" s="20" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B73" s="21" t="s">
+        <v>792</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>793</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>793</v>
+      </c>
+      <c r="E73" s="21" t="s">
         <v>794</v>
-      </c>
-      <c r="C73" s="21" t="s">
-        <v>795</v>
-      </c>
-      <c r="D73" s="21" t="s">
-        <v>795</v>
-      </c>
-      <c r="E73" s="21" t="s">
-        <v>796</v>
       </c>
       <c r="F73" s="21"/>
       <c r="G73" s="21"/>
@@ -9308,24 +10354,24 @@
         <v>140</v>
       </c>
       <c r="BG73" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="74" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A74" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B74" s="19" t="s">
+        <v>795</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>796</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>796</v>
+      </c>
+      <c r="E74" s="19" t="s">
         <v>797</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>798</v>
-      </c>
-      <c r="D74" s="19" t="s">
-        <v>798</v>
-      </c>
-      <c r="E74" s="19" t="s">
-        <v>799</v>
       </c>
       <c r="F74" s="19"/>
       <c r="G74" s="19"/>
@@ -9362,24 +10408,24 @@
         <v>140</v>
       </c>
       <c r="BG74" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
     </row>
     <row r="75" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A75" s="20" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B75" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>799</v>
+      </c>
+      <c r="D75" s="21" t="s">
+        <v>799</v>
+      </c>
+      <c r="E75" s="21" t="s">
         <v>800</v>
-      </c>
-      <c r="C75" s="21" t="s">
-        <v>801</v>
-      </c>
-      <c r="D75" s="21" t="s">
-        <v>801</v>
-      </c>
-      <c r="E75" s="21" t="s">
-        <v>802</v>
       </c>
       <c r="F75" s="21"/>
       <c r="G75" s="21"/>
@@ -9416,24 +10462,24 @@
         <v>140</v>
       </c>
       <c r="BG75" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
     </row>
     <row r="76" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A76" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B76" s="19" t="s">
+        <v>801</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>802</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>802</v>
+      </c>
+      <c r="E76" s="19" t="s">
         <v>803</v>
-      </c>
-      <c r="C76" s="19" t="s">
-        <v>804</v>
-      </c>
-      <c r="D76" s="19" t="s">
-        <v>804</v>
-      </c>
-      <c r="E76" s="19" t="s">
-        <v>805</v>
       </c>
       <c r="F76" s="19"/>
       <c r="G76" s="19"/>
@@ -9470,24 +10516,24 @@
         <v>140</v>
       </c>
       <c r="BG76" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
     </row>
     <row r="77" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B77" s="21" t="s">
+        <v>804</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>805</v>
+      </c>
+      <c r="D77" s="21" t="s">
+        <v>805</v>
+      </c>
+      <c r="E77" s="21" t="s">
         <v>806</v>
-      </c>
-      <c r="C77" s="21" t="s">
-        <v>807</v>
-      </c>
-      <c r="D77" s="21" t="s">
-        <v>807</v>
-      </c>
-      <c r="E77" s="21" t="s">
-        <v>808</v>
       </c>
       <c r="F77" s="21"/>
       <c r="G77" s="21"/>
@@ -9524,24 +10570,24 @@
         <v>140</v>
       </c>
       <c r="BG77" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="78" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A78" s="18" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D78" s="19" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E78" s="19" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="F78" s="19"/>
       <c r="G78" s="19"/>
@@ -9578,17 +10624,15 @@
         <v>74</v>
       </c>
       <c r="BG78" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AB78"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG7"/>
   <sheetViews>
@@ -9694,25 +10738,25 @@
         <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="Y1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="Z1" t="s">
         <v>22</v>
       </c>
       <c r="AA1" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="AB1" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="AC1" t="s">
         <v>22</v>
       </c>
       <c r="AD1" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="AE1" t="s">
         <v>24</v>
@@ -9721,7 +10765,7 @@
         <v>22</v>
       </c>
       <c r="AG1" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="AH1" t="s">
         <v>26</v>
@@ -9730,7 +10774,7 @@
         <v>22</v>
       </c>
       <c r="AJ1" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="AK1" t="s">
         <v>28</v>
@@ -9739,7 +10783,7 @@
         <v>22</v>
       </c>
       <c r="AM1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="AN1" t="s">
         <v>30</v>
@@ -9748,7 +10792,7 @@
         <v>22</v>
       </c>
       <c r="AP1" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="AQ1" t="s">
         <v>174</v>
@@ -9757,10 +10801,10 @@
         <v>22</v>
       </c>
       <c r="AS1" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="AT1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="AU1" t="s">
         <v>22</v>
@@ -9772,25 +10816,25 @@
         <v>34</v>
       </c>
       <c r="AX1" s="36" t="s">
+        <v>875</v>
+      </c>
+      <c r="AY1" s="36" t="s">
+        <v>876</v>
+      </c>
+      <c r="AZ1" s="36" t="s">
         <v>877</v>
       </c>
-      <c r="AY1" s="36" t="s">
+      <c r="BA1" s="36" t="s">
         <v>878</v>
       </c>
-      <c r="AZ1" s="36" t="s">
+      <c r="BB1" s="36" t="s">
         <v>879</v>
       </c>
-      <c r="BA1" s="36" t="s">
+      <c r="BC1" s="36" t="s">
         <v>880</v>
       </c>
-      <c r="BB1" s="36" t="s">
+      <c r="BD1" s="37" t="s">
         <v>881</v>
-      </c>
-      <c r="BC1" s="36" t="s">
-        <v>882</v>
-      </c>
-      <c r="BD1" s="37" t="s">
-        <v>883</v>
       </c>
       <c r="BE1" t="s">
         <v>42</v>
@@ -9883,7 +10927,7 @@
         <v>140</v>
       </c>
       <c r="BG2" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.25">
@@ -9937,7 +10981,7 @@
         <v>140</v>
       </c>
       <c r="BG3" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.25">
@@ -10027,7 +11071,7 @@
         <v>140</v>
       </c>
       <c r="BG4" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.25">
@@ -10081,7 +11125,7 @@
         <v>140</v>
       </c>
       <c r="BG5" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.25">
@@ -10165,7 +11209,7 @@
         <v>140</v>
       </c>
       <c r="BG6" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.25">
@@ -10255,7 +11299,7 @@
         <v>140</v>
       </c>
       <c r="BG7" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
   </sheetData>
@@ -10265,13 +11309,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F131"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10300,7 +11344,7 @@
         <v>19</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -10400,16 +11444,16 @@
         <v>114</v>
       </c>
       <c r="B7" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>221</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>223</v>
       </c>
       <c r="F7" s="25"/>
     </row>
@@ -10418,16 +11462,16 @@
         <v>114</v>
       </c>
       <c r="B8" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>224</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>226</v>
       </c>
       <c r="F8" s="25"/>
     </row>
@@ -10436,16 +11480,16 @@
         <v>114</v>
       </c>
       <c r="B9" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="E9" s="25" t="s">
         <v>227</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>229</v>
       </c>
       <c r="F9" s="25"/>
     </row>
@@ -10454,16 +11498,16 @@
         <v>114</v>
       </c>
       <c r="B10" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="E10" s="25" t="s">
         <v>230</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>231</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>232</v>
       </c>
       <c r="F10" s="25"/>
     </row>
@@ -10472,16 +11516,16 @@
         <v>114</v>
       </c>
       <c r="B11" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>233</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>235</v>
       </c>
       <c r="F11" s="25"/>
     </row>
@@ -10490,16 +11534,16 @@
         <v>114</v>
       </c>
       <c r="B12" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>236</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>237</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>238</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -10508,16 +11552,16 @@
         <v>114</v>
       </c>
       <c r="B13" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="E13" s="25" t="s">
         <v>239</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>241</v>
       </c>
       <c r="F13" s="25"/>
     </row>
@@ -10526,16 +11570,16 @@
         <v>114</v>
       </c>
       <c r="B14" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="E14" s="25" t="s">
         <v>242</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>244</v>
       </c>
       <c r="F14" s="25" t="s">
         <v>36</v>
@@ -10546,16 +11590,16 @@
         <v>114</v>
       </c>
       <c r="B15" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="E15" s="25" t="s">
         <v>245</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>246</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>247</v>
       </c>
       <c r="F15" s="25"/>
     </row>
@@ -10564,76 +11608,72 @@
         <v>114</v>
       </c>
       <c r="B16" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="E16" s="25" t="s">
         <v>248</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>250</v>
       </c>
       <c r="F16" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>114</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>253</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="F17" s="25"/>
+    </row>
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>114</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>256</v>
-      </c>
-      <c r="F18" s="25" t="s">
-        <v>36</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>114</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="F19" s="25"/>
     </row>
@@ -10642,54 +11682,52 @@
         <v>114</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="E20" s="25" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="F20" s="25"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>114</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="E21" s="25" t="s">
-        <v>265</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>36</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="F21" s="25"/>
     </row>
     <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>114</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="E22" s="25" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="F22" s="25"/>
     </row>
@@ -10698,54 +11736,52 @@
         <v>114</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="F23" s="25"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>114</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="E24" s="25" t="s">
-        <v>274</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>36</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="F24" s="25"/>
     </row>
     <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>114</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="F25" s="25"/>
     </row>
@@ -10754,170 +11790,162 @@
         <v>114</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="F26" s="25"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>114</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+      <c r="F27" s="25"/>
+    </row>
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>114</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>114</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>289</v>
-      </c>
-      <c r="F29" s="25" t="s">
-        <v>36</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="F29" s="25"/>
     </row>
     <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>114</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="F30" s="25"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>114</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="F31" s="25" t="s">
-        <v>36</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="F31" s="25"/>
     </row>
     <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
         <v>114</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="F32" s="25"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>114</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="F33" s="25" t="s">
-        <v>36</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="F33" s="25"/>
     </row>
     <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>114</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="F34" s="25"/>
     </row>
@@ -10926,16 +11954,16 @@
         <v>114</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="F35" s="25"/>
     </row>
@@ -10944,16 +11972,16 @@
         <v>114</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="F36" s="25"/>
     </row>
@@ -10962,19 +11990,19 @@
         <v>114</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -10982,16 +12010,16 @@
         <v>114</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="F38" s="25"/>
     </row>
@@ -11000,16 +12028,16 @@
         <v>114</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="F39" s="25"/>
     </row>
@@ -11018,16 +12046,16 @@
         <v>114</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="E40" s="25" t="s">
-        <v>322</v>
+        <v>104</v>
       </c>
       <c r="F40" s="25"/>
     </row>
@@ -11036,75 +12064,73 @@
         <v>114</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="E41" s="25" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="F41" s="25"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
         <v>114</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>328</v>
-      </c>
-      <c r="F42" s="25" t="s">
-        <v>36</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="F42" s="25"/>
     </row>
     <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
         <v>114</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="F43" s="25"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
         <v>114</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>36</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -11112,16 +12138,16 @@
         <v>114</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="F45" s="25"/>
     </row>
@@ -11130,1591 +12156,1069 @@
         <v>114</v>
       </c>
       <c r="B46" s="25" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="F46" s="25"/>
     </row>
     <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
-        <v>114</v>
+        <v>380</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="F47" s="25"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
-        <v>114</v>
+        <v>380</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="E48" s="25" t="s">
-        <v>346</v>
-      </c>
-      <c r="F48" s="25" t="s">
-        <v>36</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="F48" s="25"/>
     </row>
     <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
-        <v>114</v>
+        <v>380</v>
       </c>
       <c r="B49" s="25" t="s">
-        <v>347</v>
+        <v>393</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>348</v>
+        <v>394</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>348</v>
+        <v>394</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>349</v>
-      </c>
-      <c r="F49" s="25" t="s">
-        <v>195</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="F49" s="25"/>
     </row>
     <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
-        <v>114</v>
+        <v>380</v>
       </c>
       <c r="B50" s="25" t="s">
-        <v>350</v>
+        <v>396</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>351</v>
+        <v>397</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>351</v>
+        <v>397</v>
       </c>
       <c r="E50" s="25" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="F50" s="25"/>
     </row>
     <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="25" t="s">
-        <v>114</v>
+      <c r="A51" s="26" t="s">
+        <v>380</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>353</v>
+        <v>399</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="E51" s="25" t="s">
-        <v>355</v>
+        <v>401</v>
       </c>
       <c r="F51" s="25"/>
     </row>
     <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
-        <v>114</v>
+        <v>380</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>356</v>
+        <v>402</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>357</v>
+        <v>403</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>357</v>
+        <v>403</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>104</v>
+        <v>404</v>
       </c>
       <c r="F52" s="25"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
-        <v>114</v>
+        <v>380</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>358</v>
+        <v>405</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>359</v>
+        <v>406</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>359</v>
+        <v>406</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>360</v>
-      </c>
-      <c r="F53" s="25" t="s">
-        <v>36</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="F53" s="25"/>
     </row>
     <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
-        <v>114</v>
+        <v>380</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>361</v>
+        <v>408</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>362</v>
+        <v>409</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>362</v>
+        <v>409</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>363</v>
+        <v>410</v>
       </c>
       <c r="F54" s="25"/>
     </row>
     <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
-        <v>114</v>
+        <v>380</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>364</v>
+        <v>411</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>365</v>
+        <v>412</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>365</v>
+        <v>412</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>366</v>
+        <v>413</v>
       </c>
       <c r="F55" s="25"/>
     </row>
     <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
-        <v>114</v>
+        <v>380</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>367</v>
+        <v>420</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>368</v>
+        <v>421</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>368</v>
+        <v>421</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>369</v>
+        <v>422</v>
       </c>
       <c r="F56" s="25"/>
     </row>
     <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
-        <v>114</v>
+        <v>380</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>370</v>
+        <v>423</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>371</v>
+        <v>424</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>371</v>
+        <v>424</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="F57" s="25" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+      <c r="F57" s="25"/>
+    </row>
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
-        <v>114</v>
+        <v>380</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>373</v>
+        <v>429</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>374</v>
+        <v>430</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>374</v>
+        <v>430</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>375</v>
-      </c>
-      <c r="F58" s="25" t="s">
-        <v>36</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="F58" s="25"/>
     </row>
     <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
-        <v>114</v>
+        <v>380</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>376</v>
+        <v>432</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>377</v>
+        <v>433</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>377</v>
+        <v>433</v>
       </c>
       <c r="E59" s="25" t="s">
-        <v>378</v>
+        <v>434</v>
       </c>
       <c r="F59" s="25"/>
     </row>
     <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
-        <v>114</v>
+        <v>380</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>379</v>
+        <v>435</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>380</v>
+        <v>436</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>380</v>
+        <v>436</v>
       </c>
       <c r="E60" s="25" t="s">
-        <v>381</v>
+        <v>437</v>
       </c>
       <c r="F60" s="25"/>
     </row>
     <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>383</v>
+        <v>438</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>384</v>
+        <v>439</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>384</v>
+        <v>439</v>
       </c>
       <c r="E61" s="25" t="s">
-        <v>385</v>
+        <v>440</v>
       </c>
       <c r="F61" s="25"/>
     </row>
     <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>386</v>
+        <v>444</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>387</v>
+        <v>445</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>387</v>
+        <v>445</v>
       </c>
       <c r="E62" s="25" t="s">
-        <v>388</v>
+        <v>446</v>
       </c>
       <c r="F62" s="25"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>389</v>
+        <v>447</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>390</v>
+        <v>448</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>390</v>
+        <v>448</v>
       </c>
       <c r="E63" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="F63" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+      <c r="F63" s="25"/>
+    </row>
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>392</v>
+        <v>453</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>393</v>
+        <v>454</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>393</v>
+        <v>454</v>
       </c>
       <c r="E64" s="25" t="s">
-        <v>394</v>
-      </c>
-      <c r="F64" s="25" t="s">
-        <v>36</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="F64" s="25"/>
     </row>
     <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>395</v>
+        <v>456</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>396</v>
+        <v>457</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>396</v>
+        <v>457</v>
       </c>
       <c r="E65" s="25" t="s">
-        <v>397</v>
+        <v>458</v>
       </c>
       <c r="F65" s="25"/>
     </row>
     <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>398</v>
+        <v>459</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>399</v>
+        <v>460</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>399</v>
+        <v>460</v>
       </c>
       <c r="E66" s="25" t="s">
-        <v>400</v>
+        <v>461</v>
       </c>
       <c r="F66" s="25"/>
     </row>
     <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="26" t="s">
-        <v>382</v>
+      <c r="A67" s="25" t="s">
+        <v>380</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>401</v>
+        <v>462</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>402</v>
+        <v>463</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>402</v>
+        <v>463</v>
       </c>
       <c r="E67" s="25" t="s">
-        <v>403</v>
+        <v>464</v>
       </c>
       <c r="F67" s="25"/>
     </row>
     <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="25" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>404</v>
+        <v>465</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>405</v>
+        <v>466</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>405</v>
+        <v>466</v>
       </c>
       <c r="E68" s="25" t="s">
-        <v>406</v>
+        <v>467</v>
       </c>
       <c r="F68" s="25"/>
     </row>
     <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="25" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>407</v>
+        <v>468</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>408</v>
+        <v>469</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>408</v>
+        <v>469</v>
       </c>
       <c r="E69" s="25" t="s">
-        <v>409</v>
+        <v>470</v>
       </c>
       <c r="F69" s="25"/>
     </row>
     <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="25" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>410</v>
+        <v>471</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>411</v>
+        <v>472</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>411</v>
+        <v>472</v>
       </c>
       <c r="E70" s="25" t="s">
-        <v>412</v>
+        <v>473</v>
       </c>
       <c r="F70" s="25"/>
     </row>
     <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="25" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>413</v>
+        <v>474</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>414</v>
+        <v>475</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>414</v>
+        <v>475</v>
       </c>
       <c r="E71" s="25" t="s">
-        <v>415</v>
+        <v>476</v>
       </c>
       <c r="F71" s="25"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="25" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>416</v>
+        <v>483</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>417</v>
+        <v>484</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>417</v>
+        <v>484</v>
       </c>
       <c r="E72" s="25" t="s">
-        <v>418</v>
-      </c>
-      <c r="F72" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+      <c r="F72" s="25"/>
+    </row>
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="25" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>419</v>
+        <v>486</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>420</v>
+        <v>487</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>420</v>
+        <v>487</v>
       </c>
       <c r="E73" s="25" t="s">
-        <v>421</v>
-      </c>
-      <c r="F73" s="25" t="s">
-        <v>36</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="F73" s="25"/>
     </row>
     <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="25" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>422</v>
+        <v>489</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>423</v>
+        <v>490</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>423</v>
+        <v>490</v>
       </c>
       <c r="E74" s="25" t="s">
-        <v>424</v>
+        <v>491</v>
       </c>
       <c r="F74" s="25"/>
     </row>
     <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="25" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>425</v>
+        <v>492</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>426</v>
+        <v>493</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>426</v>
+        <v>493</v>
       </c>
       <c r="E75" s="25" t="s">
-        <v>427</v>
+        <v>494</v>
       </c>
       <c r="F75" s="25"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="25" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>428</v>
+        <v>495</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>429</v>
+        <v>496</v>
       </c>
       <c r="E76" s="25" t="s">
-        <v>430</v>
-      </c>
-      <c r="F76" s="25" t="s">
-        <v>36</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="F76" s="25"/>
     </row>
     <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="25" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>431</v>
+        <v>498</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>432</v>
+        <v>499</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>432</v>
+        <v>499</v>
       </c>
       <c r="E77" s="25" t="s">
-        <v>433</v>
+        <v>500</v>
       </c>
       <c r="F77" s="25"/>
     </row>
     <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="25" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>434</v>
+        <v>504</v>
       </c>
       <c r="C78" s="25" t="s">
-        <v>435</v>
+        <v>505</v>
       </c>
       <c r="D78" s="25" t="s">
-        <v>435</v>
+        <v>505</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>436</v>
+        <v>506</v>
       </c>
       <c r="F78" s="25"/>
     </row>
     <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="25" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>437</v>
+        <v>507</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>438</v>
+        <v>508</v>
       </c>
       <c r="D79" s="25" t="s">
-        <v>438</v>
+        <v>508</v>
       </c>
       <c r="E79" s="25" t="s">
-        <v>439</v>
+        <v>509</v>
       </c>
       <c r="F79" s="25"/>
     </row>
     <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="25" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>440</v>
+        <v>510</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>441</v>
+        <v>511</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>441</v>
+        <v>511</v>
       </c>
       <c r="E80" s="25" t="s">
-        <v>442</v>
+        <v>512</v>
       </c>
       <c r="F80" s="25"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="25" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>443</v>
+        <v>513</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>444</v>
+        <v>514</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>444</v>
+        <v>514</v>
       </c>
       <c r="E81" s="25" t="s">
-        <v>445</v>
-      </c>
-      <c r="F81" s="25" t="s">
-        <v>36</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="F81" s="25"/>
     </row>
     <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="25" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>446</v>
+        <v>516</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>447</v>
+        <v>517</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>447</v>
+        <v>517</v>
       </c>
       <c r="E82" s="25" t="s">
-        <v>448</v>
+        <v>518</v>
       </c>
       <c r="F82" s="25"/>
     </row>
     <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="25" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B83" s="25" t="s">
-        <v>449</v>
+        <v>519</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>450</v>
+        <v>520</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>450</v>
+        <v>520</v>
       </c>
       <c r="E83" s="25" t="s">
-        <v>451</v>
+        <v>521</v>
       </c>
       <c r="F83" s="25"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="25" t="s">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B84" s="25" t="s">
-        <v>452</v>
+        <v>523</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>453</v>
+        <v>524</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>453</v>
+        <v>524</v>
       </c>
       <c r="E84" s="25" t="s">
-        <v>454</v>
-      </c>
-      <c r="F84" s="25" t="s">
-        <v>36</v>
-      </c>
+        <v>525</v>
+      </c>
+      <c r="F84" s="25"/>
     </row>
     <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="25" t="s">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B85" s="25" t="s">
-        <v>455</v>
+        <v>526</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>456</v>
+        <v>527</v>
       </c>
       <c r="D85" s="25" t="s">
-        <v>456</v>
+        <v>527</v>
       </c>
       <c r="E85" s="25" t="s">
-        <v>457</v>
+        <v>528</v>
       </c>
       <c r="F85" s="25"/>
     </row>
     <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="25" t="s">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>458</v>
+        <v>529</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>459</v>
+        <v>530</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>459</v>
+        <v>530</v>
       </c>
       <c r="E86" s="25" t="s">
-        <v>460</v>
+        <v>531</v>
       </c>
       <c r="F86" s="25"/>
     </row>
     <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="25" t="s">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>461</v>
+        <v>532</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>462</v>
+        <v>533</v>
       </c>
       <c r="D87" s="25" t="s">
-        <v>462</v>
+        <v>533</v>
       </c>
       <c r="E87" s="25" t="s">
-        <v>463</v>
+        <v>534</v>
       </c>
       <c r="F87" s="25"/>
     </row>
     <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="25" t="s">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B88" s="25" t="s">
-        <v>464</v>
+        <v>535</v>
       </c>
       <c r="C88" s="25" t="s">
-        <v>465</v>
+        <v>536</v>
       </c>
       <c r="D88" s="25" t="s">
-        <v>465</v>
+        <v>536</v>
       </c>
       <c r="E88" s="25" t="s">
-        <v>466</v>
+        <v>537</v>
       </c>
       <c r="F88" s="25"/>
     </row>
     <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="25" t="s">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B89" s="25" t="s">
-        <v>467</v>
+        <v>538</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>468</v>
+        <v>539</v>
       </c>
       <c r="D89" s="25" t="s">
-        <v>468</v>
+        <v>539</v>
       </c>
       <c r="E89" s="25" t="s">
-        <v>469</v>
+        <v>540</v>
       </c>
       <c r="F89" s="25"/>
     </row>
     <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="25" t="s">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B90" s="25" t="s">
-        <v>470</v>
+        <v>541</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>471</v>
+        <v>542</v>
       </c>
       <c r="D90" s="25" t="s">
-        <v>471</v>
+        <v>542</v>
       </c>
       <c r="E90" s="25" t="s">
-        <v>472</v>
+        <v>543</v>
       </c>
       <c r="F90" s="25"/>
     </row>
     <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="25" t="s">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B91" s="25" t="s">
-        <v>473</v>
+        <v>544</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>474</v>
+        <v>545</v>
       </c>
       <c r="D91" s="25" t="s">
-        <v>474</v>
+        <v>545</v>
       </c>
       <c r="E91" s="25" t="s">
-        <v>475</v>
+        <v>105</v>
       </c>
       <c r="F91" s="25"/>
     </row>
     <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="25" t="s">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>476</v>
+        <v>546</v>
       </c>
       <c r="C92" s="25" t="s">
-        <v>477</v>
+        <v>547</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>477</v>
+        <v>547</v>
       </c>
       <c r="E92" s="25" t="s">
-        <v>478</v>
+        <v>548</v>
       </c>
       <c r="F92" s="25"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="25" t="s">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>479</v>
+        <v>552</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>480</v>
+        <v>553</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>480</v>
+        <v>553</v>
       </c>
       <c r="E93" s="25" t="s">
-        <v>481</v>
-      </c>
-      <c r="F93" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+      <c r="F93" s="25"/>
+    </row>
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="25" t="s">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>482</v>
+        <v>555</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>483</v>
+        <v>556</v>
       </c>
       <c r="D94" s="25" t="s">
-        <v>483</v>
+        <v>556</v>
       </c>
       <c r="E94" s="25" t="s">
-        <v>484</v>
-      </c>
-      <c r="F94" s="25" t="s">
-        <v>36</v>
-      </c>
+        <v>557</v>
+      </c>
+      <c r="F94" s="25"/>
     </row>
     <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="25" t="s">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>485</v>
+        <v>558</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>486</v>
+        <v>559</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>486</v>
+        <v>559</v>
       </c>
       <c r="E95" s="25" t="s">
-        <v>487</v>
+        <v>560</v>
       </c>
       <c r="F95" s="25"/>
     </row>
     <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="25" t="s">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B96" s="25" t="s">
-        <v>488</v>
+        <v>561</v>
       </c>
       <c r="C96" s="25" t="s">
-        <v>489</v>
+        <v>562</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>489</v>
+        <v>562</v>
       </c>
       <c r="E96" s="25" t="s">
-        <v>490</v>
+        <v>563</v>
       </c>
       <c r="F96" s="25"/>
     </row>
     <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="25" t="s">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>491</v>
+        <v>564</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>492</v>
+        <v>565</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>492</v>
+        <v>565</v>
       </c>
       <c r="E97" s="25" t="s">
-        <v>493</v>
-      </c>
-      <c r="F97" s="25"/>
-    </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="25" t="s">
-        <v>382</v>
+        <v>566</v>
+      </c>
+      <c r="F97" s="25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="27" t="s">
+        <v>522</v>
       </c>
       <c r="B98" s="25" t="s">
-        <v>494</v>
+        <v>567</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>495</v>
+        <v>568</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>495</v>
+        <v>568</v>
       </c>
       <c r="E98" s="25" t="s">
-        <v>496</v>
+        <v>569</v>
       </c>
       <c r="F98" s="25"/>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="25" t="s">
-        <v>382</v>
+    <row r="99" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="27" t="s">
+        <v>522</v>
       </c>
       <c r="B99" s="25" t="s">
-        <v>497</v>
+        <v>570</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>498</v>
+        <v>571</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>498</v>
+        <v>571</v>
       </c>
       <c r="E99" s="25" t="s">
-        <v>499</v>
+        <v>572</v>
       </c>
       <c r="F99" s="25"/>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="25" t="s">
-        <v>382</v>
+    <row r="100" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="27" t="s">
+        <v>522</v>
       </c>
       <c r="B100" s="25" t="s">
-        <v>500</v>
+        <v>573</v>
       </c>
       <c r="C100" s="25" t="s">
-        <v>501</v>
+        <v>574</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>501</v>
+        <v>574</v>
       </c>
       <c r="E100" s="25" t="s">
-        <v>502</v>
+        <v>575</v>
       </c>
       <c r="F100" s="25"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="25" t="s">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B101" s="25" t="s">
-        <v>503</v>
+        <v>576</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>504</v>
+        <v>577</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>504</v>
+        <v>577</v>
       </c>
       <c r="E101" s="25" t="s">
-        <v>505</v>
-      </c>
-      <c r="F101" s="25" t="s">
-        <v>36</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="F101" s="25"/>
     </row>
     <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="25" t="s">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B102" s="25" t="s">
-        <v>506</v>
+        <v>579</v>
       </c>
       <c r="C102" s="25" t="s">
-        <v>507</v>
+        <v>580</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>507</v>
+        <v>580</v>
       </c>
       <c r="E102" s="25" t="s">
-        <v>508</v>
-      </c>
-      <c r="F102" s="25"/>
+        <v>581</v>
+      </c>
+      <c r="F102" s="25" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="25" t="s">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B103" s="25" t="s">
-        <v>509</v>
+        <v>582</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>510</v>
+        <v>583</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>510</v>
+        <v>583</v>
       </c>
       <c r="E103" s="25" t="s">
-        <v>511</v>
+        <v>584</v>
       </c>
       <c r="F103" s="25"/>
     </row>
     <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="25" t="s">
-        <v>382</v>
+        <v>522</v>
       </c>
       <c r="B104" s="25" t="s">
-        <v>512</v>
+        <v>588</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>513</v>
+        <v>589</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>513</v>
+        <v>589</v>
       </c>
       <c r="E104" s="25" t="s">
-        <v>514</v>
+        <v>590</v>
       </c>
       <c r="F104" s="25"/>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="25" t="s">
-        <v>382</v>
-      </c>
-      <c r="B105" s="25" t="s">
-        <v>515</v>
-      </c>
-      <c r="C105" s="25" t="s">
-        <v>516</v>
-      </c>
-      <c r="D105" s="25" t="s">
-        <v>516</v>
-      </c>
-      <c r="E105" s="25" t="s">
-        <v>517</v>
-      </c>
-      <c r="F105" s="25"/>
-    </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="25" t="s">
-        <v>382</v>
-      </c>
-      <c r="B106" s="25" t="s">
-        <v>518</v>
-      </c>
-      <c r="C106" s="25" t="s">
-        <v>519</v>
-      </c>
-      <c r="D106" s="25" t="s">
-        <v>519</v>
-      </c>
-      <c r="E106" s="25" t="s">
-        <v>520</v>
-      </c>
-      <c r="F106" s="25"/>
-    </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="25" t="s">
-        <v>382</v>
-      </c>
-      <c r="B107" s="25" t="s">
-        <v>521</v>
-      </c>
-      <c r="C107" s="25" t="s">
-        <v>522</v>
-      </c>
-      <c r="D107" s="25" t="s">
-        <v>522</v>
-      </c>
-      <c r="E107" s="25" t="s">
-        <v>523</v>
-      </c>
-      <c r="F107" s="25"/>
-    </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="25" t="s">
-        <v>524</v>
-      </c>
-      <c r="B108" s="25" t="s">
-        <v>525</v>
-      </c>
-      <c r="C108" s="25" t="s">
-        <v>526</v>
-      </c>
-      <c r="D108" s="25" t="s">
-        <v>526</v>
-      </c>
-      <c r="E108" s="25" t="s">
-        <v>527</v>
-      </c>
-      <c r="F108" s="25"/>
-    </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="25" t="s">
-        <v>524</v>
-      </c>
-      <c r="B109" s="25" t="s">
-        <v>528</v>
-      </c>
-      <c r="C109" s="25" t="s">
-        <v>529</v>
-      </c>
-      <c r="D109" s="25" t="s">
-        <v>529</v>
-      </c>
-      <c r="E109" s="25" t="s">
-        <v>530</v>
-      </c>
-      <c r="F109" s="25"/>
-    </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="25" t="s">
-        <v>524</v>
-      </c>
-      <c r="B110" s="25" t="s">
-        <v>531</v>
-      </c>
-      <c r="C110" s="25" t="s">
-        <v>532</v>
-      </c>
-      <c r="D110" s="25" t="s">
-        <v>532</v>
-      </c>
-      <c r="E110" s="25" t="s">
-        <v>533</v>
-      </c>
-      <c r="F110" s="25"/>
-    </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="25" t="s">
-        <v>524</v>
-      </c>
-      <c r="B111" s="25" t="s">
-        <v>534</v>
-      </c>
-      <c r="C111" s="25" t="s">
-        <v>535</v>
-      </c>
-      <c r="D111" s="25" t="s">
-        <v>535</v>
-      </c>
-      <c r="E111" s="25" t="s">
-        <v>536</v>
-      </c>
-      <c r="F111" s="25"/>
-    </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="25" t="s">
-        <v>524</v>
-      </c>
-      <c r="B112" s="25" t="s">
-        <v>537</v>
-      </c>
-      <c r="C112" s="25" t="s">
-        <v>538</v>
-      </c>
-      <c r="D112" s="25" t="s">
-        <v>538</v>
-      </c>
-      <c r="E112" s="25" t="s">
-        <v>539</v>
-      </c>
-      <c r="F112" s="25"/>
-    </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="25" t="s">
-        <v>524</v>
-      </c>
-      <c r="B113" s="25" t="s">
-        <v>540</v>
-      </c>
-      <c r="C113" s="25" t="s">
-        <v>541</v>
-      </c>
-      <c r="D113" s="25" t="s">
-        <v>541</v>
-      </c>
-      <c r="E113" s="25" t="s">
-        <v>542</v>
-      </c>
-      <c r="F113" s="25"/>
-    </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="25" t="s">
-        <v>524</v>
-      </c>
-      <c r="B114" s="25" t="s">
-        <v>543</v>
-      </c>
-      <c r="C114" s="25" t="s">
-        <v>544</v>
-      </c>
-      <c r="D114" s="25" t="s">
-        <v>544</v>
-      </c>
-      <c r="E114" s="25" t="s">
-        <v>545</v>
-      </c>
-      <c r="F114" s="25"/>
-    </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="25" t="s">
-        <v>524</v>
-      </c>
-      <c r="B115" s="25" t="s">
-        <v>546</v>
-      </c>
-      <c r="C115" s="25" t="s">
-        <v>547</v>
-      </c>
-      <c r="D115" s="25" t="s">
-        <v>547</v>
-      </c>
-      <c r="E115" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="F115" s="25"/>
-    </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="25" t="s">
-        <v>524</v>
-      </c>
-      <c r="B116" s="25" t="s">
-        <v>548</v>
-      </c>
-      <c r="C116" s="25" t="s">
-        <v>549</v>
-      </c>
-      <c r="D116" s="25" t="s">
-        <v>549</v>
-      </c>
-      <c r="E116" s="25" t="s">
-        <v>550</v>
-      </c>
-      <c r="F116" s="25"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="25" t="s">
-        <v>524</v>
-      </c>
-      <c r="B117" s="25" t="s">
-        <v>551</v>
-      </c>
-      <c r="C117" s="25" t="s">
-        <v>552</v>
-      </c>
-      <c r="D117" s="25" t="s">
-        <v>552</v>
-      </c>
-      <c r="E117" s="25" t="s">
-        <v>553</v>
-      </c>
-      <c r="F117" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="25" t="s">
-        <v>524</v>
-      </c>
-      <c r="B118" s="25" t="s">
-        <v>554</v>
-      </c>
-      <c r="C118" s="25" t="s">
-        <v>555</v>
-      </c>
-      <c r="D118" s="25" t="s">
-        <v>555</v>
-      </c>
-      <c r="E118" s="25" t="s">
-        <v>556</v>
-      </c>
-      <c r="F118" s="25"/>
-    </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="25" t="s">
-        <v>524</v>
-      </c>
-      <c r="B119" s="25" t="s">
-        <v>557</v>
-      </c>
-      <c r="C119" s="25" t="s">
-        <v>558</v>
-      </c>
-      <c r="D119" s="25" t="s">
-        <v>558</v>
-      </c>
-      <c r="E119" s="25" t="s">
-        <v>559</v>
-      </c>
-      <c r="F119" s="25"/>
-    </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="25" t="s">
-        <v>524</v>
-      </c>
-      <c r="B120" s="25" t="s">
-        <v>560</v>
-      </c>
-      <c r="C120" s="25" t="s">
-        <v>561</v>
-      </c>
-      <c r="D120" s="25" t="s">
-        <v>561</v>
-      </c>
-      <c r="E120" s="25" t="s">
-        <v>562</v>
-      </c>
-      <c r="F120" s="25"/>
-    </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="25" t="s">
-        <v>524</v>
-      </c>
-      <c r="B121" s="25" t="s">
-        <v>563</v>
-      </c>
-      <c r="C121" s="25" t="s">
-        <v>564</v>
-      </c>
-      <c r="D121" s="25" t="s">
-        <v>564</v>
-      </c>
-      <c r="E121" s="25" t="s">
-        <v>565</v>
-      </c>
-      <c r="F121" s="25"/>
-    </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="25" t="s">
-        <v>524</v>
-      </c>
-      <c r="B122" s="25" t="s">
-        <v>566</v>
-      </c>
-      <c r="C122" s="25" t="s">
-        <v>567</v>
-      </c>
-      <c r="D122" s="25" t="s">
-        <v>567</v>
-      </c>
-      <c r="E122" s="25" t="s">
-        <v>568</v>
-      </c>
-      <c r="F122" s="25" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="27" t="s">
-        <v>524</v>
-      </c>
-      <c r="B123" s="25" t="s">
-        <v>569</v>
-      </c>
-      <c r="C123" s="25" t="s">
-        <v>570</v>
-      </c>
-      <c r="D123" s="25" t="s">
-        <v>570</v>
-      </c>
-      <c r="E123" s="25" t="s">
-        <v>571</v>
-      </c>
-      <c r="F123" s="25"/>
-    </row>
-    <row r="124" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="27" t="s">
-        <v>524</v>
-      </c>
-      <c r="B124" s="25" t="s">
-        <v>572</v>
-      </c>
-      <c r="C124" s="25" t="s">
-        <v>573</v>
-      </c>
-      <c r="D124" s="25" t="s">
-        <v>573</v>
-      </c>
-      <c r="E124" s="25" t="s">
-        <v>574</v>
-      </c>
-      <c r="F124" s="25"/>
-    </row>
-    <row r="125" spans="1:6" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="27" t="s">
-        <v>524</v>
-      </c>
-      <c r="B125" s="25" t="s">
-        <v>575</v>
-      </c>
-      <c r="C125" s="25" t="s">
-        <v>576</v>
-      </c>
-      <c r="D125" s="25" t="s">
-        <v>576</v>
-      </c>
-      <c r="E125" s="25" t="s">
-        <v>577</v>
-      </c>
-      <c r="F125" s="25"/>
-    </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="25" t="s">
-        <v>524</v>
-      </c>
-      <c r="B126" s="25" t="s">
-        <v>578</v>
-      </c>
-      <c r="C126" s="25" t="s">
-        <v>579</v>
-      </c>
-      <c r="D126" s="25" t="s">
-        <v>579</v>
-      </c>
-      <c r="E126" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="F126" s="25"/>
-    </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="25" t="s">
-        <v>524</v>
-      </c>
-      <c r="B127" s="25" t="s">
-        <v>581</v>
-      </c>
-      <c r="C127" s="25" t="s">
-        <v>582</v>
-      </c>
-      <c r="D127" s="25" t="s">
-        <v>582</v>
-      </c>
-      <c r="E127" s="25" t="s">
-        <v>583</v>
-      </c>
-      <c r="F127" s="25" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="25" t="s">
-        <v>524</v>
-      </c>
-      <c r="B128" s="25" t="s">
-        <v>584</v>
-      </c>
-      <c r="C128" s="25" t="s">
-        <v>585</v>
-      </c>
-      <c r="D128" s="25" t="s">
-        <v>585</v>
-      </c>
-      <c r="E128" s="25" t="s">
-        <v>586</v>
-      </c>
-      <c r="F128" s="25"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="25" t="s">
-        <v>524</v>
-      </c>
-      <c r="B129" s="25" t="s">
-        <v>587</v>
-      </c>
-      <c r="C129" s="25" t="s">
-        <v>588</v>
-      </c>
-      <c r="D129" s="25" t="s">
-        <v>588</v>
-      </c>
-      <c r="E129" s="25" t="s">
-        <v>589</v>
-      </c>
-      <c r="F129" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="25" t="s">
-        <v>524</v>
-      </c>
-      <c r="B130" s="25" t="s">
-        <v>590</v>
-      </c>
-      <c r="C130" s="25" t="s">
-        <v>591</v>
-      </c>
-      <c r="D130" s="25" t="s">
-        <v>591</v>
-      </c>
-      <c r="E130" s="25" t="s">
-        <v>592</v>
-      </c>
-      <c r="F130" s="25"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="25" t="s">
-        <v>524</v>
-      </c>
-      <c r="B131" s="25" t="s">
-        <v>593</v>
-      </c>
-      <c r="C131" s="25" t="s">
-        <v>594</v>
-      </c>
-      <c r="D131" s="25" t="s">
-        <v>594</v>
-      </c>
-      <c r="E131" s="25" t="s">
-        <v>595</v>
-      </c>
-      <c r="F131" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F131">
+  <autoFilter ref="A1:F104">
     <filterColumn colId="5">
       <filters>
         <filter val="Airtel Money"/>
@@ -12726,7 +13230,642 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>358</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>388</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>391</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>392</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>416</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>417</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>426</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>441</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>443</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>451</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>451</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>478</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>480</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>481</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>481</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>482</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>501</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>503</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
+        <v>522</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>549</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>550</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>550</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="F29" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
+        <v>522</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>585</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>586</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>586</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>587</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
+        <v>522</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>591</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="F31" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -12759,7 +13898,7 @@
         <v>19</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -12850,285 +13989,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2">
-        <v>991843845</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3">
-        <v>991843845</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4">
-        <v>991843845</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>
--- a/Excels/MW.xlsx
+++ b/Excels/MW.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\Desktop\New folder (2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20280" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="35835" windowHeight="20280"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="1043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="1045">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -3074,9 +3074,6 @@
   </si>
   <si>
     <t>Next Reset Date</t>
-  </si>
-  <si>
-    <t>SmFuQDIwMjE</t>
   </si>
   <si>
     <t>TWFyY2hAMTIzJA</t>
@@ -3180,6 +3177,15 @@
   <si>
     <t>Post balance
 (MK)</t>
+  </si>
+  <si>
+    <t>Prod Customer Number</t>
+  </si>
+  <si>
+    <t>Prod SIM Number</t>
+  </si>
+  <si>
+    <t>QXByQDIwMjE</t>
   </si>
 </sst>
 </file>
@@ -3380,7 +3386,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
@@ -3388,8 +3394,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3448,13 +3455,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="5" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="4"/>
     <cellStyle name="Normal 4" xfId="3"/>
+    <cellStyle name="Normal 5" xfId="5"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -3984,10 +3993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3999,59 +4008,65 @@
     <col min="9" max="9" width="20.375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="44" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2390495</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C2" t="s">
         <v>67</v>
@@ -4092,24 +4107,36 @@
       <c r="O2" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2">
+        <v>999989584</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2388192</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1009</v>
+        <v>1044</v>
       </c>
       <c r="C3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3">
+        <v>999989584</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2390495</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C4" t="s">
         <v>175</v>
@@ -4117,19 +4144,31 @@
       <c r="D4">
         <v>991843845</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <v>991843845</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2394650</v>
       </c>
       <c r="B5" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C5" t="s">
         <v>215</v>
       </c>
       <c r="D5">
         <v>999989584</v>
+      </c>
+      <c r="P5">
+        <v>999989584</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -4739,10 +4778,10 @@
         <v>857</v>
       </c>
       <c r="H1" s="42" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I1" s="42" t="s">
         <v>1013</v>
-      </c>
-      <c r="I1" s="42" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4758,10 +4797,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="I3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
   </sheetData>
@@ -4913,7 +4952,7 @@
         <v>829</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5012,7 +5051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -5058,16 +5097,16 @@
         <v>186</v>
       </c>
       <c r="J1" s="39" t="s">
+        <v>1032</v>
+      </c>
+      <c r="K1" s="39" t="s">
         <v>1033</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="L1" s="3" t="s">
         <v>1034</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>1035</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -5075,7 +5114,7 @@
         <v>36</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>187</v>
@@ -5138,7 +5177,7 @@
         <v>195</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>189</v>
@@ -5518,19 +5557,19 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B18" s="39" t="s">
         <v>1016</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="C18" s="39" t="s">
         <v>1017</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="D18" s="39" t="s">
         <v>1018</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="E18" s="39" t="s">
         <v>1019</v>
-      </c>
-      <c r="E18" s="39" t="s">
-        <v>1020</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>851</v>
@@ -5545,66 +5584,66 @@
     </row>
     <row r="19" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C19" s="39" t="s">
         <v>161</v>
       </c>
       <c r="D19" s="39" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E19" s="39" t="s">
         <v>1022</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="F19" s="39" t="s">
         <v>1023</v>
       </c>
-      <c r="F19" s="39" t="s">
+      <c r="G19" s="39" t="s">
         <v>1024</v>
-      </c>
-      <c r="G19" s="39" t="s">
-        <v>1025</v>
       </c>
       <c r="H19" s="39" t="s">
         <v>188</v>
       </c>
       <c r="I19" s="43" t="s">
+        <v>1039</v>
+      </c>
+      <c r="J19" s="43" t="s">
         <v>1040</v>
       </c>
-      <c r="J19" s="43" t="s">
+      <c r="K19" s="43" t="s">
         <v>1041</v>
-      </c>
-      <c r="K19" s="43" t="s">
-        <v>1042</v>
       </c>
       <c r="L19" s="39" t="s">
         <v>189</v>
       </c>
       <c r="M19" s="39" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>1027</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>1028</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>192</v>
       </c>
       <c r="D20" s="39" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E20" s="39" t="s">
         <v>1029</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="F20" s="39" t="s">
         <v>1030</v>
       </c>
-      <c r="F20" s="39" t="s">
+      <c r="G20" s="39" t="s">
         <v>1031</v>
-      </c>
-      <c r="G20" s="39" t="s">
-        <v>1032</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
